--- a/inputs/template_input.xlsx
+++ b/inputs/template_input.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george.chadderdon\GitRepos\OptimaRepos\Nutrition\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11760" tabRatio="961" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="20736" windowHeight="11760" tabRatio="961"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -6160,18 +6160,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -6182,14 +6182,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>195</v>
@@ -6198,7 +6198,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>194</v>
@@ -6207,7 +6207,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -6262,7 +6262,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="C32" s="69"/>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -6379,7 +6379,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
@@ -6532,7 +6532,7 @@
       </c>
       <c r="C59" s="66"/>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -6556,15 +6556,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -6731,13 +6731,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -6829,7 +6829,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -6943,19 +6943,19 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -7517,7 +7517,7 @@
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>86</v>
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>189</v>
@@ -7662,7 +7662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>206</v>
@@ -7898,7 +7898,7 @@
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="60" t="s">
         <v>37</v>
       </c>
@@ -8148,7 +8148,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -8662,20 +8662,20 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="56" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="56" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="56" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="56" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="56" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="56" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="56"/>
+    <col min="6" max="7" width="13.109375" style="56" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.88671875" style="56" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.109375" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
         <v>33</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
         <v>31</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="53" t="s">
         <v>149</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="53" t="s">
         <v>175</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="53" t="s">
         <v>174</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="53" t="s">
         <v>173</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="53" t="s">
         <v>196</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="53" t="s">
         <v>136</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="53" t="s">
         <v>137</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="53" t="s">
         <v>84</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="53" t="s">
         <v>58</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="53" t="s">
         <v>67</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="53" t="s">
         <v>28</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="53" t="s">
         <v>85</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="53" t="s">
         <v>60</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="53"/>
       <c r="C16" s="97"/>
       <c r="D16" s="97"/>
@@ -9357,7 +9357,7 @@
       <c r="N16" s="97"/>
       <c r="O16" s="97"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="57" t="s">
         <v>32</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="57"/>
       <c r="B18" s="53" t="s">
         <v>86</v>
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="98" t="s">
         <v>189</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="98" t="s">
         <v>206</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="99" t="s">
         <v>57</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="53" t="s">
         <v>88</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="53" t="s">
         <v>87</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="s">
         <v>59</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="53"/>
       <c r="C25" s="97"/>
       <c r="D25" s="97"/>
@@ -9729,7 +9729,7 @@
       <c r="N25" s="97"/>
       <c r="O25" s="97"/>
     </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="57" t="s">
         <v>37</v>
       </c>
@@ -9777,7 +9777,7 @@
       </c>
       <c r="P26" s="100"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="61" t="s">
         <v>190</v>
       </c>
@@ -9821,7 +9821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="57"/>
       <c r="B28" s="61" t="s">
         <v>207</v>
@@ -9866,7 +9866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="61" t="s">
         <v>191</v>
       </c>
@@ -9910,7 +9910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="61" t="s">
         <v>192</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="53"/>
       <c r="C31" s="101"/>
       <c r="D31" s="101"/>
@@ -9970,7 +9970,7 @@
       <c r="N31" s="97"/>
       <c r="O31" s="97"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="57" t="s">
         <v>35</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="53" t="s">
         <v>64</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="53" t="s">
         <v>62</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="53" t="s">
         <v>47</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="53" t="s">
         <v>34</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="103"/>
       <c r="B37" s="53" t="s">
         <v>83</v>
@@ -10238,7 +10238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="53" t="s">
         <v>82</v>
       </c>
@@ -10282,7 +10282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="53" t="s">
         <v>81</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="53" t="s">
         <v>79</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="53" t="s">
         <v>80</v>
       </c>
@@ -10431,22 +10431,22 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -11177,22 +11177,22 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -11551,15 +11551,15 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="35"/>
+    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>218</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="107" t="s">
         <v>172</v>
       </c>
@@ -11946,7 +11946,7 @@
       <c r="G18" s="108"/>
       <c r="H18" s="108"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
@@ -12274,7 +12274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="107" t="s">
         <v>172</v>
       </c>
@@ -12304,7 +12304,7 @@
       <c r="G35" s="108"/>
       <c r="H35" s="108"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="109" t="s">
         <v>221</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="110" t="s">
         <v>172</v>
       </c>
@@ -12658,6 +12658,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12667,12 +12673,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12690,22 +12690,22 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="35"/>
+    <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="113"/>
       <c r="C2" s="114" t="s">
         <v>26</v>
@@ -12720,7 +12720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>223</v>
       </c>
@@ -12804,7 +12804,7 @@
       <c r="E8" s="106"/>
       <c r="F8" s="106"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>224</v>
       </c>
@@ -12829,7 +12829,7 @@
       <c r="F10" s="106"/>
       <c r="G10" s="123"/>
     </row>
-    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="111" t="s">
         <v>225</v>
       </c>
@@ -12839,7 +12839,7 @@
       <c r="F11" s="125"/>
       <c r="G11" s="126"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>226</v>
       </c>
@@ -12903,7 +12903,7 @@
       </c>
       <c r="G15" s="123"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="127"/>
       <c r="C16" s="128"/>
@@ -12912,7 +12912,7 @@
       <c r="F16" s="106"/>
       <c r="G16" s="123"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>230</v>
       </c>
@@ -13066,7 +13066,7 @@
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="127"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13087,23 +13087,23 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="112" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="132" t="s">
         <v>211</v>
       </c>
@@ -13137,7 +13137,7 @@
       <c r="O2" s="134"/>
       <c r="P2" s="134"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13570,7 +13570,7 @@
       <c r="O17" s="132"/>
       <c r="P17" s="132"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>237</v>
       </c>
@@ -13828,12 +13828,12 @@
       <c r="O26" s="132"/>
       <c r="P26" s="132"/>
     </row>
-    <row r="28" spans="1:16" s="112" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="111" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="135" t="s">
         <v>239</v>
       </c>
@@ -13867,7 +13867,7 @@
       <c r="O29" s="134"/>
       <c r="P29" s="134"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -14562,12 +14562,12 @@
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="112" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="111" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="135" t="s">
         <v>70</v>
       </c>
@@ -14595,7 +14595,7 @@
       <c r="O56" s="134"/>
       <c r="P56" s="134"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14741,12 +14741,12 @@
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="112" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="111" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="135" t="s">
         <v>24</v>
       </c>
@@ -14780,7 +14780,7 @@
       <c r="O65" s="134"/>
       <c r="P65" s="134"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="139"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -15816,12 +15816,12 @@
       <c r="O101" s="132"/>
       <c r="P101" s="132"/>
     </row>
-    <row r="103" spans="1:16" s="112" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="111" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="135" t="s">
         <v>71</v>
       </c>
@@ -15855,7 +15855,7 @@
       <c r="O104" s="134"/>
       <c r="P104" s="134"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15969,7 +15969,7 @@
       <c r="O108" s="132"/>
       <c r="P108" s="132"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -15990,14 +15990,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.81640625" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -16946,24 +16946,24 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="111" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="139" t="s">
         <v>25</v>
       </c>
@@ -17004,7 +17004,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="131" t="s">
         <v>251</v>
@@ -17025,7 +17025,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="116" t="s">
         <v>252</v>
       </c>
@@ -17098,12 +17098,12 @@
       <c r="F9" s="131"/>
       <c r="G9" s="131"/>
     </row>
-    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="111" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="116"/>
       <c r="B11" s="127" t="s">
         <v>196</v>
@@ -17124,16 +17124,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="116"/>
       <c r="B12" s="127"/>
     </row>
-    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="111" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="139" t="s">
         <v>239</v>
       </c>
@@ -17156,7 +17156,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="131" t="s">
         <v>256</v>
@@ -17177,7 +17177,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="139" t="s">
         <v>70</v>
       </c>
@@ -17201,12 +17201,12 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="111" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="57" t="s">
         <v>49</v>
       </c>
@@ -17253,19 +17253,19 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="35"/>
-    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="35"/>
+    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.109375" style="35"/>
+    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -17481,10 +17481,10 @@
         <v>259</v>
       </c>
       <c r="C12" s="121">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="121">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="E12" s="121">
         <v>0</v>
@@ -17535,15 +17535,15 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="35"/>
+    <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="115" t="s">
@@ -17586,7 +17586,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
@@ -18031,7 +18031,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="61" t="s">
         <v>137</v>
       </c>
@@ -18119,7 +18119,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>262</v>
       </c>
@@ -18331,15 +18331,15 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="133"/>
       <c r="C1" s="40" t="s">
@@ -18358,7 +18358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>263</v>
       </c>
@@ -18383,7 +18383,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>264</v>
       </c>
@@ -18432,20 +18432,20 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="53" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="53" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="53" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="53" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="53" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="35"/>
-    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="35"/>
+    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="35"/>
+    <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -19562,16 +19562,16 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -19735,7 +19735,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
@@ -19773,16 +19773,16 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="35"/>
-    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="35"/>
+    <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -19799,7 +19799,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -19817,7 +19817,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -19835,7 +19835,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -19853,7 +19853,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -19871,7 +19871,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -19889,7 +19889,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -19907,7 +19907,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -19925,7 +19925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -19943,7 +19943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -19982,14 +19982,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -20000,7 +20000,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -20083,7 +20083,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -20217,7 +20217,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -20315,13 +20315,13 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -20676,13 +20676,13 @@
       <selection activeCell="C2" sqref="C2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -20779,13 +20779,13 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -20984,15 +20984,15 @@
       <selection activeCell="E21" activeCellId="5" sqref="C2:D6 E7 C9:D13 E14 C16:D20 E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>180</v>
       </c>
@@ -21009,7 +21009,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>175</v>
       </c>
@@ -21080,7 +21080,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="81"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
         <v>174</v>
       </c>
@@ -21136,7 +21136,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="81"/>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>173</v>
       </c>
@@ -21225,15 +21225,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>164</v>
       </c>
@@ -21247,7 +21247,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
         <v>69</v>
       </c>
@@ -21259,7 +21259,7 @@
       </c>
       <c r="D2" s="81"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
         <v>187</v>
       </c>
@@ -21284,21 +21284,21 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+    <sheetView zoomScale="106" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="53" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.453125" style="35"/>
+    <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>69</v>
       </c>

--- a/inputs/template_input.xlsx
+++ b/inputs/template_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83CEED17-9147-4EB5-8128-01C3FB9789B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93285A95-8E4F-495E-8C64-55973AD54109}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" tabRatio="885" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="885" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -13099,7 +13099,7 @@
   </sheetPr>
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -16003,7 +16003,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -16313,7 +16313,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16591,8 +16591,8 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:O20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -17388,7 +17388,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:G3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -17488,8 +17488,8 @@
   </sheetPr>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="111" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="B28" zoomScale="111" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -18368,19 +18368,19 @@
         <v>268</v>
       </c>
       <c r="D39" s="136">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E39" s="136">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F39" s="136">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G39" s="136">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H39" s="136">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -18388,19 +18388,19 @@
         <v>269</v>
       </c>
       <c r="D40" s="136">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
       <c r="E40" s="136">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
       <c r="F40" s="136">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
       <c r="G40" s="136">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
       <c r="H40" s="136">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">

--- a/inputs/template_input.xlsx
+++ b/inputs/template_input.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Nutrition\inputs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="20736" windowHeight="11760" tabRatio="961"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11760" tabRatio="961" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="Causes of death" sheetId="4" r:id="rId3"/>
     <sheet name="Nutritional status distribution" sheetId="5" r:id="rId4"/>
     <sheet name="Breastfeeding distribution" sheetId="50" r:id="rId5"/>
-    <sheet name="Time trends" sheetId="51" state="hidden" r:id="rId6"/>
+    <sheet name="Time trends" sheetId="51" r:id="rId6"/>
     <sheet name="IYCF packages" sheetId="55" r:id="rId7"/>
     <sheet name="Treatment of SAM" sheetId="60" r:id="rId8"/>
     <sheet name="Programs cost and coverage" sheetId="56" r:id="rId9"/>
@@ -90,7 +85,7 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$47</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$39</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -100,7 +95,7 @@
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="D28" authorId="0" shapeId="0">
+    <comment ref="D28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0">
+    <comment ref="D30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="0" shapeId="0">
+    <comment ref="D37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -188,7 +183,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -212,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -246,7 +241,7 @@
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="A36" authorId="0" shapeId="0">
+    <comment ref="A36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +275,7 @@
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -304,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -339,7 +334,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1192,12 +1187,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -1492,7 +1487,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2932,7 +2927,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2968,8 +2963,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2979,7 +2974,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2989,16 +2984,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -3031,7 +3026,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3047,8 +3042,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="19" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="19" fillId="3" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="19" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="19" fillId="3" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3072,7 +3067,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3093,40 +3088,40 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="3" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="3" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3259,7 +3254,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4773,7 +4768,7 @@
         <xdr:cNvPr id="2049" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4830,7 +4825,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4887,7 +4882,7 @@
         <xdr:cNvPr id="3" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4944,7 +4939,7 @@
         <xdr:cNvPr id="4" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5001,7 +4996,7 @@
         <xdr:cNvPr id="5" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5058,7 +5053,7 @@
         <xdr:cNvPr id="6" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5115,7 +5110,7 @@
         <xdr:cNvPr id="7" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5172,7 +5167,7 @@
         <xdr:cNvPr id="8" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5229,7 +5224,7 @@
         <xdr:cNvPr id="9" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5286,7 +5281,7 @@
         <xdr:cNvPr id="10" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5343,7 +5338,7 @@
         <xdr:cNvPr id="11" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5400,7 +5395,7 @@
         <xdr:cNvPr id="12" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5457,7 +5452,7 @@
         <xdr:cNvPr id="13" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5514,7 +5509,7 @@
         <xdr:cNvPr id="14" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5571,7 +5566,7 @@
         <xdr:cNvPr id="15" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5628,7 +5623,7 @@
         <xdr:cNvPr id="16" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5685,7 +5680,7 @@
         <xdr:cNvPr id="17" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5742,7 +5737,7 @@
         <xdr:cNvPr id="18" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5791,7 +5786,7 @@
         <xdr:cNvPr id="19" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6160,18 +6155,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.44140625" style="12"/>
+    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.453125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -6182,14 +6177,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>195</v>
@@ -6198,7 +6193,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>194</v>
@@ -6207,7 +6202,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -6262,7 +6257,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
@@ -6369,7 +6364,7 @@
       </c>
       <c r="C32" s="69"/>
     </row>
-    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -6379,7 +6374,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
@@ -6532,7 +6527,7 @@
       </c>
       <c r="C59" s="66"/>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -6556,15 +6551,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.44140625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="35"/>
+    <col min="2" max="2" width="47.81640625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -6575,7 +6570,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>189</v>
       </c>
@@ -6584,7 +6579,7 @@
       </c>
       <c r="C2" s="81"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
         <v>206</v>
       </c>
@@ -6593,7 +6588,7 @@
       </c>
       <c r="C3" s="81"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="89" t="s">
         <v>58</v>
       </c>
@@ -6602,7 +6597,7 @@
       </c>
       <c r="C4" s="81"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="89" t="s">
         <v>137</v>
       </c>
@@ -6611,104 +6606,104 @@
       </c>
       <c r="C5" s="81"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="89"/>
       <c r="B6" s="87"/>
       <c r="C6" s="87"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="89"/>
       <c r="B7" s="87"/>
       <c r="C7" s="87"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" s="89"/>
       <c r="B8" s="87"/>
       <c r="C8" s="87"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="89"/>
       <c r="B9" s="87"/>
       <c r="C9" s="87"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="89"/>
       <c r="B10" s="87"/>
       <c r="C10" s="87"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="90"/>
       <c r="B11" s="87"/>
       <c r="C11" s="87"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="90"/>
       <c r="B12" s="87"/>
       <c r="C12" s="87"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="90"/>
       <c r="B13" s="87"/>
       <c r="C13" s="87"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="90"/>
       <c r="B14" s="87"/>
       <c r="C14" s="87"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A15" s="90"/>
       <c r="B15" s="87"/>
       <c r="C15" s="87"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A16" s="90"/>
       <c r="B16" s="87"/>
       <c r="C16" s="87"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="90"/>
       <c r="B17" s="87"/>
       <c r="C17" s="87"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A18" s="90"/>
       <c r="B18" s="87"/>
       <c r="C18" s="87"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="89"/>
       <c r="B19" s="87"/>
       <c r="C19" s="87"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A20" s="89"/>
       <c r="B20" s="87"/>
       <c r="C20" s="87"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A21" s="89"/>
       <c r="B21" s="87"/>
       <c r="C21" s="87"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A22" s="89"/>
       <c r="B22" s="87"/>
       <c r="C22" s="87"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B23" s="87"/>
       <c r="C23" s="87"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B24" s="87"/>
       <c r="C24" s="87"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B25" s="87"/>
       <c r="C25" s="87"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B26" s="87"/>
       <c r="C26" s="87"/>
     </row>
@@ -6731,85 +6726,85 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.44140625" style="35"/>
+    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -6829,7 +6824,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -6943,19 +6938,19 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.77734375" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -7002,7 +6997,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -7517,7 +7512,7 @@
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -7568,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>86</v>
@@ -7613,7 +7608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>189</v>
@@ -7662,7 +7657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>206</v>
@@ -7898,7 +7893,7 @@
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="60" t="s">
         <v>37</v>
       </c>
@@ -8148,7 +8143,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -8662,20 +8657,20 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.21875" style="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" style="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="56" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.90625" style="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" style="56" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="56" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.109375" style="56" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.33203125" style="56" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.88671875" style="56" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.109375" style="56"/>
+    <col min="6" max="7" width="13.08984375" style="56" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.36328125" style="56" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.90625" style="56" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.08984375" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="57" t="s">
         <v>33</v>
       </c>
@@ -8722,7 +8717,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
         <v>31</v>
       </c>
@@ -8769,7 +8764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="53" t="s">
         <v>149</v>
       </c>
@@ -8813,7 +8808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="53" t="s">
         <v>175</v>
       </c>
@@ -8857,7 +8852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="53" t="s">
         <v>174</v>
       </c>
@@ -8901,7 +8896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="53" t="s">
         <v>173</v>
       </c>
@@ -8945,7 +8940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="53" t="s">
         <v>196</v>
       </c>
@@ -8989,7 +8984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="53" t="s">
         <v>136</v>
       </c>
@@ -9033,7 +9028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="53" t="s">
         <v>137</v>
       </c>
@@ -9077,7 +9072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="53" t="s">
         <v>84</v>
       </c>
@@ -9121,7 +9116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="53" t="s">
         <v>58</v>
       </c>
@@ -9165,7 +9160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="53" t="s">
         <v>67</v>
       </c>
@@ -9209,7 +9204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="53" t="s">
         <v>28</v>
       </c>
@@ -9253,7 +9248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="53" t="s">
         <v>85</v>
       </c>
@@ -9297,7 +9292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="53" t="s">
         <v>60</v>
       </c>
@@ -9341,7 +9336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="53"/>
       <c r="C16" s="97"/>
       <c r="D16" s="97"/>
@@ -9357,7 +9352,7 @@
       <c r="N16" s="97"/>
       <c r="O16" s="97"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="57" t="s">
         <v>32</v>
       </c>
@@ -9404,7 +9399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="57"/>
       <c r="B18" s="53" t="s">
         <v>86</v>
@@ -9449,7 +9444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="98" t="s">
         <v>189</v>
       </c>
@@ -9493,7 +9488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="98" t="s">
         <v>206</v>
       </c>
@@ -9537,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="99" t="s">
         <v>57</v>
       </c>
@@ -9581,7 +9576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="53" t="s">
         <v>88</v>
       </c>
@@ -9625,7 +9620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="53" t="s">
         <v>87</v>
       </c>
@@ -9669,7 +9664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="53" t="s">
         <v>59</v>
       </c>
@@ -9713,7 +9708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="53"/>
       <c r="C25" s="97"/>
       <c r="D25" s="97"/>
@@ -9729,7 +9724,7 @@
       <c r="N25" s="97"/>
       <c r="O25" s="97"/>
     </row>
-    <row r="26" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="57" t="s">
         <v>37</v>
       </c>
@@ -9777,7 +9772,7 @@
       </c>
       <c r="P26" s="100"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="61" t="s">
         <v>190</v>
       </c>
@@ -9821,7 +9816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="57"/>
       <c r="B28" s="61" t="s">
         <v>207</v>
@@ -9866,7 +9861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="61" t="s">
         <v>191</v>
       </c>
@@ -9910,7 +9905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="61" t="s">
         <v>192</v>
       </c>
@@ -9954,7 +9949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="53"/>
       <c r="C31" s="101"/>
       <c r="D31" s="101"/>
@@ -9970,7 +9965,7 @@
       <c r="N31" s="97"/>
       <c r="O31" s="97"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="57" t="s">
         <v>35</v>
       </c>
@@ -10017,7 +10012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="53" t="s">
         <v>64</v>
       </c>
@@ -10061,7 +10056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="53" t="s">
         <v>62</v>
       </c>
@@ -10105,7 +10100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="53" t="s">
         <v>47</v>
       </c>
@@ -10149,7 +10144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="53" t="s">
         <v>34</v>
       </c>
@@ -10193,7 +10188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="103"/>
       <c r="B37" s="53" t="s">
         <v>83</v>
@@ -10238,7 +10233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="53" t="s">
         <v>82</v>
       </c>
@@ -10282,7 +10277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="53" t="s">
         <v>81</v>
       </c>
@@ -10326,7 +10321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="53" t="s">
         <v>79</v>
       </c>
@@ -10370,7 +10365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="53" t="s">
         <v>80</v>
       </c>
@@ -10431,22 +10426,22 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -10481,7 +10476,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -10498,7 +10493,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -10515,7 +10510,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -10532,7 +10527,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -10549,7 +10544,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -10568,7 +10563,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -10587,7 +10582,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -10606,7 +10601,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -10625,7 +10620,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -10642,7 +10637,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -10659,7 +10654,7 @@
       <c r="J11" s="96"/>
       <c r="K11" s="96"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -10676,7 +10671,7 @@
       <c r="J12" s="96"/>
       <c r="K12" s="96"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -10693,7 +10688,7 @@
       <c r="J13" s="96"/>
       <c r="K13" s="96"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="98" t="s">
         <v>189</v>
       </c>
@@ -10712,7 +10707,7 @@
       <c r="J14" s="96"/>
       <c r="K14" s="96"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A15" s="98" t="s">
         <v>206</v>
       </c>
@@ -10731,7 +10726,7 @@
       <c r="J15" s="96"/>
       <c r="K15" s="96"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -10752,7 +10747,7 @@
       <c r="J16" s="96"/>
       <c r="K16" s="96"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -10769,7 +10764,7 @@
       <c r="J17" s="96"/>
       <c r="K17" s="96"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -10788,7 +10783,7 @@
       <c r="J18" s="96"/>
       <c r="K18" s="96"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -10807,7 +10802,7 @@
       <c r="J19" s="96"/>
       <c r="K19" s="96"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -10826,7 +10821,7 @@
       <c r="J20" s="96"/>
       <c r="K20" s="96"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -10845,7 +10840,7 @@
       <c r="J21" s="96"/>
       <c r="K21" s="96"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -10866,7 +10861,7 @@
       <c r="J22" s="96"/>
       <c r="K22" s="96"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -10885,7 +10880,7 @@
       <c r="J23" s="96"/>
       <c r="K23" s="96"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -10902,7 +10897,7 @@
       <c r="J24" s="96"/>
       <c r="K24" s="96"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -10919,7 +10914,7 @@
       <c r="J25" s="96"/>
       <c r="K25" s="96"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -10936,7 +10931,7 @@
       <c r="J26" s="96"/>
       <c r="K26" s="96"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -10955,7 +10950,7 @@
       <c r="J27" s="96"/>
       <c r="K27" s="96"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -11177,22 +11172,22 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -11227,7 +11222,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -11256,7 +11251,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -11285,7 +11280,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -11314,7 +11309,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -11343,7 +11338,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -11372,7 +11367,7 @@
       <c r="J6" s="96"/>
       <c r="K6" s="96"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -11393,7 +11388,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -11414,7 +11409,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -11435,7 +11430,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -11456,7 +11451,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -11477,7 +11472,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -11496,7 +11491,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -11515,7 +11510,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -11551,15 +11546,15 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.77734375" style="35"/>
+    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>218</v>
       </c>
@@ -11585,7 +11580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
@@ -11611,7 +11606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B3" s="143"/>
       <c r="C3" s="35" t="s">
         <v>177</v>
@@ -11633,7 +11628,7 @@
       </c>
       <c r="J3" s="106"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B4" s="143"/>
       <c r="C4" s="35" t="s">
         <v>176</v>
@@ -11655,7 +11650,7 @@
       </c>
       <c r="J4" s="106"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B5" s="143" t="s">
         <v>1</v>
       </c>
@@ -11679,7 +11674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B6" s="143"/>
       <c r="C6" s="35" t="s">
         <v>177</v>
@@ -11700,7 +11695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B7" s="143"/>
       <c r="C7" s="35" t="s">
         <v>176</v>
@@ -11721,7 +11716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B8" s="143" t="s">
         <v>2</v>
       </c>
@@ -11744,7 +11739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B9" s="143"/>
       <c r="C9" s="35" t="s">
         <v>177</v>
@@ -11765,7 +11760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B10" s="143"/>
       <c r="C10" s="35" t="s">
         <v>176</v>
@@ -11786,7 +11781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B11" s="143" t="s">
         <v>3</v>
       </c>
@@ -11809,7 +11804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B12" s="143"/>
       <c r="C12" s="35" t="s">
         <v>177</v>
@@ -11830,7 +11825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B13" s="143"/>
       <c r="C13" s="35" t="s">
         <v>176</v>
@@ -11851,7 +11846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B14" s="143" t="s">
         <v>4</v>
       </c>
@@ -11874,7 +11869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B15" s="143"/>
       <c r="C15" s="35" t="s">
         <v>177</v>
@@ -11895,7 +11890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B16" s="143"/>
       <c r="C16" s="35" t="s">
         <v>176</v>
@@ -11916,7 +11911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B17" s="107" t="s">
         <v>172</v>
       </c>
@@ -11939,14 +11934,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="D18" s="108"/>
       <c r="E18" s="108"/>
       <c r="F18" s="108"/>
       <c r="G18" s="108"/>
       <c r="H18" s="108"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
@@ -11972,7 +11967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B20" s="143"/>
       <c r="C20" s="35" t="s">
         <v>177</v>
@@ -11993,7 +11988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B21" s="143"/>
       <c r="C21" s="35" t="s">
         <v>176</v>
@@ -12014,7 +12009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B22" s="143" t="s">
         <v>1</v>
       </c>
@@ -12037,7 +12032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B23" s="143"/>
       <c r="C23" s="35" t="s">
         <v>177</v>
@@ -12058,7 +12053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B24" s="143"/>
       <c r="C24" s="35" t="s">
         <v>176</v>
@@ -12079,7 +12074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B25" s="143" t="s">
         <v>2</v>
       </c>
@@ -12102,7 +12097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B26" s="143"/>
       <c r="C26" s="35" t="s">
         <v>177</v>
@@ -12123,7 +12118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B27" s="143"/>
       <c r="C27" s="35" t="s">
         <v>176</v>
@@ -12144,7 +12139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B28" s="143" t="s">
         <v>3</v>
       </c>
@@ -12167,7 +12162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B29" s="143"/>
       <c r="C29" s="35" t="s">
         <v>177</v>
@@ -12188,7 +12183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B30" s="143"/>
       <c r="C30" s="35" t="s">
         <v>176</v>
@@ -12209,7 +12204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B31" s="143" t="s">
         <v>4</v>
       </c>
@@ -12232,7 +12227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B32" s="143"/>
       <c r="C32" s="35" t="s">
         <v>177</v>
@@ -12253,7 +12248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B33" s="143"/>
       <c r="C33" s="35" t="s">
         <v>176</v>
@@ -12274,7 +12269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B34" s="107" t="s">
         <v>172</v>
       </c>
@@ -12304,7 +12299,7 @@
       <c r="G35" s="108"/>
       <c r="H35" s="108"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="109" t="s">
         <v>221</v>
       </c>
@@ -12632,7 +12627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B51" s="110" t="s">
         <v>172</v>
       </c>
@@ -12658,12 +12653,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12673,6 +12662,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12690,22 +12685,22 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.109375" style="35"/>
+    <col min="7" max="16384" width="16.08984375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="111" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="113"/>
       <c r="C2" s="114" t="s">
         <v>26</v>
@@ -12720,7 +12715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>223</v>
       </c>
@@ -12804,7 +12799,7 @@
       <c r="E8" s="106"/>
       <c r="F8" s="106"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
         <v>224</v>
       </c>
@@ -12829,7 +12824,7 @@
       <c r="F10" s="106"/>
       <c r="G10" s="123"/>
     </row>
-    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="111" t="s">
         <v>225</v>
       </c>
@@ -12839,7 +12834,7 @@
       <c r="F11" s="125"/>
       <c r="G11" s="126"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
         <v>226</v>
       </c>
@@ -12903,7 +12898,7 @@
       </c>
       <c r="G15" s="123"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="127"/>
       <c r="C16" s="128"/>
@@ -12912,7 +12907,7 @@
       <c r="F16" s="106"/>
       <c r="G16" s="123"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
         <v>230</v>
       </c>
@@ -13066,7 +13061,7 @@
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="127"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13087,23 +13082,23 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="112" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="111" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="132" t="s">
         <v>211</v>
       </c>
@@ -13137,7 +13132,7 @@
       <c r="O2" s="134"/>
       <c r="P2" s="134"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13570,7 +13565,7 @@
       <c r="O17" s="132"/>
       <c r="P17" s="132"/>
     </row>
-    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>237</v>
       </c>
@@ -13828,12 +13823,12 @@
       <c r="O26" s="132"/>
       <c r="P26" s="132"/>
     </row>
-    <row r="28" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="112" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="111" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="135" t="s">
         <v>239</v>
       </c>
@@ -13867,7 +13862,7 @@
       <c r="O29" s="134"/>
       <c r="P29" s="134"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -14562,12 +14557,12 @@
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="112" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="111" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A56" s="135" t="s">
         <v>70</v>
       </c>
@@ -14595,7 +14590,7 @@
       <c r="O56" s="134"/>
       <c r="P56" s="134"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14741,12 +14736,12 @@
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="112" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A64" s="111" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A65" s="135" t="s">
         <v>24</v>
       </c>
@@ -14780,7 +14775,7 @@
       <c r="O65" s="134"/>
       <c r="P65" s="134"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A66" s="139"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -15816,12 +15811,12 @@
       <c r="O101" s="132"/>
       <c r="P101" s="132"/>
     </row>
-    <row r="103" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" s="112" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A103" s="111" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A104" s="135" t="s">
         <v>71</v>
       </c>
@@ -15855,7 +15850,7 @@
       <c r="O104" s="134"/>
       <c r="P104" s="134"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15969,7 +15964,7 @@
       <c r="O108" s="132"/>
       <c r="P108" s="132"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -15990,14 +15985,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.44140625" style="12"/>
+    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.81640625" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.453125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -16946,24 +16941,24 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="111" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="139" t="s">
         <v>25</v>
       </c>
@@ -17004,7 +16999,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="131" t="s">
         <v>251</v>
@@ -17025,7 +17020,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="116" t="s">
         <v>252</v>
       </c>
@@ -17098,12 +17093,12 @@
       <c r="F9" s="131"/>
       <c r="G9" s="131"/>
     </row>
-    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="111" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="116"/>
       <c r="B11" s="127" t="s">
         <v>196</v>
@@ -17124,16 +17119,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="116"/>
       <c r="B12" s="127"/>
     </row>
-    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="111" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="139" t="s">
         <v>239</v>
       </c>
@@ -17156,7 +17151,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="131" t="s">
         <v>256</v>
@@ -17177,7 +17172,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="139" t="s">
         <v>70</v>
       </c>
@@ -17201,12 +17196,12 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="111" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="57" t="s">
         <v>49</v>
       </c>
@@ -17256,16 +17251,16 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.109375" style="35"/>
-    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.109375" style="35"/>
+    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.08984375" style="35"/>
+    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.08984375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -17535,15 +17530,15 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.77734375" style="35"/>
+    <col min="16" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="115" t="s">
@@ -17586,7 +17581,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
@@ -18031,7 +18026,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="61" t="s">
         <v>137</v>
       </c>
@@ -18119,7 +18114,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
         <v>262</v>
       </c>
@@ -18331,15 +18326,15 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40"/>
       <c r="B1" s="133"/>
       <c r="C1" s="40" t="s">
@@ -18358,12 +18353,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B3" s="61" t="s">
         <v>67</v>
       </c>
@@ -18383,7 +18378,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>264</v>
       </c>
@@ -18394,7 +18389,7 @@
       <c r="F4" s="141"/>
       <c r="G4" s="141"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B5" s="98" t="s">
         <v>185</v>
       </c>
@@ -18432,20 +18427,20 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="53" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="53" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" style="53" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" style="53" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="53" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="35"/>
-    <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.77734375" style="35"/>
+    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" style="35"/>
+    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -18471,7 +18466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>28</v>
       </c>
@@ -18497,7 +18492,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C3" s="53" t="s">
         <v>268</v>
       </c>
@@ -18517,7 +18512,7 @@
         <v>0.53134328358208949</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C4" s="53" t="s">
         <v>269</v>
       </c>
@@ -18537,7 +18532,7 @@
         <v>0.38507462686567184</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>58</v>
       </c>
@@ -18563,7 +18558,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C6" s="53" t="s">
         <v>269</v>
       </c>
@@ -18583,7 +18578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B7" s="53" t="s">
         <v>65</v>
       </c>
@@ -18606,7 +18601,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C8" s="53" t="s">
         <v>269</v>
       </c>
@@ -18626,7 +18621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>136</v>
       </c>
@@ -18652,7 +18647,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C10" s="53" t="s">
         <v>269</v>
       </c>
@@ -18672,7 +18667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B11" s="53" t="s">
         <v>65</v>
       </c>
@@ -18695,7 +18690,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C12" s="53" t="s">
         <v>269</v>
       </c>
@@ -18715,7 +18710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>61</v>
       </c>
@@ -18741,7 +18736,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C14" s="53" t="s">
         <v>269</v>
       </c>
@@ -18762,7 +18757,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B15" s="53" t="s">
         <v>65</v>
       </c>
@@ -18786,7 +18781,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C16" s="53" t="s">
         <v>269</v>
       </c>
@@ -18807,7 +18802,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>62</v>
       </c>
@@ -18834,7 +18829,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C18" s="53" t="s">
         <v>268</v>
       </c>
@@ -18855,7 +18850,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>63</v>
       </c>
@@ -18881,7 +18876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C20" s="53" t="s">
         <v>268</v>
       </c>
@@ -18901,7 +18896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>64</v>
       </c>
@@ -18927,7 +18922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C22" s="53" t="s">
         <v>268</v>
       </c>
@@ -18947,7 +18942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>79</v>
       </c>
@@ -18973,7 +18968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C24" s="53" t="s">
         <v>268</v>
       </c>
@@ -18993,7 +18988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C25" s="53" t="s">
         <v>269</v>
       </c>
@@ -19013,7 +19008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A26" s="53" t="s">
         <v>80</v>
       </c>
@@ -19039,7 +19034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C27" s="53" t="s">
         <v>268</v>
       </c>
@@ -19059,7 +19054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C28" s="53" t="s">
         <v>269</v>
       </c>
@@ -19079,7 +19074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A29" s="53" t="s">
         <v>81</v>
       </c>
@@ -19105,7 +19100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C30" s="53" t="s">
         <v>268</v>
       </c>
@@ -19125,7 +19120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C31" s="53" t="s">
         <v>269</v>
       </c>
@@ -19145,7 +19140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
         <v>82</v>
       </c>
@@ -19171,7 +19166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C33" s="53" t="s">
         <v>268</v>
       </c>
@@ -19191,7 +19186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C34" s="53" t="s">
         <v>269</v>
       </c>
@@ -19211,7 +19206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
         <v>83</v>
       </c>
@@ -19237,7 +19232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C36" s="53" t="s">
         <v>268</v>
       </c>
@@ -19257,7 +19252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C37" s="53" t="s">
         <v>269</v>
       </c>
@@ -19277,7 +19272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
         <v>60</v>
       </c>
@@ -19303,7 +19298,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C39" s="53" t="s">
         <v>268</v>
       </c>
@@ -19323,7 +19318,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C40" s="53" t="s">
         <v>269</v>
       </c>
@@ -19343,7 +19338,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B41" s="53" t="s">
         <v>16</v>
       </c>
@@ -19366,7 +19361,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C42" s="53" t="s">
         <v>268</v>
       </c>
@@ -19386,7 +19381,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C43" s="53" t="s">
         <v>269</v>
       </c>
@@ -19406,7 +19401,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A44" s="53" t="s">
         <v>84</v>
       </c>
@@ -19432,7 +19427,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C45" s="53" t="s">
         <v>268</v>
       </c>
@@ -19452,7 +19447,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A46" s="53" t="s">
         <v>85</v>
       </c>
@@ -19478,7 +19473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C47" s="53" t="s">
         <v>268</v>
       </c>
@@ -19498,7 +19493,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A48" s="53" t="s">
         <v>196</v>
       </c>
@@ -19524,7 +19519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C49" s="53" t="s">
         <v>268</v>
       </c>
@@ -19562,16 +19557,16 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -19593,7 +19588,7 @@
       </c>
       <c r="H1" s="104"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -19617,7 +19612,7 @@
       </c>
       <c r="H2" s="98"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
         <v>268</v>
       </c>
@@ -19635,7 +19630,7 @@
       </c>
       <c r="H3" s="142"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -19659,7 +19654,7 @@
       </c>
       <c r="H4" s="142"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>268</v>
@@ -19678,7 +19673,7 @@
       </c>
       <c r="H5" s="98"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -19702,7 +19697,7 @@
       </c>
       <c r="H6" s="98"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>268</v>
@@ -19735,7 +19730,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
@@ -19773,16 +19768,16 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" style="35"/>
-    <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="35"/>
+    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.453125" style="35"/>
+    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -19799,7 +19794,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -19817,7 +19812,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -19835,7 +19830,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -19853,7 +19848,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -19871,7 +19866,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -19889,7 +19884,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -19907,7 +19902,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -19925,7 +19920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -19943,7 +19938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -19982,14 +19977,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="31.36328125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -20000,7 +19995,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -20083,7 +20078,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -20217,7 +20212,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -20315,13 +20310,13 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.453125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -20379,23 +20374,23 @@
         <v>118</v>
       </c>
       <c r="C3" s="77" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(C4:C5), "")</f>
         <v/>
       </c>
       <c r="D3" s="77" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(D4:D5), "")</f>
         <v/>
       </c>
       <c r="E3" s="77" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(E4:E5), "")</f>
         <v/>
       </c>
       <c r="F3" s="77" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(F4:F5), "")</f>
         <v/>
       </c>
       <c r="G3" s="77" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(G4:G5), "")</f>
         <v/>
       </c>
     </row>
@@ -20470,23 +20465,23 @@
         <v>121</v>
       </c>
       <c r="C9" s="77" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(C10:C11), "")</f>
         <v/>
       </c>
       <c r="D9" s="77" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(D10:D11), "")</f>
         <v/>
       </c>
       <c r="E9" s="77" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(E10:E11), "")</f>
         <v/>
       </c>
       <c r="F9" s="77" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(F10:F11), "")</f>
         <v/>
       </c>
       <c r="G9" s="77" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(G10:G11), "")</f>
         <v/>
       </c>
     </row>
@@ -20676,13 +20671,13 @@
       <selection activeCell="C2" sqref="C2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" customWidth="1"/>
-    <col min="2" max="7" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.81640625" customWidth="1"/>
+    <col min="2" max="7" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -20775,17 +20770,19 @@
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -20793,41 +20790,71 @@
         <v>145</v>
       </c>
       <c r="C1">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="D1">
-        <v>2011</v>
+        <f>C1+1</f>
+        <v>2018</v>
       </c>
       <c r="E1">
-        <v>2012</v>
+        <f t="shared" ref="E1:N1" si="0">D1+1</f>
+        <v>2019</v>
       </c>
       <c r="F1">
-        <v>2013</v>
+        <f t="shared" si="0"/>
+        <v>2020</v>
       </c>
       <c r="G1">
-        <v>2014</v>
+        <f t="shared" si="0"/>
+        <v>2021</v>
       </c>
       <c r="H1">
-        <v>2015</v>
+        <f t="shared" si="0"/>
+        <v>2022</v>
       </c>
       <c r="I1">
-        <v>2016</v>
+        <f t="shared" si="0"/>
+        <v>2023</v>
       </c>
       <c r="J1">
-        <v>2017</v>
+        <f t="shared" si="0"/>
+        <v>2024</v>
       </c>
       <c r="K1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="L1">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="M1">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="N1">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="O1">
+        <f>N1+1</f>
+        <v>2029</v>
+      </c>
+      <c r="P1">
+        <f>O1+1</f>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="28">
+        <v>0.2</v>
+      </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -20836,18 +20863,27 @@
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="28">
+        <v>0.25</v>
+      </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
@@ -20856,18 +20892,27 @@
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>141</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="28">
+        <v>0.15</v>
+      </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
@@ -20876,12 +20921,21 @@
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="28">
+        <v>0.25</v>
+      </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
@@ -20890,12 +20944,21 @@
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="28">
+        <v>0.2</v>
+      </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
@@ -20904,15 +20967,24 @@
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="28">
+        <v>0.45</v>
+      </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
@@ -20921,12 +20993,21 @@
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="28">
+        <v>0.35</v>
+      </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -20935,15 +21016,24 @@
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="28">
+        <v>0.1</v>
+      </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
@@ -20952,12 +21042,21 @@
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="28">
+        <v>0.05</v>
+      </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -20966,6 +21065,13 @@
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28">
+        <v>0.02</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20984,15 +21090,15 @@
       <selection activeCell="E21" activeCellId="5" sqref="C2:D6 E7 C9:D13 E14 C16:D20 E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="35"/>
+    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
         <v>180</v>
       </c>
@@ -21009,7 +21115,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>175</v>
       </c>
@@ -21023,7 +21129,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -21035,7 +21141,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -21047,7 +21153,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -21059,7 +21165,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -21071,7 +21177,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -21080,7 +21186,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="81"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="51" t="s">
         <v>174</v>
       </c>
@@ -21091,7 +21197,7 @@
       <c r="D9" s="81"/>
       <c r="E9" s="59"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -21100,7 +21206,7 @@
       <c r="D10" s="81"/>
       <c r="E10" s="58"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -21109,7 +21215,7 @@
       <c r="D11" s="81"/>
       <c r="E11" s="58"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -21118,7 +21224,7 @@
       <c r="D12" s="81"/>
       <c r="E12" s="58"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -21127,7 +21233,7 @@
       <c r="D13" s="81"/>
       <c r="E13" s="58"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -21136,7 +21242,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="81"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>173</v>
       </c>
@@ -21150,7 +21256,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -21162,7 +21268,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -21174,7 +21280,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -21186,7 +21292,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -21198,7 +21304,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -21225,15 +21331,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="62" t="s">
         <v>164</v>
       </c>
@@ -21247,7 +21353,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="63" t="s">
         <v>69</v>
       </c>
@@ -21259,7 +21365,7 @@
       </c>
       <c r="D2" s="81"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="63" t="s">
         <v>187</v>
       </c>
@@ -21288,17 +21394,17 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="53" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.44140625" style="35"/>
+    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>69</v>
       </c>

--- a/inputs/template_input.xlsx
+++ b/inputs/template_input.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george.chadderdon\GitRepos\OptimaRepos\Nutrition\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07AF228-F632-4835-8A14-F90E7236A652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11760" tabRatio="961" activeTab="8"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="961" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -45,6 +46,8 @@
     <definedName name="abortion" localSheetId="6">'Baseline year population inputs'!$C$38</definedName>
     <definedName name="abortion">'Baseline year population inputs'!$C$41</definedName>
     <definedName name="comm_deliv">'Treatment of SAM'!$D$3</definedName>
+    <definedName name="comm_deliv_mam">'Treatment of SAM'!$D$3</definedName>
+    <definedName name="comm_deliv_sam">'Treatment of SAM'!$D$2</definedName>
     <definedName name="diarrhoea_1_5mo">'Baseline year population inputs'!$C$52</definedName>
     <definedName name="diarrhoea_12_23mo">'Baseline year population inputs'!$C$54</definedName>
     <definedName name="diarrhoea_1mo">'Baseline year population inputs'!$C$51</definedName>
@@ -90,17 +93,27 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$47</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$39</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="D28" authorId="0" shapeId="0">
+    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -126,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -148,11 +161,37 @@
           <t xml:space="preserve">
 The cost per child per year can be estimated as 
 = (cost per treatment episode) * (SAM prevalence) * 2.6
-Cost per treatment episode includes management of MAM (if selected) and is an average over delivery modalities. See user guide for further information</t>
+See user guide for further information</t>
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="0" shapeId="0">
+    <comment ref="D31" authorId="0" shapeId="0" xr:uid="{E41DC1AA-D6CD-4883-9D64-BC2E05F0B407}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The cost per child per year can be estimated as 
+= (cost per treatment episode) * (MAM prevalence) * 2.6
+See user guide for further information</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
@@ -183,12 +222,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -212,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
       <text>
         <r>
           <rPr>
@@ -241,12 +280,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="A36" authorId="0" shapeId="0">
+    <comment ref="A36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -275,12 +314,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -304,7 +343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -334,12 +373,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -377,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="270">
   <si>
     <t>year</t>
   </si>
@@ -1192,7 +1231,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -2934,7 +2973,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3264,10 +3303,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1450">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="1449"/>
+    <cellStyle name="Comma 2" xfId="1449" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4713,8 +4753,8 @@
     <cellStyle name="Hyperlink" xfId="1445" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1447" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="725"/>
-    <cellStyle name="Normal 3" xfId="726"/>
+    <cellStyle name="Normal 2" xfId="725" xr:uid="{00000000-0005-0000-0000-0000A7050000}"/>
+    <cellStyle name="Normal 3" xfId="726" xr:uid="{00000000-0005-0000-0000-0000A8050000}"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
@@ -6154,7 +6194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -6546,14 +6586,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -6721,7 +6761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -6819,7 +6859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
@@ -6933,14 +6973,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7337,19 +7377,19 @@
         <v>0</v>
       </c>
       <c r="D9" s="93">
-        <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
+        <f>IF(ISBLANK(comm_deliv_sam), frac_children_health_facility,1)</f>
         <v>0</v>
       </c>
       <c r="E9" s="93">
-        <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
+        <f>IF(ISBLANK(comm_deliv_sam), frac_children_health_facility,1)</f>
         <v>0</v>
       </c>
       <c r="F9" s="93">
-        <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
+        <f>IF(ISBLANK(comm_deliv_sam), frac_children_health_facility,1)</f>
         <v>0</v>
       </c>
       <c r="G9" s="93">
-        <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
+        <f>IF(ISBLANK(comm_deliv_sam), frac_children_health_facility,1)</f>
         <v>0</v>
       </c>
       <c r="H9" s="94">
@@ -7377,228 +7417,231 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="93">
+        <v>0</v>
+      </c>
+      <c r="D10" s="93">
+        <f>IF(ISBLANK(comm_deliv_mam), frac_children_health_facility,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="93">
+        <f>IF(ISBLANK(comm_deliv_mam), frac_children_health_facility,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="93">
+        <f>IF(ISBLANK(comm_deliv_mam), frac_children_health_facility,1)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="93">
+        <f>IF(ISBLANK(comm_deliv_mam), frac_children_health_facility,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="94">
+        <v>0</v>
+      </c>
+      <c r="I10" s="94">
+        <v>0</v>
+      </c>
+      <c r="J10" s="94">
+        <v>0</v>
+      </c>
+      <c r="K10" s="94">
+        <v>0</v>
+      </c>
+      <c r="L10" s="94">
+        <v>0</v>
+      </c>
+      <c r="M10" s="94">
+        <v>0</v>
+      </c>
+      <c r="N10" s="94">
+        <v>0</v>
+      </c>
+      <c r="O10" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="93">
-        <v>0</v>
-      </c>
-      <c r="D10" s="93">
-        <v>0</v>
-      </c>
-      <c r="E10" s="93">
-        <v>1</v>
-      </c>
-      <c r="F10" s="93">
-        <v>1</v>
-      </c>
-      <c r="G10" s="93">
-        <v>1</v>
-      </c>
-      <c r="H10" s="94">
-        <v>0</v>
-      </c>
-      <c r="I10" s="94">
-        <v>0</v>
-      </c>
-      <c r="J10" s="94">
-        <v>0</v>
-      </c>
-      <c r="K10" s="94">
-        <v>0</v>
-      </c>
-      <c r="L10" s="94">
-        <v>0</v>
-      </c>
-      <c r="M10" s="94">
-        <v>0</v>
-      </c>
-      <c r="N10" s="94">
-        <v>0</v>
-      </c>
-      <c r="O10" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="33" t="s">
+      <c r="C11" s="93">
+        <v>0</v>
+      </c>
+      <c r="D11" s="93">
+        <v>0</v>
+      </c>
+      <c r="E11" s="93">
+        <v>1</v>
+      </c>
+      <c r="F11" s="93">
+        <v>1</v>
+      </c>
+      <c r="G11" s="93">
+        <v>1</v>
+      </c>
+      <c r="H11" s="94">
+        <v>0</v>
+      </c>
+      <c r="I11" s="94">
+        <v>0</v>
+      </c>
+      <c r="J11" s="94">
+        <v>0</v>
+      </c>
+      <c r="K11" s="94">
+        <v>0</v>
+      </c>
+      <c r="L11" s="94">
+        <v>0</v>
+      </c>
+      <c r="M11" s="94">
+        <v>0</v>
+      </c>
+      <c r="N11" s="94">
+        <v>0</v>
+      </c>
+      <c r="O11" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="93">
+      <c r="C12" s="93">
         <f>diarrhoea_1mo/26</f>
         <v>0</v>
       </c>
-      <c r="D11" s="93">
+      <c r="D12" s="93">
         <f>diarrhoea_1_5mo/26</f>
         <v>0</v>
       </c>
-      <c r="E11" s="93">
+      <c r="E12" s="93">
         <f>diarrhoea_6_11mo/26</f>
         <v>0</v>
       </c>
-      <c r="F11" s="93">
+      <c r="F12" s="93">
         <f>diarrhoea_12_23mo/26</f>
         <v>0</v>
       </c>
-      <c r="G11" s="93">
+      <c r="G12" s="93">
         <f>diarrhoea_24_59mo/26</f>
         <v>0</v>
       </c>
-      <c r="H11" s="94">
-        <v>0</v>
-      </c>
-      <c r="I11" s="94">
-        <v>0</v>
-      </c>
-      <c r="J11" s="94">
-        <v>0</v>
-      </c>
-      <c r="K11" s="94">
-        <v>0</v>
-      </c>
-      <c r="L11" s="94">
-        <v>0</v>
-      </c>
-      <c r="M11" s="94">
-        <v>0</v>
-      </c>
-      <c r="N11" s="94">
-        <v>0</v>
-      </c>
-      <c r="O11" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+      <c r="H12" s="94">
+        <v>0</v>
+      </c>
+      <c r="I12" s="94">
+        <v>0</v>
+      </c>
+      <c r="J12" s="94">
+        <v>0</v>
+      </c>
+      <c r="K12" s="94">
+        <v>0</v>
+      </c>
+      <c r="L12" s="94">
+        <v>0</v>
+      </c>
+      <c r="M12" s="94">
+        <v>0</v>
+      </c>
+      <c r="N12" s="94">
+        <v>0</v>
+      </c>
+      <c r="O12" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="93">
-        <v>0</v>
-      </c>
-      <c r="D12" s="93">
-        <v>0</v>
-      </c>
-      <c r="E12" s="93">
-        <v>1</v>
-      </c>
-      <c r="F12" s="93">
-        <v>1</v>
-      </c>
-      <c r="G12" s="93">
-        <v>1</v>
-      </c>
-      <c r="H12" s="94">
-        <v>0</v>
-      </c>
-      <c r="I12" s="94">
-        <v>0</v>
-      </c>
-      <c r="J12" s="94">
-        <v>0</v>
-      </c>
-      <c r="K12" s="94">
-        <v>0</v>
-      </c>
-      <c r="L12" s="94">
-        <v>0</v>
-      </c>
-      <c r="M12" s="94">
-        <v>0</v>
-      </c>
-      <c r="N12" s="94">
-        <v>0</v>
-      </c>
-      <c r="O12" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="33"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="C13" s="93">
+        <v>0</v>
+      </c>
+      <c r="D13" s="93">
+        <v>0</v>
+      </c>
+      <c r="E13" s="93">
+        <v>1</v>
+      </c>
+      <c r="F13" s="93">
+        <v>1</v>
+      </c>
+      <c r="G13" s="93">
+        <v>1</v>
+      </c>
+      <c r="H13" s="94">
+        <v>0</v>
+      </c>
+      <c r="I13" s="94">
+        <v>0</v>
+      </c>
+      <c r="J13" s="94">
+        <v>0</v>
+      </c>
+      <c r="K13" s="94">
+        <v>0</v>
+      </c>
+      <c r="L13" s="94">
+        <v>0</v>
+      </c>
+      <c r="M13" s="94">
+        <v>0</v>
+      </c>
+      <c r="N13" s="94">
+        <v>0</v>
+      </c>
+      <c r="O13" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="33"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B15" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="94">
-        <v>0</v>
-      </c>
-      <c r="D14" s="94">
-        <v>0</v>
-      </c>
-      <c r="E14" s="94">
-        <v>0</v>
-      </c>
-      <c r="F14" s="94">
-        <v>0</v>
-      </c>
-      <c r="G14" s="94">
-        <v>0</v>
-      </c>
-      <c r="H14" s="93">
+      <c r="C15" s="94">
+        <v>0</v>
+      </c>
+      <c r="D15" s="94">
+        <v>0</v>
+      </c>
+      <c r="E15" s="94">
+        <v>0</v>
+      </c>
+      <c r="F15" s="94">
+        <v>0</v>
+      </c>
+      <c r="G15" s="94">
+        <v>0</v>
+      </c>
+      <c r="H15" s="93">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="I14" s="93">
+      <c r="I15" s="93">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="J14" s="93">
+      <c r="J15" s="93">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="K14" s="93">
+      <c r="K15" s="93">
         <f>food_insecure</f>
         <v>0</v>
-      </c>
-      <c r="L14" s="94">
-        <v>0</v>
-      </c>
-      <c r="M14" s="94">
-        <v>0</v>
-      </c>
-      <c r="N14" s="94">
-        <v>0</v>
-      </c>
-      <c r="O14" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="94">
-        <v>0</v>
-      </c>
-      <c r="D15" s="94">
-        <v>0</v>
-      </c>
-      <c r="E15" s="94">
-        <v>0</v>
-      </c>
-      <c r="F15" s="94">
-        <v>0</v>
-      </c>
-      <c r="G15" s="94">
-        <v>0</v>
-      </c>
-      <c r="H15" s="93">
-        <v>1</v>
-      </c>
-      <c r="I15" s="93">
-        <v>1</v>
-      </c>
-      <c r="J15" s="93">
-        <v>1</v>
-      </c>
-      <c r="K15" s="93">
-        <v>1</v>
       </c>
       <c r="L15" s="94">
         <v>0</v>
@@ -7616,7 +7659,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="C16" s="94">
         <v>0</v>
@@ -7634,19 +7677,15 @@
         <v>0</v>
       </c>
       <c r="H16" s="93">
-        <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
       <c r="I16" s="93">
-        <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
       <c r="J16" s="93">
-        <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
       <c r="K16" s="93">
-        <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
       <c r="L16" s="94">
@@ -7665,130 +7704,135 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="94">
+        <v>0</v>
+      </c>
+      <c r="D17" s="94">
+        <v>0</v>
+      </c>
+      <c r="E17" s="94">
+        <v>0</v>
+      </c>
+      <c r="F17" s="94">
+        <v>0</v>
+      </c>
+      <c r="G17" s="94">
+        <v>0</v>
+      </c>
+      <c r="H17" s="93">
+        <f xml:space="preserve"> 1</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="93">
+        <f xml:space="preserve"> 1</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="93">
+        <f xml:space="preserve"> 1</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="93">
+        <f xml:space="preserve"> 1</f>
+        <v>1</v>
+      </c>
+      <c r="L17" s="94">
+        <v>0</v>
+      </c>
+      <c r="M17" s="94">
+        <v>0</v>
+      </c>
+      <c r="N17" s="94">
+        <v>0</v>
+      </c>
+      <c r="O17" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C17" s="94">
-        <v>0</v>
-      </c>
-      <c r="D17" s="94">
-        <v>0</v>
-      </c>
-      <c r="E17" s="94">
-        <v>0</v>
-      </c>
-      <c r="F17" s="94">
-        <v>0</v>
-      </c>
-      <c r="G17" s="94">
-        <v>0</v>
-      </c>
-      <c r="H17" s="93">
+      <c r="C18" s="94">
+        <v>0</v>
+      </c>
+      <c r="D18" s="94">
+        <v>0</v>
+      </c>
+      <c r="E18" s="94">
+        <v>0</v>
+      </c>
+      <c r="F18" s="94">
+        <v>0</v>
+      </c>
+      <c r="G18" s="94">
+        <v>0</v>
+      </c>
+      <c r="H18" s="93">
         <f>frac_PW_health_facility</f>
         <v>0</v>
       </c>
-      <c r="I17" s="93">
+      <c r="I18" s="93">
         <f>frac_PW_health_facility</f>
         <v>0</v>
       </c>
-      <c r="J17" s="93">
+      <c r="J18" s="93">
         <f>frac_PW_health_facility</f>
         <v>0</v>
       </c>
-      <c r="K17" s="93">
+      <c r="K18" s="93">
         <f>frac_PW_health_facility</f>
         <v>0</v>
       </c>
-      <c r="L17" s="94">
-        <v>0</v>
-      </c>
-      <c r="M17" s="94">
-        <v>0</v>
-      </c>
-      <c r="N17" s="94">
-        <v>0</v>
-      </c>
-      <c r="O17" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="33" t="s">
+      <c r="L18" s="94">
+        <v>0</v>
+      </c>
+      <c r="M18" s="94">
+        <v>0</v>
+      </c>
+      <c r="N18" s="94">
+        <v>0</v>
+      </c>
+      <c r="O18" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="94">
-        <v>0</v>
-      </c>
-      <c r="D18" s="94">
-        <v>0</v>
-      </c>
-      <c r="E18" s="94">
-        <v>0</v>
-      </c>
-      <c r="F18" s="94">
-        <v>0</v>
-      </c>
-      <c r="G18" s="94">
-        <v>0</v>
-      </c>
-      <c r="H18" s="93">
+      <c r="C19" s="94">
+        <v>0</v>
+      </c>
+      <c r="D19" s="94">
+        <v>0</v>
+      </c>
+      <c r="E19" s="94">
+        <v>0</v>
+      </c>
+      <c r="F19" s="94">
+        <v>0</v>
+      </c>
+      <c r="G19" s="94">
+        <v>0</v>
+      </c>
+      <c r="H19" s="93">
         <f>frac_malaria_risk</f>
         <v>0</v>
       </c>
-      <c r="I18" s="93">
+      <c r="I19" s="93">
         <f>frac_malaria_risk</f>
         <v>0</v>
       </c>
-      <c r="J18" s="93">
+      <c r="J19" s="93">
         <f>frac_malaria_risk</f>
         <v>0</v>
       </c>
-      <c r="K18" s="93">
+      <c r="K19" s="93">
         <f>frac_malaria_risk</f>
         <v>0</v>
-      </c>
-      <c r="L18" s="94">
-        <v>0</v>
-      </c>
-      <c r="M18" s="94">
-        <v>0</v>
-      </c>
-      <c r="N18" s="94">
-        <v>0</v>
-      </c>
-      <c r="O18" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="94">
-        <v>0</v>
-      </c>
-      <c r="D19" s="94">
-        <v>0</v>
-      </c>
-      <c r="E19" s="94">
-        <v>0</v>
-      </c>
-      <c r="F19" s="94">
-        <v>0</v>
-      </c>
-      <c r="G19" s="94">
-        <v>0</v>
-      </c>
-      <c r="H19" s="93">
-        <v>1</v>
-      </c>
-      <c r="I19" s="93">
-        <v>1</v>
-      </c>
-      <c r="J19" s="93">
-        <v>1</v>
-      </c>
-      <c r="K19" s="93">
-        <v>1</v>
       </c>
       <c r="L19" s="94">
         <v>0</v>
@@ -7805,465 +7849,454 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="94">
+        <v>0</v>
+      </c>
+      <c r="D20" s="94">
+        <v>0</v>
+      </c>
+      <c r="E20" s="94">
+        <v>0</v>
+      </c>
+      <c r="F20" s="94">
+        <v>0</v>
+      </c>
+      <c r="G20" s="94">
+        <v>0</v>
+      </c>
+      <c r="H20" s="93">
+        <v>1</v>
+      </c>
+      <c r="I20" s="93">
+        <v>1</v>
+      </c>
+      <c r="J20" s="93">
+        <v>1</v>
+      </c>
+      <c r="K20" s="93">
+        <v>1</v>
+      </c>
+      <c r="L20" s="94">
+        <v>0</v>
+      </c>
+      <c r="M20" s="94">
+        <v>0</v>
+      </c>
+      <c r="N20" s="94">
+        <v>0</v>
+      </c>
+      <c r="O20" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="94">
-        <v>0</v>
-      </c>
-      <c r="D20" s="94">
-        <v>0</v>
-      </c>
-      <c r="E20" s="94">
-        <v>0</v>
-      </c>
-      <c r="F20" s="94">
-        <v>0</v>
-      </c>
-      <c r="G20" s="94">
-        <v>0</v>
-      </c>
-      <c r="H20" s="93">
-        <v>1</v>
-      </c>
-      <c r="I20" s="93">
-        <v>1</v>
-      </c>
-      <c r="J20" s="93">
-        <v>1</v>
-      </c>
-      <c r="K20" s="93">
-        <v>1</v>
-      </c>
-      <c r="L20" s="94">
-        <v>0</v>
-      </c>
-      <c r="M20" s="94">
-        <v>0</v>
-      </c>
-      <c r="N20" s="94">
-        <v>0</v>
-      </c>
-      <c r="O20" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="33" t="s">
+      <c r="C21" s="94">
+        <v>0</v>
+      </c>
+      <c r="D21" s="94">
+        <v>0</v>
+      </c>
+      <c r="E21" s="94">
+        <v>0</v>
+      </c>
+      <c r="F21" s="94">
+        <v>0</v>
+      </c>
+      <c r="G21" s="94">
+        <v>0</v>
+      </c>
+      <c r="H21" s="93">
+        <v>1</v>
+      </c>
+      <c r="I21" s="93">
+        <v>1</v>
+      </c>
+      <c r="J21" s="93">
+        <v>1</v>
+      </c>
+      <c r="K21" s="93">
+        <v>1</v>
+      </c>
+      <c r="L21" s="94">
+        <v>0</v>
+      </c>
+      <c r="M21" s="94">
+        <v>0</v>
+      </c>
+      <c r="N21" s="94">
+        <v>0</v>
+      </c>
+      <c r="O21" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="94">
-        <v>0</v>
-      </c>
-      <c r="D21" s="94">
-        <v>0</v>
-      </c>
-      <c r="E21" s="94">
-        <v>0</v>
-      </c>
-      <c r="F21" s="94">
-        <v>0</v>
-      </c>
-      <c r="G21" s="94">
-        <v>0</v>
-      </c>
-      <c r="H21" s="93">
+      <c r="C22" s="94">
+        <v>0</v>
+      </c>
+      <c r="D22" s="94">
+        <v>0</v>
+      </c>
+      <c r="E22" s="94">
+        <v>0</v>
+      </c>
+      <c r="F22" s="94">
+        <v>0</v>
+      </c>
+      <c r="G22" s="94">
+        <v>0</v>
+      </c>
+      <c r="H22" s="93">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="I21" s="93">
+      <c r="I22" s="93">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="J21" s="93">
+      <c r="J22" s="93">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="K21" s="93">
+      <c r="K22" s="93">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="L21" s="94">
-        <v>0</v>
-      </c>
-      <c r="M21" s="94">
-        <v>0</v>
-      </c>
-      <c r="N21" s="94">
-        <v>0</v>
-      </c>
-      <c r="O21" s="94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="33"/>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="60" t="s">
+      <c r="L22" s="94">
+        <v>0</v>
+      </c>
+      <c r="M22" s="94">
+        <v>0</v>
+      </c>
+      <c r="N22" s="94">
+        <v>0</v>
+      </c>
+      <c r="O22" s="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="33"/>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B24" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="C23" s="94">
-        <v>0</v>
-      </c>
-      <c r="D23" s="94">
-        <v>0</v>
-      </c>
-      <c r="E23" s="94">
-        <v>0</v>
-      </c>
-      <c r="F23" s="94">
-        <v>0</v>
-      </c>
-      <c r="G23" s="94">
-        <v>0</v>
-      </c>
-      <c r="H23" s="94">
-        <v>0</v>
-      </c>
-      <c r="I23" s="94">
-        <v>0</v>
-      </c>
-      <c r="J23" s="94">
-        <v>0</v>
-      </c>
-      <c r="K23" s="94">
-        <v>0</v>
-      </c>
-      <c r="L23" s="93">
+      <c r="C24" s="94">
+        <v>0</v>
+      </c>
+      <c r="D24" s="94">
+        <v>0</v>
+      </c>
+      <c r="E24" s="94">
+        <v>0</v>
+      </c>
+      <c r="F24" s="94">
+        <v>0</v>
+      </c>
+      <c r="G24" s="94">
+        <v>0</v>
+      </c>
+      <c r="H24" s="94">
+        <v>0</v>
+      </c>
+      <c r="I24" s="94">
+        <v>0</v>
+      </c>
+      <c r="J24" s="94">
+        <v>0</v>
+      </c>
+      <c r="K24" s="94">
+        <v>0</v>
+      </c>
+      <c r="L24" s="93">
         <f>famplan_unmet_need</f>
         <v>0</v>
       </c>
-      <c r="M23" s="93">
+      <c r="M24" s="93">
         <f>famplan_unmet_need</f>
         <v>0</v>
       </c>
-      <c r="N23" s="93">
+      <c r="N24" s="93">
         <f>famplan_unmet_need</f>
         <v>0</v>
       </c>
-      <c r="O23" s="93">
+      <c r="O24" s="93">
         <f>famplan_unmet_need</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="61" t="s">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="94">
-        <v>0</v>
-      </c>
-      <c r="D24" s="94">
-        <v>0</v>
-      </c>
-      <c r="E24" s="94">
-        <v>0</v>
-      </c>
-      <c r="F24" s="94">
-        <v>0</v>
-      </c>
-      <c r="G24" s="94">
-        <v>0</v>
-      </c>
-      <c r="H24" s="94">
-        <v>0</v>
-      </c>
-      <c r="I24" s="94">
-        <v>0</v>
-      </c>
-      <c r="J24" s="94">
-        <v>0</v>
-      </c>
-      <c r="K24" s="94">
-        <v>0</v>
-      </c>
-      <c r="L24" s="93">
+      <c r="C25" s="94">
+        <v>0</v>
+      </c>
+      <c r="D25" s="94">
+        <v>0</v>
+      </c>
+      <c r="E25" s="94">
+        <v>0</v>
+      </c>
+      <c r="F25" s="94">
+        <v>0</v>
+      </c>
+      <c r="G25" s="94">
+        <v>0</v>
+      </c>
+      <c r="H25" s="94">
+        <v>0</v>
+      </c>
+      <c r="I25" s="94">
+        <v>0</v>
+      </c>
+      <c r="J25" s="94">
+        <v>0</v>
+      </c>
+      <c r="K25" s="94">
+        <v>0</v>
+      </c>
+      <c r="L25" s="93">
         <f>(1-food_insecure)*(0.49)*(1-school_attendance) + food_insecure*(0.7)*(1-school_attendance)</f>
         <v>0.49</v>
       </c>
-      <c r="M24" s="93">
+      <c r="M25" s="93">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.49</v>
       </c>
-      <c r="N24" s="93">
+      <c r="N25" s="93">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.49</v>
       </c>
-      <c r="O24" s="93">
+      <c r="O25" s="93">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.49</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="61" t="s">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="C25" s="94">
-        <v>0</v>
-      </c>
-      <c r="D25" s="94">
-        <v>0</v>
-      </c>
-      <c r="E25" s="94">
-        <v>0</v>
-      </c>
-      <c r="F25" s="94">
-        <v>0</v>
-      </c>
-      <c r="G25" s="94">
-        <v>0</v>
-      </c>
-      <c r="H25" s="94">
-        <v>0</v>
-      </c>
-      <c r="I25" s="94">
-        <v>0</v>
-      </c>
-      <c r="J25" s="94">
-        <v>0</v>
-      </c>
-      <c r="K25" s="94">
-        <v>0</v>
-      </c>
-      <c r="L25" s="93">
+      <c r="C26" s="94">
+        <v>0</v>
+      </c>
+      <c r="D26" s="94">
+        <v>0</v>
+      </c>
+      <c r="E26" s="94">
+        <v>0</v>
+      </c>
+      <c r="F26" s="94">
+        <v>0</v>
+      </c>
+      <c r="G26" s="94">
+        <v>0</v>
+      </c>
+      <c r="H26" s="94">
+        <v>0</v>
+      </c>
+      <c r="I26" s="94">
+        <v>0</v>
+      </c>
+      <c r="J26" s="94">
+        <v>0</v>
+      </c>
+      <c r="K26" s="94">
+        <v>0</v>
+      </c>
+      <c r="L26" s="93">
         <f>(1-food_insecure)*(0.21)*(1-school_attendance) + food_insecure*(0.3)*(1-school_attendance)</f>
         <v>0.21</v>
       </c>
-      <c r="M25" s="93">
+      <c r="M26" s="93">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.21</v>
       </c>
-      <c r="N25" s="93">
+      <c r="N26" s="93">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.21</v>
       </c>
-      <c r="O25" s="93">
+      <c r="O26" s="93">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.21</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="61" t="s">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="C26" s="94">
-        <v>0</v>
-      </c>
-      <c r="D26" s="94">
-        <v>0</v>
-      </c>
-      <c r="E26" s="94">
-        <v>0</v>
-      </c>
-      <c r="F26" s="94">
-        <v>0</v>
-      </c>
-      <c r="G26" s="94">
-        <v>0</v>
-      </c>
-      <c r="H26" s="94">
-        <v>0</v>
-      </c>
-      <c r="I26" s="94">
-        <v>0</v>
-      </c>
-      <c r="J26" s="94">
-        <v>0</v>
-      </c>
-      <c r="K26" s="94">
-        <v>0</v>
-      </c>
-      <c r="L26" s="93">
+      <c r="C27" s="94">
+        <v>0</v>
+      </c>
+      <c r="D27" s="94">
+        <v>0</v>
+      </c>
+      <c r="E27" s="94">
+        <v>0</v>
+      </c>
+      <c r="F27" s="94">
+        <v>0</v>
+      </c>
+      <c r="G27" s="94">
+        <v>0</v>
+      </c>
+      <c r="H27" s="94">
+        <v>0</v>
+      </c>
+      <c r="I27" s="94">
+        <v>0</v>
+      </c>
+      <c r="J27" s="94">
+        <v>0</v>
+      </c>
+      <c r="K27" s="94">
+        <v>0</v>
+      </c>
+      <c r="L27" s="93">
         <f>(1-food_insecure)*(0.3)*(1-school_attendance)</f>
         <v>0.3</v>
       </c>
-      <c r="M26" s="93">
+      <c r="M27" s="93">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.3</v>
       </c>
-      <c r="N26" s="93">
+      <c r="N27" s="93">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.3</v>
       </c>
-      <c r="O26" s="93">
+      <c r="O27" s="93">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="61" t="s">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="C27" s="94">
-        <v>0</v>
-      </c>
-      <c r="D27" s="94">
-        <v>0</v>
-      </c>
-      <c r="E27" s="94">
-        <v>0</v>
-      </c>
-      <c r="F27" s="94">
-        <v>0</v>
-      </c>
-      <c r="G27" s="94">
-        <v>0</v>
-      </c>
-      <c r="H27" s="94">
-        <v>0</v>
-      </c>
-      <c r="I27" s="94">
-        <v>0</v>
-      </c>
-      <c r="J27" s="94">
-        <v>0</v>
-      </c>
-      <c r="K27" s="94">
-        <v>0</v>
-      </c>
-      <c r="L27" s="93">
+      <c r="C28" s="94">
+        <v>0</v>
+      </c>
+      <c r="D28" s="94">
+        <v>0</v>
+      </c>
+      <c r="E28" s="94">
+        <v>0</v>
+      </c>
+      <c r="F28" s="94">
+        <v>0</v>
+      </c>
+      <c r="G28" s="94">
+        <v>0</v>
+      </c>
+      <c r="H28" s="94">
+        <v>0</v>
+      </c>
+      <c r="I28" s="94">
+        <v>0</v>
+      </c>
+      <c r="J28" s="94">
+        <v>0</v>
+      </c>
+      <c r="K28" s="94">
+        <v>0</v>
+      </c>
+      <c r="L28" s="93">
         <f>(1-food_insecure)*1*school_attendance + food_insecure*1*school_attendance</f>
         <v>0</v>
       </c>
-      <c r="M27" s="93">
-        <v>0</v>
-      </c>
-      <c r="N27" s="93">
-        <v>0</v>
-      </c>
-      <c r="O27" s="93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="M28" s="93">
+        <v>0</v>
+      </c>
+      <c r="N28" s="93">
+        <v>0</v>
+      </c>
+      <c r="O28" s="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="11"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B30" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="93">
-        <v>0</v>
-      </c>
-      <c r="D29" s="93">
-        <v>0</v>
-      </c>
-      <c r="E29" s="93">
-        <f t="shared" ref="E29:O29" si="0">frac_maize</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="93">
+      <c r="C30" s="93">
+        <v>0</v>
+      </c>
+      <c r="D30" s="93">
+        <v>0</v>
+      </c>
+      <c r="E30" s="93">
+        <f t="shared" ref="E30:O30" si="0">frac_maize</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="93">
+      <c r="G30" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H29" s="93">
+      <c r="H30" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I29" s="93">
+      <c r="I30" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="93">
+      <c r="J30" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K29" s="93">
+      <c r="K30" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L29" s="93">
+      <c r="L30" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M29" s="93">
+      <c r="M30" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N29" s="93">
+      <c r="N30" s="93">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O29" s="93">
+      <c r="O30" s="93">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="93">
-        <v>0</v>
-      </c>
-      <c r="D30" s="93">
-        <v>0</v>
-      </c>
-      <c r="E30" s="93">
-        <f t="shared" ref="E30:O30" si="1">frac_rice</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="93">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C31" s="93">
         <v>0</v>
@@ -8272,53 +8305,53 @@
         <v>0</v>
       </c>
       <c r="E31" s="93">
-        <f t="shared" ref="E31:O31" si="2">frac_wheat</f>
+        <f t="shared" ref="E31:O31" si="1">frac_rice</f>
         <v>0</v>
       </c>
       <c r="F31" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G31" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H31" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I31" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J31" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K31" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L31" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M31" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N31" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O31" s="93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C32" s="93">
         <v>0</v>
@@ -8327,188 +8360,199 @@
         <v>0</v>
       </c>
       <c r="E32" s="93">
-        <v>1</v>
+        <f t="shared" ref="E32:O32" si="2">frac_wheat</f>
+        <v>0</v>
       </c>
       <c r="F32" s="93">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G32" s="93">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H32" s="93">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="I32" s="93">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J32" s="93">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="K32" s="93">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L32" s="93">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="M32" s="93">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N32" s="93">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="O32" s="93">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="93">
+        <v>0</v>
+      </c>
+      <c r="D33" s="93">
+        <v>0</v>
+      </c>
+      <c r="E33" s="93">
+        <v>1</v>
+      </c>
+      <c r="F33" s="93">
+        <v>1</v>
+      </c>
+      <c r="G33" s="93">
+        <v>1</v>
+      </c>
+      <c r="H33" s="93">
+        <v>1</v>
+      </c>
+      <c r="I33" s="93">
+        <v>1</v>
+      </c>
+      <c r="J33" s="93">
+        <v>1</v>
+      </c>
+      <c r="K33" s="93">
+        <v>1</v>
+      </c>
+      <c r="L33" s="93">
+        <v>1</v>
+      </c>
+      <c r="M33" s="93">
+        <v>1</v>
+      </c>
+      <c r="N33" s="93">
+        <v>1</v>
+      </c>
+      <c r="O33" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="93">
-        <f t="shared" ref="C33:O33" si="3">frac_malaria_risk</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="93">
+      <c r="C34" s="93">
+        <f t="shared" ref="C34:O34" si="3">frac_malaria_risk</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E33" s="93">
+      <c r="E34" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F33" s="93">
+      <c r="F34" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="93">
+      <c r="G34" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H33" s="93">
+      <c r="H34" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I33" s="93">
+      <c r="I34" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J33" s="93">
+      <c r="J34" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K33" s="93">
+      <c r="K34" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L33" s="93">
+      <c r="L34" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M33" s="93">
+      <c r="M34" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N33" s="93">
+      <c r="N34" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O33" s="93">
+      <c r="O34" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="33" t="s">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="93">
-        <v>1</v>
-      </c>
-      <c r="D34" s="93">
-        <v>1</v>
-      </c>
-      <c r="E34" s="93">
-        <v>1</v>
-      </c>
-      <c r="F34" s="93">
-        <v>1</v>
-      </c>
-      <c r="G34" s="93">
-        <v>1</v>
-      </c>
-      <c r="H34" s="93">
-        <v>1</v>
-      </c>
-      <c r="I34" s="93">
-        <v>1</v>
-      </c>
-      <c r="J34" s="93">
-        <v>1</v>
-      </c>
-      <c r="K34" s="93">
-        <v>1</v>
-      </c>
-      <c r="L34" s="93">
-        <v>1</v>
-      </c>
-      <c r="M34" s="93">
-        <v>1</v>
-      </c>
-      <c r="N34" s="93">
-        <v>1</v>
-      </c>
-      <c r="O34" s="93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="33" t="s">
+      <c r="C35" s="93">
+        <v>1</v>
+      </c>
+      <c r="D35" s="93">
+        <v>1</v>
+      </c>
+      <c r="E35" s="93">
+        <v>1</v>
+      </c>
+      <c r="F35" s="93">
+        <v>1</v>
+      </c>
+      <c r="G35" s="93">
+        <v>1</v>
+      </c>
+      <c r="H35" s="93">
+        <v>1</v>
+      </c>
+      <c r="I35" s="93">
+        <v>1</v>
+      </c>
+      <c r="J35" s="93">
+        <v>1</v>
+      </c>
+      <c r="K35" s="93">
+        <v>1</v>
+      </c>
+      <c r="L35" s="93">
+        <v>1</v>
+      </c>
+      <c r="M35" s="93">
+        <v>1</v>
+      </c>
+      <c r="N35" s="93">
+        <v>1</v>
+      </c>
+      <c r="O35" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="33" t="s">
         <v>82</v>
-      </c>
-      <c r="C35" s="93">
-        <v>1</v>
-      </c>
-      <c r="D35" s="93">
-        <v>1</v>
-      </c>
-      <c r="E35" s="93">
-        <v>1</v>
-      </c>
-      <c r="F35" s="93">
-        <v>1</v>
-      </c>
-      <c r="G35" s="93">
-        <v>1</v>
-      </c>
-      <c r="H35" s="93">
-        <v>1</v>
-      </c>
-      <c r="I35" s="93">
-        <v>1</v>
-      </c>
-      <c r="J35" s="93">
-        <v>1</v>
-      </c>
-      <c r="K35" s="93">
-        <v>1</v>
-      </c>
-      <c r="L35" s="93">
-        <v>1</v>
-      </c>
-      <c r="M35" s="93">
-        <v>1</v>
-      </c>
-      <c r="N35" s="93">
-        <v>1</v>
-      </c>
-      <c r="O35" s="93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="33" t="s">
-        <v>81</v>
       </c>
       <c r="C36" s="93">
         <v>1</v>
@@ -8552,7 +8596,7 @@
     </row>
     <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="33" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C37" s="93">
         <v>1</v>
@@ -8596,55 +8640,99 @@
     </row>
     <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="93">
+        <v>1</v>
+      </c>
+      <c r="D38" s="93">
+        <v>1</v>
+      </c>
+      <c r="E38" s="93">
+        <v>1</v>
+      </c>
+      <c r="F38" s="93">
+        <v>1</v>
+      </c>
+      <c r="G38" s="93">
+        <v>1</v>
+      </c>
+      <c r="H38" s="93">
+        <v>1</v>
+      </c>
+      <c r="I38" s="93">
+        <v>1</v>
+      </c>
+      <c r="J38" s="93">
+        <v>1</v>
+      </c>
+      <c r="K38" s="93">
+        <v>1</v>
+      </c>
+      <c r="L38" s="93">
+        <v>1</v>
+      </c>
+      <c r="M38" s="93">
+        <v>1</v>
+      </c>
+      <c r="N38" s="93">
+        <v>1</v>
+      </c>
+      <c r="O38" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="93">
-        <v>1</v>
-      </c>
-      <c r="D38" s="93">
-        <v>1</v>
-      </c>
-      <c r="E38" s="93">
-        <v>1</v>
-      </c>
-      <c r="F38" s="93">
-        <v>1</v>
-      </c>
-      <c r="G38" s="93">
-        <v>1</v>
-      </c>
-      <c r="H38" s="93">
-        <v>1</v>
-      </c>
-      <c r="I38" s="93">
-        <v>1</v>
-      </c>
-      <c r="J38" s="93">
-        <v>1</v>
-      </c>
-      <c r="K38" s="93">
-        <v>1</v>
-      </c>
-      <c r="L38" s="93">
-        <v>1</v>
-      </c>
-      <c r="M38" s="93">
-        <v>1</v>
-      </c>
-      <c r="N38" s="93">
-        <v>1</v>
-      </c>
-      <c r="O38" s="93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="33"/>
+      <c r="C39" s="93">
+        <v>1</v>
+      </c>
+      <c r="D39" s="93">
+        <v>1</v>
+      </c>
+      <c r="E39" s="93">
+        <v>1</v>
+      </c>
+      <c r="F39" s="93">
+        <v>1</v>
+      </c>
+      <c r="G39" s="93">
+        <v>1</v>
+      </c>
+      <c r="H39" s="93">
+        <v>1</v>
+      </c>
+      <c r="I39" s="93">
+        <v>1</v>
+      </c>
+      <c r="J39" s="93">
+        <v>1</v>
+      </c>
+      <c r="K39" s="93">
+        <v>1</v>
+      </c>
+      <c r="L39" s="93">
+        <v>1</v>
+      </c>
+      <c r="M39" s="93">
+        <v>1</v>
+      </c>
+      <c r="N39" s="93">
+        <v>1</v>
+      </c>
+      <c r="O39" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6oMNPZOj5p1yxjZyC3cWukdFKoSh1CKATbl7uT/d1OQzf8J9XiJ/ojI28uZ+t7bQFfyXeraObfh1PN4W7pNYSw==" saltValue="6OVcnh0lkgELEvG9wcZI7g==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
-  <sortState ref="B14:O21">
-    <sortCondition ref="B14:B21"/>
+  <sheetProtection selectLockedCells="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B15:O22">
+    <sortCondition ref="B15:B22"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -8652,14 +8740,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9211,13 +9299,13 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="53" t="s">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="C13" s="96">
         <v>0</v>
       </c>
       <c r="D13" s="96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="96">
         <v>1</v>
@@ -9255,13 +9343,13 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="53" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="C14" s="96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="96">
         <v>1</v>
@@ -9299,159 +9387,159 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="96">
+        <v>1</v>
+      </c>
+      <c r="D15" s="96">
+        <v>1</v>
+      </c>
+      <c r="E15" s="96">
+        <v>1</v>
+      </c>
+      <c r="F15" s="96">
+        <v>1</v>
+      </c>
+      <c r="G15" s="96">
+        <v>1</v>
+      </c>
+      <c r="H15" s="96">
+        <v>0</v>
+      </c>
+      <c r="I15" s="96">
+        <v>0</v>
+      </c>
+      <c r="J15" s="96">
+        <v>0</v>
+      </c>
+      <c r="K15" s="96">
+        <v>0</v>
+      </c>
+      <c r="L15" s="96">
+        <v>0</v>
+      </c>
+      <c r="M15" s="96">
+        <v>0</v>
+      </c>
+      <c r="N15" s="96">
+        <v>0</v>
+      </c>
+      <c r="O15" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="96">
-        <v>0</v>
-      </c>
-      <c r="D15" s="96">
-        <v>0</v>
-      </c>
-      <c r="E15" s="96">
-        <v>1</v>
-      </c>
-      <c r="F15" s="96">
-        <v>1</v>
-      </c>
-      <c r="G15" s="96">
-        <v>1</v>
-      </c>
-      <c r="H15" s="96">
-        <v>0</v>
-      </c>
-      <c r="I15" s="96">
-        <v>0</v>
-      </c>
-      <c r="J15" s="96">
-        <v>0</v>
-      </c>
-      <c r="K15" s="96">
-        <v>0</v>
-      </c>
-      <c r="L15" s="96">
-        <v>0</v>
-      </c>
-      <c r="M15" s="96">
-        <v>0</v>
-      </c>
-      <c r="N15" s="96">
-        <v>0</v>
-      </c>
-      <c r="O15" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="53"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
+      <c r="C16" s="96">
+        <v>0</v>
+      </c>
+      <c r="D16" s="96">
+        <v>0</v>
+      </c>
+      <c r="E16" s="96">
+        <v>1</v>
+      </c>
+      <c r="F16" s="96">
+        <v>1</v>
+      </c>
+      <c r="G16" s="96">
+        <v>1</v>
+      </c>
+      <c r="H16" s="96">
+        <v>0</v>
+      </c>
+      <c r="I16" s="96">
+        <v>0</v>
+      </c>
+      <c r="J16" s="96">
+        <v>0</v>
+      </c>
+      <c r="K16" s="96">
+        <v>0</v>
+      </c>
+      <c r="L16" s="96">
+        <v>0</v>
+      </c>
+      <c r="M16" s="96">
+        <v>0</v>
+      </c>
+      <c r="N16" s="96">
+        <v>0</v>
+      </c>
+      <c r="O16" s="96">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="57" t="s">
+      <c r="B17" s="53"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="97"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B18" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="96">
-        <v>0</v>
-      </c>
-      <c r="D17" s="96">
-        <v>0</v>
-      </c>
-      <c r="E17" s="96">
-        <v>0</v>
-      </c>
-      <c r="F17" s="96">
-        <v>0</v>
-      </c>
-      <c r="G17" s="96">
-        <v>0</v>
-      </c>
-      <c r="H17" s="96">
-        <v>1</v>
-      </c>
-      <c r="I17" s="96">
-        <v>1</v>
-      </c>
-      <c r="J17" s="96">
-        <v>1</v>
-      </c>
-      <c r="K17" s="96">
-        <v>1</v>
-      </c>
-      <c r="L17" s="96">
-        <v>0</v>
-      </c>
-      <c r="M17" s="96">
-        <v>0</v>
-      </c>
-      <c r="N17" s="96">
-        <v>0</v>
-      </c>
-      <c r="O17" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="57"/>
-      <c r="B18" s="53" t="s">
+      <c r="C18" s="96">
+        <v>0</v>
+      </c>
+      <c r="D18" s="96">
+        <v>0</v>
+      </c>
+      <c r="E18" s="96">
+        <v>0</v>
+      </c>
+      <c r="F18" s="96">
+        <v>0</v>
+      </c>
+      <c r="G18" s="96">
+        <v>0</v>
+      </c>
+      <c r="H18" s="96">
+        <v>1</v>
+      </c>
+      <c r="I18" s="96">
+        <v>1</v>
+      </c>
+      <c r="J18" s="96">
+        <v>1</v>
+      </c>
+      <c r="K18" s="96">
+        <v>1</v>
+      </c>
+      <c r="L18" s="96">
+        <v>0</v>
+      </c>
+      <c r="M18" s="96">
+        <v>0</v>
+      </c>
+      <c r="N18" s="96">
+        <v>0</v>
+      </c>
+      <c r="O18" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="57"/>
+      <c r="B19" s="53" t="s">
         <v>86</v>
-      </c>
-      <c r="C18" s="96">
-        <v>0</v>
-      </c>
-      <c r="D18" s="96">
-        <v>0</v>
-      </c>
-      <c r="E18" s="96">
-        <v>0</v>
-      </c>
-      <c r="F18" s="96">
-        <v>0</v>
-      </c>
-      <c r="G18" s="96">
-        <v>0</v>
-      </c>
-      <c r="H18" s="96">
-        <v>1</v>
-      </c>
-      <c r="I18" s="96">
-        <v>1</v>
-      </c>
-      <c r="J18" s="96">
-        <v>1</v>
-      </c>
-      <c r="K18" s="96">
-        <v>1</v>
-      </c>
-      <c r="L18" s="96">
-        <v>0</v>
-      </c>
-      <c r="M18" s="96">
-        <v>0</v>
-      </c>
-      <c r="N18" s="96">
-        <v>0</v>
-      </c>
-      <c r="O18" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="98" t="s">
-        <v>189</v>
       </c>
       <c r="C19" s="96">
         <v>0</v>
@@ -9495,95 +9583,95 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="98" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="96">
+        <v>0</v>
+      </c>
+      <c r="D20" s="96">
+        <v>0</v>
+      </c>
+      <c r="E20" s="96">
+        <v>0</v>
+      </c>
+      <c r="F20" s="96">
+        <v>0</v>
+      </c>
+      <c r="G20" s="96">
+        <v>0</v>
+      </c>
+      <c r="H20" s="96">
+        <v>1</v>
+      </c>
+      <c r="I20" s="96">
+        <v>1</v>
+      </c>
+      <c r="J20" s="96">
+        <v>1</v>
+      </c>
+      <c r="K20" s="96">
+        <v>1</v>
+      </c>
+      <c r="L20" s="96">
+        <v>0</v>
+      </c>
+      <c r="M20" s="96">
+        <v>0</v>
+      </c>
+      <c r="N20" s="96">
+        <v>0</v>
+      </c>
+      <c r="O20" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="98" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="96">
-        <v>0</v>
-      </c>
-      <c r="D20" s="96">
-        <v>0</v>
-      </c>
-      <c r="E20" s="96">
-        <v>0</v>
-      </c>
-      <c r="F20" s="96">
-        <v>0</v>
-      </c>
-      <c r="G20" s="96">
-        <v>0</v>
-      </c>
-      <c r="H20" s="96">
-        <v>1</v>
-      </c>
-      <c r="I20" s="96">
-        <v>1</v>
-      </c>
-      <c r="J20" s="96">
-        <v>1</v>
-      </c>
-      <c r="K20" s="96">
-        <v>1</v>
-      </c>
-      <c r="L20" s="96">
-        <v>0</v>
-      </c>
-      <c r="M20" s="96">
-        <v>0</v>
-      </c>
-      <c r="N20" s="96">
-        <v>0</v>
-      </c>
-      <c r="O20" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="99" t="s">
+      <c r="C21" s="96">
+        <v>0</v>
+      </c>
+      <c r="D21" s="96">
+        <v>0</v>
+      </c>
+      <c r="E21" s="96">
+        <v>0</v>
+      </c>
+      <c r="F21" s="96">
+        <v>0</v>
+      </c>
+      <c r="G21" s="96">
+        <v>0</v>
+      </c>
+      <c r="H21" s="96">
+        <v>1</v>
+      </c>
+      <c r="I21" s="96">
+        <v>1</v>
+      </c>
+      <c r="J21" s="96">
+        <v>1</v>
+      </c>
+      <c r="K21" s="96">
+        <v>1</v>
+      </c>
+      <c r="L21" s="96">
+        <v>0</v>
+      </c>
+      <c r="M21" s="96">
+        <v>0</v>
+      </c>
+      <c r="N21" s="96">
+        <v>0</v>
+      </c>
+      <c r="O21" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="99" t="s">
         <v>57</v>
-      </c>
-      <c r="C21" s="96">
-        <v>0</v>
-      </c>
-      <c r="D21" s="96">
-        <v>0</v>
-      </c>
-      <c r="E21" s="96">
-        <v>0</v>
-      </c>
-      <c r="F21" s="96">
-        <v>0</v>
-      </c>
-      <c r="G21" s="96">
-        <v>0</v>
-      </c>
-      <c r="H21" s="96">
-        <v>1</v>
-      </c>
-      <c r="I21" s="96">
-        <v>1</v>
-      </c>
-      <c r="J21" s="96">
-        <v>1</v>
-      </c>
-      <c r="K21" s="96">
-        <v>1</v>
-      </c>
-      <c r="L21" s="96">
-        <v>0</v>
-      </c>
-      <c r="M21" s="96">
-        <v>0</v>
-      </c>
-      <c r="N21" s="96">
-        <v>0</v>
-      </c>
-      <c r="O21" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="53" t="s">
-        <v>88</v>
       </c>
       <c r="C22" s="96">
         <v>0</v>
@@ -9627,7 +9715,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C23" s="96">
         <v>0</v>
@@ -9671,204 +9759,204 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="96">
+        <v>0</v>
+      </c>
+      <c r="D24" s="96">
+        <v>0</v>
+      </c>
+      <c r="E24" s="96">
+        <v>0</v>
+      </c>
+      <c r="F24" s="96">
+        <v>0</v>
+      </c>
+      <c r="G24" s="96">
+        <v>0</v>
+      </c>
+      <c r="H24" s="96">
+        <v>1</v>
+      </c>
+      <c r="I24" s="96">
+        <v>1</v>
+      </c>
+      <c r="J24" s="96">
+        <v>1</v>
+      </c>
+      <c r="K24" s="96">
+        <v>1</v>
+      </c>
+      <c r="L24" s="96">
+        <v>0</v>
+      </c>
+      <c r="M24" s="96">
+        <v>0</v>
+      </c>
+      <c r="N24" s="96">
+        <v>0</v>
+      </c>
+      <c r="O24" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="96">
-        <v>0</v>
-      </c>
-      <c r="D24" s="96">
-        <v>0</v>
-      </c>
-      <c r="E24" s="96">
-        <v>0</v>
-      </c>
-      <c r="F24" s="96">
-        <v>0</v>
-      </c>
-      <c r="G24" s="96">
-        <v>0</v>
-      </c>
-      <c r="H24" s="96">
-        <v>1</v>
-      </c>
-      <c r="I24" s="96">
-        <v>1</v>
-      </c>
-      <c r="J24" s="96">
-        <v>1</v>
-      </c>
-      <c r="K24" s="96">
-        <v>1</v>
-      </c>
-      <c r="L24" s="96">
-        <v>0</v>
-      </c>
-      <c r="M24" s="96">
-        <v>0</v>
-      </c>
-      <c r="N24" s="96">
-        <v>0</v>
-      </c>
-      <c r="O24" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="53"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
-    </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="57" t="s">
+      <c r="C25" s="96">
+        <v>0</v>
+      </c>
+      <c r="D25" s="96">
+        <v>0</v>
+      </c>
+      <c r="E25" s="96">
+        <v>0</v>
+      </c>
+      <c r="F25" s="96">
+        <v>0</v>
+      </c>
+      <c r="G25" s="96">
+        <v>0</v>
+      </c>
+      <c r="H25" s="96">
+        <v>1</v>
+      </c>
+      <c r="I25" s="96">
+        <v>1</v>
+      </c>
+      <c r="J25" s="96">
+        <v>1</v>
+      </c>
+      <c r="K25" s="96">
+        <v>1</v>
+      </c>
+      <c r="L25" s="96">
+        <v>0</v>
+      </c>
+      <c r="M25" s="96">
+        <v>0</v>
+      </c>
+      <c r="N25" s="96">
+        <v>0</v>
+      </c>
+      <c r="O25" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="53"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
+    </row>
+    <row r="27" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B27" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="C26" s="96">
-        <v>0</v>
-      </c>
-      <c r="D26" s="96">
-        <v>0</v>
-      </c>
-      <c r="E26" s="96">
-        <v>0</v>
-      </c>
-      <c r="F26" s="96">
-        <v>0</v>
-      </c>
-      <c r="G26" s="96">
-        <v>0</v>
-      </c>
-      <c r="H26" s="96">
-        <v>0</v>
-      </c>
-      <c r="I26" s="96">
-        <v>0</v>
-      </c>
-      <c r="J26" s="96">
-        <v>0</v>
-      </c>
-      <c r="K26" s="96">
-        <v>0</v>
-      </c>
-      <c r="L26" s="96">
-        <v>1</v>
-      </c>
-      <c r="M26" s="96">
-        <v>0</v>
-      </c>
-      <c r="N26" s="96">
-        <v>0</v>
-      </c>
-      <c r="O26" s="96">
-        <v>0</v>
-      </c>
-      <c r="P26" s="100"/>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="61" t="s">
+      <c r="C27" s="96">
+        <v>0</v>
+      </c>
+      <c r="D27" s="96">
+        <v>0</v>
+      </c>
+      <c r="E27" s="96">
+        <v>0</v>
+      </c>
+      <c r="F27" s="96">
+        <v>0</v>
+      </c>
+      <c r="G27" s="96">
+        <v>0</v>
+      </c>
+      <c r="H27" s="96">
+        <v>0</v>
+      </c>
+      <c r="I27" s="96">
+        <v>0</v>
+      </c>
+      <c r="J27" s="96">
+        <v>0</v>
+      </c>
+      <c r="K27" s="96">
+        <v>0</v>
+      </c>
+      <c r="L27" s="96">
+        <v>1</v>
+      </c>
+      <c r="M27" s="96">
+        <v>0</v>
+      </c>
+      <c r="N27" s="96">
+        <v>0</v>
+      </c>
+      <c r="O27" s="96">
+        <v>0</v>
+      </c>
+      <c r="P27" s="100"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="C27" s="96">
-        <v>0</v>
-      </c>
-      <c r="D27" s="96">
-        <v>0</v>
-      </c>
-      <c r="E27" s="96">
-        <v>0</v>
-      </c>
-      <c r="F27" s="96">
-        <v>0</v>
-      </c>
-      <c r="G27" s="96">
-        <v>0</v>
-      </c>
-      <c r="H27" s="96">
-        <v>0</v>
-      </c>
-      <c r="I27" s="96">
-        <v>0</v>
-      </c>
-      <c r="J27" s="96">
-        <v>0</v>
-      </c>
-      <c r="K27" s="96">
-        <v>0</v>
-      </c>
-      <c r="L27" s="96">
-        <v>1</v>
-      </c>
-      <c r="M27" s="96">
-        <v>1</v>
-      </c>
-      <c r="N27" s="96">
-        <v>1</v>
-      </c>
-      <c r="O27" s="96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="57"/>
-      <c r="B28" s="61" t="s">
+      <c r="C28" s="96">
+        <v>0</v>
+      </c>
+      <c r="D28" s="96">
+        <v>0</v>
+      </c>
+      <c r="E28" s="96">
+        <v>0</v>
+      </c>
+      <c r="F28" s="96">
+        <v>0</v>
+      </c>
+      <c r="G28" s="96">
+        <v>0</v>
+      </c>
+      <c r="H28" s="96">
+        <v>0</v>
+      </c>
+      <c r="I28" s="96">
+        <v>0</v>
+      </c>
+      <c r="J28" s="96">
+        <v>0</v>
+      </c>
+      <c r="K28" s="96">
+        <v>0</v>
+      </c>
+      <c r="L28" s="96">
+        <v>1</v>
+      </c>
+      <c r="M28" s="96">
+        <v>1</v>
+      </c>
+      <c r="N28" s="96">
+        <v>1</v>
+      </c>
+      <c r="O28" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="57"/>
+      <c r="B29" s="61" t="s">
         <v>207</v>
-      </c>
-      <c r="C28" s="96">
-        <v>0</v>
-      </c>
-      <c r="D28" s="96">
-        <v>0</v>
-      </c>
-      <c r="E28" s="96">
-        <v>0</v>
-      </c>
-      <c r="F28" s="96">
-        <v>0</v>
-      </c>
-      <c r="G28" s="96">
-        <v>0</v>
-      </c>
-      <c r="H28" s="96">
-        <v>0</v>
-      </c>
-      <c r="I28" s="96">
-        <v>0</v>
-      </c>
-      <c r="J28" s="96">
-        <v>0</v>
-      </c>
-      <c r="K28" s="96">
-        <v>0</v>
-      </c>
-      <c r="L28" s="96">
-        <v>1</v>
-      </c>
-      <c r="M28" s="96">
-        <v>1</v>
-      </c>
-      <c r="N28" s="96">
-        <v>1</v>
-      </c>
-      <c r="O28" s="96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="61" t="s">
-        <v>191</v>
       </c>
       <c r="C29" s="96">
         <v>0</v>
@@ -9912,114 +10000,114 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="96">
+        <v>0</v>
+      </c>
+      <c r="D30" s="96">
+        <v>0</v>
+      </c>
+      <c r="E30" s="96">
+        <v>0</v>
+      </c>
+      <c r="F30" s="96">
+        <v>0</v>
+      </c>
+      <c r="G30" s="96">
+        <v>0</v>
+      </c>
+      <c r="H30" s="96">
+        <v>0</v>
+      </c>
+      <c r="I30" s="96">
+        <v>0</v>
+      </c>
+      <c r="J30" s="96">
+        <v>0</v>
+      </c>
+      <c r="K30" s="96">
+        <v>0</v>
+      </c>
+      <c r="L30" s="96">
+        <v>1</v>
+      </c>
+      <c r="M30" s="96">
+        <v>1</v>
+      </c>
+      <c r="N30" s="96">
+        <v>1</v>
+      </c>
+      <c r="O30" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="C30" s="96">
-        <v>0</v>
-      </c>
-      <c r="D30" s="96">
-        <v>0</v>
-      </c>
-      <c r="E30" s="96">
-        <v>0</v>
-      </c>
-      <c r="F30" s="96">
-        <v>0</v>
-      </c>
-      <c r="G30" s="96">
-        <v>0</v>
-      </c>
-      <c r="H30" s="96">
-        <v>0</v>
-      </c>
-      <c r="I30" s="96">
-        <v>0</v>
-      </c>
-      <c r="J30" s="96">
-        <v>0</v>
-      </c>
-      <c r="K30" s="96">
-        <v>0</v>
-      </c>
-      <c r="L30" s="96">
-        <v>1</v>
-      </c>
-      <c r="M30" s="96">
-        <v>0</v>
-      </c>
-      <c r="N30" s="96">
-        <v>0</v>
-      </c>
-      <c r="O30" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="53"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="102"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
-      <c r="L31" s="97"/>
-      <c r="M31" s="97"/>
-      <c r="N31" s="97"/>
-      <c r="O31" s="97"/>
+      <c r="C31" s="96">
+        <v>0</v>
+      </c>
+      <c r="D31" s="96">
+        <v>0</v>
+      </c>
+      <c r="E31" s="96">
+        <v>0</v>
+      </c>
+      <c r="F31" s="96">
+        <v>0</v>
+      </c>
+      <c r="G31" s="96">
+        <v>0</v>
+      </c>
+      <c r="H31" s="96">
+        <v>0</v>
+      </c>
+      <c r="I31" s="96">
+        <v>0</v>
+      </c>
+      <c r="J31" s="96">
+        <v>0</v>
+      </c>
+      <c r="K31" s="96">
+        <v>0</v>
+      </c>
+      <c r="L31" s="96">
+        <v>1</v>
+      </c>
+      <c r="M31" s="96">
+        <v>0</v>
+      </c>
+      <c r="N31" s="96">
+        <v>0</v>
+      </c>
+      <c r="O31" s="96">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="57" t="s">
+      <c r="B32" s="53"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="97"/>
+      <c r="M32" s="97"/>
+      <c r="N32" s="97"/>
+      <c r="O32" s="97"/>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B33" s="53" t="s">
         <v>63</v>
-      </c>
-      <c r="C32" s="96">
-        <v>1</v>
-      </c>
-      <c r="D32" s="96">
-        <v>0</v>
-      </c>
-      <c r="E32" s="96">
-        <v>1</v>
-      </c>
-      <c r="F32" s="96">
-        <v>1</v>
-      </c>
-      <c r="G32" s="96">
-        <v>1</v>
-      </c>
-      <c r="H32" s="96">
-        <v>1</v>
-      </c>
-      <c r="I32" s="96">
-        <v>1</v>
-      </c>
-      <c r="J32" s="96">
-        <v>1</v>
-      </c>
-      <c r="K32" s="96">
-        <v>1</v>
-      </c>
-      <c r="L32" s="96">
-        <v>1</v>
-      </c>
-      <c r="M32" s="96">
-        <v>1</v>
-      </c>
-      <c r="N32" s="96">
-        <v>1</v>
-      </c>
-      <c r="O32" s="96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="53" t="s">
-        <v>64</v>
       </c>
       <c r="C33" s="96">
         <v>1</v>
@@ -10063,7 +10151,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C34" s="96">
         <v>1</v>
@@ -10107,7 +10195,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="53" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C35" s="96">
         <v>1</v>
@@ -10151,96 +10239,96 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="96">
+        <v>1</v>
+      </c>
+      <c r="D36" s="96">
+        <v>0</v>
+      </c>
+      <c r="E36" s="96">
+        <v>1</v>
+      </c>
+      <c r="F36" s="96">
+        <v>1</v>
+      </c>
+      <c r="G36" s="96">
+        <v>1</v>
+      </c>
+      <c r="H36" s="96">
+        <v>1</v>
+      </c>
+      <c r="I36" s="96">
+        <v>1</v>
+      </c>
+      <c r="J36" s="96">
+        <v>1</v>
+      </c>
+      <c r="K36" s="96">
+        <v>1</v>
+      </c>
+      <c r="L36" s="96">
+        <v>1</v>
+      </c>
+      <c r="M36" s="96">
+        <v>1</v>
+      </c>
+      <c r="N36" s="96">
+        <v>1</v>
+      </c>
+      <c r="O36" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="96">
-        <v>1</v>
-      </c>
-      <c r="D36" s="96">
-        <v>1</v>
-      </c>
-      <c r="E36" s="96">
-        <v>1</v>
-      </c>
-      <c r="F36" s="96">
-        <v>1</v>
-      </c>
-      <c r="G36" s="96">
-        <v>1</v>
-      </c>
-      <c r="H36" s="96">
-        <v>1</v>
-      </c>
-      <c r="I36" s="96">
-        <v>1</v>
-      </c>
-      <c r="J36" s="96">
-        <v>1</v>
-      </c>
-      <c r="K36" s="96">
-        <v>1</v>
-      </c>
-      <c r="L36" s="96">
-        <v>1</v>
-      </c>
-      <c r="M36" s="96">
-        <v>1</v>
-      </c>
-      <c r="N36" s="96">
-        <v>1</v>
-      </c>
-      <c r="O36" s="96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="103"/>
-      <c r="B37" s="53" t="s">
+      <c r="C37" s="96">
+        <v>1</v>
+      </c>
+      <c r="D37" s="96">
+        <v>1</v>
+      </c>
+      <c r="E37" s="96">
+        <v>1</v>
+      </c>
+      <c r="F37" s="96">
+        <v>1</v>
+      </c>
+      <c r="G37" s="96">
+        <v>1</v>
+      </c>
+      <c r="H37" s="96">
+        <v>1</v>
+      </c>
+      <c r="I37" s="96">
+        <v>1</v>
+      </c>
+      <c r="J37" s="96">
+        <v>1</v>
+      </c>
+      <c r="K37" s="96">
+        <v>1</v>
+      </c>
+      <c r="L37" s="96">
+        <v>1</v>
+      </c>
+      <c r="M37" s="96">
+        <v>1</v>
+      </c>
+      <c r="N37" s="96">
+        <v>1</v>
+      </c>
+      <c r="O37" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="103"/>
+      <c r="B38" s="53" t="s">
         <v>83</v>
-      </c>
-      <c r="C37" s="96">
-        <v>1</v>
-      </c>
-      <c r="D37" s="96">
-        <v>1</v>
-      </c>
-      <c r="E37" s="96">
-        <v>1</v>
-      </c>
-      <c r="F37" s="96">
-        <v>1</v>
-      </c>
-      <c r="G37" s="96">
-        <v>1</v>
-      </c>
-      <c r="H37" s="96">
-        <v>1</v>
-      </c>
-      <c r="I37" s="96">
-        <v>1</v>
-      </c>
-      <c r="J37" s="96">
-        <v>1</v>
-      </c>
-      <c r="K37" s="96">
-        <v>1</v>
-      </c>
-      <c r="L37" s="96">
-        <v>1</v>
-      </c>
-      <c r="M37" s="96">
-        <v>1</v>
-      </c>
-      <c r="N37" s="96">
-        <v>1</v>
-      </c>
-      <c r="O37" s="96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="53" t="s">
-        <v>82</v>
       </c>
       <c r="C38" s="96">
         <v>1</v>
@@ -10284,7 +10372,7 @@
     </row>
     <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" s="96">
         <v>1</v>
@@ -10328,107 +10416,151 @@
     </row>
     <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="96">
+        <v>1</v>
+      </c>
+      <c r="D40" s="96">
+        <v>1</v>
+      </c>
+      <c r="E40" s="96">
+        <v>1</v>
+      </c>
+      <c r="F40" s="96">
+        <v>1</v>
+      </c>
+      <c r="G40" s="96">
+        <v>1</v>
+      </c>
+      <c r="H40" s="96">
+        <v>1</v>
+      </c>
+      <c r="I40" s="96">
+        <v>1</v>
+      </c>
+      <c r="J40" s="96">
+        <v>1</v>
+      </c>
+      <c r="K40" s="96">
+        <v>1</v>
+      </c>
+      <c r="L40" s="96">
+        <v>1</v>
+      </c>
+      <c r="M40" s="96">
+        <v>1</v>
+      </c>
+      <c r="N40" s="96">
+        <v>1</v>
+      </c>
+      <c r="O40" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="96">
-        <v>1</v>
-      </c>
-      <c r="D40" s="96">
-        <v>1</v>
-      </c>
-      <c r="E40" s="96">
-        <v>1</v>
-      </c>
-      <c r="F40" s="96">
-        <v>1</v>
-      </c>
-      <c r="G40" s="96">
-        <v>1</v>
-      </c>
-      <c r="H40" s="96">
-        <v>1</v>
-      </c>
-      <c r="I40" s="96">
-        <v>1</v>
-      </c>
-      <c r="J40" s="96">
-        <v>1</v>
-      </c>
-      <c r="K40" s="96">
-        <v>1</v>
-      </c>
-      <c r="L40" s="96">
-        <v>1</v>
-      </c>
-      <c r="M40" s="96">
-        <v>1</v>
-      </c>
-      <c r="N40" s="96">
-        <v>1</v>
-      </c>
-      <c r="O40" s="96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="53" t="s">
+      <c r="C41" s="96">
+        <v>1</v>
+      </c>
+      <c r="D41" s="96">
+        <v>1</v>
+      </c>
+      <c r="E41" s="96">
+        <v>1</v>
+      </c>
+      <c r="F41" s="96">
+        <v>1</v>
+      </c>
+      <c r="G41" s="96">
+        <v>1</v>
+      </c>
+      <c r="H41" s="96">
+        <v>1</v>
+      </c>
+      <c r="I41" s="96">
+        <v>1</v>
+      </c>
+      <c r="J41" s="96">
+        <v>1</v>
+      </c>
+      <c r="K41" s="96">
+        <v>1</v>
+      </c>
+      <c r="L41" s="96">
+        <v>1</v>
+      </c>
+      <c r="M41" s="96">
+        <v>1</v>
+      </c>
+      <c r="N41" s="96">
+        <v>1</v>
+      </c>
+      <c r="O41" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="96">
-        <v>1</v>
-      </c>
-      <c r="D41" s="96">
-        <v>1</v>
-      </c>
-      <c r="E41" s="96">
-        <v>1</v>
-      </c>
-      <c r="F41" s="96">
-        <v>1</v>
-      </c>
-      <c r="G41" s="96">
-        <v>1</v>
-      </c>
-      <c r="H41" s="96">
-        <v>1</v>
-      </c>
-      <c r="I41" s="96">
-        <v>1</v>
-      </c>
-      <c r="J41" s="96">
-        <v>1</v>
-      </c>
-      <c r="K41" s="96">
-        <v>1</v>
-      </c>
-      <c r="L41" s="96">
-        <v>1</v>
-      </c>
-      <c r="M41" s="96">
-        <v>1</v>
-      </c>
-      <c r="N41" s="96">
-        <v>1</v>
-      </c>
-      <c r="O41" s="96">
+      <c r="C42" s="96">
+        <v>1</v>
+      </c>
+      <c r="D42" s="96">
+        <v>1</v>
+      </c>
+      <c r="E42" s="96">
+        <v>1</v>
+      </c>
+      <c r="F42" s="96">
+        <v>1</v>
+      </c>
+      <c r="G42" s="96">
+        <v>1</v>
+      </c>
+      <c r="H42" s="96">
+        <v>1</v>
+      </c>
+      <c r="I42" s="96">
+        <v>1</v>
+      </c>
+      <c r="J42" s="96">
+        <v>1</v>
+      </c>
+      <c r="K42" s="96">
+        <v>1</v>
+      </c>
+      <c r="L42" s="96">
+        <v>1</v>
+      </c>
+      <c r="M42" s="96">
+        <v>1</v>
+      </c>
+      <c r="N42" s="96">
+        <v>1</v>
+      </c>
+      <c r="O42" s="96">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UTAD6hDPFf/Ul0P2TkEmcVLwJIskng6BwO7PQn9KQppd8AxlpMXDzh2uUA/A2vdLAdLHbrkvLJZl/FHFHl0BRA==" saltValue="WyzBb18fC4LyksUq9iofgA==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="R6E4Z1eMEwhWY9x8ah7fn60K/FUhiD3bjZsN+d0aneOUBQjx+MSzEQ3f4xgLromXQacg2RuQX2zps17p5X6/Gg==" saltValue="2H1gYE0Uxd3bfzXEuxrcUQ==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -11010,26 +11142,24 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="B31" s="96"/>
       <c r="C31" s="96"/>
       <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
+      <c r="E31" s="96" t="s">
+        <v>216</v>
+      </c>
       <c r="F31" s="96"/>
-      <c r="G31" s="96" t="s">
-        <v>216</v>
-      </c>
-      <c r="H31" s="96" t="s">
-        <v>216</v>
-      </c>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
       <c r="I31" s="96"/>
       <c r="J31" s="96"/>
       <c r="K31" s="96"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="B32" s="96"/>
       <c r="C32" s="96"/>
@@ -11048,7 +11178,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33" s="96"/>
       <c r="C33" s="96"/>
@@ -11067,7 +11197,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B34" s="96"/>
       <c r="C34" s="96"/>
@@ -11086,7 +11216,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B35" s="96"/>
       <c r="C35" s="96"/>
@@ -11105,7 +11235,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B36" s="96"/>
       <c r="C36" s="96"/>
@@ -11124,14 +11254,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B37" s="96"/>
       <c r="C37" s="96"/>
       <c r="D37" s="96"/>
       <c r="E37" s="96"/>
       <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
+      <c r="G37" s="96" t="s">
+        <v>216</v>
+      </c>
       <c r="H37" s="96" t="s">
         <v>216</v>
       </c>
@@ -11141,18 +11273,14 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="96" t="s">
-        <v>216</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B38" s="96"/>
       <c r="C38" s="96"/>
       <c r="D38" s="96"/>
       <c r="E38" s="96"/>
       <c r="F38" s="96"/>
-      <c r="G38" s="96" t="s">
-        <v>216</v>
-      </c>
+      <c r="G38" s="96"/>
       <c r="H38" s="96" t="s">
         <v>216</v>
       </c>
@@ -11160,14 +11288,35 @@
       <c r="J38" s="96"/>
       <c r="K38" s="96"/>
     </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="H39" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="I39" s="96"/>
+      <c r="J39" s="96"/>
+      <c r="K39" s="96"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oiGH8ykkK4bW2BTY+0QBtgAZA6QVYaID3ACaTwjfensJoFK/mp4iBWWYi82MR3y0NDcWoVIY4HiBlMUBKqM6yA==" saltValue="6eqoI7d0CysiCWo+LkMlXw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jE1b0TVBA5pE/P7L+cdCQSfCsUOABmV4lWu9hSs+HIQ0aoN+p2CDh5bvHDw1HfKGB3mrWrP6Gq7EHXwIRs8QUw==" saltValue="G+X+bnbdBHWeDzP2p7cFoQ==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -11541,13 +11690,13 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -12658,6 +12807,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12667,12 +12822,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12680,7 +12829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -13077,7 +13226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -15980,7 +16129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -16936,7 +17085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -17246,14 +17395,14 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17329,10 +17478,10 @@
         <v>259</v>
       </c>
       <c r="C4" s="121">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D4" s="121">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E4" s="121">
         <v>0</v>
@@ -17367,10 +17516,10 @@
         <v>259</v>
       </c>
       <c r="C6" s="121">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D6" s="121">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E6" s="121">
         <v>0</v>
@@ -17481,10 +17630,10 @@
         <v>259</v>
       </c>
       <c r="C12" s="121">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="121">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="E12" s="121">
         <v>0</v>
@@ -17525,13 +17674,13 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -18321,14 +18470,14 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -18371,16 +18520,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="121">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="E3" s="121">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F3" s="121">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="G3" s="121">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
@@ -18389,10 +18538,10 @@
       </c>
       <c r="B4" s="61"/>
       <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="98" t="s">
@@ -18402,34 +18551,34 @@
         <v>1</v>
       </c>
       <c r="D5" s="121">
-        <v>0.14299999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="E5" s="121">
-        <v>0.14299999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="F5" s="121">
-        <v>0.14299999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="G5" s="121">
-        <v>0.14299999999999999</v>
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GOCV8jDgemE7dzuuRmIYljeeknnogqmqArkKarUDaviYQgtJ59RIHafgAKW2VEQf/MMJENrmBg2v2jbJ+IwMmA==" saltValue="8ZUhyEI/e1xkHczLOVME4w==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="P7Fljv2xXgcf52gGxiRU5lOnliCwgMAMJ6i8o5x0UxRe31wytiedBLGgitHEEiN184DDtbV3lhiQImyXgOCnZQ==" saltValue="4LtvYTWjQettQTajl384EA==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="111" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -18508,13 +18657,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="121">
-        <v>0.53134328358208949</v>
+        <v>0.36</v>
       </c>
       <c r="G3" s="121">
-        <v>0.53134328358208949</v>
+        <v>0.36</v>
       </c>
       <c r="H3" s="121">
-        <v>0.53134328358208949</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -18528,13 +18677,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="121">
-        <v>0.38507462686567184</v>
+        <v>0.45</v>
       </c>
       <c r="G4" s="121">
-        <v>0.38507462686567184</v>
+        <v>0.45</v>
       </c>
       <c r="H4" s="121">
-        <v>0.38507462686567184</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -18732,13 +18881,13 @@
         <v>0</v>
       </c>
       <c r="F13" s="121">
-        <v>0.33500000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="G13" s="121">
-        <v>0.33500000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="H13" s="121">
-        <v>0.33500000000000002</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -18752,13 +18901,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="121">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="G14" s="121">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
       <c r="H14" s="121">
-        <v>0.62</v>
+        <v>0.85</v>
       </c>
       <c r="I14" s="36"/>
     </row>
@@ -18776,13 +18925,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="121">
-        <v>0.33500000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="G15" s="121">
-        <v>0.33500000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="H15" s="121">
-        <v>0.33500000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="I15" s="36"/>
     </row>
@@ -18797,13 +18946,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="121">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="G16" s="121">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="H16" s="121">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="I16" s="36"/>
     </row>
@@ -18839,7 +18988,7 @@
         <v>268</v>
       </c>
       <c r="D18" s="121">
-        <v>0.46</v>
+        <v>0.19</v>
       </c>
       <c r="E18" s="121">
         <v>0</v>
@@ -18886,7 +19035,7 @@
         <v>268</v>
       </c>
       <c r="D20" s="121">
-        <v>0.46</v>
+        <v>0.19</v>
       </c>
       <c r="E20" s="121">
         <v>0</v>
@@ -18932,7 +19081,7 @@
         <v>268</v>
       </c>
       <c r="D22" s="121">
-        <v>0.46</v>
+        <v>0.19</v>
       </c>
       <c r="E22" s="121">
         <v>0</v>
@@ -19371,19 +19520,19 @@
         <v>268</v>
       </c>
       <c r="D42" s="121">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="E42" s="121">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F42" s="121">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="G42" s="121">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H42" s="121">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -19391,19 +19540,19 @@
         <v>269</v>
       </c>
       <c r="D43" s="121">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="E43" s="121">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="F43" s="121">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="G43" s="121">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="H43" s="121">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -19437,19 +19586,19 @@
         <v>268</v>
       </c>
       <c r="D45" s="121">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="E45" s="121">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F45" s="121">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="G45" s="121">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="H45" s="121">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -19483,19 +19632,19 @@
         <v>268</v>
       </c>
       <c r="D47" s="121">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="E47" s="121">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="F47" s="121">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="G47" s="121">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="H47" s="121">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -19512,7 +19661,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="E48" s="121">
-        <v>0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="F48" s="121">
         <v>0</v>
@@ -19529,10 +19678,10 @@
         <v>268</v>
       </c>
       <c r="D49" s="121">
-        <v>0.51</v>
+        <v>0.88</v>
       </c>
       <c r="E49" s="121">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="F49" s="121">
         <v>0</v>
@@ -19552,14 +19701,14 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -19708,16 +19857,16 @@
         <v>268</v>
       </c>
       <c r="D7" s="121">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="E7" s="121">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="F7" s="121">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="G7" s="121">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="H7" s="142"/>
     </row>
@@ -19728,7 +19877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19763,7 +19912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -19972,7 +20121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -20305,7 +20454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -20666,7 +20815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -20771,7 +20920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -20974,7 +21123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -21215,20 +21364,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
     <col min="3" max="3" width="17.453125" customWidth="1"/>
     <col min="4" max="4" width="12.81640625" customWidth="1"/>
   </cols>
@@ -21237,7 +21386,7 @@
       <c r="A1" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="63" t="s">
         <v>183</v>
       </c>
       <c r="C1" s="63" t="s">
@@ -21249,19 +21398,19 @@
     </row>
     <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="63" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D2" s="81"/>
     </row>
     <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="63" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B3" s="46" t="s">
         <v>178</v>
@@ -21272,20 +21421,20 @@
       <c r="D3" s="81"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KAK9fjAi0tB9w1PUqeUNgZBXNYGF7t08YNHBjS6f2/uFBIh1t5g5f3mTDoaIfBvsASpqT35v7SBH94ZWCC9pQg==" saltValue="GSmV5uySc7GZpAmsyAcl7Q==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A28" zoomScale="106" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21811,7 +21960,7 @@
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="B31" s="85">
         <v>0</v>
@@ -21820,7 +21969,7 @@
         <v>0.95</v>
       </c>
       <c r="D31" s="86">
-        <v>0.35</v>
+        <v>9.36</v>
       </c>
       <c r="E31" s="86" t="s">
         <v>201</v>
@@ -21828,7 +21977,7 @@
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="B32" s="85">
         <v>0</v>
@@ -21837,7 +21986,7 @@
         <v>0.95</v>
       </c>
       <c r="D32" s="86">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="E32" s="86" t="s">
         <v>201</v>
@@ -21845,7 +21994,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33" s="85">
         <v>0</v>
@@ -21854,7 +22003,7 @@
         <v>0.95</v>
       </c>
       <c r="D33" s="86">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="E33" s="86" t="s">
         <v>201</v>
@@ -21862,7 +22011,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B34" s="85">
         <v>0</v>
@@ -21871,7 +22020,7 @@
         <v>0.95</v>
       </c>
       <c r="D34" s="86">
-        <v>50.26</v>
+        <v>2.8</v>
       </c>
       <c r="E34" s="86" t="s">
         <v>201</v>
@@ -21879,7 +22028,7 @@
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B35" s="85">
         <v>0</v>
@@ -21888,15 +22037,15 @@
         <v>0.95</v>
       </c>
       <c r="D35" s="86">
-        <v>36.1</v>
+        <v>50.26</v>
       </c>
       <c r="E35" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B36" s="85">
         <v>0</v>
@@ -21905,16 +22054,15 @@
         <v>0.95</v>
       </c>
       <c r="D36" s="86">
-        <v>231.85</v>
+        <v>36.1</v>
       </c>
       <c r="E36" s="86" t="s">
         <v>201</v>
       </c>
-      <c r="F36" s="35"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="53" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B37" s="85">
         <v>0</v>
@@ -21923,15 +22071,16 @@
         <v>0.95</v>
       </c>
       <c r="D37" s="86">
-        <v>1.5</v>
+        <v>231.85</v>
       </c>
       <c r="E37" s="86" t="s">
         <v>201</v>
       </c>
+      <c r="F37" s="35"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B38" s="85">
         <v>0</v>
@@ -21940,31 +22089,48 @@
         <v>0.95</v>
       </c>
       <c r="D38" s="86">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E38" s="86" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F39" s="36"/>
+      <c r="A39" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="85">
+        <v>0</v>
+      </c>
+      <c r="C39" s="85">
+        <v>0.95</v>
+      </c>
+      <c r="D39" s="86">
+        <v>1</v>
+      </c>
+      <c r="E39" s="86" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="wtv/HM4kAqRqMIiLkAYQC7Lcjqz7qSMF7Fo+6qi+BfjtDEm3dmaJR2oG6r16A5EzV4QlJ3rsskLmp+Scq5MAEw==" saltValue="phkuzZ1elu1sMpGSD/cRFg==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
-  <sortState ref="A2:D38">
-    <sortCondition ref="A2:A38"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="w1vMW0gL06Vb5eNknt9lNnNFj5i+5F/VjK9YWPtBe7dpzfitI0zN4F5rJ0KR87XA6mi0Itdi0rm/vuMY7vlK8w==" saltValue="gM9mpifVxG/optWd3F61aQ==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
+    <sortCondition ref="A2:A39"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000000000000}">
           <x14:formula1>
             <xm:f>'Cost curve options'!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E38</xm:sqref>
+          <xm:sqref>E2:E39</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/inputs/template_input.xlsx
+++ b/inputs/template_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93285A95-8E4F-495E-8C64-55973AD54109}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DEF8BC-3662-495C-9505-4AD0055A9D12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="885" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="885" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -1275,6 +1275,12 @@
   </si>
   <si>
     <t>Effectiveness incidence</t>
+  </si>
+  <si>
+    <t>Prevalence of pre-eclampsia</t>
+  </si>
+  <si>
+    <t>Prevalence of eclampsia</t>
   </si>
 </sst>
 </file>
@@ -4799,8 +4805,8 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5239,11 +5245,27 @@
         <v>0.42</v>
       </c>
     </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C60" s="66">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C61" s="66">
+        <v>1.4E-2</v>
+      </c>
+    </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection password="CA9F" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kaynMEHvzIgdUn4/O2nEmlltrlWHLRxA+TienObtv9jh/Z9GAmO4lRKnrNBfHEUN9Cn5ygql9HxSiCDbaeI3Og==" saltValue="CDFVRRPufOl9LBijxUQ7Uw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -7187,7 +7209,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -11578,12 +11600,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11593,6 +11609,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -20111,8 +20133,8 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -20290,7 +20312,9 @@
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="44"/>
-      <c r="E14" s="80"/>
+      <c r="E14" s="80" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">

--- a/inputs/template_input.xlsx
+++ b/inputs/template_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DEF8BC-3662-495C-9505-4AD0055A9D12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658A3C07-D0DE-4972-8C5B-94CC60FE082E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="885" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="885" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -1085,9 +1085,6 @@
     <t>Cost-coverage relationship</t>
   </si>
   <si>
-    <t>Unit cost (US$ per person per year)</t>
-  </si>
-  <si>
     <t>IFAS (health facility)</t>
   </si>
   <si>
@@ -1281,6 +1278,9 @@
   </si>
   <si>
     <t>Prevalence of eclampsia</t>
+  </si>
+  <si>
+    <t>Unit cost (US$)</t>
   </si>
 </sst>
 </file>
@@ -4864,7 +4864,7 @@
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" s="65">
         <v>9862402</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C60" s="66">
         <v>4.5999999999999999E-2</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C61" s="66">
         <v>1.4E-2</v>
@@ -6216,7 +6216,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C17" s="88">
         <v>0</v>
@@ -6550,7 +6550,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C25" s="88">
         <v>0</v>
@@ -7243,7 +7243,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" s="80" t="s">
         <v>59</v>
@@ -8437,7 +8437,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C20" s="133">
         <v>0</v>
@@ -8766,7 +8766,7 @@
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C28" s="133">
         <v>0</v>
@@ -9393,16 +9393,16 @@
         <v>69</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>70</v>
       </c>
       <c r="D1" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>213</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>214</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>24</v>
@@ -9414,13 +9414,13 @@
         <v>74</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J1" s="35" t="s">
         <v>196</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -9586,7 +9586,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133" t="s">
@@ -9656,7 +9656,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B15" s="133"/>
       <c r="C15" s="133" t="s">
@@ -10136,19 +10136,19 @@
   <sheetData>
     <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>70</v>
       </c>
       <c r="D1" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>213</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>214</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>24</v>
@@ -10160,13 +10160,13 @@
         <v>74</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J1" s="35" t="s">
         <v>196</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -10503,7 +10503,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>177</v>
@@ -10529,7 +10529,7 @@
     </row>
     <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B2" s="137" t="s">
         <v>32</v>
@@ -10890,7 +10890,7 @@
     </row>
     <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B19" s="137" t="s">
         <v>32</v>
@@ -11248,7 +11248,7 @@
     </row>
     <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="97" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B36" s="137" t="s">
         <v>32</v>
@@ -11600,6 +11600,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11609,12 +11615,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12740,7 +12740,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12760,7 +12760,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3" s="104"/>
       <c r="C3" s="105"/>
@@ -12844,7 +12844,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C9" s="135">
         <v>1</v>
@@ -12869,7 +12869,7 @@
     </row>
     <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="99" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C11" s="110"/>
       <c r="D11" s="111"/>
@@ -12879,7 +12879,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C12" s="108"/>
       <c r="D12" s="95"/>
@@ -12889,7 +12889,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C13" s="135">
         <v>1</v>
@@ -12907,7 +12907,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="113" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C14" s="135">
         <v>1</v>
@@ -12925,7 +12925,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="113" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="135">
         <v>1</v>
@@ -12952,7 +12952,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B17" s="104"/>
       <c r="C17" s="115"/>
@@ -13138,18 +13138,18 @@
   <sheetData>
     <row r="1" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="118" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="119" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="119" t="s">
         <v>232</v>
-      </c>
-      <c r="C2" s="119" t="s">
-        <v>233</v>
       </c>
       <c r="D2" s="103" t="s">
         <v>1</v>
@@ -13181,7 +13181,7 @@
         <v>71</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D3" s="135">
         <v>1</v>
@@ -13209,7 +13209,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D4" s="136">
         <v>1</v>
@@ -13237,7 +13237,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D5" s="136">
         <v>1</v>
@@ -13265,7 +13265,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D6" s="136">
         <v>1</v>
@@ -13296,7 +13296,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D7" s="135">
         <v>1</v>
@@ -13324,7 +13324,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D8" s="136">
         <v>1</v>
@@ -13352,7 +13352,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D9" s="136">
         <v>1</v>
@@ -13380,7 +13380,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D10" s="136">
         <v>1</v>
@@ -13411,7 +13411,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D11" s="135">
         <v>1</v>
@@ -13439,7 +13439,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D12" s="136">
         <v>1</v>
@@ -13467,7 +13467,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D13" s="136">
         <v>1</v>
@@ -13495,7 +13495,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D14" s="136">
         <v>1</v>
@@ -13526,7 +13526,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D15" s="135">
         <v>1</v>
@@ -13554,7 +13554,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D16" s="136">
         <v>1</v>
@@ -13582,7 +13582,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C17" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D17" s="136">
         <v>1</v>
@@ -13610,7 +13610,7 @@
     </row>
     <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D18" s="136">
         <v>1</v>
@@ -13641,7 +13641,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D19" s="135">
         <v>1</v>
@@ -13669,7 +13669,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C20" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D20" s="136">
         <v>1</v>
@@ -13697,7 +13697,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C21" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D21" s="136">
         <v>1</v>
@@ -13725,7 +13725,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C22" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D22" s="136">
         <v>1</v>
@@ -13756,7 +13756,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D23" s="135">
         <v>1</v>
@@ -13784,7 +13784,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C24" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D24" s="136">
         <v>1</v>
@@ -13812,7 +13812,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C25" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D25" s="136">
         <v>1</v>
@@ -13840,7 +13840,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C26" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D26" s="136">
         <v>1</v>
@@ -13868,18 +13868,18 @@
     </row>
     <row r="28" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="99" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="121" t="s">
+        <v>238</v>
+      </c>
+      <c r="B29" s="94" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" s="94" t="s">
         <v>239</v>
-      </c>
-      <c r="B29" s="94" t="s">
-        <v>232</v>
-      </c>
-      <c r="C29" s="94" t="s">
-        <v>240</v>
       </c>
       <c r="D29" s="103" t="s">
         <v>1</v>
@@ -13911,7 +13911,7 @@
         <v>71</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D30" s="135">
         <v>1</v>
@@ -13939,7 +13939,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C31" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D31" s="136">
         <v>1</v>
@@ -14026,7 +14026,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D34" s="135">
         <v>1</v>
@@ -14054,7 +14054,7 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C35" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D35" s="136">
         <v>1</v>
@@ -14141,7 +14141,7 @@
         <v>18</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D38" s="135">
         <v>1</v>
@@ -14169,7 +14169,7 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D39" s="136">
         <v>1</v>
@@ -14256,7 +14256,7 @@
         <v>19</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D42" s="135">
         <v>1</v>
@@ -14284,7 +14284,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C43" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D43" s="136">
         <v>1</v>
@@ -14371,7 +14371,7 @@
         <v>17</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D46" s="135">
         <v>1</v>
@@ -14399,7 +14399,7 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C47" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D47" s="136">
         <v>1</v>
@@ -14486,7 +14486,7 @@
         <v>23</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D50" s="135">
         <v>1</v>
@@ -14514,7 +14514,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C51" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D51" s="136">
         <v>1</v>
@@ -14602,7 +14602,7 @@
     </row>
     <row r="55" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
@@ -14610,10 +14610,10 @@
         <v>70</v>
       </c>
       <c r="B56" s="94" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C56" s="123" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D56" s="103" t="s">
         <v>53</v>
@@ -14639,7 +14639,7 @@
         <v>38</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D57" s="135">
         <v>1</v>
@@ -14661,7 +14661,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C58" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D58" s="136">
         <v>10.675000000000001</v>
@@ -14686,7 +14686,7 @@
         <v>39</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D59" s="135">
         <v>1</v>
@@ -14708,7 +14708,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C60" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D60" s="136">
         <v>10.675000000000001</v>
@@ -14733,7 +14733,7 @@
         <v>40</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D61" s="135">
         <v>1</v>
@@ -14755,7 +14755,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C62" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D62" s="136">
         <v>10.675000000000001</v>
@@ -14781,7 +14781,7 @@
     </row>
     <row r="64" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A64" s="99" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
@@ -14789,10 +14789,10 @@
         <v>24</v>
       </c>
       <c r="B65" s="94" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C65" s="123" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D65" s="103" t="s">
         <v>1</v>
@@ -15856,7 +15856,7 @@
     </row>
     <row r="103" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A103" s="99" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
@@ -15867,7 +15867,7 @@
         <v>169</v>
       </c>
       <c r="C104" s="123" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D104" s="103" t="s">
         <v>1</v>
@@ -16042,7 +16042,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16068,10 +16068,10 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="113" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="136" t="s">
         <v>249</v>
-      </c>
-      <c r="C3" s="136" t="s">
-        <v>250</v>
       </c>
       <c r="D3" s="136">
         <v>45</v>
@@ -16089,7 +16089,7 @@
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="117" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C4" s="136">
         <v>1.0249999999999999</v>
@@ -16109,7 +16109,7 @@
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="104" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16182,7 +16182,7 @@
     </row>
     <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="99" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16212,15 +16212,15 @@
     </row>
     <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="99" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="125" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B14" s="117" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C14" s="136">
         <v>1.0249999999999999</v>
@@ -16241,7 +16241,7 @@
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="117" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="136">
         <v>1.0249999999999999</v>
@@ -16264,7 +16264,7 @@
         <v>70</v>
       </c>
       <c r="B16" s="113" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C16" s="136">
         <v>1</v>
@@ -16285,7 +16285,7 @@
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="99" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16370,7 +16370,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C2" s="136">
         <v>0.21</v>
@@ -16388,7 +16388,7 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="90"/>
       <c r="B3" s="90" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C3" s="136">
         <v>1</v>
@@ -16408,7 +16408,7 @@
         <v>187</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C4" s="136">
         <v>0</v>
@@ -16426,7 +16426,7 @@
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="90"/>
       <c r="B5" s="90" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -16443,10 +16443,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C6" s="136">
         <v>0</v>
@@ -16464,7 +16464,7 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="90"/>
       <c r="B7" s="90" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C7" s="136">
         <v>1</v>
@@ -16484,7 +16484,7 @@
         <v>57</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C8" s="136">
         <v>0.35</v>
@@ -16502,7 +16502,7 @@
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="90"/>
       <c r="B9" s="90" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -16522,7 +16522,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="90" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C10" s="136">
         <v>0.35</v>
@@ -16540,7 +16540,7 @@
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="90"/>
       <c r="B11" s="90" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C11" s="136">
         <v>1</v>
@@ -16560,7 +16560,7 @@
         <v>59</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C12" s="136">
         <v>0.08</v>
@@ -16578,7 +16578,7 @@
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="90"/>
       <c r="B13" s="90" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C13" s="136">
         <v>1</v>
@@ -16670,7 +16670,7 @@
     </row>
     <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -16763,7 +16763,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" s="136">
         <v>1</v>
@@ -16939,7 +16939,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" s="136">
         <v>1</v>
@@ -17203,7 +17203,7 @@
     </row>
     <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B16" s="59"/>
     </row>
@@ -17442,7 +17442,7 @@
     </row>
     <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17467,7 +17467,7 @@
     </row>
     <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="127"/>
@@ -17532,10 +17532,10 @@
         <v>69</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="125" t="s">
         <v>265</v>
-      </c>
-      <c r="C1" s="125" t="s">
-        <v>266</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>1</v>
@@ -17561,7 +17561,7 @@
         <v>71</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D2" s="136">
         <v>0</v>
@@ -17581,7 +17581,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D3" s="136">
         <v>0</v>
@@ -17601,7 +17601,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D4" s="136">
         <v>0</v>
@@ -17627,7 +17627,7 @@
         <v>66</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D5" s="136">
         <v>0</v>
@@ -17647,7 +17647,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D6" s="136">
         <v>0</v>
@@ -17670,7 +17670,7 @@
         <v>65</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D7" s="136">
         <v>0</v>
@@ -17690,7 +17690,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D8" s="136">
         <v>0</v>
@@ -17716,7 +17716,7 @@
         <v>66</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D9" s="136">
         <v>0</v>
@@ -17736,7 +17736,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D10" s="136">
         <v>0</v>
@@ -17759,7 +17759,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D11" s="136">
         <v>0</v>
@@ -17779,7 +17779,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D12" s="136">
         <v>0</v>
@@ -17805,7 +17805,7 @@
         <v>66</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D13" s="136">
         <v>0</v>
@@ -17825,7 +17825,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D14" s="136">
         <v>0</v>
@@ -17849,7 +17849,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D15" s="136">
         <v>0</v>
@@ -17870,7 +17870,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D16" s="136">
         <v>0</v>
@@ -17897,7 +17897,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D17" s="136">
         <v>0.7</v>
@@ -17918,7 +17918,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D18" s="136">
         <v>0.186</v>
@@ -17945,7 +17945,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D19" s="136">
         <v>0.7</v>
@@ -17965,7 +17965,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D20" s="136">
         <v>0.186</v>
@@ -17991,7 +17991,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D21" s="136">
         <v>0.7</v>
@@ -18011,7 +18011,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D22" s="136">
         <v>0.186</v>
@@ -18037,7 +18037,7 @@
         <v>71</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D23" s="136">
         <v>1</v>
@@ -18057,7 +18057,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D24" s="136">
         <v>0</v>
@@ -18077,7 +18077,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C25" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D25" s="136">
         <v>0</v>
@@ -18103,7 +18103,7 @@
         <v>71</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D26" s="136">
         <v>1</v>
@@ -18123,7 +18123,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D27" s="136">
         <v>0</v>
@@ -18143,7 +18143,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D28" s="136">
         <v>0</v>
@@ -18169,7 +18169,7 @@
         <v>71</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D29" s="136">
         <v>1</v>
@@ -18189,7 +18189,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C30" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D30" s="136">
         <v>0</v>
@@ -18209,7 +18209,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D31" s="136">
         <v>0</v>
@@ -18235,7 +18235,7 @@
         <v>71</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D32" s="136">
         <v>1</v>
@@ -18255,7 +18255,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D33" s="136">
         <v>0</v>
@@ -18275,7 +18275,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D34" s="136">
         <v>0</v>
@@ -18301,7 +18301,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D35" s="136">
         <v>1</v>
@@ -18321,7 +18321,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C36" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D36" s="136">
         <v>0</v>
@@ -18341,7 +18341,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D37" s="136">
         <v>0</v>
@@ -18367,7 +18367,7 @@
         <v>71</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D38" s="136">
         <v>0.3</v>
@@ -18387,7 +18387,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C39" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D39" s="136">
         <v>0.5</v>
@@ -18407,7 +18407,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D40" s="136">
         <v>0.65</v>
@@ -18430,7 +18430,7 @@
         <v>16</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D41" s="136">
         <v>0.3</v>
@@ -18450,7 +18450,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D42" s="136">
         <v>0.5</v>
@@ -18470,7 +18470,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D43" s="136">
         <v>0.63</v>
@@ -18496,7 +18496,7 @@
         <v>71</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D44" s="136">
         <v>0.88</v>
@@ -18516,7 +18516,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C45" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D45" s="136">
         <v>0.8</v>
@@ -18542,7 +18542,7 @@
         <v>71</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D46" s="136">
         <v>1</v>
@@ -18562,7 +18562,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D47" s="136">
         <v>0.76</v>
@@ -18588,7 +18588,7 @@
         <v>13</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D48" s="136">
         <v>0.57999999999999996</v>
@@ -18608,7 +18608,7 @@
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D49" s="136">
         <v>0.88</v>
@@ -18658,7 +18658,7 @@
         <v>69</v>
       </c>
       <c r="B1" s="119" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C1" s="119"/>
       <c r="D1" s="40" t="s">
@@ -18683,7 +18683,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D2" s="136">
         <v>1</v>
@@ -18701,7 +18701,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D3" s="136">
         <v>0.2</v>
@@ -18725,7 +18725,7 @@
         <v>41</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D4" s="136">
         <v>1</v>
@@ -18744,7 +18744,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D5" s="136">
         <v>0.59</v>
@@ -18768,7 +18768,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D6" s="136">
         <v>1</v>
@@ -18787,7 +18787,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D7" s="136">
         <v>0.59</v>
@@ -18840,10 +18840,10 @@
     </row>
     <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>210</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>211</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>1</v>
@@ -18942,7 +18942,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>2</v>
@@ -19148,7 +19148,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>32</v>
@@ -20133,7 +20133,7 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -20474,8 +20474,8 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20500,7 +20500,7 @@
         <v>200</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>206</v>
+        <v>271</v>
       </c>
       <c r="E1" s="53" t="s">
         <v>205</v>
@@ -20661,7 +20661,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B11" s="81">
         <v>0</v>
@@ -20729,7 +20729,7 @@
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B15" s="81">
         <v>0</v>
@@ -21140,7 +21140,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jSdherlZJbZ8Sy1L59bo9v5QauB4K+9LWnSRVPNbXJxTAgxgiv9ErxgnISHZ2apMgabDAJDnLmaWIXWQOwB0iA==" saltValue="GDpAVnNFn9RTLmsUAjB9Mw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RqRQ7TPRHXEe1L6igejFZAPpsdlPpA03ZIk5OoGMwDgWTFCU/UFqRft6btShWGOjIYx2qleK383Gm0g3oseHuQ==" saltValue="/rMTNIx8/vVBxWYBNG/iYQ==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/template_input.xlsx
+++ b/inputs/template_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658A3C07-D0DE-4972-8C5B-94CC60FE082E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E417AD09-30E8-4EC4-B2CE-44B2D063F68C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="885" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,10 @@
     <sheet name="IYCF packages" sheetId="55" r:id="rId7"/>
     <sheet name="Treatment of SAM" sheetId="60" r:id="rId8"/>
     <sheet name="Programs cost and coverage" sheetId="56" r:id="rId9"/>
-    <sheet name="Reference programs" sheetId="59" state="hidden" r:id="rId10"/>
-    <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId11"/>
-    <sheet name="Programs target population" sheetId="21" r:id="rId12"/>
-    <sheet name="Program dependencies" sheetId="58" r:id="rId13"/>
+    <sheet name="Program dependencies" sheetId="58" r:id="rId10"/>
+    <sheet name="Reference programs" sheetId="59" state="hidden" r:id="rId11"/>
+    <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId12"/>
+    <sheet name="Programs target population" sheetId="21" r:id="rId13"/>
     <sheet name="Cost curve options" sheetId="61" state="hidden" r:id="rId14"/>
     <sheet name="Programs family planning" sheetId="54" state="hidden" r:id="rId15"/>
     <sheet name="Programs impacted population" sheetId="62" state="hidden" r:id="rId16"/>
@@ -91,14 +91,12 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$47</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$39</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -2319,7 +2317,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2627,6 +2625,9 @@
     <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="727" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4805,18 +4806,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -4827,14 +4828,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>193</v>
@@ -4843,7 +4844,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>192</v>
@@ -4852,7 +4853,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -4921,7 +4922,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
@@ -5052,7 +5053,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -5062,7 +5063,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
@@ -5261,17 +5262,166 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kaynMEHvzIgdUn4/O2nEmlltrlWHLRxA+TienObtv9jh/Z9GAmO4lRKnrNBfHEUN9Cn5ygql9HxSiCDbaeI3Og==" saltValue="CDFVRRPufOl9LBijxUQ7Uw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6vBZiUpKF81G/we4/YZ98KetIv0SrNKtQefNuwvLhXejAdwetO4LiAsNak9JhiAk3T9oiMUputwflWPXg8CU+Q==" saltValue="y73DDGbNqaWLRrBT8qLb5A==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="80"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="80"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="80"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="80"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="84"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="84"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="84"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="84"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="84"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="86"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="86"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="86"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="86"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="86"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="86"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="86"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="86"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="84"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="84"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="mJIhFbJiXwMDYdaTQpBnnIuyYOuT68NH0zRKA9hB05n6uZvdwWxrgEXuFwGJ+96DUDA/ASxdRlcLT7WZRHSmMg==" saltValue="bb4cIfhca5ee56tuIEArcQ==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -5282,13 +5432,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -5369,7 +5519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
@@ -5380,7 +5530,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -5483,30 +5633,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -5553,7 +5703,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -6068,7 +6218,7 @@
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -6119,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>86</v>
@@ -6164,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>187</v>
@@ -6213,7 +6363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>207</v>
@@ -6449,7 +6599,7 @@
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="58" t="s">
         <v>37</v>
       </c>
@@ -6699,7 +6849,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -7202,162 +7352,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr>
-    <tabColor theme="7" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="80" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="80"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" s="80" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="80"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="80" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="80"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="84" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="80" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="80"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="84"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mJIhFbJiXwMDYdaTQpBnnIuyYOuT68NH0zRKA9hB05n6uZvdwWxrgEXuFwGJ+96DUDA/ASxdRlcLT7WZRHSmMg==" saltValue="bb4cIfhca5ee56tuIEArcQ==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
@@ -7395,16 +7396,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="35"/>
-    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="35"/>
+    <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -7421,7 +7422,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -7439,7 +7440,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -7457,7 +7458,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -7475,7 +7476,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -7493,7 +7494,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -7511,7 +7512,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -7529,7 +7530,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -7547,7 +7548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -7565,7 +7566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -7604,20 +7605,20 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="55"/>
+    <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.109375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
         <v>33</v>
       </c>
@@ -7664,7 +7665,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
         <v>31</v>
       </c>
@@ -7711,7 +7712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="52" t="s">
         <v>149</v>
       </c>
@@ -7755,7 +7756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="52" t="s">
         <v>173</v>
       </c>
@@ -7799,7 +7800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="52" t="s">
         <v>198</v>
       </c>
@@ -7843,7 +7844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="52" t="s">
         <v>199</v>
       </c>
@@ -7887,7 +7888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="52" t="s">
         <v>195</v>
       </c>
@@ -7931,7 +7932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="52" t="s">
         <v>136</v>
       </c>
@@ -7975,7 +7976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="52" t="s">
         <v>137</v>
       </c>
@@ -8019,7 +8020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="52" t="s">
         <v>84</v>
       </c>
@@ -8063,7 +8064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="52" t="s">
         <v>58</v>
       </c>
@@ -8107,7 +8108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="52" t="s">
         <v>67</v>
       </c>
@@ -8151,7 +8152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="52" t="s">
         <v>28</v>
       </c>
@@ -8195,7 +8196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="52" t="s">
         <v>85</v>
       </c>
@@ -8239,7 +8240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="52" t="s">
         <v>60</v>
       </c>
@@ -8283,7 +8284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="52"/>
       <c r="C16" s="129"/>
       <c r="D16" s="129"/>
@@ -8299,7 +8300,7 @@
       <c r="N16" s="129"/>
       <c r="O16" s="129"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="56" t="s">
         <v>32</v>
       </c>
@@ -8346,7 +8347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>86</v>
@@ -8391,7 +8392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="90" t="s">
         <v>187</v>
       </c>
@@ -8435,7 +8436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="90" t="s">
         <v>207</v>
       </c>
@@ -8479,7 +8480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="91" t="s">
         <v>57</v>
       </c>
@@ -8523,7 +8524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="52" t="s">
         <v>88</v>
       </c>
@@ -8567,7 +8568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="52" t="s">
         <v>87</v>
       </c>
@@ -8611,7 +8612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="52" t="s">
         <v>59</v>
       </c>
@@ -8655,7 +8656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="52"/>
       <c r="C25" s="129"/>
       <c r="D25" s="129"/>
@@ -8671,7 +8672,7 @@
       <c r="N25" s="129"/>
       <c r="O25" s="129"/>
     </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="56" t="s">
         <v>37</v>
       </c>
@@ -8719,7 +8720,7 @@
       </c>
       <c r="P26" s="92"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="59" t="s">
         <v>188</v>
       </c>
@@ -8763,7 +8764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>206</v>
@@ -8808,7 +8809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="59" t="s">
         <v>189</v>
       </c>
@@ -8852,7 +8853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="59" t="s">
         <v>190</v>
       </c>
@@ -8896,7 +8897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="52"/>
       <c r="C31" s="130"/>
       <c r="D31" s="130"/>
@@ -8912,7 +8913,7 @@
       <c r="N31" s="129"/>
       <c r="O31" s="129"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="56" t="s">
         <v>35</v>
       </c>
@@ -8959,7 +8960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="52" t="s">
         <v>64</v>
       </c>
@@ -9003,7 +9004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="52" t="s">
         <v>62</v>
       </c>
@@ -9047,7 +9048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="52" t="s">
         <v>47</v>
       </c>
@@ -9091,7 +9092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="52" t="s">
         <v>34</v>
       </c>
@@ -9135,7 +9136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="93"/>
       <c r="B37" s="52" t="s">
         <v>83</v>
@@ -9180,7 +9181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="52" t="s">
         <v>82</v>
       </c>
@@ -9224,7 +9225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="52" t="s">
         <v>81</v>
       </c>
@@ -9268,7 +9269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="52" t="s">
         <v>79</v>
       </c>
@@ -9312,7 +9313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="52" t="s">
         <v>80</v>
       </c>
@@ -9373,22 +9374,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -10119,22 +10120,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>216</v>
       </c>
@@ -10493,15 +10494,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="35"/>
+    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -10527,11 +10528,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="138" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="35" t="s">
@@ -10554,7 +10555,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="137"/>
+      <c r="B3" s="138"/>
       <c r="C3" s="35" t="s">
         <v>175</v>
       </c>
@@ -10576,7 +10577,7 @@
       <c r="J3" s="95"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="137"/>
+      <c r="B4" s="138"/>
       <c r="C4" s="35" t="s">
         <v>174</v>
       </c>
@@ -10598,7 +10599,7 @@
       <c r="J4" s="95"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="138" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
@@ -10622,7 +10623,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="137"/>
+      <c r="B6" s="138"/>
       <c r="C6" s="35" t="s">
         <v>175</v>
       </c>
@@ -10643,7 +10644,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="137"/>
+      <c r="B7" s="138"/>
       <c r="C7" s="35" t="s">
         <v>174</v>
       </c>
@@ -10664,7 +10665,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="138" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="35" t="s">
@@ -10687,7 +10688,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="137"/>
+      <c r="B9" s="138"/>
       <c r="C9" s="35" t="s">
         <v>175</v>
       </c>
@@ -10708,7 +10709,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="137"/>
+      <c r="B10" s="138"/>
       <c r="C10" s="35" t="s">
         <v>174</v>
       </c>
@@ -10729,7 +10730,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="138" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="35" t="s">
@@ -10752,7 +10753,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="137"/>
+      <c r="B12" s="138"/>
       <c r="C12" s="35" t="s">
         <v>175</v>
       </c>
@@ -10773,7 +10774,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="137"/>
+      <c r="B13" s="138"/>
       <c r="C13" s="35" t="s">
         <v>174</v>
       </c>
@@ -10794,7 +10795,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="138" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="35" t="s">
@@ -10817,7 +10818,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="137"/>
+      <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
         <v>175</v>
       </c>
@@ -10838,7 +10839,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="137"/>
+      <c r="B16" s="138"/>
       <c r="C16" s="35" t="s">
         <v>174</v>
       </c>
@@ -10858,7 +10859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="96" t="s">
         <v>172</v>
       </c>
@@ -10888,11 +10889,11 @@
       <c r="G18" s="132"/>
       <c r="H18" s="132"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="B19" s="137" t="s">
+      <c r="B19" s="138" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -10915,7 +10916,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="137"/>
+      <c r="B20" s="138"/>
       <c r="C20" s="35" t="s">
         <v>175</v>
       </c>
@@ -10936,7 +10937,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="137"/>
+      <c r="B21" s="138"/>
       <c r="C21" s="35" t="s">
         <v>174</v>
       </c>
@@ -10957,7 +10958,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="137" t="s">
+      <c r="B22" s="138" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="35" t="s">
@@ -10980,7 +10981,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="137"/>
+      <c r="B23" s="138"/>
       <c r="C23" s="35" t="s">
         <v>175</v>
       </c>
@@ -11001,7 +11002,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="137"/>
+      <c r="B24" s="138"/>
       <c r="C24" s="35" t="s">
         <v>174</v>
       </c>
@@ -11022,7 +11023,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="137" t="s">
+      <c r="B25" s="138" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="35" t="s">
@@ -11045,7 +11046,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="137"/>
+      <c r="B26" s="138"/>
       <c r="C26" s="35" t="s">
         <v>175</v>
       </c>
@@ -11066,7 +11067,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="137"/>
+      <c r="B27" s="138"/>
       <c r="C27" s="35" t="s">
         <v>174</v>
       </c>
@@ -11087,7 +11088,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="137" t="s">
+      <c r="B28" s="138" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="35" t="s">
@@ -11110,7 +11111,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="137"/>
+      <c r="B29" s="138"/>
       <c r="C29" s="35" t="s">
         <v>175</v>
       </c>
@@ -11131,7 +11132,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="137"/>
+      <c r="B30" s="138"/>
       <c r="C30" s="35" t="s">
         <v>174</v>
       </c>
@@ -11152,7 +11153,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="137" t="s">
+      <c r="B31" s="138" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="35" t="s">
@@ -11175,7 +11176,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="137"/>
+      <c r="B32" s="138"/>
       <c r="C32" s="35" t="s">
         <v>175</v>
       </c>
@@ -11196,7 +11197,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="137"/>
+      <c r="B33" s="138"/>
       <c r="C33" s="35" t="s">
         <v>174</v>
       </c>
@@ -11216,7 +11217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="96" t="s">
         <v>172</v>
       </c>
@@ -11246,11 +11247,11 @@
       <c r="G35" s="132"/>
       <c r="H35" s="132"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="97" t="s">
         <v>220</v>
       </c>
-      <c r="B36" s="137" t="s">
+      <c r="B36" s="138" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="35" t="s">
@@ -11273,7 +11274,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="137"/>
+      <c r="B37" s="138"/>
       <c r="C37" s="35" t="s">
         <v>175</v>
       </c>
@@ -11294,7 +11295,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="137"/>
+      <c r="B38" s="138"/>
       <c r="C38" s="35" t="s">
         <v>174</v>
       </c>
@@ -11315,7 +11316,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="137" t="s">
+      <c r="B39" s="138" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="35" t="s">
@@ -11338,7 +11339,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="137"/>
+      <c r="B40" s="138"/>
       <c r="C40" s="35" t="s">
         <v>175</v>
       </c>
@@ -11359,7 +11360,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="137"/>
+      <c r="B41" s="138"/>
       <c r="C41" s="35" t="s">
         <v>174</v>
       </c>
@@ -11380,7 +11381,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="137" t="s">
+      <c r="B42" s="138" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="35" t="s">
@@ -11403,7 +11404,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="137"/>
+      <c r="B43" s="138"/>
       <c r="C43" s="35" t="s">
         <v>175</v>
       </c>
@@ -11424,7 +11425,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="137"/>
+      <c r="B44" s="138"/>
       <c r="C44" s="35" t="s">
         <v>174</v>
       </c>
@@ -11445,7 +11446,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="137" t="s">
+      <c r="B45" s="138" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="35" t="s">
@@ -11468,7 +11469,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="137"/>
+      <c r="B46" s="138"/>
       <c r="C46" s="35" t="s">
         <v>175</v>
       </c>
@@ -11489,7 +11490,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="137"/>
+      <c r="B47" s="138"/>
       <c r="C47" s="35" t="s">
         <v>174</v>
       </c>
@@ -11510,7 +11511,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="137" t="s">
+      <c r="B48" s="138" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="35" t="s">
@@ -11533,7 +11534,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="137"/>
+      <c r="B49" s="138"/>
       <c r="C49" s="35" t="s">
         <v>175</v>
       </c>
@@ -11554,7 +11555,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="137"/>
+      <c r="B50" s="138"/>
       <c r="C50" s="35" t="s">
         <v>174</v>
       </c>
@@ -11574,7 +11575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="98" t="s">
         <v>172</v>
       </c>
@@ -11632,14 +11633,14 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.90625" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.88671875" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -12728,22 +12729,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="35"/>
+    <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
         <v>26</v>
@@ -12758,7 +12759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>222</v>
       </c>
@@ -12842,7 +12843,7 @@
       <c r="E8" s="95"/>
       <c r="F8" s="95"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>223</v>
       </c>
@@ -12867,7 +12868,7 @@
       <c r="F10" s="95"/>
       <c r="G10" s="109"/>
     </row>
-    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="99" t="s">
         <v>224</v>
       </c>
@@ -12877,7 +12878,7 @@
       <c r="F11" s="111"/>
       <c r="G11" s="112"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>225</v>
       </c>
@@ -12941,7 +12942,7 @@
       </c>
       <c r="G15" s="109"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="113"/>
       <c r="C16" s="114"/>
@@ -12950,7 +12951,7 @@
       <c r="F16" s="95"/>
       <c r="G16" s="109"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>229</v>
       </c>
@@ -13104,7 +13105,7 @@
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="113"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13121,27 +13122,27 @@
   </sheetPr>
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="118" t="s">
         <v>211</v>
       </c>
@@ -13175,7 +13176,7 @@
       <c r="O2" s="120"/>
       <c r="P2" s="120"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13608,7 +13609,7 @@
       <c r="O17" s="118"/>
       <c r="P17" s="118"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>236</v>
       </c>
@@ -13866,12 +13867,12 @@
       <c r="O26" s="118"/>
       <c r="P26" s="118"/>
     </row>
-    <row r="28" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="99" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="121" t="s">
         <v>238</v>
       </c>
@@ -13905,7 +13906,7 @@
       <c r="O29" s="120"/>
       <c r="P29" s="120"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -14600,12 +14601,12 @@
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="99" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="121" t="s">
         <v>70</v>
       </c>
@@ -14633,7 +14634,7 @@
       <c r="O56" s="120"/>
       <c r="P56" s="120"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14779,12 +14780,12 @@
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="99" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="121" t="s">
         <v>24</v>
       </c>
@@ -14818,7 +14819,7 @@
       <c r="O65" s="120"/>
       <c r="P65" s="120"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -15854,12 +15855,12 @@
       <c r="O101" s="118"/>
       <c r="P101" s="118"/>
     </row>
-    <row r="103" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="99" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="121" t="s">
         <v>71</v>
       </c>
@@ -15893,7 +15894,7 @@
       <c r="O104" s="120"/>
       <c r="P104" s="120"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -16007,7 +16008,7 @@
       <c r="O108" s="118"/>
       <c r="P108" s="118"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -16025,27 +16026,27 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="125" t="s">
         <v>25</v>
       </c>
@@ -16086,7 +16087,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="117" t="s">
         <v>250</v>
@@ -16107,7 +16108,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
         <v>251</v>
       </c>
@@ -16180,12 +16181,12 @@
       <c r="F9" s="117"/>
       <c r="G9" s="117"/>
     </row>
-    <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="99" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="104"/>
       <c r="B11" s="113" t="s">
         <v>195</v>
@@ -16206,16 +16207,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="104"/>
       <c r="B12" s="113"/>
     </row>
-    <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="99" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="125" t="s">
         <v>238</v>
       </c>
@@ -16238,7 +16239,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="117" t="s">
         <v>255</v>
@@ -16259,7 +16260,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="125" t="s">
         <v>70</v>
       </c>
@@ -16283,12 +16284,12 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="99" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="56" t="s">
         <v>49</v>
       </c>
@@ -16335,19 +16336,19 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="35"/>
-    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="35"/>
+    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.109375" style="35"/>
+    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="119" t="s">
         <v>69</v>
       </c>
@@ -16411,10 +16412,10 @@
         <v>258</v>
       </c>
       <c r="C4" s="136">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="D4" s="136">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E4" s="136">
         <v>0</v>
@@ -16449,10 +16450,10 @@
         <v>258</v>
       </c>
       <c r="C6" s="136">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="D6" s="136">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E6" s="136">
         <v>0</v>
@@ -16563,10 +16564,10 @@
         <v>258</v>
       </c>
       <c r="C12" s="136">
-        <v>0.08</v>
+        <v>0.23</v>
       </c>
       <c r="D12" s="136">
-        <v>0.08</v>
+        <v>0.23</v>
       </c>
       <c r="E12" s="136">
         <v>0</v>
@@ -16613,19 +16614,19 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="35"/>
+    <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
@@ -16668,7 +16669,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>260</v>
       </c>
@@ -17113,7 +17114,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="59" t="s">
         <v>137</v>
       </c>
@@ -17201,7 +17202,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>261</v>
       </c>
@@ -17350,37 +17351,37 @@
         <v>1</v>
       </c>
       <c r="E20" s="136">
-        <v>0.97599999999999998</v>
+        <v>0.9</v>
       </c>
       <c r="F20" s="136">
-        <v>0.97599999999999998</v>
+        <v>0.9</v>
       </c>
       <c r="G20" s="136">
-        <v>0.97599999999999998</v>
+        <v>0.9</v>
       </c>
       <c r="H20" s="136">
-        <v>0.97599999999999998</v>
+        <v>0.9</v>
       </c>
       <c r="I20" s="136">
-        <v>0.97599999999999998</v>
+        <v>0.9</v>
       </c>
       <c r="J20" s="136">
-        <v>0.97599999999999998</v>
+        <v>0.9</v>
       </c>
       <c r="K20" s="136">
-        <v>0.97599999999999998</v>
+        <v>0.9</v>
       </c>
       <c r="L20" s="136">
-        <v>0.97599999999999998</v>
+        <v>0.9</v>
       </c>
       <c r="M20" s="136">
-        <v>0.97599999999999998</v>
+        <v>0.9</v>
       </c>
       <c r="N20" s="136">
-        <v>0.97599999999999998</v>
+        <v>0.9</v>
       </c>
       <c r="O20" s="136">
-        <v>0.97599999999999998</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
@@ -17410,18 +17411,18 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
@@ -17440,7 +17441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>262</v>
       </c>
@@ -17453,19 +17454,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="136">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="E3" s="136">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="F3" s="136">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="G3" s="136">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>263</v>
       </c>
@@ -17484,16 +17485,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="136">
-        <v>0.16</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E5" s="136">
-        <v>0.16</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="F5" s="136">
-        <v>0.16</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="G5" s="136">
-        <v>0.16</v>
+        <v>0.14299999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -17510,24 +17511,24 @@
   </sheetPr>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" zoomScale="111" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A28" zoomScale="111" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="35"/>
-    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="35"/>
+    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="35"/>
+    <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -17590,13 +17591,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="136">
-        <v>0.36</v>
+        <v>0.53134328358208949</v>
       </c>
       <c r="G3" s="136">
-        <v>0.36</v>
+        <v>0.53134328358208949</v>
       </c>
       <c r="H3" s="136">
-        <v>0.36</v>
+        <v>0.53134328358208949</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -17610,13 +17611,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="136">
-        <v>0.45</v>
+        <v>0.38507462686567184</v>
       </c>
       <c r="G4" s="136">
-        <v>0.45</v>
+        <v>0.38507462686567184</v>
       </c>
       <c r="H4" s="136">
-        <v>0.45</v>
+        <v>0.38507462686567184</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -17699,7 +17700,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="136">
-        <v>0.25970149253731301</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G8" s="136">
         <v>0.25970149253731345</v>
@@ -17814,13 +17815,13 @@
         <v>0</v>
       </c>
       <c r="F13" s="136">
-        <v>0.8</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="G13" s="136">
-        <v>0.8</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="H13" s="136">
-        <v>0.8</v>
+        <v>0.33500000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -17834,13 +17835,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="136">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="G14" s="136">
-        <v>0.85</v>
+        <v>0.62</v>
       </c>
       <c r="H14" s="136">
-        <v>0.85</v>
+        <v>0.62</v>
       </c>
       <c r="I14" s="36"/>
     </row>
@@ -17858,13 +17859,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="136">
-        <v>0.8</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="G15" s="136">
-        <v>0.8</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="H15" s="136">
-        <v>0.8</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="I15" s="36"/>
     </row>
@@ -17879,13 +17880,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="136">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="G16" s="136">
-        <v>0.75</v>
+        <v>0.62</v>
       </c>
       <c r="H16" s="136">
-        <v>0.75</v>
+        <v>0.62</v>
       </c>
       <c r="I16" s="36"/>
     </row>
@@ -17921,7 +17922,7 @@
         <v>267</v>
       </c>
       <c r="D18" s="136">
-        <v>0.186</v>
+        <v>0.46</v>
       </c>
       <c r="E18" s="136">
         <v>0</v>
@@ -17968,7 +17969,7 @@
         <v>267</v>
       </c>
       <c r="D20" s="136">
-        <v>0.186</v>
+        <v>0.46</v>
       </c>
       <c r="E20" s="136">
         <v>0</v>
@@ -18014,7 +18015,7 @@
         <v>267</v>
       </c>
       <c r="D22" s="136">
-        <v>0.186</v>
+        <v>0.46</v>
       </c>
       <c r="E22" s="136">
         <v>0</v>
@@ -18453,19 +18454,19 @@
         <v>267</v>
       </c>
       <c r="D42" s="136">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="E42" s="136">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F42" s="136">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="G42" s="136">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="H42" s="136">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -18473,19 +18474,19 @@
         <v>268</v>
       </c>
       <c r="D43" s="136">
-        <v>0.63</v>
+        <v>0.52</v>
       </c>
       <c r="E43" s="136">
-        <v>0.63</v>
+        <v>0.52</v>
       </c>
       <c r="F43" s="136">
-        <v>0.63</v>
+        <v>0.52</v>
       </c>
       <c r="G43" s="136">
-        <v>0.63</v>
+        <v>0.52</v>
       </c>
       <c r="H43" s="136">
-        <v>0.63</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -18519,19 +18520,19 @@
         <v>267</v>
       </c>
       <c r="D45" s="136">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="E45" s="136">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F45" s="136">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="G45" s="136">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="H45" s="136">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -18565,19 +18566,19 @@
         <v>267</v>
       </c>
       <c r="D47" s="136">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="E47" s="136">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="F47" s="136">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="G47" s="136">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="H47" s="136">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -18594,7 +18595,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="E48" s="136">
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F48" s="136">
         <v>0</v>
@@ -18611,10 +18612,10 @@
         <v>267</v>
       </c>
       <c r="D49" s="136">
-        <v>0.88</v>
+        <v>0.51</v>
       </c>
       <c r="E49" s="136">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="F49" s="136">
         <v>0</v>
@@ -18641,19 +18642,19 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="119" t="s">
         <v>69</v>
       </c>
@@ -18790,16 +18791,16 @@
         <v>267</v>
       </c>
       <c r="D7" s="136">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="E7" s="136">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="F7" s="136">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="G7" s="136">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="H7" s="128"/>
     </row>
@@ -18820,14 +18821,14 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -18838,7 +18839,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -18937,7 +18938,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -19143,7 +19144,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -19256,16 +19257,16 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -19683,16 +19684,16 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -19816,20 +19817,19 @@
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -19837,49 +19837,34 @@
         <v>145</v>
       </c>
       <c r="C1">
+        <v>2010</v>
+      </c>
+      <c r="D1">
+        <v>2011</v>
+      </c>
+      <c r="E1">
+        <v>2012</v>
+      </c>
+      <c r="F1">
+        <v>2013</v>
+      </c>
+      <c r="G1">
+        <v>2014</v>
+      </c>
+      <c r="H1">
+        <v>2015</v>
+      </c>
+      <c r="I1">
+        <v>2016</v>
+      </c>
+      <c r="J1">
         <v>2017</v>
       </c>
-      <c r="D1">
+      <c r="K1">
         <v>2018</v>
       </c>
-      <c r="E1">
-        <v>2019</v>
-      </c>
-      <c r="F1">
-        <v>2020</v>
-      </c>
-      <c r="G1">
-        <v>2021</v>
-      </c>
-      <c r="H1">
-        <v>2022</v>
-      </c>
-      <c r="I1">
-        <v>2023</v>
-      </c>
-      <c r="J1">
-        <v>2024</v>
-      </c>
-      <c r="K1">
-        <v>2025</v>
-      </c>
-      <c r="L1">
-        <v>2026</v>
-      </c>
-      <c r="M1">
-        <v>2027</v>
-      </c>
-      <c r="N1">
-        <v>2028</v>
-      </c>
-      <c r="O1">
-        <v>2029</v>
-      </c>
-      <c r="P1">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -19887,8 +19872,8 @@
         <v>143</v>
       </c>
       <c r="C2" s="28">
-        <f>(('Nutritional status distribution'!C4+'Nutritional status distribution'!C5)*(1/60)+('Nutritional status distribution'!D4+'Nutritional status distribution'!D5)*(5/60)+('Nutritional status distribution'!E4+'Nutritional status distribution'!E5)*(6/60)+('Nutritional status distribution'!F4+'Nutritional status distribution'!F5)*(12/60)+('Nutritional status distribution'!G4+'Nutritional status distribution'!G5)*(36/60))</f>
-        <v>0.34434320222452625</v>
+        <f>SUM('Nutritional status distribution'!G4:G5)</f>
+        <v>0.39358559498956158</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -19898,18 +19883,11 @@
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -19917,8 +19895,8 @@
         <v>143</v>
       </c>
       <c r="C4" s="28">
-        <f>(('Nutritional status distribution'!C10+'Nutritional status distribution'!C11)*(1/60)+('Nutritional status distribution'!D10+'Nutritional status distribution'!D11)*(5/60)+('Nutritional status distribution'!E10+'Nutritional status distribution'!E11)*(6/60)+('Nutritional status distribution'!F10+'Nutritional status distribution'!F11)*(12/60)+('Nutritional status distribution'!G10+'Nutritional status distribution'!G11)*(36/60))</f>
-        <v>4.4702487716765882E-2</v>
+        <f>SUM('Nutritional status distribution'!E10:E11)</f>
+        <v>6.9747692307692316E-2</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -19927,21 +19905,12 @@
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
-      <c r="K4" s="28">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28">
-        <v>3.9E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K4" s="28"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -19949,8 +19918,8 @@
         <v>143</v>
       </c>
       <c r="C6" s="28">
-        <f>'Nutritional status distribution'!C15*(1/60)+'Nutritional status distribution'!D15*(5/60)+'Nutritional status distribution'!E15*(6/60)+'Nutritional status distribution'!F15*(12/60)+'Nutritional status distribution'!G15*(36/60)</f>
-        <v>0.22016400000000003</v>
+        <f>SUM('Nutritional status distribution'!C14)</f>
+        <v>0.1</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -19960,21 +19929,14 @@
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28">
-        <v>0.19800000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="28">
-        <f>('Nutritional status distribution'!H15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!I15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!J15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!K15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
-        <v>0.18837666072928053</v>
+        <f>'Nutritional status distribution'!H14</f>
+        <v>0.47299999999999998</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -19984,21 +19946,14 @@
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28">
-        <v>0.17499999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
       <c r="C8" s="28">
-        <f>('Nutritional status distribution'!L15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!M15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!N15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!O15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
-        <v>0.18837666072928053</v>
+        <f>'Nutritional status distribution'!L14</f>
+        <v>0.47299999999999998</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -20007,18 +19962,9 @@
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
-      <c r="K8" s="28">
-        <v>0.15</v>
-      </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28">
-        <v>0.17399999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K8" s="28"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -20026,8 +19972,8 @@
         <v>147</v>
       </c>
       <c r="C10" s="28">
-        <f>('Breastfeeding distribution'!C2*(1/6)+'Breastfeeding distribution'!D2*(5/6))</f>
-        <v>0.50922873745377717</v>
+        <f>SUM('Breastfeeding distribution'!D2:D3)</f>
+        <v>0.65982250396196518</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -20037,21 +19983,14 @@
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
       <c r="C11" s="28">
-        <f>(('Breastfeeding distribution'!E4)*(6/18)+('Breastfeeding distribution'!F4)*(12/18))</f>
-        <v>0.79221422376409367</v>
+        <f>'Breastfeeding distribution'!F4</f>
+        <v>0.72099999999999997</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -20061,24 +20000,17 @@
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="28">
-        <f>U5_mortality/1000</f>
-        <v>6.7000000000000004E-2</v>
+      <c r="C13" s="137">
+        <f>U5_mortality</f>
+        <v>67</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
@@ -20088,21 +20020,14 @@
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="28">
-        <f>maternal_mortality/1000</f>
-        <v>4.0099999999999997E-3</v>
+      <c r="C14" s="137">
+        <f>maternal_mortality</f>
+        <v>4.01</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -20112,13 +20037,6 @@
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28">
-        <v>4.0000000000000001E-3</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20137,15 +20055,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>178</v>
       </c>
@@ -20162,7 +20080,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>173</v>
       </c>
@@ -20241,7 +20159,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>198</v>
       </c>
@@ -20316,7 +20234,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>199</v>
       </c>
@@ -20415,15 +20333,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>164</v>
       </c>
@@ -20437,7 +20355,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="61" t="s">
         <v>69</v>
       </c>
@@ -20449,7 +20367,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
         <v>185</v>
       </c>
@@ -20474,21 +20392,21 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.453125" style="35"/>
+    <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>69</v>
       </c>
@@ -21140,7 +21058,7 @@
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RqRQ7TPRHXEe1L6igejFZAPpsdlPpA03ZIk5OoGMwDgWTFCU/UFqRft6btShWGOjIYx2qleK383Gm0g3oseHuQ==" saltValue="/rMTNIx8/vVBxWYBNG/iYQ==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TK27GbmENx4NYnD7pE1ytqrRX/lcaYqYzt4JvmLGwKIcvbqgpkZNhIc+bFwIkWdvkb4nN9JLsSTMmS2+SckifQ==" saltValue="yVBaWCbfqKRrpWYxG1/8bw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/template_input.xlsx
+++ b/inputs/template_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658A3C07-D0DE-4972-8C5B-94CC60FE082E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833BA593-24BA-4593-8FF3-D1BA6223C77C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="885" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="Causes of death" sheetId="4" r:id="rId3"/>
     <sheet name="Nutritional status distribution" sheetId="5" r:id="rId4"/>
     <sheet name="Breastfeeding distribution" sheetId="50" r:id="rId5"/>
-    <sheet name="Time trends" sheetId="51" r:id="rId6"/>
+    <sheet name="Time trends" sheetId="51" state="hidden" r:id="rId6"/>
     <sheet name="IYCF packages" sheetId="55" r:id="rId7"/>
     <sheet name="Treatment of SAM" sheetId="60" r:id="rId8"/>
     <sheet name="Programs cost and coverage" sheetId="56" r:id="rId9"/>
     <sheet name="Reference programs" sheetId="59" state="hidden" r:id="rId10"/>
     <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId11"/>
-    <sheet name="Programs target population" sheetId="21" r:id="rId12"/>
-    <sheet name="Program dependencies" sheetId="58" r:id="rId13"/>
+    <sheet name="Program dependencies" sheetId="58" r:id="rId12"/>
+    <sheet name="Programs target population" sheetId="21" r:id="rId13"/>
     <sheet name="Cost curve options" sheetId="61" state="hidden" r:id="rId14"/>
     <sheet name="Programs family planning" sheetId="54" state="hidden" r:id="rId15"/>
     <sheet name="Programs impacted population" sheetId="62" state="hidden" r:id="rId16"/>
@@ -91,14 +91,12 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$47</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$39</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -114,7 +112,31 @@
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{192BBFEF-52B0-4892-A6C4-3A60B2B70F02}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Cost per person per year, or per pregnancy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{8FD65767-BD52-4338-93B4-E05E91753723}">
       <text>
         <r>
           <rPr>
@@ -134,50 +156,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">The cost per child per year can be estimated as 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">= (cost per treatment) * (annual diarrhoea incidence)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Diarrhoea incidence is the average in children under 5.  See user guide for further information</t>
+Cost per treatment</t>
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{7843245D-EFBB-4EB5-865D-154D835199FE}">
       <text>
         <r>
           <rPr>
@@ -197,27 +180,21 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+Cost per treatment</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{A157C98E-71F7-4EE2-BC0F-9972193227C5}">
+      <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The cost per child per year can be estimated as 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">= (cost per treatment episode) * (SAM prevalence) * 2.6
-</t>
+          <t>Nick Scott:</t>
         </r>
         <r>
           <rPr>
@@ -227,42 +204,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Cost per treatment episode includes management of MAM (if selected) and is an average over delivery modalities. See user guide for further information</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick Scott:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-The cost per child per year can be estimated as 
-= (cost per treatment) * (annual diarrhoea incidence)
-Diarrhoea incidence is the average in children under 5.  See user guide for further information</t>
+Cost per treatment</t>
         </r>
       </text>
     </comment>
@@ -465,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -1293,7 +1235,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1464,6 +1406,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2319,7 +2274,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2630,6 +2585,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="728">
@@ -4805,18 +4763,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.9" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -4827,14 +4785,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.9" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.9" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>193</v>
@@ -4843,7 +4801,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.9" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>192</v>
@@ -4852,416 +4810,342 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.9" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="65">
-        <v>9862402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="65"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="66">
-        <v>0.28199999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="66"/>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="B9" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="67"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="67">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="67"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="66">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="66"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="66">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="66"/>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="66">
-        <v>0.221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="66"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1">
       <c r="B16" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="67">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="67"/>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="B17" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="67">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="67"/>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="B18" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="67">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="67"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="67">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="67"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1">
       <c r="B20" s="9" t="s">
         <v>98</v>
       </c>
       <c r="C20" s="68">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1">
       <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="67">
-        <v>0.127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="67"/>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1">
       <c r="B24" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="67">
-        <v>0.45200000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="67"/>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1">
       <c r="B25" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="67">
-        <v>0.33400000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="67"/>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1">
       <c r="B26" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="67">
-        <v>8.6999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="67"/>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>196</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="69">
-        <v>0.20799999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="69"/>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="69">
-        <v>0.63700000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="69"/>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="69">
-        <v>0.11899999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="69"/>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="B32" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="69">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="C32" s="69"/>
+    </row>
+    <row r="33" spans="1:5" ht="13.2">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
       <c r="C33" s="70">
         <f>SUM(C29:C32)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="B37" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="71">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="71"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1">
       <c r="B38" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="71">
-        <v>43</v>
-      </c>
+      <c r="C38" s="71"/>
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1">
       <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="71">
-        <v>67</v>
-      </c>
+      <c r="C39" s="71"/>
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1">
       <c r="B40" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C40" s="71">
-        <v>4.01</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="71"/>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="67">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="67"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1">
       <c r="B42" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="71">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="71"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="B45" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="67">
-        <v>3.1E-2</v>
-      </c>
+      <c r="C45" s="67"/>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="B46" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="67">
-        <v>0.109</v>
-      </c>
+      <c r="C46" s="67"/>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="B47" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="67">
-        <v>0.36499999999999999</v>
-      </c>
+      <c r="C47" s="67"/>
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1">
       <c r="B48" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C48" s="68">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
-        <v>0.495</v>
+        <v>1</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
       <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="B51" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="72">
-        <v>1.66</v>
-      </c>
+      <c r="C51" s="72"/>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1">
       <c r="B52" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="72">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="72"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
       <c r="B53" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="72">
-        <v>5.64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="72"/>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
       <c r="B54" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="72">
-        <v>5.43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="72"/>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
       <c r="B55" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="72">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="72"/>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1">
       <c r="A57" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="66">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="66"/>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1">
       <c r="B59" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C59" s="66">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="66"/>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1">
       <c r="B60" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="C60" s="66">
-        <v>4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="66"/>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1">
       <c r="B61" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="C61" s="66">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="66"/>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5282,85 +5166,85 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -5380,9 +5264,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5402,79 +5286,79 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B2" s="26">
         <f>'Baseline year population inputs'!C51</f>
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="C2" s="26">
         <f>'Baseline year population inputs'!C52</f>
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="D2" s="26">
         <f>'Baseline year population inputs'!C53</f>
-        <v>5.64</v>
+        <v>0</v>
       </c>
       <c r="E2" s="26">
         <f>'Baseline year population inputs'!C54</f>
-        <v>5.43</v>
+        <v>0</v>
       </c>
       <c r="F2" s="26">
         <f>'Baseline year population inputs'!C55</f>
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B3" s="26">
         <f>frac_mam_1month * 2.6</f>
-        <v>0.1404</v>
+        <v>0</v>
       </c>
       <c r="C3" s="26">
         <f>frac_mam_1_5months * 2.6</f>
-        <v>0.1404</v>
+        <v>0</v>
       </c>
       <c r="D3" s="26">
         <f>frac_mam_6_11months * 2.6</f>
-        <v>0.14045866666666668</v>
+        <v>0</v>
       </c>
       <c r="E3" s="26">
         <f>frac_mam_12_23months * 2.6</f>
-        <v>0.11062404115996258</v>
+        <v>0</v>
       </c>
       <c r="F3" s="26">
         <f>frac_mam_24_59months * 2.6</f>
-        <v>5.8059717622450747E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="26">
         <f>frac_sam_1month * 2.6</f>
-        <v>0.10400000000000001</v>
+        <v>0</v>
       </c>
       <c r="C4" s="26">
         <f>frac_sam_1_5months * 2.6</f>
-        <v>0.10400000000000001</v>
+        <v>0</v>
       </c>
       <c r="D4" s="26">
         <f>frac_sam_6_11months * 2.6</f>
-        <v>4.0885333333333343E-2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="26">
         <f>frac_sam_12_23months * 2.6</f>
-        <v>2.6248082319925165E-2</v>
+        <v>0</v>
       </c>
       <c r="F4" s="26">
         <f>frac_sam_24_59months * 2.6</f>
-        <v>1.9069687990238803E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5484,6 +5368,155 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="80"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="80"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="80"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="80"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="84"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="84"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="84"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="84"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="84"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="86"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="86"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="86"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="86"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="86"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="86"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="86"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="86"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="84"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="84"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="mJIhFbJiXwMDYdaTQpBnnIuyYOuT68NH0zRKA9hB05n6uZvdwWxrgEXuFwGJ+96DUDA/ASxdRlcLT7WZRHSmMg==" saltValue="bb4cIfhca5ee56tuIEArcQ==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -5491,22 +5524,22 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -5553,7 +5586,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -5565,19 +5598,19 @@
       </c>
       <c r="D2" s="87">
         <f>food_insecure</f>
-        <v>0.28199999999999997</v>
+        <v>0</v>
       </c>
       <c r="E2" s="87">
         <f>food_insecure</f>
-        <v>0.28199999999999997</v>
+        <v>0</v>
       </c>
       <c r="F2" s="87">
         <f>food_insecure</f>
-        <v>0.28199999999999997</v>
+        <v>0</v>
       </c>
       <c r="G2" s="87">
         <f>food_insecure</f>
-        <v>0.28199999999999997</v>
+        <v>0</v>
       </c>
       <c r="H2" s="88">
         <v>0</v>
@@ -5604,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="7" t="s">
         <v>149</v>
       </c>
@@ -5648,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>195</v>
       </c>
@@ -5692,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>136</v>
       </c>
@@ -5704,11 +5737,11 @@
       </c>
       <c r="E5" s="87">
         <f>food_insecure</f>
-        <v>0.28199999999999997</v>
+        <v>0</v>
       </c>
       <c r="F5" s="87">
         <f>food_insecure</f>
-        <v>0.28199999999999997</v>
+        <v>0</v>
       </c>
       <c r="G5" s="87">
         <v>0</v>
@@ -5738,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>137</v>
       </c>
@@ -5785,29 +5818,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="33" t="s">
         <v>84</v>
       </c>
       <c r="C7" s="87">
         <f>diarrhoea_1mo/26</f>
-        <v>6.3846153846153844E-2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="87">
         <f>diarrhoea_1_5mo/26</f>
-        <v>6.3846153846153844E-2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="87">
         <f>diarrhoea_6_11mo/26</f>
-        <v>0.21692307692307691</v>
+        <v>0</v>
       </c>
       <c r="F7" s="87">
         <f>diarrhoea_12_23mo/26</f>
-        <v>0.20884615384615385</v>
+        <v>0</v>
       </c>
       <c r="G7" s="87">
         <f>diarrhoea_24_59mo/26</f>
-        <v>7.3461538461538453E-2</v>
+        <v>0</v>
       </c>
       <c r="H7" s="88">
         <v>0</v>
@@ -5834,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
@@ -5846,11 +5879,11 @@
       </c>
       <c r="E8" s="87">
         <f>food_insecure</f>
-        <v>0.28199999999999997</v>
+        <v>0</v>
       </c>
       <c r="F8" s="87">
         <f>food_insecure</f>
-        <v>0.28199999999999997</v>
+        <v>0</v>
       </c>
       <c r="G8" s="87">
         <v>0</v>
@@ -5880,7 +5913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
@@ -5889,19 +5922,19 @@
       </c>
       <c r="D9" s="87">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="E9" s="87">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="F9" s="87">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="G9" s="87">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="H9" s="88">
         <v>0</v>
@@ -5928,7 +5961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>28</v>
       </c>
@@ -5972,29 +6005,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="33" t="s">
         <v>85</v>
       </c>
       <c r="C11" s="87">
         <f>diarrhoea_1mo/26</f>
-        <v>6.3846153846153844E-2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="87">
         <f>diarrhoea_1_5mo/26</f>
-        <v>6.3846153846153844E-2</v>
+        <v>0</v>
       </c>
       <c r="E11" s="87">
         <f>diarrhoea_6_11mo/26</f>
-        <v>0.21692307692307691</v>
+        <v>0</v>
       </c>
       <c r="F11" s="87">
         <f>diarrhoea_12_23mo/26</f>
-        <v>0.20884615384615385</v>
+        <v>0</v>
       </c>
       <c r="G11" s="87">
         <f>diarrhoea_24_59mo/26</f>
-        <v>7.3461538461538453E-2</v>
+        <v>0</v>
       </c>
       <c r="H11" s="88">
         <v>0</v>
@@ -6021,7 +6054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="11" t="s">
         <v>60</v>
       </c>
@@ -6065,10 +6098,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -6092,19 +6125,19 @@
       </c>
       <c r="H14" s="87">
         <f>food_insecure</f>
-        <v>0.28199999999999997</v>
+        <v>0</v>
       </c>
       <c r="I14" s="87">
         <f>food_insecure</f>
-        <v>0.28199999999999997</v>
+        <v>0</v>
       </c>
       <c r="J14" s="87">
         <f>food_insecure</f>
-        <v>0.28199999999999997</v>
+        <v>0</v>
       </c>
       <c r="K14" s="87">
         <f>food_insecure</f>
-        <v>0.28199999999999997</v>
+        <v>0</v>
       </c>
       <c r="L14" s="88">
         <v>0</v>
@@ -6119,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>86</v>
@@ -6164,7 +6197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>187</v>
@@ -6213,7 +6246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>207</v>
@@ -6235,19 +6268,19 @@
       </c>
       <c r="H17" s="87">
         <f>frac_PW_health_facility</f>
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="I17" s="87">
         <f>frac_PW_health_facility</f>
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="J17" s="87">
         <f>frac_PW_health_facility</f>
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="K17" s="87">
         <f>frac_PW_health_facility</f>
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="L17" s="88">
         <v>0</v>
@@ -6262,7 +6295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" customHeight="1">
       <c r="B18" s="33" t="s">
         <v>57</v>
       </c>
@@ -6283,19 +6316,19 @@
       </c>
       <c r="H18" s="87">
         <f>frac_malaria_risk</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="87">
         <f>frac_malaria_risk</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="87">
         <f>frac_malaria_risk</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="87">
         <f>frac_malaria_risk</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="88">
         <v>0</v>
@@ -6310,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1">
       <c r="B19" s="11" t="s">
         <v>88</v>
       </c>
@@ -6354,7 +6387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1">
       <c r="B20" s="11" t="s">
         <v>87</v>
       </c>
@@ -6398,7 +6431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1">
       <c r="B21" s="33" t="s">
         <v>59</v>
       </c>
@@ -6446,10 +6479,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="A23" s="58" t="s">
         <v>37</v>
       </c>
@@ -6485,22 +6518,22 @@
       </c>
       <c r="L23" s="87">
         <f>famplan_unmet_need</f>
-        <v>0.221</v>
+        <v>0</v>
       </c>
       <c r="M23" s="87">
         <f>famplan_unmet_need</f>
-        <v>0.221</v>
+        <v>0</v>
       </c>
       <c r="N23" s="87">
         <f>famplan_unmet_need</f>
-        <v>0.221</v>
+        <v>0</v>
       </c>
       <c r="O23" s="87">
         <f>famplan_unmet_need</f>
-        <v>0.221</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="B24" s="59" t="s">
         <v>188</v>
       </c>
@@ -6533,22 +6566,22 @@
       </c>
       <c r="L24" s="87">
         <f>(1-food_insecure)*(0.49)*(1-school_attendance) + food_insecure*(0.7)*(1-school_attendance)</f>
-        <v>0.42289939999999993</v>
+        <v>0.49</v>
       </c>
       <c r="M24" s="87">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
-        <v>0.54921999999999993</v>
+        <v>0.49</v>
       </c>
       <c r="N24" s="87">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
-        <v>0.54921999999999993</v>
+        <v>0.49</v>
       </c>
       <c r="O24" s="87">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
-        <v>0.54921999999999993</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="B25" s="59" t="s">
         <v>206</v>
       </c>
@@ -6581,22 +6614,22 @@
       </c>
       <c r="L25" s="87">
         <f>(1-food_insecure)*(0.21)*(1-school_attendance) + food_insecure*(0.3)*(1-school_attendance)</f>
-        <v>0.18124259999999998</v>
+        <v>0.21</v>
       </c>
       <c r="M25" s="87">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
-        <v>0.23537999999999998</v>
+        <v>0.21</v>
       </c>
       <c r="N25" s="87">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
-        <v>0.23537999999999998</v>
+        <v>0.21</v>
       </c>
       <c r="O25" s="87">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
-        <v>0.23537999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="B26" s="59" t="s">
         <v>189</v>
       </c>
@@ -6629,22 +6662,22 @@
       </c>
       <c r="L26" s="87">
         <f>(1-food_insecure)*(0.3)*(1-school_attendance)</f>
-        <v>0.16585799999999998</v>
+        <v>0.3</v>
       </c>
       <c r="M26" s="87">
         <f>(1-food_insecure)*(0.3)</f>
-        <v>0.21539999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="N26" s="87">
         <f>(1-food_insecure)*(0.3)</f>
-        <v>0.21539999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="O26" s="87">
         <f>(1-food_insecure)*(0.3)</f>
-        <v>0.21539999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="B27" s="59" t="s">
         <v>190</v>
       </c>
@@ -6677,7 +6710,7 @@
       </c>
       <c r="L27" s="87">
         <f>(1-food_insecure)*1*school_attendance + food_insecure*1*school_attendance</f>
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="M27" s="87">
         <v>0</v>
@@ -6689,7 +6722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="B28" s="11"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6699,7 +6732,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -6714,50 +6747,50 @@
       </c>
       <c r="E29" s="87">
         <f t="shared" ref="E29:O29" si="0">frac_maize</f>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F29" s="87">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G29" s="87">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H29" s="87">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I29" s="87">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J29" s="87">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K29" s="87">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="L29" s="87">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="M29" s="87">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="N29" s="87">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="O29" s="87">
         <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1">
       <c r="B30" s="11" t="s">
         <v>64</v>
       </c>
@@ -6769,50 +6802,50 @@
       </c>
       <c r="E30" s="87">
         <f t="shared" ref="E30:O30" si="1">frac_rice</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="87">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="87">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="87">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="87">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="87">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="87">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="87">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M30" s="87">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="87">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="87">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1">
       <c r="B31" s="11" t="s">
         <v>62</v>
       </c>
@@ -6824,50 +6857,50 @@
       </c>
       <c r="E31" s="87">
         <f>frac_wheat</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="87">
         <f t="shared" ref="F31:O31" si="2">frac_wheat</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="87">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="87">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="87">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="87">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="87">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="87">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="87">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="87">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="87">
         <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="B32" s="11" t="s">
         <v>47</v>
       </c>
@@ -6911,64 +6944,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="B33" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="87">
         <f t="shared" ref="C33:O33" si="3">frac_malaria_risk</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="87">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="87">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="87">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="87">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="87">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="87">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="87">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="87">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="87">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" s="87">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="87">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="87">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" s="33" t="s">
         <v>83</v>
       </c>
@@ -7012,7 +7045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
         <v>82</v>
@@ -7057,7 +7090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B36" s="33" t="s">
         <v>81</v>
       </c>
@@ -7101,7 +7134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B37" s="33" t="s">
         <v>79</v>
       </c>
@@ -7145,7 +7178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B38" s="33" t="s">
         <v>80</v>
       </c>
@@ -7189,7 +7222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1">
       <c r="B39" s="33"/>
     </row>
   </sheetData>
@@ -7202,179 +7235,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr>
-    <tabColor theme="7" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="80" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="80"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" s="80" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="80"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="80" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="80"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="84" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="80" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="80"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="84"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mJIhFbJiXwMDYdaTQpBnnIuyYOuT68NH0zRKA9hB05n6uZvdwWxrgEXuFwGJ+96DUDA/ASxdRlcLT7WZRHSmMg==" saltValue="bb4cIfhca5ee56tuIEArcQ==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
         <v>204</v>
       </c>
@@ -7395,16 +7279,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="35"/>
-    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="35"/>
+    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="35"/>
+    <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -7421,7 +7305,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -7439,7 +7323,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -7457,7 +7341,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -7475,7 +7359,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -7493,7 +7377,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -7511,7 +7395,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -7529,7 +7413,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -7547,7 +7431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -7565,7 +7449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -7583,7 +7467,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
@@ -7604,20 +7488,20 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="55"/>
+    <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.109375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="56" t="s">
         <v>33</v>
       </c>
@@ -7664,7 +7548,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="56" t="s">
         <v>31</v>
       </c>
@@ -7711,7 +7595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="52" t="s">
         <v>149</v>
       </c>
@@ -7755,7 +7639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="52" t="s">
         <v>173</v>
       </c>
@@ -7799,7 +7683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="52" t="s">
         <v>198</v>
       </c>
@@ -7843,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="52" t="s">
         <v>199</v>
       </c>
@@ -7887,7 +7771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="52" t="s">
         <v>195</v>
       </c>
@@ -7931,7 +7815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="52" t="s">
         <v>136</v>
       </c>
@@ -7975,7 +7859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="52" t="s">
         <v>137</v>
       </c>
@@ -8019,7 +7903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="52" t="s">
         <v>84</v>
       </c>
@@ -8063,7 +7947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="52" t="s">
         <v>58</v>
       </c>
@@ -8107,7 +7991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="52" t="s">
         <v>67</v>
       </c>
@@ -8151,7 +8035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="B13" s="52" t="s">
         <v>28</v>
       </c>
@@ -8195,7 +8079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="52" t="s">
         <v>85</v>
       </c>
@@ -8239,7 +8123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="B15" s="52" t="s">
         <v>60</v>
       </c>
@@ -8283,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="B16" s="52"/>
       <c r="C16" s="129"/>
       <c r="D16" s="129"/>
@@ -8299,7 +8183,7 @@
       <c r="N16" s="129"/>
       <c r="O16" s="129"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" s="56" t="s">
         <v>32</v>
       </c>
@@ -8346,7 +8230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>86</v>
@@ -8391,7 +8275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1">
       <c r="B19" s="90" t="s">
         <v>187</v>
       </c>
@@ -8435,7 +8319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1">
       <c r="B20" s="90" t="s">
         <v>207</v>
       </c>
@@ -8479,7 +8363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1">
       <c r="B21" s="91" t="s">
         <v>57</v>
       </c>
@@ -8523,7 +8407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1">
       <c r="B22" s="52" t="s">
         <v>88</v>
       </c>
@@ -8567,7 +8451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1">
       <c r="B23" s="52" t="s">
         <v>87</v>
       </c>
@@ -8611,7 +8495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1">
       <c r="B24" s="52" t="s">
         <v>59</v>
       </c>
@@ -8655,7 +8539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1">
       <c r="B25" s="52"/>
       <c r="C25" s="129"/>
       <c r="D25" s="129"/>
@@ -8671,7 +8555,7 @@
       <c r="N25" s="129"/>
       <c r="O25" s="129"/>
     </row>
-    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="16.05" customHeight="1">
       <c r="A26" s="56" t="s">
         <v>37</v>
       </c>
@@ -8719,7 +8603,7 @@
       </c>
       <c r="P26" s="92"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1">
       <c r="B27" s="59" t="s">
         <v>188</v>
       </c>
@@ -8763,7 +8647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>206</v>
@@ -8808,7 +8692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="B29" s="59" t="s">
         <v>189</v>
       </c>
@@ -8852,7 +8736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1">
       <c r="B30" s="59" t="s">
         <v>190</v>
       </c>
@@ -8896,7 +8780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1">
       <c r="B31" s="52"/>
       <c r="C31" s="130"/>
       <c r="D31" s="130"/>
@@ -8912,7 +8796,7 @@
       <c r="N31" s="129"/>
       <c r="O31" s="129"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1">
       <c r="A32" s="56" t="s">
         <v>35</v>
       </c>
@@ -8959,7 +8843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="B33" s="52" t="s">
         <v>64</v>
       </c>
@@ -9003,7 +8887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" s="52" t="s">
         <v>62</v>
       </c>
@@ -9047,7 +8931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="B35" s="52" t="s">
         <v>47</v>
       </c>
@@ -9091,7 +8975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
       <c r="B36" s="52" t="s">
         <v>34</v>
       </c>
@@ -9135,7 +9019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1">
       <c r="A37" s="93"/>
       <c r="B37" s="52" t="s">
         <v>83</v>
@@ -9180,7 +9064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1">
       <c r="B38" s="52" t="s">
         <v>82</v>
       </c>
@@ -9224,7 +9108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1">
       <c r="B39" s="52" t="s">
         <v>81</v>
       </c>
@@ -9268,7 +9152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1">
       <c r="B40" s="52" t="s">
         <v>79</v>
       </c>
@@ -9312,7 +9196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15" customHeight="1">
       <c r="B41" s="52" t="s">
         <v>80</v>
       </c>
@@ -9373,22 +9257,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -9423,7 +9307,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -9440,7 +9324,7 @@
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -9457,7 +9341,7 @@
       <c r="J3" s="133"/>
       <c r="K3" s="133"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -9474,7 +9358,7 @@
       <c r="J4" s="133"/>
       <c r="K4" s="133"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -9491,7 +9375,7 @@
       <c r="J5" s="133"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="52" t="s">
         <v>197</v>
       </c>
@@ -9510,7 +9394,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -9529,7 +9413,7 @@
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -9548,7 +9432,7 @@
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -9567,7 +9451,7 @@
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="59" t="s">
         <v>188</v>
       </c>
@@ -9584,7 +9468,7 @@
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="59" t="s">
         <v>206</v>
       </c>
@@ -9601,7 +9485,7 @@
       <c r="J11" s="133"/>
       <c r="K11" s="133"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="59" t="s">
         <v>189</v>
       </c>
@@ -9618,7 +9502,7 @@
       <c r="J12" s="133"/>
       <c r="K12" s="133"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="59" t="s">
         <v>190</v>
       </c>
@@ -9635,7 +9519,7 @@
       <c r="J13" s="133"/>
       <c r="K13" s="133"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="90" t="s">
         <v>187</v>
       </c>
@@ -9654,7 +9538,7 @@
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="90" t="s">
         <v>207</v>
       </c>
@@ -9673,7 +9557,7 @@
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -9694,7 +9578,7 @@
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -9711,7 +9595,7 @@
       <c r="J17" s="133"/>
       <c r="K17" s="133"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -9730,7 +9614,7 @@
       <c r="J18" s="133"/>
       <c r="K18" s="133"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -9749,7 +9633,7 @@
       <c r="J19" s="133"/>
       <c r="K19" s="133"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="52" t="s">
         <v>199</v>
       </c>
@@ -9768,7 +9652,7 @@
       <c r="J20" s="133"/>
       <c r="K20" s="133"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="52" t="s">
         <v>195</v>
       </c>
@@ -9787,7 +9671,7 @@
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -9808,7 +9692,7 @@
       <c r="J22" s="133"/>
       <c r="K22" s="133"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -9827,7 +9711,7 @@
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -9844,7 +9728,7 @@
       <c r="J24" s="133"/>
       <c r="K24" s="133"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -9861,7 +9745,7 @@
       <c r="J25" s="133"/>
       <c r="K25" s="133"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="52" t="s">
         <v>137</v>
       </c>
@@ -9878,7 +9762,7 @@
       <c r="J26" s="133"/>
       <c r="K26" s="133"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -9897,7 +9781,7 @@
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -9914,7 +9798,7 @@
       <c r="J28" s="133"/>
       <c r="K28" s="133"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -9933,7 +9817,7 @@
       <c r="J29" s="133"/>
       <c r="K29" s="133"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
@@ -9950,7 +9834,7 @@
       <c r="J30" s="133"/>
       <c r="K30" s="133"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="52" t="s">
         <v>28</v>
       </c>
@@ -9969,7 +9853,7 @@
       <c r="J31" s="133"/>
       <c r="K31" s="133"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
@@ -9988,7 +9872,7 @@
       <c r="J32" s="133"/>
       <c r="K32" s="133"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
@@ -10007,7 +9891,7 @@
       <c r="J33" s="133"/>
       <c r="K33" s="133"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
@@ -10026,7 +9910,7 @@
       <c r="J34" s="133"/>
       <c r="K34" s="133"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="52" t="s">
         <v>79</v>
       </c>
@@ -10045,7 +9929,7 @@
       <c r="J35" s="133"/>
       <c r="K35" s="133"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="52" t="s">
         <v>80</v>
       </c>
@@ -10064,7 +9948,7 @@
       <c r="J36" s="133"/>
       <c r="K36" s="133"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="52" t="s">
         <v>85</v>
       </c>
@@ -10081,7 +9965,7 @@
       <c r="J37" s="133"/>
       <c r="K37" s="133"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -10119,22 +10003,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>216</v>
       </c>
@@ -10169,7 +10053,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -10198,7 +10082,7 @@
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -10227,7 +10111,7 @@
       <c r="J3" s="133"/>
       <c r="K3" s="133"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -10256,7 +10140,7 @@
       <c r="J4" s="133"/>
       <c r="K4" s="133"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -10285,7 +10169,7 @@
       <c r="J5" s="133"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -10314,7 +10198,7 @@
       <c r="J6" s="133"/>
       <c r="K6" s="133"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -10335,7 +10219,7 @@
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -10356,7 +10240,7 @@
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -10377,7 +10261,7 @@
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -10398,7 +10282,7 @@
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -10419,7 +10303,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -10438,7 +10322,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -10457,7 +10341,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -10493,15 +10377,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="35"/>
+    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -10527,7 +10411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="40" t="s">
         <v>218</v>
       </c>
@@ -10553,7 +10437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3" s="137"/>
       <c r="C3" s="35" t="s">
         <v>175</v>
@@ -10575,7 +10459,7 @@
       </c>
       <c r="J3" s="95"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" s="137"/>
       <c r="C4" s="35" t="s">
         <v>174</v>
@@ -10597,7 +10481,7 @@
       </c>
       <c r="J4" s="95"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" s="137" t="s">
         <v>1</v>
       </c>
@@ -10621,7 +10505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" s="137"/>
       <c r="C6" s="35" t="s">
         <v>175</v>
@@ -10642,7 +10526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" s="137"/>
       <c r="C7" s="35" t="s">
         <v>174</v>
@@ -10663,7 +10547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" s="137" t="s">
         <v>2</v>
       </c>
@@ -10686,7 +10570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" s="137"/>
       <c r="C9" s="35" t="s">
         <v>175</v>
@@ -10707,7 +10591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10" s="137"/>
       <c r="C10" s="35" t="s">
         <v>174</v>
@@ -10728,7 +10612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="B11" s="137" t="s">
         <v>3</v>
       </c>
@@ -10751,7 +10635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12" s="137"/>
       <c r="C12" s="35" t="s">
         <v>175</v>
@@ -10772,7 +10656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13" s="137"/>
       <c r="C13" s="35" t="s">
         <v>174</v>
@@ -10793,7 +10677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="B14" s="137" t="s">
         <v>4</v>
       </c>
@@ -10816,7 +10700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15" s="137"/>
       <c r="C15" s="35" t="s">
         <v>175</v>
@@ -10837,7 +10721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" s="137"/>
       <c r="C16" s="35" t="s">
         <v>174</v>
@@ -10858,7 +10742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="B17" s="96" t="s">
         <v>172</v>
       </c>
@@ -10881,14 +10765,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="D18" s="132"/>
       <c r="E18" s="132"/>
       <c r="F18" s="132"/>
       <c r="G18" s="132"/>
       <c r="H18" s="132"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="40" t="s">
         <v>219</v>
       </c>
@@ -10914,7 +10798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="B20" s="137"/>
       <c r="C20" s="35" t="s">
         <v>175</v>
@@ -10935,7 +10819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="B21" s="137"/>
       <c r="C21" s="35" t="s">
         <v>174</v>
@@ -10956,7 +10840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="B22" s="137" t="s">
         <v>1</v>
       </c>
@@ -10979,7 +10863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="B23" s="137"/>
       <c r="C23" s="35" t="s">
         <v>175</v>
@@ -11000,7 +10884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="B24" s="137"/>
       <c r="C24" s="35" t="s">
         <v>174</v>
@@ -11021,7 +10905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="B25" s="137" t="s">
         <v>2</v>
       </c>
@@ -11044,7 +10928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="B26" s="137"/>
       <c r="C26" s="35" t="s">
         <v>175</v>
@@ -11065,7 +10949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="B27" s="137"/>
       <c r="C27" s="35" t="s">
         <v>174</v>
@@ -11086,7 +10970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="B28" s="137" t="s">
         <v>3</v>
       </c>
@@ -11109,7 +10993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="B29" s="137"/>
       <c r="C29" s="35" t="s">
         <v>175</v>
@@ -11130,7 +11014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="B30" s="137"/>
       <c r="C30" s="35" t="s">
         <v>174</v>
@@ -11151,7 +11035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="B31" s="137" t="s">
         <v>4</v>
       </c>
@@ -11174,7 +11058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="B32" s="137"/>
       <c r="C32" s="35" t="s">
         <v>175</v>
@@ -11195,7 +11079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="B33" s="137"/>
       <c r="C33" s="35" t="s">
         <v>174</v>
@@ -11216,7 +11100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="B34" s="96" t="s">
         <v>172</v>
       </c>
@@ -11239,14 +11123,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="D35" s="132"/>
       <c r="E35" s="132"/>
       <c r="F35" s="132"/>
       <c r="G35" s="132"/>
       <c r="H35" s="132"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" s="97" t="s">
         <v>220</v>
       </c>
@@ -11272,7 +11156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="B37" s="137"/>
       <c r="C37" s="35" t="s">
         <v>175</v>
@@ -11293,7 +11177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="B38" s="137"/>
       <c r="C38" s="35" t="s">
         <v>174</v>
@@ -11314,7 +11198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="B39" s="137" t="s">
         <v>1</v>
       </c>
@@ -11337,7 +11221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="B40" s="137"/>
       <c r="C40" s="35" t="s">
         <v>175</v>
@@ -11358,7 +11242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="B41" s="137"/>
       <c r="C41" s="35" t="s">
         <v>174</v>
@@ -11379,7 +11263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="B42" s="137" t="s">
         <v>2</v>
       </c>
@@ -11402,7 +11286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="B43" s="137"/>
       <c r="C43" s="35" t="s">
         <v>175</v>
@@ -11423,7 +11307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="B44" s="137"/>
       <c r="C44" s="35" t="s">
         <v>174</v>
@@ -11444,7 +11328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="B45" s="137" t="s">
         <v>3</v>
       </c>
@@ -11467,7 +11351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="B46" s="137"/>
       <c r="C46" s="35" t="s">
         <v>175</v>
@@ -11488,7 +11372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="B47" s="137"/>
       <c r="C47" s="35" t="s">
         <v>174</v>
@@ -11509,7 +11393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="B48" s="137" t="s">
         <v>4</v>
       </c>
@@ -11532,7 +11416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8">
       <c r="B49" s="137"/>
       <c r="C49" s="35" t="s">
         <v>175</v>
@@ -11553,7 +11437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8">
       <c r="B50" s="137"/>
       <c r="C50" s="35" t="s">
         <v>174</v>
@@ -11574,7 +11458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8">
       <c r="B51" s="98" t="s">
         <v>172</v>
       </c>
@@ -11600,12 +11484,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11615,6 +11493,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -11629,17 +11513,17 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.90625" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="12"/>
+    <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.88671875" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -11668,469 +11552,329 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="7">
         <f>start_year</f>
         <v>2017</v>
       </c>
-      <c r="B2" s="73">
-        <v>2110000</v>
-      </c>
-      <c r="C2" s="74">
-        <v>3032037</v>
-      </c>
-      <c r="D2" s="74">
-        <v>4756743</v>
-      </c>
-      <c r="E2" s="74">
-        <v>3406589</v>
-      </c>
-      <c r="F2" s="74">
-        <v>2174712</v>
-      </c>
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="22">
         <f t="shared" ref="G2:G40" si="0">C2+D2+E2+F2</f>
-        <v>13370081</v>
+        <v>0</v>
       </c>
       <c r="H2" s="22">
         <f t="shared" ref="H2:H40" si="1">(B2 + stillbirth*B2/(1000-stillbirth))/(1-abortion)</f>
-        <v>2480858.588708919</v>
+        <v>0</v>
       </c>
       <c r="I2" s="22">
         <f>G2-H2</f>
-        <v>10889222.411291081</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="7">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
       </c>
-      <c r="B3" s="73">
-        <v>2150000</v>
-      </c>
-      <c r="C3" s="74">
-        <v>3164674</v>
-      </c>
-      <c r="D3" s="74">
-        <v>4882700</v>
-      </c>
-      <c r="E3" s="74">
-        <v>3520083</v>
-      </c>
-      <c r="F3" s="74">
-        <v>2275309</v>
-      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="22">
         <f t="shared" si="0"/>
-        <v>13842766</v>
+        <v>0</v>
       </c>
       <c r="H3" s="22">
         <f t="shared" si="1"/>
-        <v>2527889.0832815999</v>
+        <v>0</v>
       </c>
       <c r="I3" s="22">
         <f t="shared" ref="I3:I15" si="3">G3-H3</f>
-        <v>11314876.916718401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="7">
         <f t="shared" si="2"/>
         <v>2019</v>
       </c>
-      <c r="B4" s="73">
-        <v>2200000</v>
-      </c>
-      <c r="C4" s="74">
-        <v>3296354</v>
-      </c>
-      <c r="D4" s="74">
-        <v>5018666</v>
-      </c>
-      <c r="E4" s="74">
-        <v>3634703</v>
-      </c>
-      <c r="F4" s="74">
-        <v>2379017</v>
-      </c>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
       <c r="G4" s="22">
         <f t="shared" si="0"/>
-        <v>14328740</v>
+        <v>0</v>
       </c>
       <c r="H4" s="22">
         <f t="shared" si="1"/>
-        <v>2586677.2014974509</v>
+        <v>0</v>
       </c>
       <c r="I4" s="22">
         <f t="shared" si="3"/>
-        <v>11742062.79850255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="7">
         <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="B5" s="73">
-        <v>2240000</v>
-      </c>
-      <c r="C5" s="74">
-        <v>3418969</v>
-      </c>
-      <c r="D5" s="74">
-        <v>5168014</v>
-      </c>
-      <c r="E5" s="74">
-        <v>3750324</v>
-      </c>
-      <c r="F5" s="74">
-        <v>2484409</v>
-      </c>
+      <c r="B5" s="73"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="22">
         <f t="shared" si="0"/>
-        <v>14821716</v>
+        <v>0</v>
       </c>
       <c r="H5" s="22">
         <f t="shared" si="1"/>
-        <v>2633707.6960701318</v>
+        <v>0</v>
       </c>
       <c r="I5" s="22">
         <f t="shared" si="3"/>
-        <v>12188008.303929869</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="7">
         <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="B6" s="73">
-        <v>2280000</v>
-      </c>
-      <c r="C6" s="74">
-        <v>3532758</v>
-      </c>
-      <c r="D6" s="74">
-        <v>5332455</v>
-      </c>
-      <c r="E6" s="74">
-        <v>3869436</v>
-      </c>
-      <c r="F6" s="74">
-        <v>2592003</v>
-      </c>
+      <c r="B6" s="73"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
       <c r="G6" s="22">
         <f t="shared" si="0"/>
-        <v>15326652</v>
+        <v>0</v>
       </c>
       <c r="H6" s="22">
         <f t="shared" si="1"/>
-        <v>2680738.1906428128</v>
+        <v>0</v>
       </c>
       <c r="I6" s="22">
         <f t="shared" si="3"/>
-        <v>12645913.809357187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="7">
         <f t="shared" si="2"/>
         <v>2022</v>
       </c>
-      <c r="B7" s="73">
-        <v>2330000</v>
-      </c>
-      <c r="C7" s="74">
-        <v>3637390</v>
-      </c>
-      <c r="D7" s="74">
-        <v>5508952</v>
-      </c>
-      <c r="E7" s="74">
-        <v>3990560</v>
-      </c>
-      <c r="F7" s="74">
-        <v>2701259</v>
-      </c>
+      <c r="B7" s="73"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="22">
         <f t="shared" si="0"/>
-        <v>15838161</v>
+        <v>0</v>
       </c>
       <c r="H7" s="22">
         <f t="shared" si="1"/>
-        <v>2739526.3088586638</v>
+        <v>0</v>
       </c>
       <c r="I7" s="22">
         <f t="shared" si="3"/>
-        <v>13098634.691141337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="7">
         <f t="shared" si="2"/>
         <v>2023</v>
       </c>
-      <c r="B8" s="73">
-        <v>2380000</v>
-      </c>
-      <c r="C8" s="74">
-        <v>3737403</v>
-      </c>
-      <c r="D8" s="74">
-        <v>5696990</v>
-      </c>
-      <c r="E8" s="74">
-        <v>4112898</v>
-      </c>
-      <c r="F8" s="74">
-        <v>2811667</v>
-      </c>
+      <c r="B8" s="73"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="22">
         <f t="shared" si="0"/>
-        <v>16358958</v>
+        <v>0</v>
       </c>
       <c r="H8" s="22">
         <f t="shared" si="1"/>
-        <v>2798314.4270745148</v>
+        <v>0</v>
       </c>
       <c r="I8" s="22">
         <f t="shared" si="3"/>
-        <v>13560643.572925486</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="7">
         <f t="shared" si="2"/>
         <v>2024</v>
       </c>
-      <c r="B9" s="73">
-        <v>2420000</v>
-      </c>
-      <c r="C9" s="74">
-        <v>3840674</v>
-      </c>
-      <c r="D9" s="74">
-        <v>5895615</v>
-      </c>
-      <c r="E9" s="74">
-        <v>4235117</v>
-      </c>
-      <c r="F9" s="74">
-        <v>2922818</v>
-      </c>
+      <c r="B9" s="73"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="22">
         <f t="shared" si="0"/>
-        <v>16894224</v>
+        <v>0</v>
       </c>
       <c r="H9" s="22">
         <f t="shared" si="1"/>
-        <v>2845344.9216471957</v>
+        <v>0</v>
       </c>
       <c r="I9" s="22">
         <f t="shared" si="3"/>
-        <v>14048879.078352805</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="7">
         <f t="shared" si="2"/>
         <v>2025</v>
       </c>
-      <c r="B10" s="73">
-        <v>2480000</v>
-      </c>
-      <c r="C10" s="74">
-        <v>3951644</v>
-      </c>
-      <c r="D10" s="74">
-        <v>6103745</v>
-      </c>
-      <c r="E10" s="74">
-        <v>4356516</v>
-      </c>
-      <c r="F10" s="74">
-        <v>3034340</v>
-      </c>
+      <c r="B10" s="73"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="22">
         <f t="shared" si="0"/>
-        <v>17446245</v>
+        <v>0</v>
       </c>
       <c r="H10" s="22">
         <f t="shared" si="1"/>
-        <v>2915890.6635062173</v>
+        <v>0</v>
       </c>
       <c r="I10" s="22">
         <f t="shared" si="3"/>
-        <v>14530354.336493783</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="7">
         <f t="shared" si="2"/>
         <v>2026</v>
       </c>
-      <c r="B11" s="73">
-        <v>2530000</v>
-      </c>
-      <c r="C11" s="74">
-        <v>4065313</v>
-      </c>
-      <c r="D11" s="74">
-        <v>6319831</v>
-      </c>
-      <c r="E11" s="74">
-        <v>4477188</v>
-      </c>
-      <c r="F11" s="74">
-        <v>3144612</v>
-      </c>
+      <c r="B11" s="73"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="22">
         <f t="shared" si="0"/>
-        <v>18006944</v>
+        <v>0</v>
       </c>
       <c r="H11" s="22">
         <f t="shared" si="1"/>
-        <v>2974678.7817220683</v>
+        <v>0</v>
       </c>
       <c r="I11" s="22">
         <f t="shared" si="3"/>
-        <v>15032265.218277931</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>2027</v>
       </c>
-      <c r="B12" s="73">
-        <v>2580000</v>
-      </c>
-      <c r="C12" s="74">
-        <v>4185562</v>
-      </c>
-      <c r="D12" s="74">
-        <v>6545116</v>
-      </c>
-      <c r="E12" s="74">
-        <v>4597739</v>
-      </c>
-      <c r="F12" s="74">
-        <v>3255252</v>
-      </c>
+      <c r="B12" s="73"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
       <c r="G12" s="22">
         <f t="shared" si="0"/>
-        <v>18583669</v>
+        <v>0</v>
       </c>
       <c r="H12" s="22">
         <f t="shared" si="1"/>
-        <v>3033466.8999379198</v>
+        <v>0</v>
       </c>
       <c r="I12" s="22">
         <f t="shared" si="3"/>
-        <v>15550202.10006208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>2028</v>
       </c>
-      <c r="B13" s="73">
-        <v>2630000</v>
-      </c>
-      <c r="C13" s="74">
-        <v>4309237</v>
-      </c>
-      <c r="D13" s="74">
-        <v>6776307</v>
-      </c>
-      <c r="E13" s="74">
-        <v>4722286</v>
-      </c>
-      <c r="F13" s="74">
-        <v>3366750</v>
-      </c>
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
       <c r="G13" s="22">
         <f t="shared" si="0"/>
-        <v>19174580</v>
+        <v>0</v>
       </c>
       <c r="H13" s="22">
         <f t="shared" si="1"/>
-        <v>3092255.0181537713</v>
+        <v>0</v>
       </c>
       <c r="I13" s="22">
         <f t="shared" si="3"/>
-        <v>16082324.981846228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>2029</v>
       </c>
-      <c r="B14" s="73">
-        <v>2690000</v>
-      </c>
-      <c r="C14" s="74">
-        <v>4430738</v>
-      </c>
-      <c r="D14" s="74">
-        <v>7008703</v>
-      </c>
-      <c r="E14" s="74">
-        <v>4856898</v>
-      </c>
-      <c r="F14" s="74">
-        <v>3479917</v>
-      </c>
+      <c r="B14" s="73"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
       <c r="G14" s="22">
         <f t="shared" si="0"/>
-        <v>19776256</v>
+        <v>0</v>
       </c>
       <c r="H14" s="22">
         <f t="shared" si="1"/>
-        <v>3162800.7600127924</v>
+        <v>0</v>
       </c>
       <c r="I14" s="22">
         <f t="shared" si="3"/>
-        <v>16613455.239987208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>2030</v>
       </c>
-      <c r="B15" s="73">
-        <v>2740000</v>
-      </c>
-      <c r="C15" s="74">
-        <v>4546624</v>
-      </c>
-      <c r="D15" s="74">
-        <v>7239465</v>
-      </c>
-      <c r="E15" s="74">
-        <v>5005361</v>
-      </c>
-      <c r="F15" s="74">
-        <v>3595278</v>
-      </c>
+      <c r="B15" s="73"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="22">
         <f t="shared" si="0"/>
-        <v>20386728</v>
+        <v>0</v>
       </c>
       <c r="H15" s="22">
         <f t="shared" si="1"/>
-        <v>3221588.8782286434</v>
+        <v>0</v>
       </c>
       <c r="I15" s="22">
         <f t="shared" si="3"/>
-        <v>17165139.121771358</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12153,7 +11897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12176,7 +11920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12199,7 +11943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12222,7 +11966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12245,7 +11989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12268,7 +12012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12291,7 +12035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12314,7 +12058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12337,7 +12081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12360,7 +12104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12383,7 +12127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12406,7 +12150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12429,7 +12173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12452,7 +12196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12475,7 +12219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12498,7 +12242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12521,7 +12265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12544,7 +12288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12567,7 +12311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12590,7 +12334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12613,7 +12357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12636,7 +12380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="A38" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12659,7 +12403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="A39" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12682,7 +12426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12728,22 +12472,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="35"/>
+    <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="99" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
         <v>26</v>
@@ -12758,7 +12502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>222</v>
       </c>
@@ -12768,7 +12512,7 @@
       <c r="E3" s="106"/>
       <c r="F3" s="106"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="107" t="s">
         <v>75</v>
       </c>
@@ -12785,7 +12529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="107" t="s">
         <v>76</v>
       </c>
@@ -12802,7 +12546,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="107" t="s">
         <v>77</v>
       </c>
@@ -12819,7 +12563,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="107" t="s">
         <v>78</v>
       </c>
@@ -12836,13 +12580,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="C8" s="108"/>
       <c r="D8" s="95"/>
       <c r="E8" s="95"/>
       <c r="F8" s="95"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="40" t="s">
         <v>223</v>
       </c>
@@ -12860,14 +12604,14 @@
       </c>
       <c r="G9" s="109"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="C10" s="108"/>
       <c r="D10" s="95"/>
       <c r="E10" s="95"/>
       <c r="F10" s="95"/>
       <c r="G10" s="109"/>
     </row>
-    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="99" t="s">
         <v>224</v>
       </c>
@@ -12877,7 +12621,7 @@
       <c r="F11" s="111"/>
       <c r="G11" s="112"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="40" t="s">
         <v>225</v>
       </c>
@@ -12887,7 +12631,7 @@
       <c r="F12" s="95"/>
       <c r="G12" s="109"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="113" t="s">
         <v>226</v>
       </c>
@@ -12905,7 +12649,7 @@
       </c>
       <c r="G13" s="109"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="113" t="s">
         <v>227</v>
       </c>
@@ -12923,7 +12667,7 @@
       </c>
       <c r="G14" s="109"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="113" t="s">
         <v>228</v>
       </c>
@@ -12941,7 +12685,7 @@
       </c>
       <c r="G15" s="109"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="40"/>
       <c r="B16" s="113"/>
       <c r="C16" s="114"/>
@@ -12950,7 +12694,7 @@
       <c r="F16" s="95"/>
       <c r="G16" s="109"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="40" t="s">
         <v>229</v>
       </c>
@@ -12961,7 +12705,7 @@
       <c r="F17" s="116"/>
       <c r="G17" s="109"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="B18" s="117" t="s">
         <v>73</v>
       </c>
@@ -12979,7 +12723,7 @@
       </c>
       <c r="G18" s="109"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="117" t="s">
         <v>7</v>
       </c>
@@ -12997,7 +12741,7 @@
       </c>
       <c r="G19" s="109"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="117" t="s">
         <v>8</v>
       </c>
@@ -13015,7 +12759,7 @@
       </c>
       <c r="G20" s="109"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="117" t="s">
         <v>10</v>
       </c>
@@ -13033,7 +12777,7 @@
       </c>
       <c r="G21" s="109"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="B22" s="117" t="s">
         <v>13</v>
       </c>
@@ -13050,7 +12794,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="117" t="s">
         <v>14</v>
       </c>
@@ -13067,7 +12811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="117" t="s">
         <v>27</v>
       </c>
@@ -13084,7 +12828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="117" t="s">
         <v>15</v>
       </c>
@@ -13101,10 +12845,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="B26" s="113"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13125,23 +12869,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="100" customFormat="1">
       <c r="A1" s="99" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="118" t="s">
         <v>211</v>
       </c>
@@ -13175,7 +12919,7 @@
       <c r="O2" s="120"/>
       <c r="P2" s="120"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13207,7 +12951,7 @@
       <c r="O3" s="118"/>
       <c r="P3" s="118"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="C4" s="43" t="s">
         <v>234</v>
       </c>
@@ -13235,7 +12979,7 @@
       <c r="O4" s="118"/>
       <c r="P4" s="118"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="C5" s="43" t="s">
         <v>235</v>
       </c>
@@ -13263,7 +13007,7 @@
       <c r="O5" s="118"/>
       <c r="P5" s="118"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="C6" s="43" t="s">
         <v>236</v>
       </c>
@@ -13291,7 +13035,7 @@
       <c r="O6" s="118"/>
       <c r="P6" s="118"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
@@ -13322,7 +13066,7 @@
       <c r="O7" s="118"/>
       <c r="P7" s="118"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="C8" s="43" t="s">
         <v>234</v>
       </c>
@@ -13350,7 +13094,7 @@
       <c r="O8" s="118"/>
       <c r="P8" s="118"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="C9" s="43" t="s">
         <v>235</v>
       </c>
@@ -13378,7 +13122,7 @@
       <c r="O9" s="118"/>
       <c r="P9" s="118"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="C10" s="43" t="s">
         <v>236</v>
       </c>
@@ -13406,7 +13150,7 @@
       <c r="O10" s="118"/>
       <c r="P10" s="118"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="B11" s="35" t="s">
         <v>18</v>
       </c>
@@ -13437,7 +13181,7 @@
       <c r="O11" s="118"/>
       <c r="P11" s="118"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="C12" s="43" t="s">
         <v>234</v>
       </c>
@@ -13465,7 +13209,7 @@
       <c r="O12" s="118"/>
       <c r="P12" s="118"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="C13" s="43" t="s">
         <v>235</v>
       </c>
@@ -13493,7 +13237,7 @@
       <c r="O13" s="118"/>
       <c r="P13" s="118"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="C14" s="43" t="s">
         <v>236</v>
       </c>
@@ -13521,7 +13265,7 @@
       <c r="O14" s="118"/>
       <c r="P14" s="118"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="B15" s="35" t="s">
         <v>19</v>
       </c>
@@ -13552,7 +13296,7 @@
       <c r="O15" s="118"/>
       <c r="P15" s="118"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="C16" s="43" t="s">
         <v>234</v>
       </c>
@@ -13580,7 +13324,7 @@
       <c r="O16" s="118"/>
       <c r="P16" s="118"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="C17" s="43" t="s">
         <v>235</v>
       </c>
@@ -13608,7 +13352,7 @@
       <c r="O17" s="118"/>
       <c r="P17" s="118"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1">
       <c r="C18" s="43" t="s">
         <v>236</v>
       </c>
@@ -13636,7 +13380,7 @@
       <c r="O18" s="118"/>
       <c r="P18" s="118"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
@@ -13667,7 +13411,7 @@
       <c r="O19" s="118"/>
       <c r="P19" s="118"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="C20" s="43" t="s">
         <v>234</v>
       </c>
@@ -13695,7 +13439,7 @@
       <c r="O20" s="118"/>
       <c r="P20" s="118"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="C21" s="43" t="s">
         <v>235</v>
       </c>
@@ -13723,7 +13467,7 @@
       <c r="O21" s="118"/>
       <c r="P21" s="118"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="C22" s="43" t="s">
         <v>236</v>
       </c>
@@ -13751,7 +13495,7 @@
       <c r="O22" s="118"/>
       <c r="P22" s="118"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="B23" s="36" t="s">
         <v>23</v>
       </c>
@@ -13782,7 +13526,7 @@
       <c r="O23" s="118"/>
       <c r="P23" s="118"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="C24" s="43" t="s">
         <v>234</v>
       </c>
@@ -13810,7 +13554,7 @@
       <c r="O24" s="118"/>
       <c r="P24" s="118"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="C25" s="43" t="s">
         <v>235</v>
       </c>
@@ -13838,7 +13582,7 @@
       <c r="O25" s="118"/>
       <c r="P25" s="118"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="C26" s="43" t="s">
         <v>236</v>
       </c>
@@ -13866,12 +13610,12 @@
       <c r="O26" s="118"/>
       <c r="P26" s="118"/>
     </row>
-    <row r="28" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="100" customFormat="1">
       <c r="A28" s="99" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" s="36" customFormat="1">
       <c r="A29" s="121" t="s">
         <v>238</v>
       </c>
@@ -13905,7 +13649,7 @@
       <c r="O29" s="120"/>
       <c r="P29" s="120"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -13937,7 +13681,7 @@
       <c r="O30" s="118"/>
       <c r="P30" s="118"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="C31" s="43" t="s">
         <v>234</v>
       </c>
@@ -13965,7 +13709,7 @@
       <c r="O31" s="118"/>
       <c r="P31" s="118"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="C32" s="43" t="s">
         <v>65</v>
       </c>
@@ -13993,7 +13737,7 @@
       <c r="O32" s="118"/>
       <c r="P32" s="118"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="C33" s="43" t="s">
         <v>66</v>
       </c>
@@ -14021,7 +13765,7 @@
       <c r="O33" s="118"/>
       <c r="P33" s="118"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="B34" s="35" t="s">
         <v>16</v>
       </c>
@@ -14052,7 +13796,7 @@
       <c r="O34" s="118"/>
       <c r="P34" s="118"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16">
       <c r="C35" s="43" t="s">
         <v>234</v>
       </c>
@@ -14080,7 +13824,7 @@
       <c r="O35" s="118"/>
       <c r="P35" s="118"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="C36" s="43" t="s">
         <v>65</v>
       </c>
@@ -14108,7 +13852,7 @@
       <c r="O36" s="118"/>
       <c r="P36" s="118"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16">
       <c r="C37" s="43" t="s">
         <v>66</v>
       </c>
@@ -14136,7 +13880,7 @@
       <c r="O37" s="118"/>
       <c r="P37" s="118"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" s="35" t="s">
         <v>18</v>
       </c>
@@ -14167,7 +13911,7 @@
       <c r="O38" s="118"/>
       <c r="P38" s="118"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16">
       <c r="C39" s="43" t="s">
         <v>234</v>
       </c>
@@ -14195,7 +13939,7 @@
       <c r="O39" s="118"/>
       <c r="P39" s="118"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16">
       <c r="C40" s="43" t="s">
         <v>65</v>
       </c>
@@ -14223,7 +13967,7 @@
       <c r="O40" s="118"/>
       <c r="P40" s="118"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="C41" s="43" t="s">
         <v>66</v>
       </c>
@@ -14251,7 +13995,7 @@
       <c r="O41" s="118"/>
       <c r="P41" s="118"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16">
       <c r="B42" s="35" t="s">
         <v>19</v>
       </c>
@@ -14282,7 +14026,7 @@
       <c r="O42" s="118"/>
       <c r="P42" s="118"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="C43" s="43" t="s">
         <v>234</v>
       </c>
@@ -14310,7 +14054,7 @@
       <c r="O43" s="118"/>
       <c r="P43" s="118"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16">
       <c r="C44" s="43" t="s">
         <v>65</v>
       </c>
@@ -14338,7 +14082,7 @@
       <c r="O44" s="118"/>
       <c r="P44" s="118"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="C45" s="43" t="s">
         <v>66</v>
       </c>
@@ -14366,7 +14110,7 @@
       <c r="O45" s="118"/>
       <c r="P45" s="118"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16">
       <c r="B46" s="35" t="s">
         <v>17</v>
       </c>
@@ -14397,7 +14141,7 @@
       <c r="O46" s="118"/>
       <c r="P46" s="118"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16">
       <c r="C47" s="43" t="s">
         <v>234</v>
       </c>
@@ -14425,7 +14169,7 @@
       <c r="O47" s="118"/>
       <c r="P47" s="118"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16">
       <c r="C48" s="43" t="s">
         <v>65</v>
       </c>
@@ -14453,7 +14197,7 @@
       <c r="O48" s="118"/>
       <c r="P48" s="118"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="C49" s="43" t="s">
         <v>66</v>
       </c>
@@ -14481,7 +14225,7 @@
       <c r="O49" s="118"/>
       <c r="P49" s="118"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="B50" s="35" t="s">
         <v>23</v>
       </c>
@@ -14512,7 +14256,7 @@
       <c r="O50" s="118"/>
       <c r="P50" s="118"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="C51" s="43" t="s">
         <v>234</v>
       </c>
@@ -14540,7 +14284,7 @@
       <c r="O51" s="118"/>
       <c r="P51" s="118"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="C52" s="43" t="s">
         <v>65</v>
       </c>
@@ -14568,7 +14312,7 @@
       <c r="O52" s="118"/>
       <c r="P52" s="118"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="C53" s="43" t="s">
         <v>66</v>
       </c>
@@ -14596,16 +14340,16 @@
       <c r="O53" s="118"/>
       <c r="P53" s="118"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="100" customFormat="1">
       <c r="A55" s="99" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A56" s="121" t="s">
         <v>70</v>
       </c>
@@ -14633,7 +14377,7 @@
       <c r="O56" s="120"/>
       <c r="P56" s="120"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14659,7 +14403,7 @@
       <c r="O57" s="118"/>
       <c r="P57" s="118"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="C58" s="43" t="s">
         <v>243</v>
       </c>
@@ -14681,7 +14425,7 @@
       <c r="O58" s="118"/>
       <c r="P58" s="118"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="B59" s="35" t="s">
         <v>39</v>
       </c>
@@ -14706,7 +14450,7 @@
       <c r="O59" s="118"/>
       <c r="P59" s="118"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="C60" s="43" t="s">
         <v>243</v>
       </c>
@@ -14728,7 +14472,7 @@
       <c r="O60" s="118"/>
       <c r="P60" s="118"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="B61" s="35" t="s">
         <v>40</v>
       </c>
@@ -14753,7 +14497,7 @@
       <c r="O61" s="118"/>
       <c r="P61" s="118"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="C62" s="43" t="s">
         <v>243</v>
       </c>
@@ -14775,16 +14519,16 @@
       <c r="O62" s="118"/>
       <c r="P62" s="118"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="100" customFormat="1">
       <c r="A64" s="99" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A65" s="121" t="s">
         <v>24</v>
       </c>
@@ -14818,7 +14562,7 @@
       <c r="O65" s="120"/>
       <c r="P65" s="120"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -14850,7 +14594,7 @@
       <c r="O66" s="118"/>
       <c r="P66" s="118"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="C67" s="43" t="s">
         <v>167</v>
       </c>
@@ -14878,7 +14622,7 @@
       <c r="O67" s="118"/>
       <c r="P67" s="118"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="C68" s="43" t="s">
         <v>168</v>
       </c>
@@ -14906,7 +14650,7 @@
       <c r="O68" s="118"/>
       <c r="P68" s="118"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="C69" s="43" t="s">
         <v>169</v>
       </c>
@@ -14934,7 +14678,7 @@
       <c r="O69" s="118"/>
       <c r="P69" s="118"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="B70" s="35" t="s">
         <v>7</v>
       </c>
@@ -14965,7 +14709,7 @@
       <c r="O70" s="118"/>
       <c r="P70" s="118"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="C71" s="43" t="s">
         <v>167</v>
       </c>
@@ -14993,7 +14737,7 @@
       <c r="O71" s="118"/>
       <c r="P71" s="118"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="C72" s="43" t="s">
         <v>168</v>
       </c>
@@ -15021,7 +14765,7 @@
       <c r="O72" s="118"/>
       <c r="P72" s="118"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="C73" s="43" t="s">
         <v>169</v>
       </c>
@@ -15049,7 +14793,7 @@
       <c r="O73" s="118"/>
       <c r="P73" s="118"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -15080,7 +14824,7 @@
       <c r="O74" s="118"/>
       <c r="P74" s="118"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="C75" s="43" t="s">
         <v>167</v>
       </c>
@@ -15108,7 +14852,7 @@
       <c r="O75" s="118"/>
       <c r="P75" s="118"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="C76" s="43" t="s">
         <v>168</v>
       </c>
@@ -15136,7 +14880,7 @@
       <c r="O76" s="118"/>
       <c r="P76" s="118"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="C77" s="43" t="s">
         <v>169</v>
       </c>
@@ -15164,7 +14908,7 @@
       <c r="O77" s="118"/>
       <c r="P77" s="118"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="B78" s="35" t="s">
         <v>13</v>
       </c>
@@ -15195,7 +14939,7 @@
       <c r="O78" s="118"/>
       <c r="P78" s="118"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="C79" s="43" t="s">
         <v>167</v>
       </c>
@@ -15223,7 +14967,7 @@
       <c r="O79" s="118"/>
       <c r="P79" s="118"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="C80" s="43" t="s">
         <v>168</v>
       </c>
@@ -15251,7 +14995,7 @@
       <c r="O80" s="118"/>
       <c r="P80" s="118"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16">
       <c r="C81" s="43" t="s">
         <v>169</v>
       </c>
@@ -15279,7 +15023,7 @@
       <c r="O81" s="118"/>
       <c r="P81" s="118"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16">
       <c r="B82" s="35" t="s">
         <v>71</v>
       </c>
@@ -15310,7 +15054,7 @@
       <c r="O82" s="118"/>
       <c r="P82" s="118"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16">
       <c r="C83" s="43" t="s">
         <v>167</v>
       </c>
@@ -15338,7 +15082,7 @@
       <c r="O83" s="118"/>
       <c r="P83" s="118"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16">
       <c r="C84" s="43" t="s">
         <v>168</v>
       </c>
@@ -15366,7 +15110,7 @@
       <c r="O84" s="118"/>
       <c r="P84" s="118"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16">
       <c r="C85" s="43" t="s">
         <v>169</v>
       </c>
@@ -15394,7 +15138,7 @@
       <c r="O85" s="118"/>
       <c r="P85" s="118"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16">
       <c r="B86" s="35" t="s">
         <v>16</v>
       </c>
@@ -15425,7 +15169,7 @@
       <c r="O86" s="118"/>
       <c r="P86" s="118"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16">
       <c r="C87" s="43" t="s">
         <v>167</v>
       </c>
@@ -15453,7 +15197,7 @@
       <c r="O87" s="118"/>
       <c r="P87" s="118"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16">
       <c r="C88" s="43" t="s">
         <v>168</v>
       </c>
@@ -15481,7 +15225,7 @@
       <c r="O88" s="118"/>
       <c r="P88" s="118"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16">
       <c r="C89" s="43" t="s">
         <v>169</v>
       </c>
@@ -15509,7 +15253,7 @@
       <c r="O89" s="118"/>
       <c r="P89" s="118"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16">
       <c r="B90" s="35" t="s">
         <v>18</v>
       </c>
@@ -15540,7 +15284,7 @@
       <c r="O90" s="118"/>
       <c r="P90" s="118"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16">
       <c r="C91" s="43" t="s">
         <v>167</v>
       </c>
@@ -15568,7 +15312,7 @@
       <c r="O91" s="118"/>
       <c r="P91" s="118"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16">
       <c r="C92" s="43" t="s">
         <v>168</v>
       </c>
@@ -15596,7 +15340,7 @@
       <c r="O92" s="118"/>
       <c r="P92" s="118"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16">
       <c r="C93" s="43" t="s">
         <v>169</v>
       </c>
@@ -15624,7 +15368,7 @@
       <c r="O93" s="118"/>
       <c r="P93" s="118"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16">
       <c r="B94" s="35" t="s">
         <v>17</v>
       </c>
@@ -15655,7 +15399,7 @@
       <c r="O94" s="118"/>
       <c r="P94" s="118"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16">
       <c r="C95" s="43" t="s">
         <v>167</v>
       </c>
@@ -15683,7 +15427,7 @@
       <c r="O95" s="118"/>
       <c r="P95" s="118"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16">
       <c r="C96" s="43" t="s">
         <v>168</v>
       </c>
@@ -15711,7 +15455,7 @@
       <c r="O96" s="118"/>
       <c r="P96" s="118"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="C97" s="43" t="s">
         <v>169</v>
       </c>
@@ -15739,7 +15483,7 @@
       <c r="O97" s="118"/>
       <c r="P97" s="118"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16">
       <c r="B98" s="35" t="s">
         <v>20</v>
       </c>
@@ -15770,7 +15514,7 @@
       <c r="O98" s="118"/>
       <c r="P98" s="118"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16">
       <c r="C99" s="43" t="s">
         <v>167</v>
       </c>
@@ -15798,7 +15542,7 @@
       <c r="O99" s="118"/>
       <c r="P99" s="118"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16">
       <c r="C100" s="43" t="s">
         <v>168</v>
       </c>
@@ -15826,7 +15570,7 @@
       <c r="O100" s="118"/>
       <c r="P100" s="118"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16">
       <c r="C101" s="43" t="s">
         <v>169</v>
       </c>
@@ -15854,12 +15598,12 @@
       <c r="O101" s="118"/>
       <c r="P101" s="118"/>
     </row>
-    <row r="103" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="100" customFormat="1">
       <c r="A103" s="99" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A104" s="121" t="s">
         <v>71</v>
       </c>
@@ -15893,7 +15637,7 @@
       <c r="O104" s="120"/>
       <c r="P104" s="120"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15923,7 +15667,7 @@
       <c r="O105" s="118"/>
       <c r="P105" s="118"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="C106" s="43" t="s">
         <v>167</v>
       </c>
@@ -15951,7 +15695,7 @@
       <c r="O106" s="118"/>
       <c r="P106" s="118"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="C107" s="43" t="s">
         <v>168</v>
       </c>
@@ -15979,7 +15723,7 @@
       <c r="O107" s="118"/>
       <c r="P107" s="118"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="C108" s="43" t="s">
         <v>169</v>
       </c>
@@ -16007,7 +15751,7 @@
       <c r="O108" s="118"/>
       <c r="P108" s="118"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -16028,24 +15772,24 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1">
       <c r="A1" s="99" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1">
       <c r="A2" s="125" t="s">
         <v>25</v>
       </c>
@@ -16066,7 +15810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1">
       <c r="B3" s="113" t="s">
         <v>248</v>
       </c>
@@ -16086,7 +15830,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1">
       <c r="A4" s="40"/>
       <c r="B4" s="117" t="s">
         <v>250</v>
@@ -16107,12 +15851,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="A5" s="104" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1">
       <c r="B6" s="117" t="s">
         <v>58</v>
       </c>
@@ -16132,7 +15876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1">
       <c r="B7" s="117" t="s">
         <v>136</v>
       </c>
@@ -16152,7 +15896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1">
       <c r="B8" s="117" t="s">
         <v>60</v>
       </c>
@@ -16172,7 +15916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1">
       <c r="B9" s="117"/>
       <c r="C9" s="117"/>
       <c r="D9" s="117"/>
@@ -16180,12 +15924,12 @@
       <c r="F9" s="117"/>
       <c r="G9" s="117"/>
     </row>
-    <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1">
       <c r="A10" s="99" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="104"/>
       <c r="B11" s="113" t="s">
         <v>195</v>
@@ -16206,16 +15950,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1">
       <c r="A12" s="104"/>
       <c r="B12" s="113"/>
     </row>
-    <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="99" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1">
       <c r="A14" s="125" t="s">
         <v>238</v>
       </c>
@@ -16238,7 +15982,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1">
       <c r="A15" s="40"/>
       <c r="B15" s="117" t="s">
         <v>255</v>
@@ -16259,7 +16003,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1">
       <c r="A16" s="125" t="s">
         <v>70</v>
       </c>
@@ -16282,13 +16026,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1">
       <c r="A18" s="99" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1">
       <c r="C19" s="56" t="s">
         <v>49</v>
       </c>
@@ -16302,7 +16046,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="B20" s="113" t="s">
         <v>197</v>
       </c>
@@ -16338,16 +16082,16 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="35"/>
-    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="35"/>
+    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.109375" style="35"/>
+    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="119" t="s">
         <v>69</v>
       </c>
@@ -16365,7 +16109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="90" t="s">
         <v>29</v>
       </c>
@@ -16385,7 +16129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="90"/>
       <c r="B3" s="90" t="s">
         <v>259</v>
@@ -16403,7 +16147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="90" t="s">
         <v>187</v>
       </c>
@@ -16423,7 +16167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="90"/>
       <c r="B5" s="90" t="s">
         <v>259</v>
@@ -16441,7 +16185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="90" t="s">
         <v>207</v>
       </c>
@@ -16461,7 +16205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="90"/>
       <c r="B7" s="90" t="s">
         <v>259</v>
@@ -16479,7 +16223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="90" t="s">
         <v>57</v>
       </c>
@@ -16499,7 +16243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="90"/>
       <c r="B9" s="90" t="s">
         <v>259</v>
@@ -16517,7 +16261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="90" t="s">
         <v>34</v>
       </c>
@@ -16537,7 +16281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="90"/>
       <c r="B11" s="90" t="s">
         <v>259</v>
@@ -16555,7 +16299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="90" t="s">
         <v>59</v>
       </c>
@@ -16575,7 +16319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="90"/>
       <c r="B13" s="90" t="s">
         <v>259</v>
@@ -16593,10 +16337,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
       <c r="A19" s="90"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
       <c r="A20" s="90"/>
     </row>
   </sheetData>
@@ -16617,15 +16361,15 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="35"/>
+    <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
@@ -16668,12 +16412,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" s="40" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="B3" s="59" t="s">
         <v>149</v>
       </c>
@@ -16717,7 +16461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="B4" s="59" t="s">
         <v>188</v>
       </c>
@@ -16761,7 +16505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="B5" s="59" t="s">
         <v>206</v>
       </c>
@@ -16805,7 +16549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="B6" s="59" t="s">
         <v>189</v>
       </c>
@@ -16849,7 +16593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="B7" s="59" t="s">
         <v>190</v>
       </c>
@@ -16893,7 +16637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="B8" s="90" t="s">
         <v>187</v>
       </c>
@@ -16937,7 +16681,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="B9" s="90" t="s">
         <v>207</v>
       </c>
@@ -16981,7 +16725,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="B10" s="59" t="s">
         <v>57</v>
       </c>
@@ -17025,7 +16769,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="B11" s="90" t="s">
         <v>136</v>
       </c>
@@ -17069,7 +16813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="B12" s="59" t="s">
         <v>34</v>
       </c>
@@ -17113,7 +16857,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1">
       <c r="B13" s="59" t="s">
         <v>137</v>
       </c>
@@ -17157,7 +16901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="B14" s="59" t="s">
         <v>59</v>
       </c>
@@ -17201,13 +16945,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="40" t="s">
         <v>261</v>
       </c>
       <c r="B16" s="59"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="90" t="s">
         <v>63</v>
       </c>
@@ -17251,7 +16995,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="90" t="s">
         <v>64</v>
       </c>
@@ -17295,7 +17039,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="90" t="s">
         <v>62</v>
       </c>
@@ -17339,7 +17083,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15">
       <c r="B20" s="90" t="s">
         <v>47</v>
       </c>
@@ -17383,16 +17127,16 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
@@ -17413,15 +17157,15 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
@@ -17440,12 +17184,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="40" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="59" t="s">
         <v>67</v>
       </c>
@@ -17465,7 +17209,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="40" t="s">
         <v>263</v>
       </c>
@@ -17476,7 +17220,7 @@
       <c r="F4" s="127"/>
       <c r="G4" s="127"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="90" t="s">
         <v>183</v>
       </c>
@@ -17514,20 +17258,20 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="35"/>
-    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="35"/>
+    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="35"/>
+    <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -17553,7 +17297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="52" t="s">
         <v>28</v>
       </c>
@@ -17579,7 +17323,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="C3" s="52" t="s">
         <v>267</v>
       </c>
@@ -17599,7 +17343,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="C4" s="52" t="s">
         <v>268</v>
       </c>
@@ -17619,7 +17363,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="52" t="s">
         <v>58</v>
       </c>
@@ -17645,7 +17389,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="C6" s="52" t="s">
         <v>268</v>
       </c>
@@ -17665,7 +17409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="52" t="s">
         <v>65</v>
       </c>
@@ -17688,7 +17432,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="C8" s="52" t="s">
         <v>268</v>
       </c>
@@ -17708,7 +17452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="52" t="s">
         <v>136</v>
       </c>
@@ -17734,7 +17478,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="C10" s="52" t="s">
         <v>268</v>
       </c>
@@ -17754,7 +17498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="52" t="s">
         <v>65</v>
       </c>
@@ -17777,7 +17521,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="C12" s="52" t="s">
         <v>268</v>
       </c>
@@ -17797,7 +17541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="52" t="s">
         <v>61</v>
       </c>
@@ -17823,7 +17567,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="C14" s="52" t="s">
         <v>268</v>
       </c>
@@ -17844,7 +17588,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="52" t="s">
         <v>65</v>
       </c>
@@ -17868,7 +17612,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="C16" s="52" t="s">
         <v>268</v>
       </c>
@@ -17889,7 +17633,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="52" t="s">
         <v>62</v>
       </c>
@@ -17916,7 +17660,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="C18" s="52" t="s">
         <v>267</v>
       </c>
@@ -17937,7 +17681,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="52" t="s">
         <v>63</v>
       </c>
@@ -17963,7 +17707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="C20" s="52" t="s">
         <v>267</v>
       </c>
@@ -17983,7 +17727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="52" t="s">
         <v>64</v>
       </c>
@@ -18009,7 +17753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="C22" s="52" t="s">
         <v>267</v>
       </c>
@@ -18029,7 +17773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="52" t="s">
         <v>79</v>
       </c>
@@ -18055,7 +17799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="C24" s="52" t="s">
         <v>267</v>
       </c>
@@ -18075,7 +17819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="C25" s="52" t="s">
         <v>268</v>
       </c>
@@ -18095,7 +17839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="52" t="s">
         <v>80</v>
       </c>
@@ -18121,7 +17865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="C27" s="52" t="s">
         <v>267</v>
       </c>
@@ -18141,7 +17885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="C28" s="52" t="s">
         <v>268</v>
       </c>
@@ -18161,7 +17905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="52" t="s">
         <v>81</v>
       </c>
@@ -18187,7 +17931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="C30" s="52" t="s">
         <v>267</v>
       </c>
@@ -18207,7 +17951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="C31" s="52" t="s">
         <v>268</v>
       </c>
@@ -18227,7 +17971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="52" t="s">
         <v>82</v>
       </c>
@@ -18253,7 +17997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="C33" s="52" t="s">
         <v>267</v>
       </c>
@@ -18273,7 +18017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="C34" s="52" t="s">
         <v>268</v>
       </c>
@@ -18293,7 +18037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="52" t="s">
         <v>83</v>
       </c>
@@ -18319,7 +18063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="C36" s="52" t="s">
         <v>267</v>
       </c>
@@ -18339,7 +18083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="C37" s="52" t="s">
         <v>268</v>
       </c>
@@ -18359,7 +18103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -18385,7 +18129,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="C39" s="52" t="s">
         <v>267</v>
       </c>
@@ -18405,7 +18149,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="C40" s="52" t="s">
         <v>268</v>
       </c>
@@ -18425,7 +18169,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="B41" s="52" t="s">
         <v>16</v>
       </c>
@@ -18448,7 +18192,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="C42" s="52" t="s">
         <v>267</v>
       </c>
@@ -18468,7 +18212,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="C43" s="52" t="s">
         <v>268</v>
       </c>
@@ -18488,7 +18232,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="52" t="s">
         <v>84</v>
       </c>
@@ -18514,7 +18258,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="C45" s="52" t="s">
         <v>267</v>
       </c>
@@ -18534,7 +18278,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="52" t="s">
         <v>85</v>
       </c>
@@ -18560,7 +18304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="C47" s="52" t="s">
         <v>267</v>
       </c>
@@ -18580,7 +18324,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="52" t="s">
         <v>195</v>
       </c>
@@ -18606,7 +18350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8">
       <c r="C49" s="52" t="s">
         <v>267</v>
       </c>
@@ -18644,16 +18388,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="35"/>
+    <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="119" t="s">
         <v>69</v>
       </c>
@@ -18675,7 +18419,7 @@
       </c>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -18699,7 +18443,7 @@
       </c>
       <c r="H2" s="90"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="C3" s="35" t="s">
         <v>267</v>
       </c>
@@ -18717,7 +18461,7 @@
       </c>
       <c r="H3" s="128"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -18741,7 +18485,7 @@
       </c>
       <c r="H4" s="128"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>267</v>
@@ -18760,7 +18504,7 @@
       </c>
       <c r="H5" s="90"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -18784,7 +18528,7 @@
       </c>
       <c r="H6" s="90"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>267</v>
@@ -18817,17 +18561,17 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -18838,7 +18582,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -18853,82 +18597,66 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="75">
-        <v>2.7000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="75"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="75">
-        <v>0.1966</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="75"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="75">
-        <v>6.2100000000000002E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="75"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="75">
-        <v>0.29289999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="75"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="75">
-        <v>0.24709999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="75"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="75">
-        <v>4.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="75"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="75">
-        <v>0.13200000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="75"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="75">
-        <v>6.1800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="75"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="B11" s="32" t="s">
         <v>129</v>
       </c>
       <c r="C11" s="70">
         <f>SUM(C3:C10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -18937,7 +18665,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -18958,183 +18686,111 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="B14" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="75">
-        <v>0.1368</v>
-      </c>
-      <c r="D14" s="75">
-        <v>0.1368</v>
-      </c>
-      <c r="E14" s="75">
-        <v>0.1368</v>
-      </c>
-      <c r="F14" s="75">
-        <v>0.1368</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="75">
-        <v>0.20660000000000001</v>
-      </c>
-      <c r="D15" s="75">
-        <v>0.20660000000000001</v>
-      </c>
-      <c r="E15" s="75">
-        <v>0.20660000000000001</v>
-      </c>
-      <c r="F15" s="75">
-        <v>0.20660000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="75">
-        <v>2.1100000000000001E-2</v>
-      </c>
-      <c r="D16" s="75">
-        <v>2.1100000000000001E-2</v>
-      </c>
-      <c r="E16" s="75">
-        <v>2.1100000000000001E-2</v>
-      </c>
-      <c r="F16" s="75">
-        <v>2.1100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="75">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="D17" s="75">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="E17" s="75">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="F17" s="75">
-        <v>7.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="75">
-        <v>8.6199999999999999E-2</v>
-      </c>
-      <c r="D18" s="75">
-        <v>8.6199999999999999E-2</v>
-      </c>
-      <c r="E18" s="75">
-        <v>8.6199999999999999E-2</v>
-      </c>
-      <c r="F18" s="75">
-        <v>8.6199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="75">
-        <v>2.86E-2</v>
-      </c>
-      <c r="D19" s="75">
-        <v>2.86E-2</v>
-      </c>
-      <c r="E19" s="75">
-        <v>2.86E-2</v>
-      </c>
-      <c r="F19" s="75">
-        <v>2.86E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="75">
-        <v>1.5299999999999999E-2</v>
-      </c>
-      <c r="D20" s="75">
-        <v>1.5299999999999999E-2</v>
-      </c>
-      <c r="E20" s="75">
-        <v>1.5299999999999999E-2</v>
-      </c>
-      <c r="F20" s="75">
-        <v>1.5299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="75">
-        <v>0.13589999999999999</v>
-      </c>
-      <c r="D21" s="75">
-        <v>0.13589999999999999</v>
-      </c>
-      <c r="E21" s="75">
-        <v>0.13589999999999999</v>
-      </c>
-      <c r="F21" s="75">
-        <v>0.13589999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="75">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="D22" s="75">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="E22" s="75">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="F22" s="75">
-        <v>0.36199999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="B23" s="32" t="s">
         <v>129</v>
       </c>
       <c r="C23" s="70">
         <f>SUM(C14:C22)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="70">
         <f t="shared" ref="D23:F23" si="0">SUM(D14:D22)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="70">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="70">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -19143,7 +18799,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -19159,85 +18815,67 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="B26" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="75">
-        <v>0.10082724000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="75"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="75">
-        <v>3.1206000000000002E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="75"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="B28" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="75">
-        <v>0.15891214000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="75"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="75">
-        <v>0.12598688999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="75"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="B30" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="75">
-        <v>0.12434007</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="75"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="75">
-        <v>3.9028409999999999E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="75"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="B32" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="75">
-        <v>8.5254999999999999E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="75"/>
+    </row>
+    <row r="33" spans="2:3" ht="15.75" customHeight="1">
       <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="75">
-        <v>6.8467810000000004E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="75"/>
+    </row>
+    <row r="34" spans="2:3" ht="15.75" customHeight="1">
       <c r="B34" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="75">
-        <v>0.38127283000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="75"/>
+    </row>
+    <row r="35" spans="2:3" ht="15.75" customHeight="1">
       <c r="B35" s="32" t="s">
         <v>129</v>
       </c>
       <c r="C35" s="70">
         <f>SUM(C26:C34)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -19256,16 +18894,16 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -19289,103 +18927,83 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="76">
+      <c r="C2" s="76" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.54471569980476653</v>
-      </c>
-      <c r="D2" s="76">
+        <v/>
+      </c>
+      <c r="D2" s="76" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.54471569980476653</v>
-      </c>
-      <c r="E2" s="76">
+        <v/>
+      </c>
+      <c r="E2" s="76" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.44982829694488635</v>
-      </c>
-      <c r="F2" s="76">
+        <v/>
+      </c>
+      <c r="F2" s="76" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.24457139941017503</v>
-      </c>
-      <c r="G2" s="76">
+        <v/>
+      </c>
+      <c r="G2" s="76" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.23269074767298425</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="76">
+      <c r="C3" s="76" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
-        <v>0.32228430019523346</v>
-      </c>
-      <c r="D3" s="76">
+        <v/>
+      </c>
+      <c r="D3" s="76" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
-        <v>0.32228430019523346</v>
-      </c>
-      <c r="E3" s="76">
+        <v/>
+      </c>
+      <c r="E3" s="76" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
-        <v>0.35908666207150708</v>
-      </c>
-      <c r="F3" s="76">
+        <v/>
+      </c>
+      <c r="F3" s="76" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
-        <v>0.37651189492768178</v>
-      </c>
-      <c r="G3" s="76">
+        <v/>
+      </c>
+      <c r="G3" s="76" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
-        <v>0.37372365733745416</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="77">
-        <v>8.7000000000000008E-2</v>
-      </c>
-      <c r="D4" s="77">
-        <v>8.7000000000000008E-2</v>
-      </c>
-      <c r="E4" s="77">
-        <v>0.13443032786885245</v>
-      </c>
-      <c r="F4" s="77">
-        <v>0.24673186710341602</v>
-      </c>
-      <c r="G4" s="77">
-        <v>0.25929610299234518</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="77">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="D5" s="77">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="E5" s="77">
-        <v>5.6654713114754097E-2</v>
-      </c>
-      <c r="F5" s="77">
-        <v>0.13218483855872717</v>
-      </c>
-      <c r="G5" s="77">
-        <v>0.13428949199721643</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -19393,7 +19011,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -19401,100 +19019,80 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="76">
+      <c r="C8" s="76" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.6241955901533508</v>
-      </c>
-      <c r="D8" s="76">
+        <v/>
+      </c>
+      <c r="D8" s="76" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.6241955901533508</v>
-      </c>
-      <c r="E8" s="76">
+        <v/>
+      </c>
+      <c r="E8" s="76" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.68355843805440353</v>
-      </c>
-      <c r="F8" s="76">
+        <v/>
+      </c>
+      <c r="F8" s="76" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.73228840888273117</v>
-      </c>
-      <c r="G8" s="76">
+        <v/>
+      </c>
+      <c r="G8" s="76" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE), "")</f>
-        <v>0.81212055177975573</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="76">
+      <c r="C9" s="76" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
-        <v>0.28180440984664923</v>
-      </c>
-      <c r="D9" s="76">
+        <v/>
+      </c>
+      <c r="D9" s="76" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
-        <v>0.28180440984664923</v>
-      </c>
-      <c r="E9" s="76">
+        <v/>
+      </c>
+      <c r="E9" s="76" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
-        <v>0.2466938696379041</v>
-      </c>
-      <c r="F9" s="76">
+        <v/>
+      </c>
+      <c r="F9" s="76" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
-        <v>0.21506846670192739</v>
-      </c>
-      <c r="G9" s="76">
+        <v/>
+      </c>
+      <c r="G9" s="76" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
-        <v>0.15821429221536368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="77">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="D10" s="77">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="E10" s="77">
-        <v>5.4022564102564105E-2</v>
-      </c>
-      <c r="F10" s="77">
-        <v>4.2547708138447146E-2</v>
-      </c>
-      <c r="G10" s="77">
-        <v>2.2330660624019519E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="77">
-        <v>0.04</v>
-      </c>
-      <c r="D11" s="77">
-        <v>0.04</v>
-      </c>
-      <c r="E11" s="77">
-        <v>1.5725128205128207E-2</v>
-      </c>
-      <c r="F11" s="77">
-        <v>1.0095416276894293E-2</v>
-      </c>
-      <c r="G11" s="77">
-        <v>7.3344953808610778E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -19508,7 +19106,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>70</v>
       </c>
@@ -19552,115 +19150,89 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="78">
-        <v>0.1</v>
-      </c>
-      <c r="D14" s="78">
-        <v>0.1</v>
-      </c>
-      <c r="E14" s="78">
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="F14" s="78">
-        <v>0.72950000000000004</v>
-      </c>
-      <c r="G14" s="78">
-        <v>0.48366666666666674</v>
-      </c>
-      <c r="H14" s="79">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="I14" s="79">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="J14" s="79">
-        <v>0.433</v>
-      </c>
-      <c r="K14" s="79">
-        <v>0.442</v>
-      </c>
-      <c r="L14" s="79">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="M14" s="79">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="N14" s="79">
-        <v>0.433</v>
-      </c>
-      <c r="O14" s="79">
-        <v>0.442</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="76">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
-        <v>4.2000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="D15" s="76">
         <f t="shared" si="0"/>
-        <v>4.2000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="E15" s="76">
         <f t="shared" si="0"/>
-        <v>0.32801999999999998</v>
+        <v>0</v>
       </c>
       <c r="F15" s="76">
         <f t="shared" si="0"/>
-        <v>0.30639</v>
+        <v>0</v>
       </c>
       <c r="G15" s="76">
         <f t="shared" si="0"/>
-        <v>0.20314000000000002</v>
+        <v>0</v>
       </c>
       <c r="H15" s="76">
         <f t="shared" si="0"/>
-        <v>0.19865999999999998</v>
+        <v>0</v>
       </c>
       <c r="I15" s="76">
         <f t="shared" si="0"/>
-        <v>0.18773999999999999</v>
+        <v>0</v>
       </c>
       <c r="J15" s="76">
         <f t="shared" si="0"/>
-        <v>0.18185999999999999</v>
+        <v>0</v>
       </c>
       <c r="K15" s="76">
         <f t="shared" si="0"/>
-        <v>0.18564</v>
+        <v>0</v>
       </c>
       <c r="L15" s="76">
         <f t="shared" si="0"/>
-        <v>0.19865999999999998</v>
+        <v>0</v>
       </c>
       <c r="M15" s="76">
         <f t="shared" si="0"/>
-        <v>0.18773999999999999</v>
+        <v>0</v>
       </c>
       <c r="N15" s="76">
         <f t="shared" si="0"/>
-        <v>0.18185999999999999</v>
+        <v>0</v>
       </c>
       <c r="O15" s="76">
         <f t="shared" si="0"/>
-        <v>0.18564</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -19683,16 +19255,16 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -19716,88 +19288,58 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="77">
-        <v>0.84</v>
-      </c>
-      <c r="D2" s="77">
-        <v>0.44307448494453255</v>
-      </c>
-      <c r="E2" s="77">
-        <v>1.36244579358196E-2</v>
-      </c>
-      <c r="F2" s="77">
-        <v>0</v>
-      </c>
-      <c r="G2" s="77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="B3" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="77">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="D3" s="77">
-        <v>0.21674801901743265</v>
-      </c>
-      <c r="E3" s="77">
-        <v>3.2771032090199478E-2</v>
-      </c>
-      <c r="F3" s="77">
-        <v>1E-3</v>
-      </c>
-      <c r="G3" s="77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="B4" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="77">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="D4" s="77">
-        <v>0.31577812995245641</v>
-      </c>
-      <c r="E4" s="77">
-        <v>0.93464267129228107</v>
-      </c>
-      <c r="F4" s="77">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="G4" s="77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="B5" s="43" t="s">
         <v>169</v>
       </c>
       <c r="C5" s="76">
         <f>1-SUM(C2:C4)</f>
-        <v>1.0000000000000009E-2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="76">
         <f t="shared" ref="D5:G5" si="0">1-SUM(D2:D4)</f>
-        <v>2.4399366085578356E-2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="76">
         <f t="shared" si="0"/>
-        <v>1.8961838681699872E-2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="76">
         <f t="shared" si="0"/>
-        <v>0.27800000000000002</v>
+        <v>1</v>
       </c>
       <c r="G5" s="76">
         <f t="shared" si="0"/>
@@ -19822,14 +19364,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -19879,7 +19421,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -19888,7 +19430,7 @@
       </c>
       <c r="C2" s="28">
         <f>(('Nutritional status distribution'!C4+'Nutritional status distribution'!C5)*(1/60)+('Nutritional status distribution'!D4+'Nutritional status distribution'!D5)*(5/60)+('Nutritional status distribution'!E4+'Nutritional status distribution'!E5)*(6/60)+('Nutritional status distribution'!F4+'Nutritional status distribution'!F5)*(12/60)+('Nutritional status distribution'!G4+'Nutritional status distribution'!G5)*(36/60))</f>
-        <v>0.34434320222452625</v>
+        <v>0</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -19906,10 +19448,10 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -19918,7 +19460,7 @@
       </c>
       <c r="C4" s="28">
         <f>(('Nutritional status distribution'!C10+'Nutritional status distribution'!C11)*(1/60)+('Nutritional status distribution'!D10+'Nutritional status distribution'!D11)*(5/60)+('Nutritional status distribution'!E10+'Nutritional status distribution'!E11)*(6/60)+('Nutritional status distribution'!F10+'Nutritional status distribution'!F11)*(12/60)+('Nutritional status distribution'!G10+'Nutritional status distribution'!G11)*(36/60))</f>
-        <v>4.4702487716765882E-2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -19938,10 +19480,10 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -19950,7 +19492,7 @@
       </c>
       <c r="C6" s="28">
         <f>'Nutritional status distribution'!C15*(1/60)+'Nutritional status distribution'!D15*(5/60)+'Nutritional status distribution'!E15*(6/60)+'Nutritional status distribution'!F15*(12/60)+'Nutritional status distribution'!G15*(36/60)</f>
-        <v>0.22016400000000003</v>
+        <v>0</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -19968,13 +19510,13 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="28" t="e">
         <f>('Nutritional status distribution'!H15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!I15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!J15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!K15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
-        <v>0.18837666072928053</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -19992,13 +19534,13 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="28" t="e">
         <f>('Nutritional status distribution'!L15*('Demographic projections'!C2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!M15*('Demographic projections'!D2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!N15*('Demographic projections'!E2/SUM('Demographic projections'!C2:F2))+'Nutritional status distribution'!O15*('Demographic projections'!F2/SUM('Demographic projections'!C2:F2)))</f>
-        <v>0.18837666072928053</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -20018,7 +19560,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -20027,7 +19569,7 @@
       </c>
       <c r="C10" s="28">
         <f>('Breastfeeding distribution'!C2*(1/6)+'Breastfeeding distribution'!D2*(5/6))</f>
-        <v>0.50922873745377717</v>
+        <v>0</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -20045,13 +19587,13 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
       <c r="C11" s="28">
         <f>(('Breastfeeding distribution'!E4)*(6/18)+('Breastfeeding distribution'!F4)*(12/18))</f>
-        <v>0.79221422376409367</v>
+        <v>0</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -20069,7 +19611,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -20078,7 +19620,7 @@
       </c>
       <c r="C13" s="28">
         <f>U5_mortality/1000</f>
-        <v>6.7000000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
@@ -20096,13 +19638,13 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
       <c r="C14" s="28">
         <f>maternal_mortality/1000</f>
-        <v>4.0099999999999997E-3</v>
+        <v>0</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
@@ -20134,18 +19676,18 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="35"/>
+    <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="50" t="s">
         <v>178</v>
       </c>
@@ -20162,7 +19704,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="49" t="s">
         <v>173</v>
       </c>
@@ -20176,13 +19718,13 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="80" t="b">
-        <v>1</v>
+      <c r="C3" s="80" t="s">
+        <v>194</v>
       </c>
       <c r="D3" s="80"/>
       <c r="E3" s="57" t="str">
@@ -20190,13 +19732,13 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="80" t="b">
-        <v>1</v>
+      <c r="C4" s="80" t="s">
+        <v>194</v>
       </c>
       <c r="D4" s="80"/>
       <c r="E4" s="57" t="str">
@@ -20204,13 +19746,13 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="80" t="b">
-        <v>1</v>
+      <c r="C5" s="80" t="s">
+        <v>194</v>
       </c>
       <c r="D5" s="80"/>
       <c r="E5" s="57" t="str">
@@ -20218,13 +19760,13 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="80" t="b">
-        <v>1</v>
+      <c r="C6" s="80" t="s">
+        <v>194</v>
       </c>
       <c r="D6" s="80"/>
       <c r="E6" s="57" t="str">
@@ -20232,7 +19774,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -20241,7 +19783,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="49" t="s">
         <v>198</v>
       </c>
@@ -20249,15 +19791,13 @@
         <v>32</v>
       </c>
       <c r="C9" s="80"/>
-      <c r="D9" s="80" t="b">
-        <v>0</v>
-      </c>
+      <c r="D9" s="80"/>
       <c r="E9" s="57" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -20269,7 +19809,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -20281,7 +19821,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -20293,7 +19833,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -20305,7 +19845,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -20316,7 +19856,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="49" t="s">
         <v>199</v>
       </c>
@@ -20332,7 +19872,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -20346,7 +19886,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -20360,7 +19900,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -20374,7 +19914,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -20388,7 +19928,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -20412,18 +19952,18 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="60" t="s">
         <v>164</v>
       </c>
@@ -20437,7 +19977,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="61" t="s">
         <v>69</v>
       </c>
@@ -20449,7 +19989,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="61" t="s">
         <v>185</v>
       </c>
@@ -20474,21 +20014,21 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.453125" style="35"/>
+    <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="26.4">
       <c r="A1" s="54" t="s">
         <v>69</v>
       </c>
@@ -20506,7 +20046,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -20516,14 +20056,14 @@
       <c r="C2" s="81">
         <v>0.95</v>
       </c>
-      <c r="D2" s="82">
+      <c r="D2" s="138">
         <v>25</v>
       </c>
       <c r="E2" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -20533,14 +20073,14 @@
       <c r="C3" s="81">
         <v>0.95</v>
       </c>
-      <c r="D3" s="82">
+      <c r="D3" s="138">
         <v>1</v>
       </c>
       <c r="E3" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -20550,14 +20090,14 @@
       <c r="C4" s="81">
         <v>0.95</v>
       </c>
-      <c r="D4" s="82">
+      <c r="D4" s="138">
         <v>90</v>
       </c>
       <c r="E4" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -20567,14 +20107,14 @@
       <c r="C5" s="81">
         <v>0.95</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="138">
         <v>1</v>
       </c>
       <c r="E5" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="52" t="s">
         <v>197</v>
       </c>
@@ -20584,31 +20124,31 @@
       <c r="C6" s="81">
         <v>0.95</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="138">
         <v>0.82</v>
       </c>
       <c r="E6" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="81">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="C7" s="81">
         <v>0.95</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="138">
         <v>0.25</v>
       </c>
       <c r="E7" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -20618,14 +20158,14 @@
       <c r="C8" s="81">
         <v>0.95</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="138">
         <v>0.75</v>
       </c>
       <c r="E8" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -20635,14 +20175,14 @@
       <c r="C9" s="81">
         <v>0.95</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="138">
         <v>0.19</v>
       </c>
       <c r="E9" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="59" t="s">
         <v>188</v>
       </c>
@@ -20652,14 +20192,14 @@
       <c r="C10" s="81">
         <v>0.95</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="138">
         <v>0.73</v>
       </c>
       <c r="E10" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="59" t="s">
         <v>206</v>
       </c>
@@ -20669,14 +20209,14 @@
       <c r="C11" s="81">
         <v>0.95</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="138">
         <v>1.78</v>
       </c>
       <c r="E11" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="59" t="s">
         <v>189</v>
       </c>
@@ -20686,14 +20226,14 @@
       <c r="C12" s="81">
         <v>0.95</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="138">
         <v>0.24</v>
       </c>
       <c r="E12" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="59" t="s">
         <v>190</v>
       </c>
@@ -20703,14 +20243,14 @@
       <c r="C13" s="81">
         <v>0.95</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="138">
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>187</v>
       </c>
@@ -20720,14 +20260,14 @@
       <c r="C14" s="81">
         <v>0.95</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="138">
         <v>0.73</v>
       </c>
       <c r="E14" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>207</v>
       </c>
@@ -20737,48 +20277,48 @@
       <c r="C15" s="81">
         <v>0.95</v>
       </c>
-      <c r="D15" s="82">
+      <c r="D15" s="138">
         <v>1.78</v>
       </c>
       <c r="E15" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
       <c r="B16" s="81">
-        <v>0.34599999999999997</v>
+        <v>0</v>
       </c>
       <c r="C16" s="81">
         <v>0.95</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="138">
         <v>2.06</v>
       </c>
       <c r="E16" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
       <c r="B17" s="81">
-        <v>0.80800000000000005</v>
+        <v>0</v>
       </c>
       <c r="C17" s="81">
         <v>0.95</v>
       </c>
-      <c r="D17" s="82">
+      <c r="D17" s="138">
         <v>0.05</v>
       </c>
       <c r="E17" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.9" customHeight="1">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -20788,14 +20328,14 @@
       <c r="C18" s="81">
         <v>0.95</v>
       </c>
-      <c r="D18" s="82">
+      <c r="D18" s="138">
         <v>5</v>
       </c>
       <c r="E18" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -20805,14 +20345,14 @@
       <c r="C19" s="81">
         <v>0.95</v>
       </c>
-      <c r="D19" s="82">
+      <c r="D19" s="138">
         <v>5</v>
       </c>
       <c r="E19" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="52" t="s">
         <v>199</v>
       </c>
@@ -20822,14 +20362,14 @@
       <c r="C20" s="81">
         <v>0.95</v>
       </c>
-      <c r="D20" s="82">
+      <c r="D20" s="138">
         <v>5</v>
       </c>
       <c r="E20" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="52" t="s">
         <v>195</v>
       </c>
@@ -20839,14 +20379,14 @@
       <c r="C21" s="81">
         <v>0.95</v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="138">
         <v>8.84</v>
       </c>
       <c r="E21" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -20856,31 +20396,31 @@
       <c r="C22" s="81">
         <v>0.95</v>
       </c>
-      <c r="D22" s="82">
+      <c r="D22" s="138">
         <v>50</v>
       </c>
       <c r="E22" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="81">
-        <v>0.50800000000000001</v>
+        <v>0</v>
       </c>
       <c r="C23" s="81">
         <v>0.95</v>
       </c>
-      <c r="D23" s="82">
+      <c r="D23" s="138">
         <v>2.61</v>
       </c>
       <c r="E23" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -20890,14 +20430,14 @@
       <c r="C24" s="81">
         <v>0.95</v>
       </c>
-      <c r="D24" s="82">
+      <c r="D24" s="138">
         <v>1</v>
       </c>
       <c r="E24" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -20907,48 +20447,48 @@
       <c r="C25" s="81">
         <v>0.95</v>
       </c>
-      <c r="D25" s="82">
+      <c r="D25" s="138">
         <v>1</v>
       </c>
       <c r="E25" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="52" t="s">
         <v>137</v>
       </c>
       <c r="B26" s="81">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="81">
         <v>0.95</v>
       </c>
-      <c r="D26" s="82">
+      <c r="D26" s="138">
         <v>4.6500000000000004</v>
       </c>
       <c r="E26" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
       <c r="B27" s="81">
-        <v>0.3538</v>
+        <v>0</v>
       </c>
       <c r="C27" s="81">
         <v>0.95</v>
       </c>
-      <c r="D27" s="82">
+      <c r="D27" s="138">
         <v>3.78</v>
       </c>
       <c r="E27" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -20958,14 +20498,14 @@
       <c r="C28" s="81">
         <v>0.95</v>
       </c>
-      <c r="D28" s="82">
+      <c r="D28" s="138">
         <v>1</v>
       </c>
       <c r="E28" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -20975,14 +20515,14 @@
       <c r="C29" s="81">
         <v>0.95</v>
       </c>
-      <c r="D29" s="82">
+      <c r="D29" s="138">
         <v>48</v>
       </c>
       <c r="E29" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
@@ -20992,109 +20532,109 @@
       <c r="C30" s="81">
         <v>0.95</v>
       </c>
-      <c r="D30" s="82">
+      <c r="D30" s="138">
         <v>5.3</v>
       </c>
       <c r="E30" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="52" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="81">
-        <v>0.89970000000000006</v>
+        <v>0</v>
       </c>
       <c r="C31" s="81">
         <v>0.95</v>
       </c>
-      <c r="D31" s="82">
+      <c r="D31" s="138">
         <v>0.41</v>
       </c>
       <c r="E31" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
       <c r="B32" s="81">
-        <v>0.80700000000000005</v>
+        <v>0</v>
       </c>
       <c r="C32" s="81">
         <v>0.95</v>
       </c>
-      <c r="D32" s="82">
+      <c r="D32" s="138">
         <v>0.9</v>
       </c>
       <c r="E32" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
       <c r="B33" s="81">
-        <v>0.73199999999999998</v>
+        <v>0</v>
       </c>
       <c r="C33" s="81">
         <v>0.95</v>
       </c>
-      <c r="D33" s="82">
+      <c r="D33" s="138">
         <v>0.9</v>
       </c>
       <c r="E33" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
       <c r="B34" s="81">
-        <v>0.316</v>
+        <v>0</v>
       </c>
       <c r="C34" s="81">
         <v>0.95</v>
       </c>
-      <c r="D34" s="82">
+      <c r="D34" s="138">
         <v>79</v>
       </c>
       <c r="E34" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="52" t="s">
         <v>79</v>
       </c>
       <c r="B35" s="81">
-        <v>0.59699999999999998</v>
+        <v>0</v>
       </c>
       <c r="C35" s="81">
         <v>0.95</v>
       </c>
-      <c r="D35" s="82">
+      <c r="D35" s="138">
         <v>31</v>
       </c>
       <c r="E35" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1">
       <c r="A36" s="52" t="s">
         <v>80</v>
       </c>
       <c r="B36" s="81">
-        <v>0.19900000000000001</v>
+        <v>0</v>
       </c>
       <c r="C36" s="81">
         <v>0.95</v>
       </c>
-      <c r="D36" s="82">
+      <c r="D36" s="138">
         <v>102</v>
       </c>
       <c r="E36" s="82" t="s">
@@ -21102,24 +20642,24 @@
       </c>
       <c r="F36" s="35"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="52" t="s">
         <v>85</v>
       </c>
       <c r="B37" s="81">
-        <v>0.13400000000000001</v>
+        <v>0</v>
       </c>
       <c r="C37" s="81">
         <v>0.95</v>
       </c>
-      <c r="D37" s="82">
+      <c r="D37" s="138">
         <v>5.53</v>
       </c>
       <c r="E37" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -21129,18 +20669,18 @@
       <c r="C38" s="81">
         <v>0.95</v>
       </c>
-      <c r="D38" s="82">
+      <c r="D38" s="138">
         <v>1</v>
       </c>
       <c r="E38" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="F39" s="36"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RqRQ7TPRHXEe1L6igejFZAPpsdlPpA03ZIk5OoGMwDgWTFCU/UFqRft6btShWGOjIYx2qleK383Gm0g3oseHuQ==" saltValue="/rMTNIx8/vVBxWYBNG/iYQ==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DARwucukYqr3ylaVfwoGR+D8RpLVAKJ04cAXQjoynjP3iV9MoL3ZSMQbEcdtlwTCYlOI24zELEGvNMFqGeLvfA==" saltValue="pT9gQWjLT41ImB41Zu+68w==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/inputs/template_input.xlsx
+++ b/inputs/template_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833BA593-24BA-4593-8FF3-D1BA6223C77C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C01040-EB2C-4F1B-B7D6-C4F8392FD014}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="885" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -91,12 +91,14 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$47</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$39</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -120,7 +122,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -129,7 +131,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Cost per person per year, or per pregnancy</t>
@@ -1235,7 +1237,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1405,19 +1407,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2583,11 +2572,11 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="728">
@@ -4763,18 +4752,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.44140625" style="12"/>
+    <col min="1" max="1" width="27.6328125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6328125" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.453125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.9" customHeight="1">
+    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -4785,14 +4774,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.9" customHeight="1">
+    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>191</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="15.9" customHeight="1">
+    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>193</v>
@@ -4801,7 +4790,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.9" customHeight="1">
+    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>192</v>
@@ -4810,93 +4799,93 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.9" customHeight="1">
+    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>208</v>
       </c>
       <c r="C7" s="65"/>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
       <c r="C8" s="66"/>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>107</v>
       </c>
       <c r="C9" s="67"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C10" s="67"/>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C11" s="66"/>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C12" s="66"/>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
       <c r="C13" s="66"/>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C16" s="67"/>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C17" s="67"/>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C18" s="67"/>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C19" s="67"/>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>98</v>
       </c>
@@ -4905,74 +4894,74 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
       <c r="C23" s="67"/>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="20" t="s">
         <v>102</v>
       </c>
       <c r="C24" s="67"/>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
         <v>103</v>
       </c>
       <c r="C25" s="67"/>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="20" t="s">
         <v>104</v>
       </c>
       <c r="C26" s="67"/>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>196</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="69"/>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="69"/>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="69"/>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="30" t="s">
         <v>78</v>
       </c>
       <c r="C32" s="69"/>
     </row>
-    <row r="33" spans="1:5" ht="13.2">
+    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -4981,26 +4970,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="42" t="s">
         <v>92</v>
       </c>
       <c r="C37" s="71"/>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="16" t="s">
         <v>91</v>
       </c>
@@ -5008,7 +4997,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
@@ -5016,48 +5005,48 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>171</v>
       </c>
       <c r="C40" s="71"/>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
       <c r="C41" s="67"/>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="42" t="s">
         <v>93</v>
       </c>
       <c r="C42" s="71"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="67"/>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="67"/>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>12</v>
       </c>
@@ -5065,7 +5054,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>26</v>
       </c>
@@ -5076,76 +5065,76 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
         <v>124</v>
       </c>
       <c r="C51" s="72"/>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
         <v>125</v>
       </c>
       <c r="C52" s="72"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>126</v>
       </c>
       <c r="C53" s="72"/>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
         <v>127</v>
       </c>
       <c r="C54" s="72"/>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
         <v>128</v>
       </c>
       <c r="C55" s="72"/>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
       <c r="C58" s="66"/>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="16" t="s">
         <v>132</v>
       </c>
       <c r="C59" s="66"/>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
         <v>269</v>
       </c>
       <c r="C60" s="66"/>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
         <v>270</v>
       </c>
       <c r="C61" s="66"/>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5166,85 +5155,85 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.44140625" style="35"/>
+    <col min="1" max="1" width="30.08984375" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -5264,9 +5253,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5286,7 +5275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -5311,7 +5300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -5336,7 +5325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -5378,15 +5367,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.88671875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.44140625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="35"/>
+    <col min="2" max="2" width="47.90625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.453125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -5397,7 +5386,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
         <v>187</v>
       </c>
@@ -5406,7 +5395,7 @@
       </c>
       <c r="C2" s="80"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="s">
         <v>207</v>
       </c>
@@ -5415,7 +5404,7 @@
       </c>
       <c r="C3" s="80"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="84" t="s">
         <v>58</v>
       </c>
@@ -5424,7 +5413,7 @@
       </c>
       <c r="C4" s="80"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
         <v>137</v>
       </c>
@@ -5433,77 +5422,77 @@
       </c>
       <c r="C5" s="80"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="84"/>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="84"/>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="84"/>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="84"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="84"/>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="86"/>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="86"/>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="86"/>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="86"/>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="84"/>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="84"/>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
@@ -5523,23 +5512,23 @@
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.88671875" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.90625" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -5586,7 +5575,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -5637,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>149</v>
       </c>
@@ -5681,7 +5670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>195</v>
       </c>
@@ -5725,7 +5714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>136</v>
       </c>
@@ -5771,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>137</v>
       </c>
@@ -5818,28 +5807,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="33" t="s">
         <v>84</v>
       </c>
       <c r="C7" s="87">
-        <f>diarrhoea_1mo/26</f>
+        <f>diarrhoea_1mo</f>
         <v>0</v>
       </c>
       <c r="D7" s="87">
-        <f>diarrhoea_1_5mo/26</f>
+        <f>diarrhoea_1_5mo</f>
         <v>0</v>
       </c>
       <c r="E7" s="87">
-        <f>diarrhoea_6_11mo/26</f>
+        <f>diarrhoea_6_11mo</f>
         <v>0</v>
       </c>
       <c r="F7" s="87">
-        <f>diarrhoea_12_23mo/26</f>
+        <f>diarrhoea_12_23mo</f>
         <v>0</v>
       </c>
       <c r="G7" s="87">
-        <f>diarrhoea_24_59mo/26</f>
+        <f>diarrhoea_24_59mo</f>
         <v>0</v>
       </c>
       <c r="H7" s="88">
@@ -5867,7 +5856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
@@ -5913,7 +5902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
@@ -5961,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>28</v>
       </c>
@@ -6005,28 +5994,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="33" t="s">
         <v>85</v>
       </c>
       <c r="C11" s="87">
-        <f>diarrhoea_1mo/26</f>
+        <f>diarrhoea_1mo</f>
         <v>0</v>
       </c>
       <c r="D11" s="87">
-        <f>diarrhoea_1_5mo/26</f>
+        <f>diarrhoea_1_5mo</f>
         <v>0</v>
       </c>
       <c r="E11" s="87">
-        <f>diarrhoea_6_11mo/26</f>
+        <f>diarrhoea_6_11mo</f>
         <v>0</v>
       </c>
       <c r="F11" s="87">
-        <f>diarrhoea_12_23mo/26</f>
+        <f>diarrhoea_12_23mo</f>
         <v>0</v>
       </c>
       <c r="G11" s="87">
-        <f>diarrhoea_24_59mo/26</f>
+        <f>diarrhoea_24_59mo</f>
         <v>0</v>
       </c>
       <c r="H11" s="88">
@@ -6054,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>60</v>
       </c>
@@ -6098,10 +6087,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -6152,7 +6141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>86</v>
@@ -6197,7 +6186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>187</v>
@@ -6246,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>207</v>
@@ -6295,7 +6284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="33" t="s">
         <v>57</v>
       </c>
@@ -6343,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>88</v>
       </c>
@@ -6387,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>87</v>
       </c>
@@ -6431,7 +6420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="s">
         <v>59</v>
       </c>
@@ -6479,10 +6468,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58" t="s">
         <v>37</v>
       </c>
@@ -6533,7 +6522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="59" t="s">
         <v>188</v>
       </c>
@@ -6581,7 +6570,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="59" t="s">
         <v>206</v>
       </c>
@@ -6629,7 +6618,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="59" t="s">
         <v>189</v>
       </c>
@@ -6677,7 +6666,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59" t="s">
         <v>190</v>
       </c>
@@ -6722,7 +6711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6732,7 +6721,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -6790,7 +6779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>64</v>
       </c>
@@ -6845,7 +6834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>62</v>
       </c>
@@ -6900,7 +6889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>47</v>
       </c>
@@ -6944,7 +6933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>34</v>
       </c>
@@ -7001,7 +6990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="33" t="s">
         <v>83</v>
       </c>
@@ -7045,7 +7034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
         <v>82</v>
@@ -7090,7 +7079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="33" t="s">
         <v>81</v>
       </c>
@@ -7134,7 +7123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="33" t="s">
         <v>79</v>
       </c>
@@ -7178,7 +7167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="33" t="s">
         <v>80</v>
       </c>
@@ -7222,7 +7211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="33"/>
     </row>
   </sheetData>
@@ -7241,24 +7230,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>204</v>
       </c>
@@ -7279,16 +7268,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" style="35"/>
-    <col min="5" max="5" width="17.44140625" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="35"/>
+    <col min="1" max="1" width="33.6328125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.453125" style="35"/>
+    <col min="5" max="5" width="17.453125" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -7305,7 +7294,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8">
+    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -7323,7 +7312,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8">
+    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -7341,7 +7330,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8">
+    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -7359,7 +7348,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8">
+    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -7377,7 +7366,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8">
+    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -7395,7 +7384,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8">
+    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -7413,7 +7402,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8">
+    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -7431,7 +7420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8">
+    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -7449,7 +7438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8">
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -7467,7 +7456,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
@@ -7488,20 +7477,20 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.21875" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.90625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.33203125" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.88671875" style="55" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.109375" style="55"/>
+    <col min="6" max="7" width="13.08984375" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.36328125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.90625" style="55" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.08984375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="56" t="s">
         <v>33</v>
       </c>
@@ -7548,7 +7537,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>31</v>
       </c>
@@ -7595,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="52" t="s">
         <v>149</v>
       </c>
@@ -7639,7 +7628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="52" t="s">
         <v>173</v>
       </c>
@@ -7683,7 +7672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52" t="s">
         <v>198</v>
       </c>
@@ -7727,7 +7716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="52" t="s">
         <v>199</v>
       </c>
@@ -7771,7 +7760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="52" t="s">
         <v>195</v>
       </c>
@@ -7815,7 +7804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="52" t="s">
         <v>136</v>
       </c>
@@ -7859,7 +7848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="52" t="s">
         <v>137</v>
       </c>
@@ -7903,7 +7892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="52" t="s">
         <v>84</v>
       </c>
@@ -7947,7 +7936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="52" t="s">
         <v>58</v>
       </c>
@@ -7991,7 +7980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="52" t="s">
         <v>67</v>
       </c>
@@ -8035,7 +8024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="52" t="s">
         <v>28</v>
       </c>
@@ -8079,7 +8068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="52" t="s">
         <v>85</v>
       </c>
@@ -8123,7 +8112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="52" t="s">
         <v>60</v>
       </c>
@@ -8167,7 +8156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="52"/>
       <c r="C16" s="129"/>
       <c r="D16" s="129"/>
@@ -8183,7 +8172,7 @@
       <c r="N16" s="129"/>
       <c r="O16" s="129"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="56" t="s">
         <v>32</v>
       </c>
@@ -8230,7 +8219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="56"/>
       <c r="B18" s="52" t="s">
         <v>86</v>
@@ -8275,7 +8264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="90" t="s">
         <v>187</v>
       </c>
@@ -8319,7 +8308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="90" t="s">
         <v>207</v>
       </c>
@@ -8363,7 +8352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="91" t="s">
         <v>57</v>
       </c>
@@ -8407,7 +8396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="52" t="s">
         <v>88</v>
       </c>
@@ -8451,7 +8440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="52" t="s">
         <v>87</v>
       </c>
@@ -8495,7 +8484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="52" t="s">
         <v>59</v>
       </c>
@@ -8539,7 +8528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="52"/>
       <c r="C25" s="129"/>
       <c r="D25" s="129"/>
@@ -8555,7 +8544,7 @@
       <c r="N25" s="129"/>
       <c r="O25" s="129"/>
     </row>
-    <row r="26" spans="1:16" ht="16.05" customHeight="1">
+    <row r="26" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="56" t="s">
         <v>37</v>
       </c>
@@ -8603,7 +8592,7 @@
       </c>
       <c r="P26" s="92"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="59" t="s">
         <v>188</v>
       </c>
@@ -8647,7 +8636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56"/>
       <c r="B28" s="59" t="s">
         <v>206</v>
@@ -8692,7 +8681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="59" t="s">
         <v>189</v>
       </c>
@@ -8736,7 +8725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="59" t="s">
         <v>190</v>
       </c>
@@ -8780,7 +8769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="52"/>
       <c r="C31" s="130"/>
       <c r="D31" s="130"/>
@@ -8796,7 +8785,7 @@
       <c r="N31" s="129"/>
       <c r="O31" s="129"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="56" t="s">
         <v>35</v>
       </c>
@@ -8843,7 +8832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="52" t="s">
         <v>64</v>
       </c>
@@ -8887,7 +8876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="52" t="s">
         <v>62</v>
       </c>
@@ -8931,7 +8920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="52" t="s">
         <v>47</v>
       </c>
@@ -8975,7 +8964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="52" t="s">
         <v>34</v>
       </c>
@@ -9019,7 +9008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="93"/>
       <c r="B37" s="52" t="s">
         <v>83</v>
@@ -9064,7 +9053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1">
+    <row r="38" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="52" t="s">
         <v>82</v>
       </c>
@@ -9108,7 +9097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="52" t="s">
         <v>81</v>
       </c>
@@ -9152,7 +9141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1">
+    <row r="40" spans="1:15" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="52" t="s">
         <v>79</v>
       </c>
@@ -9196,7 +9185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="52" t="s">
         <v>80</v>
       </c>
@@ -9257,22 +9246,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="58.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -9307,7 +9296,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -9324,7 +9313,7 @@
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -9341,7 +9330,7 @@
       <c r="J3" s="133"/>
       <c r="K3" s="133"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -9358,7 +9347,7 @@
       <c r="J4" s="133"/>
       <c r="K4" s="133"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -9375,7 +9364,7 @@
       <c r="J5" s="133"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>197</v>
       </c>
@@ -9394,7 +9383,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -9413,7 +9402,7 @@
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -9432,7 +9421,7 @@
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -9451,7 +9440,7 @@
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
         <v>188</v>
       </c>
@@ -9468,7 +9457,7 @@
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
         <v>206</v>
       </c>
@@ -9485,7 +9474,7 @@
       <c r="J11" s="133"/>
       <c r="K11" s="133"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
         <v>189</v>
       </c>
@@ -9502,7 +9491,7 @@
       <c r="J12" s="133"/>
       <c r="K12" s="133"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>190</v>
       </c>
@@ -9519,7 +9508,7 @@
       <c r="J13" s="133"/>
       <c r="K13" s="133"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="90" t="s">
         <v>187</v>
       </c>
@@ -9538,7 +9527,7 @@
       <c r="J14" s="133"/>
       <c r="K14" s="133"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="90" t="s">
         <v>207</v>
       </c>
@@ -9557,7 +9546,7 @@
       <c r="J15" s="133"/>
       <c r="K15" s="133"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -9578,7 +9567,7 @@
       <c r="J16" s="133"/>
       <c r="K16" s="133"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -9595,7 +9584,7 @@
       <c r="J17" s="133"/>
       <c r="K17" s="133"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -9614,7 +9603,7 @@
       <c r="J18" s="133"/>
       <c r="K18" s="133"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -9633,7 +9622,7 @@
       <c r="J19" s="133"/>
       <c r="K19" s="133"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
         <v>199</v>
       </c>
@@ -9652,7 +9641,7 @@
       <c r="J20" s="133"/>
       <c r="K20" s="133"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>195</v>
       </c>
@@ -9671,7 +9660,7 @@
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -9692,7 +9681,7 @@
       <c r="J22" s="133"/>
       <c r="K22" s="133"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -9711,7 +9700,7 @@
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -9728,7 +9717,7 @@
       <c r="J24" s="133"/>
       <c r="K24" s="133"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -9745,7 +9734,7 @@
       <c r="J25" s="133"/>
       <c r="K25" s="133"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>137</v>
       </c>
@@ -9762,7 +9751,7 @@
       <c r="J26" s="133"/>
       <c r="K26" s="133"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -9781,7 +9770,7 @@
       <c r="J27" s="133"/>
       <c r="K27" s="133"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -9798,7 +9787,7 @@
       <c r="J28" s="133"/>
       <c r="K28" s="133"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -9817,7 +9806,7 @@
       <c r="J29" s="133"/>
       <c r="K29" s="133"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
@@ -9834,7 +9823,7 @@
       <c r="J30" s="133"/>
       <c r="K30" s="133"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
         <v>28</v>
       </c>
@@ -9853,7 +9842,7 @@
       <c r="J31" s="133"/>
       <c r="K31" s="133"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
@@ -9872,7 +9861,7 @@
       <c r="J32" s="133"/>
       <c r="K32" s="133"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
@@ -9891,7 +9880,7 @@
       <c r="J33" s="133"/>
       <c r="K33" s="133"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
@@ -9910,7 +9899,7 @@
       <c r="J34" s="133"/>
       <c r="K34" s="133"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>79</v>
       </c>
@@ -9929,7 +9918,7 @@
       <c r="J35" s="133"/>
       <c r="K35" s="133"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
         <v>80</v>
       </c>
@@ -9948,7 +9937,7 @@
       <c r="J36" s="133"/>
       <c r="K36" s="133"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
         <v>85</v>
       </c>
@@ -9965,7 +9954,7 @@
       <c r="J37" s="133"/>
       <c r="K37" s="133"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -10003,22 +9992,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="16.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>216</v>
       </c>
@@ -10053,7 +10042,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -10082,7 +10071,7 @@
       <c r="J2" s="133"/>
       <c r="K2" s="133"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -10111,7 +10100,7 @@
       <c r="J3" s="133"/>
       <c r="K3" s="133"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -10140,7 +10129,7 @@
       <c r="J4" s="133"/>
       <c r="K4" s="133"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -10169,7 +10158,7 @@
       <c r="J5" s="133"/>
       <c r="K5" s="133"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -10198,7 +10187,7 @@
       <c r="J6" s="133"/>
       <c r="K6" s="133"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -10219,7 +10208,7 @@
       <c r="J7" s="133"/>
       <c r="K7" s="133"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -10240,7 +10229,7 @@
       <c r="J8" s="133"/>
       <c r="K8" s="133"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -10261,7 +10250,7 @@
       <c r="J9" s="133"/>
       <c r="K9" s="133"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -10282,7 +10271,7 @@
       <c r="J10" s="133"/>
       <c r="K10" s="133"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -10303,7 +10292,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -10322,7 +10311,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -10341,7 +10330,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -10377,15 +10366,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="48.08984375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="12.77734375" style="35"/>
+    <col min="3" max="3" width="14.6328125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -10411,11 +10400,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="138" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="35" t="s">
@@ -10437,8 +10426,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="B3" s="137"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="138"/>
       <c r="C3" s="35" t="s">
         <v>175</v>
       </c>
@@ -10459,8 +10448,8 @@
       </c>
       <c r="J3" s="95"/>
     </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="137"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="138"/>
       <c r="C4" s="35" t="s">
         <v>174</v>
       </c>
@@ -10481,8 +10470,8 @@
       </c>
       <c r="J4" s="95"/>
     </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="137" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="138" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
@@ -10505,8 +10494,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="137"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="138"/>
       <c r="C6" s="35" t="s">
         <v>175</v>
       </c>
@@ -10526,8 +10515,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="137"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="138"/>
       <c r="C7" s="35" t="s">
         <v>174</v>
       </c>
@@ -10547,8 +10536,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="137" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="138" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="35" t="s">
@@ -10570,8 +10559,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="137"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="138"/>
       <c r="C9" s="35" t="s">
         <v>175</v>
       </c>
@@ -10591,8 +10580,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="137"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="138"/>
       <c r="C10" s="35" t="s">
         <v>174</v>
       </c>
@@ -10612,8 +10601,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="B11" s="137" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="138" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="35" t="s">
@@ -10635,8 +10624,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="137"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="138"/>
       <c r="C12" s="35" t="s">
         <v>175</v>
       </c>
@@ -10656,8 +10645,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="137"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="138"/>
       <c r="C13" s="35" t="s">
         <v>174</v>
       </c>
@@ -10677,8 +10666,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="137" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="138" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="35" t="s">
@@ -10700,8 +10689,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="137"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="138"/>
       <c r="C15" s="35" t="s">
         <v>175</v>
       </c>
@@ -10721,8 +10710,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="137"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="138"/>
       <c r="C16" s="35" t="s">
         <v>174</v>
       </c>
@@ -10742,7 +10731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B17" s="96" t="s">
         <v>172</v>
       </c>
@@ -10765,18 +10754,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" s="132"/>
       <c r="E18" s="132"/>
       <c r="F18" s="132"/>
       <c r="G18" s="132"/>
       <c r="H18" s="132"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="B19" s="137" t="s">
+      <c r="B19" s="138" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -10798,8 +10787,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="B20" s="137"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="138"/>
       <c r="C20" s="35" t="s">
         <v>175</v>
       </c>
@@ -10819,8 +10808,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="B21" s="137"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="138"/>
       <c r="C21" s="35" t="s">
         <v>174</v>
       </c>
@@ -10840,8 +10829,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="B22" s="137" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="138" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="35" t="s">
@@ -10863,8 +10852,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="B23" s="137"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="138"/>
       <c r="C23" s="35" t="s">
         <v>175</v>
       </c>
@@ -10884,8 +10873,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="B24" s="137"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="138"/>
       <c r="C24" s="35" t="s">
         <v>174</v>
       </c>
@@ -10905,8 +10894,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="B25" s="137" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="138" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="35" t="s">
@@ -10928,8 +10917,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="B26" s="137"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="138"/>
       <c r="C26" s="35" t="s">
         <v>175</v>
       </c>
@@ -10949,8 +10938,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="B27" s="137"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="138"/>
       <c r="C27" s="35" t="s">
         <v>174</v>
       </c>
@@ -10970,8 +10959,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="B28" s="137" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="138" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="35" t="s">
@@ -10993,8 +10982,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="B29" s="137"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="138"/>
       <c r="C29" s="35" t="s">
         <v>175</v>
       </c>
@@ -11014,8 +11003,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="B30" s="137"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="138"/>
       <c r="C30" s="35" t="s">
         <v>174</v>
       </c>
@@ -11035,8 +11024,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="B31" s="137" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="138" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="35" t="s">
@@ -11058,8 +11047,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="B32" s="137"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="138"/>
       <c r="C32" s="35" t="s">
         <v>175</v>
       </c>
@@ -11079,8 +11068,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="B33" s="137"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="138"/>
       <c r="C33" s="35" t="s">
         <v>174</v>
       </c>
@@ -11100,7 +11089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B34" s="96" t="s">
         <v>172</v>
       </c>
@@ -11123,18 +11112,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="132"/>
       <c r="E35" s="132"/>
       <c r="F35" s="132"/>
       <c r="G35" s="132"/>
       <c r="H35" s="132"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="97" t="s">
         <v>220</v>
       </c>
-      <c r="B36" s="137" t="s">
+      <c r="B36" s="138" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="35" t="s">
@@ -11156,8 +11145,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="B37" s="137"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="138"/>
       <c r="C37" s="35" t="s">
         <v>175</v>
       </c>
@@ -11177,8 +11166,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="B38" s="137"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="138"/>
       <c r="C38" s="35" t="s">
         <v>174</v>
       </c>
@@ -11198,8 +11187,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="B39" s="137" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="138" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="35" t="s">
@@ -11221,8 +11210,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="B40" s="137"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="138"/>
       <c r="C40" s="35" t="s">
         <v>175</v>
       </c>
@@ -11242,8 +11231,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="B41" s="137"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="138"/>
       <c r="C41" s="35" t="s">
         <v>174</v>
       </c>
@@ -11263,8 +11252,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="B42" s="137" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="138" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="35" t="s">
@@ -11286,8 +11275,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="B43" s="137"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="138"/>
       <c r="C43" s="35" t="s">
         <v>175</v>
       </c>
@@ -11307,8 +11296,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="B44" s="137"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="138"/>
       <c r="C44" s="35" t="s">
         <v>174</v>
       </c>
@@ -11328,8 +11317,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="B45" s="137" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="138" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="35" t="s">
@@ -11351,8 +11340,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="B46" s="137"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="138"/>
       <c r="C46" s="35" t="s">
         <v>175</v>
       </c>
@@ -11372,8 +11361,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="B47" s="137"/>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="138"/>
       <c r="C47" s="35" t="s">
         <v>174</v>
       </c>
@@ -11393,8 +11382,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="B48" s="137" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="138" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="35" t="s">
@@ -11416,8 +11405,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="137"/>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="138"/>
       <c r="C49" s="35" t="s">
         <v>175</v>
       </c>
@@ -11437,8 +11426,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="137"/>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="138"/>
       <c r="C50" s="35" t="s">
         <v>174</v>
       </c>
@@ -11458,7 +11447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B51" s="98" t="s">
         <v>172</v>
       </c>
@@ -11484,6 +11473,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -11493,12 +11488,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -11516,14 +11505,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.88671875" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.44140625" style="12"/>
+    <col min="1" max="1" width="8.453125" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.90625" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.453125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -11552,7 +11541,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>start_year</f>
         <v>2017</v>
@@ -11575,7 +11564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -11598,7 +11587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -11621,7 +11610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -11644,7 +11633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -11667,7 +11656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -11690,7 +11679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -11713,7 +11702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -11736,7 +11725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -11759,7 +11748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -11782,7 +11771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -11805,7 +11794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -11828,7 +11817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -11851,7 +11840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -11874,7 +11863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -11897,7 +11886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -11920,7 +11909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -11943,7 +11932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -11966,7 +11955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -11989,7 +11978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12012,7 +12001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12035,7 +12024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12058,7 +12047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12081,7 +12070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12104,7 +12093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12127,7 +12116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12150,7 +12139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12173,7 +12162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12196,7 +12185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12219,7 +12208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12242,7 +12231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12265,7 +12254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12288,7 +12277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12311,7 +12300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12334,7 +12323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12357,7 +12346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12380,7 +12369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12403,7 +12392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12426,7 +12415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -12472,22 +12461,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="23.90625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="34.08984375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" style="35" customWidth="1"/>
     <col min="5" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="16384" width="16.109375" style="35"/>
+    <col min="7" max="16384" width="16.08984375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
         <v>26</v>
@@ -12502,7 +12491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>222</v>
       </c>
@@ -12512,7 +12501,7 @@
       <c r="E3" s="106"/>
       <c r="F3" s="106"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="107" t="s">
         <v>75</v>
       </c>
@@ -12529,7 +12518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="107" t="s">
         <v>76</v>
       </c>
@@ -12546,7 +12535,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="107" t="s">
         <v>77</v>
       </c>
@@ -12563,7 +12552,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="107" t="s">
         <v>78</v>
       </c>
@@ -12580,13 +12569,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="108"/>
       <c r="D8" s="95"/>
       <c r="E8" s="95"/>
       <c r="F8" s="95"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
         <v>223</v>
       </c>
@@ -12604,14 +12593,14 @@
       </c>
       <c r="G9" s="109"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="108"/>
       <c r="D10" s="95"/>
       <c r="E10" s="95"/>
       <c r="F10" s="95"/>
       <c r="G10" s="109"/>
     </row>
-    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:7" s="100" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="99" t="s">
         <v>224</v>
       </c>
@@ -12621,7 +12610,7 @@
       <c r="F11" s="111"/>
       <c r="G11" s="112"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
         <v>225</v>
       </c>
@@ -12631,7 +12620,7 @@
       <c r="F12" s="95"/>
       <c r="G12" s="109"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="113" t="s">
         <v>226</v>
       </c>
@@ -12649,7 +12638,7 @@
       </c>
       <c r="G13" s="109"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="113" t="s">
         <v>227</v>
       </c>
@@ -12667,7 +12656,7 @@
       </c>
       <c r="G14" s="109"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="113" t="s">
         <v>228</v>
       </c>
@@ -12685,7 +12674,7 @@
       </c>
       <c r="G15" s="109"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="113"/>
       <c r="C16" s="114"/>
@@ -12694,7 +12683,7 @@
       <c r="F16" s="95"/>
       <c r="G16" s="109"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
         <v>229</v>
       </c>
@@ -12705,7 +12694,7 @@
       <c r="F17" s="116"/>
       <c r="G17" s="109"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="117" t="s">
         <v>73</v>
       </c>
@@ -12723,7 +12712,7 @@
       </c>
       <c r="G18" s="109"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="117" t="s">
         <v>7</v>
       </c>
@@ -12741,7 +12730,7 @@
       </c>
       <c r="G19" s="109"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="117" t="s">
         <v>8</v>
       </c>
@@ -12759,7 +12748,7 @@
       </c>
       <c r="G20" s="109"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="117" t="s">
         <v>10</v>
       </c>
@@ -12777,7 +12766,7 @@
       </c>
       <c r="G21" s="109"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="117" t="s">
         <v>13</v>
       </c>
@@ -12794,7 +12783,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="117" t="s">
         <v>14</v>
       </c>
@@ -12811,7 +12800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="117" t="s">
         <v>27</v>
       </c>
@@ -12828,7 +12817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="117" t="s">
         <v>15</v>
       </c>
@@ -12845,10 +12834,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="113"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -12869,23 +12858,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="35" customWidth="1"/>
-    <col min="4" max="8" width="14.77734375" style="35" customWidth="1"/>
-    <col min="9" max="12" width="15.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="27.1796875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" style="35" customWidth="1"/>
+    <col min="4" max="8" width="14.81640625" style="35" customWidth="1"/>
+    <col min="9" max="12" width="15.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.90625" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="100" customFormat="1">
+    <row r="1" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="118" t="s">
         <v>211</v>
       </c>
@@ -12919,7 +12908,7 @@
       <c r="O2" s="120"/>
       <c r="P2" s="120"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -12951,7 +12940,7 @@
       <c r="O3" s="118"/>
       <c r="P3" s="118"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C4" s="43" t="s">
         <v>234</v>
       </c>
@@ -12979,7 +12968,7 @@
       <c r="O4" s="118"/>
       <c r="P4" s="118"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="43" t="s">
         <v>235</v>
       </c>
@@ -13007,7 +12996,7 @@
       <c r="O5" s="118"/>
       <c r="P5" s="118"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="43" t="s">
         <v>236</v>
       </c>
@@ -13035,7 +13024,7 @@
       <c r="O6" s="118"/>
       <c r="P6" s="118"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
@@ -13066,7 +13055,7 @@
       <c r="O7" s="118"/>
       <c r="P7" s="118"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="43" t="s">
         <v>234</v>
       </c>
@@ -13094,7 +13083,7 @@
       <c r="O8" s="118"/>
       <c r="P8" s="118"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="43" t="s">
         <v>235</v>
       </c>
@@ -13122,7 +13111,7 @@
       <c r="O9" s="118"/>
       <c r="P9" s="118"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="43" t="s">
         <v>236</v>
       </c>
@@ -13150,7 +13139,7 @@
       <c r="O10" s="118"/>
       <c r="P10" s="118"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="35" t="s">
         <v>18</v>
       </c>
@@ -13181,7 +13170,7 @@
       <c r="O11" s="118"/>
       <c r="P11" s="118"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="43" t="s">
         <v>234</v>
       </c>
@@ -13209,7 +13198,7 @@
       <c r="O12" s="118"/>
       <c r="P12" s="118"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="43" t="s">
         <v>235</v>
       </c>
@@ -13237,7 +13226,7 @@
       <c r="O13" s="118"/>
       <c r="P13" s="118"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="43" t="s">
         <v>236</v>
       </c>
@@ -13265,7 +13254,7 @@
       <c r="O14" s="118"/>
       <c r="P14" s="118"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="35" t="s">
         <v>19</v>
       </c>
@@ -13296,7 +13285,7 @@
       <c r="O15" s="118"/>
       <c r="P15" s="118"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="43" t="s">
         <v>234</v>
       </c>
@@ -13324,7 +13313,7 @@
       <c r="O16" s="118"/>
       <c r="P16" s="118"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C17" s="43" t="s">
         <v>235</v>
       </c>
@@ -13352,7 +13341,7 @@
       <c r="O17" s="118"/>
       <c r="P17" s="118"/>
     </row>
-    <row r="18" spans="1:16" ht="13.95" customHeight="1">
+    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="43" t="s">
         <v>236</v>
       </c>
@@ -13380,7 +13369,7 @@
       <c r="O18" s="118"/>
       <c r="P18" s="118"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
@@ -13411,7 +13400,7 @@
       <c r="O19" s="118"/>
       <c r="P19" s="118"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C20" s="43" t="s">
         <v>234</v>
       </c>
@@ -13439,7 +13428,7 @@
       <c r="O20" s="118"/>
       <c r="P20" s="118"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C21" s="43" t="s">
         <v>235</v>
       </c>
@@ -13467,7 +13456,7 @@
       <c r="O21" s="118"/>
       <c r="P21" s="118"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C22" s="43" t="s">
         <v>236</v>
       </c>
@@ -13495,7 +13484,7 @@
       <c r="O22" s="118"/>
       <c r="P22" s="118"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="36" t="s">
         <v>23</v>
       </c>
@@ -13526,7 +13515,7 @@
       <c r="O23" s="118"/>
       <c r="P23" s="118"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C24" s="43" t="s">
         <v>234</v>
       </c>
@@ -13554,7 +13543,7 @@
       <c r="O24" s="118"/>
       <c r="P24" s="118"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C25" s="43" t="s">
         <v>235</v>
       </c>
@@ -13582,7 +13571,7 @@
       <c r="O25" s="118"/>
       <c r="P25" s="118"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C26" s="43" t="s">
         <v>236</v>
       </c>
@@ -13610,12 +13599,12 @@
       <c r="O26" s="118"/>
       <c r="P26" s="118"/>
     </row>
-    <row r="28" spans="1:16" s="100" customFormat="1">
+    <row r="28" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="99" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1">
+    <row r="29" spans="1:16" s="36" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="121" t="s">
         <v>238</v>
       </c>
@@ -13649,7 +13638,7 @@
       <c r="O29" s="120"/>
       <c r="P29" s="120"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -13681,7 +13670,7 @@
       <c r="O30" s="118"/>
       <c r="P30" s="118"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C31" s="43" t="s">
         <v>234</v>
       </c>
@@ -13709,7 +13698,7 @@
       <c r="O31" s="118"/>
       <c r="P31" s="118"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C32" s="43" t="s">
         <v>65</v>
       </c>
@@ -13737,7 +13726,7 @@
       <c r="O32" s="118"/>
       <c r="P32" s="118"/>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C33" s="43" t="s">
         <v>66</v>
       </c>
@@ -13765,7 +13754,7 @@
       <c r="O33" s="118"/>
       <c r="P33" s="118"/>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="35" t="s">
         <v>16</v>
       </c>
@@ -13796,7 +13785,7 @@
       <c r="O34" s="118"/>
       <c r="P34" s="118"/>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C35" s="43" t="s">
         <v>234</v>
       </c>
@@ -13824,7 +13813,7 @@
       <c r="O35" s="118"/>
       <c r="P35" s="118"/>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C36" s="43" t="s">
         <v>65</v>
       </c>
@@ -13852,7 +13841,7 @@
       <c r="O36" s="118"/>
       <c r="P36" s="118"/>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C37" s="43" t="s">
         <v>66</v>
       </c>
@@ -13880,7 +13869,7 @@
       <c r="O37" s="118"/>
       <c r="P37" s="118"/>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="35" t="s">
         <v>18</v>
       </c>
@@ -13911,7 +13900,7 @@
       <c r="O38" s="118"/>
       <c r="P38" s="118"/>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C39" s="43" t="s">
         <v>234</v>
       </c>
@@ -13939,7 +13928,7 @@
       <c r="O39" s="118"/>
       <c r="P39" s="118"/>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C40" s="43" t="s">
         <v>65</v>
       </c>
@@ -13967,7 +13956,7 @@
       <c r="O40" s="118"/>
       <c r="P40" s="118"/>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C41" s="43" t="s">
         <v>66</v>
       </c>
@@ -13995,7 +13984,7 @@
       <c r="O41" s="118"/>
       <c r="P41" s="118"/>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="35" t="s">
         <v>19</v>
       </c>
@@ -14026,7 +14015,7 @@
       <c r="O42" s="118"/>
       <c r="P42" s="118"/>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C43" s="43" t="s">
         <v>234</v>
       </c>
@@ -14054,7 +14043,7 @@
       <c r="O43" s="118"/>
       <c r="P43" s="118"/>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" s="43" t="s">
         <v>65</v>
       </c>
@@ -14082,7 +14071,7 @@
       <c r="O44" s="118"/>
       <c r="P44" s="118"/>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" s="43" t="s">
         <v>66</v>
       </c>
@@ -14110,7 +14099,7 @@
       <c r="O45" s="118"/>
       <c r="P45" s="118"/>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="35" t="s">
         <v>17</v>
       </c>
@@ -14141,7 +14130,7 @@
       <c r="O46" s="118"/>
       <c r="P46" s="118"/>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C47" s="43" t="s">
         <v>234</v>
       </c>
@@ -14169,7 +14158,7 @@
       <c r="O47" s="118"/>
       <c r="P47" s="118"/>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C48" s="43" t="s">
         <v>65</v>
       </c>
@@ -14197,7 +14186,7 @@
       <c r="O48" s="118"/>
       <c r="P48" s="118"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C49" s="43" t="s">
         <v>66</v>
       </c>
@@ -14225,7 +14214,7 @@
       <c r="O49" s="118"/>
       <c r="P49" s="118"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B50" s="35" t="s">
         <v>23</v>
       </c>
@@ -14256,7 +14245,7 @@
       <c r="O50" s="118"/>
       <c r="P50" s="118"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C51" s="43" t="s">
         <v>234</v>
       </c>
@@ -14284,7 +14273,7 @@
       <c r="O51" s="118"/>
       <c r="P51" s="118"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C52" s="43" t="s">
         <v>65</v>
       </c>
@@ -14312,7 +14301,7 @@
       <c r="O52" s="118"/>
       <c r="P52" s="118"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C53" s="43" t="s">
         <v>66</v>
       </c>
@@ -14340,16 +14329,16 @@
       <c r="O53" s="118"/>
       <c r="P53" s="118"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="100" customFormat="1">
+    <row r="55" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="99" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A56" s="121" t="s">
         <v>70</v>
       </c>
@@ -14377,7 +14366,7 @@
       <c r="O56" s="120"/>
       <c r="P56" s="120"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14403,7 +14392,7 @@
       <c r="O57" s="118"/>
       <c r="P57" s="118"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C58" s="43" t="s">
         <v>243</v>
       </c>
@@ -14425,7 +14414,7 @@
       <c r="O58" s="118"/>
       <c r="P58" s="118"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="35" t="s">
         <v>39</v>
       </c>
@@ -14450,7 +14439,7 @@
       <c r="O59" s="118"/>
       <c r="P59" s="118"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C60" s="43" t="s">
         <v>243</v>
       </c>
@@ -14472,7 +14461,7 @@
       <c r="O60" s="118"/>
       <c r="P60" s="118"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" s="35" t="s">
         <v>40</v>
       </c>
@@ -14497,7 +14486,7 @@
       <c r="O61" s="118"/>
       <c r="P61" s="118"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C62" s="43" t="s">
         <v>243</v>
       </c>
@@ -14519,16 +14508,16 @@
       <c r="O62" s="118"/>
       <c r="P62" s="118"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="100" customFormat="1">
+    <row r="64" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A64" s="99" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A65" s="121" t="s">
         <v>24</v>
       </c>
@@ -14562,7 +14551,7 @@
       <c r="O65" s="120"/>
       <c r="P65" s="120"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A66" s="125"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -14594,7 +14583,7 @@
       <c r="O66" s="118"/>
       <c r="P66" s="118"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C67" s="43" t="s">
         <v>167</v>
       </c>
@@ -14622,7 +14611,7 @@
       <c r="O67" s="118"/>
       <c r="P67" s="118"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C68" s="43" t="s">
         <v>168</v>
       </c>
@@ -14650,7 +14639,7 @@
       <c r="O68" s="118"/>
       <c r="P68" s="118"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C69" s="43" t="s">
         <v>169</v>
       </c>
@@ -14678,7 +14667,7 @@
       <c r="O69" s="118"/>
       <c r="P69" s="118"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B70" s="35" t="s">
         <v>7</v>
       </c>
@@ -14709,7 +14698,7 @@
       <c r="O70" s="118"/>
       <c r="P70" s="118"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C71" s="43" t="s">
         <v>167</v>
       </c>
@@ -14737,7 +14726,7 @@
       <c r="O71" s="118"/>
       <c r="P71" s="118"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C72" s="43" t="s">
         <v>168</v>
       </c>
@@ -14765,7 +14754,7 @@
       <c r="O72" s="118"/>
       <c r="P72" s="118"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C73" s="43" t="s">
         <v>169</v>
       </c>
@@ -14793,7 +14782,7 @@
       <c r="O73" s="118"/>
       <c r="P73" s="118"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -14824,7 +14813,7 @@
       <c r="O74" s="118"/>
       <c r="P74" s="118"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C75" s="43" t="s">
         <v>167</v>
       </c>
@@ -14852,7 +14841,7 @@
       <c r="O75" s="118"/>
       <c r="P75" s="118"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C76" s="43" t="s">
         <v>168</v>
       </c>
@@ -14880,7 +14869,7 @@
       <c r="O76" s="118"/>
       <c r="P76" s="118"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C77" s="43" t="s">
         <v>169</v>
       </c>
@@ -14908,7 +14897,7 @@
       <c r="O77" s="118"/>
       <c r="P77" s="118"/>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B78" s="35" t="s">
         <v>13</v>
       </c>
@@ -14939,7 +14928,7 @@
       <c r="O78" s="118"/>
       <c r="P78" s="118"/>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C79" s="43" t="s">
         <v>167</v>
       </c>
@@ -14967,7 +14956,7 @@
       <c r="O79" s="118"/>
       <c r="P79" s="118"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C80" s="43" t="s">
         <v>168</v>
       </c>
@@ -14995,7 +14984,7 @@
       <c r="O80" s="118"/>
       <c r="P80" s="118"/>
     </row>
-    <row r="81" spans="2:16">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C81" s="43" t="s">
         <v>169</v>
       </c>
@@ -15023,7 +15012,7 @@
       <c r="O81" s="118"/>
       <c r="P81" s="118"/>
     </row>
-    <row r="82" spans="2:16">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="35" t="s">
         <v>71</v>
       </c>
@@ -15054,7 +15043,7 @@
       <c r="O82" s="118"/>
       <c r="P82" s="118"/>
     </row>
-    <row r="83" spans="2:16">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C83" s="43" t="s">
         <v>167</v>
       </c>
@@ -15082,7 +15071,7 @@
       <c r="O83" s="118"/>
       <c r="P83" s="118"/>
     </row>
-    <row r="84" spans="2:16">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C84" s="43" t="s">
         <v>168</v>
       </c>
@@ -15110,7 +15099,7 @@
       <c r="O84" s="118"/>
       <c r="P84" s="118"/>
     </row>
-    <row r="85" spans="2:16">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C85" s="43" t="s">
         <v>169</v>
       </c>
@@ -15138,7 +15127,7 @@
       <c r="O85" s="118"/>
       <c r="P85" s="118"/>
     </row>
-    <row r="86" spans="2:16">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="35" t="s">
         <v>16</v>
       </c>
@@ -15169,7 +15158,7 @@
       <c r="O86" s="118"/>
       <c r="P86" s="118"/>
     </row>
-    <row r="87" spans="2:16">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C87" s="43" t="s">
         <v>167</v>
       </c>
@@ -15197,7 +15186,7 @@
       <c r="O87" s="118"/>
       <c r="P87" s="118"/>
     </row>
-    <row r="88" spans="2:16">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C88" s="43" t="s">
         <v>168</v>
       </c>
@@ -15225,7 +15214,7 @@
       <c r="O88" s="118"/>
       <c r="P88" s="118"/>
     </row>
-    <row r="89" spans="2:16">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C89" s="43" t="s">
         <v>169</v>
       </c>
@@ -15253,7 +15242,7 @@
       <c r="O89" s="118"/>
       <c r="P89" s="118"/>
     </row>
-    <row r="90" spans="2:16">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="35" t="s">
         <v>18</v>
       </c>
@@ -15284,7 +15273,7 @@
       <c r="O90" s="118"/>
       <c r="P90" s="118"/>
     </row>
-    <row r="91" spans="2:16">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C91" s="43" t="s">
         <v>167</v>
       </c>
@@ -15312,7 +15301,7 @@
       <c r="O91" s="118"/>
       <c r="P91" s="118"/>
     </row>
-    <row r="92" spans="2:16">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C92" s="43" t="s">
         <v>168</v>
       </c>
@@ -15340,7 +15329,7 @@
       <c r="O92" s="118"/>
       <c r="P92" s="118"/>
     </row>
-    <row r="93" spans="2:16">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C93" s="43" t="s">
         <v>169</v>
       </c>
@@ -15368,7 +15357,7 @@
       <c r="O93" s="118"/>
       <c r="P93" s="118"/>
     </row>
-    <row r="94" spans="2:16">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="35" t="s">
         <v>17</v>
       </c>
@@ -15399,7 +15388,7 @@
       <c r="O94" s="118"/>
       <c r="P94" s="118"/>
     </row>
-    <row r="95" spans="2:16">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C95" s="43" t="s">
         <v>167</v>
       </c>
@@ -15427,7 +15416,7 @@
       <c r="O95" s="118"/>
       <c r="P95" s="118"/>
     </row>
-    <row r="96" spans="2:16">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C96" s="43" t="s">
         <v>168</v>
       </c>
@@ -15455,7 +15444,7 @@
       <c r="O96" s="118"/>
       <c r="P96" s="118"/>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C97" s="43" t="s">
         <v>169</v>
       </c>
@@ -15483,7 +15472,7 @@
       <c r="O97" s="118"/>
       <c r="P97" s="118"/>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B98" s="35" t="s">
         <v>20</v>
       </c>
@@ -15514,7 +15503,7 @@
       <c r="O98" s="118"/>
       <c r="P98" s="118"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C99" s="43" t="s">
         <v>167</v>
       </c>
@@ -15542,7 +15531,7 @@
       <c r="O99" s="118"/>
       <c r="P99" s="118"/>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C100" s="43" t="s">
         <v>168</v>
       </c>
@@ -15570,7 +15559,7 @@
       <c r="O100" s="118"/>
       <c r="P100" s="118"/>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C101" s="43" t="s">
         <v>169</v>
       </c>
@@ -15598,12 +15587,12 @@
       <c r="O101" s="118"/>
       <c r="P101" s="118"/>
     </row>
-    <row r="103" spans="1:16" s="100" customFormat="1">
+    <row r="103" spans="1:16" s="100" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A103" s="99" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A104" s="121" t="s">
         <v>71</v>
       </c>
@@ -15637,7 +15626,7 @@
       <c r="O104" s="120"/>
       <c r="P104" s="120"/>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -15667,7 +15656,7 @@
       <c r="O105" s="118"/>
       <c r="P105" s="118"/>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C106" s="43" t="s">
         <v>167</v>
       </c>
@@ -15695,7 +15684,7 @@
       <c r="O106" s="118"/>
       <c r="P106" s="118"/>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C107" s="43" t="s">
         <v>168</v>
       </c>
@@ -15723,7 +15712,7 @@
       <c r="O107" s="118"/>
       <c r="P107" s="118"/>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C108" s="43" t="s">
         <v>169</v>
       </c>
@@ -15751,7 +15740,7 @@
       <c r="O108" s="118"/>
       <c r="P108" s="118"/>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -15772,24 +15761,24 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="44.453125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" style="35" customWidth="1"/>
     <col min="6" max="6" width="15" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="7" max="7" width="13.6328125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="125" t="s">
         <v>25</v>
       </c>
@@ -15810,7 +15799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="113" t="s">
         <v>248</v>
       </c>
@@ -15830,7 +15819,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="117" t="s">
         <v>250</v>
@@ -15851,12 +15840,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="104" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="117" t="s">
         <v>58</v>
       </c>
@@ -15876,7 +15865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="117" t="s">
         <v>136</v>
       </c>
@@ -15896,7 +15885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="117" t="s">
         <v>60</v>
       </c>
@@ -15916,7 +15905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="117"/>
       <c r="C9" s="117"/>
       <c r="D9" s="117"/>
@@ -15924,12 +15913,12 @@
       <c r="F9" s="117"/>
       <c r="G9" s="117"/>
     </row>
-    <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1">
+    <row r="10" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="99" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="104"/>
       <c r="B11" s="113" t="s">
         <v>195</v>
@@ -15950,16 +15939,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="104"/>
       <c r="B12" s="113"/>
     </row>
-    <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1">
+    <row r="13" spans="1:7" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="99" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="125" t="s">
         <v>238</v>
       </c>
@@ -15982,7 +15971,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="117" t="s">
         <v>255</v>
@@ -16003,7 +15992,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="125" t="s">
         <v>70</v>
       </c>
@@ -16026,13 +16015,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:6" s="100" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="99" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1">
+    <row r="19" spans="1:6" s="104" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="56" t="s">
         <v>49</v>
       </c>
@@ -16046,7 +16035,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="113" t="s">
         <v>197</v>
       </c>
@@ -16082,16 +16071,16 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
-    <col min="2" max="6" width="16.109375" style="35"/>
-    <col min="7" max="7" width="17.21875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="16.109375" style="35"/>
+    <col min="1" max="1" width="52.1796875" style="35" customWidth="1"/>
+    <col min="2" max="6" width="16.08984375" style="35"/>
+    <col min="7" max="7" width="17.1796875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="16.08984375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="119" t="s">
         <v>69</v>
       </c>
@@ -16109,7 +16098,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="90" t="s">
         <v>29</v>
       </c>
@@ -16129,7 +16118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="90"/>
       <c r="B3" s="90" t="s">
         <v>259</v>
@@ -16147,7 +16136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="90" t="s">
         <v>187</v>
       </c>
@@ -16167,7 +16156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="90"/>
       <c r="B5" s="90" t="s">
         <v>259</v>
@@ -16185,7 +16174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
         <v>207</v>
       </c>
@@ -16205,7 +16194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="90"/>
       <c r="B7" s="90" t="s">
         <v>259</v>
@@ -16223,7 +16212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="s">
         <v>57</v>
       </c>
@@ -16243,7 +16232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="90"/>
       <c r="B9" s="90" t="s">
         <v>259</v>
@@ -16261,7 +16250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="90" t="s">
         <v>34</v>
       </c>
@@ -16281,7 +16270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="90"/>
       <c r="B11" s="90" t="s">
         <v>259</v>
@@ -16299,7 +16288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="90" t="s">
         <v>59</v>
       </c>
@@ -16319,7 +16308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="90"/>
       <c r="B13" s="90" t="s">
         <v>259</v>
@@ -16337,10 +16326,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="90"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="90"/>
     </row>
   </sheetData>
@@ -16361,15 +16350,15 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="58.90625" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="35" customWidth="1"/>
-    <col min="16" max="16384" width="12.77734375" style="35"/>
+    <col min="16" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="103" t="s">
@@ -16412,12 +16401,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="59" t="s">
         <v>149</v>
       </c>
@@ -16461,7 +16450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="59" t="s">
         <v>188</v>
       </c>
@@ -16505,7 +16494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="59" t="s">
         <v>206</v>
       </c>
@@ -16549,7 +16538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="59" t="s">
         <v>189</v>
       </c>
@@ -16593,7 +16582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="59" t="s">
         <v>190</v>
       </c>
@@ -16637,7 +16626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="90" t="s">
         <v>187</v>
       </c>
@@ -16681,7 +16670,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="90" t="s">
         <v>207</v>
       </c>
@@ -16725,7 +16714,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="59" t="s">
         <v>57</v>
       </c>
@@ -16769,7 +16758,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="90" t="s">
         <v>136</v>
       </c>
@@ -16813,7 +16802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="59" t="s">
         <v>34</v>
       </c>
@@ -16857,7 +16846,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.05" customHeight="1">
+    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="59" t="s">
         <v>137</v>
       </c>
@@ -16901,7 +16890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="59" t="s">
         <v>59</v>
       </c>
@@ -16945,13 +16934,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
         <v>261</v>
       </c>
       <c r="B16" s="59"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="90" t="s">
         <v>63</v>
       </c>
@@ -16995,7 +16984,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="90" t="s">
         <v>64</v>
       </c>
@@ -17039,7 +17028,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="90" t="s">
         <v>62</v>
       </c>
@@ -17083,7 +17072,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="90" t="s">
         <v>47</v>
       </c>
@@ -17127,16 +17116,16 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
@@ -17157,15 +17146,15 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
-    <col min="3" max="7" width="15.5546875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="1" max="1" width="21.36328125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" style="35" customWidth="1"/>
+    <col min="3" max="7" width="15.54296875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40"/>
       <c r="B1" s="119"/>
       <c r="C1" s="40" t="s">
@@ -17184,12 +17173,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="59" t="s">
         <v>67</v>
       </c>
@@ -17209,7 +17198,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>263</v>
       </c>
@@ -17220,7 +17209,7 @@
       <c r="F4" s="127"/>
       <c r="G4" s="127"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="90" t="s">
         <v>183</v>
       </c>
@@ -17258,20 +17247,20 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="52" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="52" customWidth="1"/>
     <col min="4" max="4" width="15" style="35" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="35"/>
-    <col min="8" max="8" width="17.5546875" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="12.77734375" style="35"/>
+    <col min="5" max="5" width="13.6328125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" style="35"/>
+    <col min="8" max="8" width="17.54296875" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -17297,7 +17286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>28</v>
       </c>
@@ -17323,7 +17312,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="52" t="s">
         <v>267</v>
       </c>
@@ -17343,7 +17332,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="52" t="s">
         <v>268</v>
       </c>
@@ -17363,7 +17352,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>58</v>
       </c>
@@ -17389,7 +17378,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="52" t="s">
         <v>268</v>
       </c>
@@ -17409,7 +17398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>65</v>
       </c>
@@ -17432,7 +17421,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="52" t="s">
         <v>268</v>
       </c>
@@ -17452,7 +17441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>136</v>
       </c>
@@ -17478,7 +17467,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="52" t="s">
         <v>268</v>
       </c>
@@ -17498,7 +17487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>65</v>
       </c>
@@ -17521,7 +17510,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="52" t="s">
         <v>268</v>
       </c>
@@ -17541,7 +17530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>61</v>
       </c>
@@ -17567,7 +17556,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="52" t="s">
         <v>268</v>
       </c>
@@ -17588,7 +17577,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="52" t="s">
         <v>65</v>
       </c>
@@ -17612,7 +17601,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="52" t="s">
         <v>268</v>
       </c>
@@ -17633,7 +17622,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>62</v>
       </c>
@@ -17660,7 +17649,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="52" t="s">
         <v>267</v>
       </c>
@@ -17681,7 +17670,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>63</v>
       </c>
@@ -17707,7 +17696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="52" t="s">
         <v>267</v>
       </c>
@@ -17727,7 +17716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>64</v>
       </c>
@@ -17753,7 +17742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="52" t="s">
         <v>267</v>
       </c>
@@ -17773,7 +17762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>79</v>
       </c>
@@ -17799,7 +17788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="52" t="s">
         <v>267</v>
       </c>
@@ -17819,7 +17808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C25" s="52" t="s">
         <v>268</v>
       </c>
@@ -17839,7 +17828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>80</v>
       </c>
@@ -17865,7 +17854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="52" t="s">
         <v>267</v>
       </c>
@@ -17885,7 +17874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="52" t="s">
         <v>268</v>
       </c>
@@ -17905,7 +17894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>81</v>
       </c>
@@ -17931,7 +17920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C30" s="52" t="s">
         <v>267</v>
       </c>
@@ -17951,7 +17940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="52" t="s">
         <v>268</v>
       </c>
@@ -17971,7 +17960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>82</v>
       </c>
@@ -17997,7 +17986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" s="52" t="s">
         <v>267</v>
       </c>
@@ -18017,7 +18006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="52" t="s">
         <v>268</v>
       </c>
@@ -18037,7 +18026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>83</v>
       </c>
@@ -18063,7 +18052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C36" s="52" t="s">
         <v>267</v>
       </c>
@@ -18083,7 +18072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="52" t="s">
         <v>268</v>
       </c>
@@ -18103,7 +18092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -18129,7 +18118,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C39" s="52" t="s">
         <v>267</v>
       </c>
@@ -18149,7 +18138,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="52" t="s">
         <v>268</v>
       </c>
@@ -18169,7 +18158,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="52" t="s">
         <v>16</v>
       </c>
@@ -18192,7 +18181,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="52" t="s">
         <v>267</v>
       </c>
@@ -18212,7 +18201,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="52" t="s">
         <v>268</v>
       </c>
@@ -18232,7 +18221,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
         <v>84</v>
       </c>
@@ -18258,7 +18247,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C45" s="52" t="s">
         <v>267</v>
       </c>
@@ -18278,7 +18267,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="52" t="s">
         <v>85</v>
       </c>
@@ -18304,7 +18293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="52" t="s">
         <v>267</v>
       </c>
@@ -18324,7 +18313,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
         <v>195</v>
       </c>
@@ -18350,7 +18339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="52" t="s">
         <v>267</v>
       </c>
@@ -18388,16 +18377,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="35" customWidth="1"/>
-    <col min="4" max="7" width="17.21875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="12.77734375" style="35"/>
+    <col min="2" max="2" width="27.453125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" style="35" customWidth="1"/>
+    <col min="4" max="7" width="17.1796875" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="12.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="119" t="s">
         <v>69</v>
       </c>
@@ -18419,7 +18408,7 @@
       </c>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -18443,7 +18432,7 @@
       </c>
       <c r="H2" s="90"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="35" t="s">
         <v>267</v>
       </c>
@@ -18461,7 +18450,7 @@
       </c>
       <c r="H3" s="128"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -18485,7 +18474,7 @@
       </c>
       <c r="H4" s="128"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>267</v>
@@ -18504,7 +18493,7 @@
       </c>
       <c r="H5" s="90"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -18528,7 +18517,7 @@
       </c>
       <c r="H6" s="90"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>267</v>
@@ -18564,14 +18553,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="31.36328125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -18582,7 +18571,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -18597,55 +18586,55 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="75"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="75"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="75"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="75"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="75"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="75"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="75"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="75"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
         <v>129</v>
       </c>
@@ -18656,7 +18645,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -18665,7 +18654,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -18686,7 +18675,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>71</v>
       </c>
@@ -18695,7 +18684,7 @@
       <c r="E14" s="75"/>
       <c r="F14" s="75"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
@@ -18704,7 +18693,7 @@
       <c r="E15" s="75"/>
       <c r="F15" s="75"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
@@ -18713,7 +18702,7 @@
       <c r="E16" s="75"/>
       <c r="F16" s="75"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
@@ -18722,7 +18711,7 @@
       <c r="E17" s="75"/>
       <c r="F17" s="75"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
@@ -18731,7 +18720,7 @@
       <c r="E18" s="75"/>
       <c r="F18" s="75"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
@@ -18740,7 +18729,7 @@
       <c r="E19" s="75"/>
       <c r="F19" s="75"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
@@ -18749,7 +18738,7 @@
       <c r="E20" s="75"/>
       <c r="F20" s="75"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -18758,7 +18747,7 @@
       <c r="E21" s="75"/>
       <c r="F21" s="75"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
@@ -18767,7 +18756,7 @@
       <c r="E22" s="75"/>
       <c r="F22" s="75"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32" t="s">
         <v>129</v>
       </c>
@@ -18790,7 +18779,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -18799,7 +18788,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -18815,61 +18804,61 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="75"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="75"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="75"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="75"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="24" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="75"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
       <c r="C31" s="75"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="75"/>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="75"/>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="75"/>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="32" t="s">
         <v>129</v>
       </c>
@@ -18897,13 +18886,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.453125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -18927,7 +18916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
@@ -18955,7 +18944,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>118</v>
@@ -18981,7 +18970,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>116</v>
@@ -18992,7 +18981,7 @@
       <c r="F4" s="77"/>
       <c r="G4" s="77"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>119</v>
@@ -19003,7 +18992,7 @@
       <c r="F5" s="77"/>
       <c r="G5" s="77"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -19011,7 +19000,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -19019,7 +19008,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
@@ -19047,7 +19036,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -19072,7 +19061,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -19082,7 +19071,7 @@
       <c r="F10" s="77"/>
       <c r="G10" s="77"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -19092,7 +19081,7 @@
       <c r="F11" s="77"/>
       <c r="G11" s="77"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -19106,7 +19095,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>70</v>
       </c>
@@ -19150,7 +19139,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>131</v>
       </c>
@@ -19168,7 +19157,7 @@
       <c r="N14" s="79"/>
       <c r="O14" s="79"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
@@ -19225,14 +19214,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -19258,13 +19247,13 @@
       <selection activeCell="C2" sqref="C2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" customWidth="1"/>
-    <col min="2" max="7" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.90625" customWidth="1"/>
+    <col min="2" max="7" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -19288,7 +19277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -19301,7 +19290,7 @@
       <c r="F2" s="77"/>
       <c r="G2" s="77"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="43" t="s">
         <v>167</v>
       </c>
@@ -19311,7 +19300,7 @@
       <c r="F3" s="77"/>
       <c r="G3" s="77"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
         <v>168</v>
       </c>
@@ -19321,7 +19310,7 @@
       <c r="F4" s="77"/>
       <c r="G4" s="77"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="43" t="s">
         <v>169</v>
       </c>
@@ -19364,14 +19353,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -19421,7 +19410,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -19448,10 +19437,10 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -19480,10 +19469,10 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -19510,7 +19499,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -19534,7 +19523,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -19560,7 +19549,7 @@
         <v>0.17399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -19587,7 +19576,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -19611,7 +19600,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -19638,7 +19627,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -19679,15 +19668,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="35"/>
+    <col min="2" max="2" width="19.08984375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
         <v>178</v>
       </c>
@@ -19704,7 +19693,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>173</v>
       </c>
@@ -19718,7 +19707,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -19732,7 +19721,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -19746,7 +19735,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -19760,7 +19749,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -19774,7 +19763,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -19783,7 +19772,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="80"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>198</v>
       </c>
@@ -19797,7 +19786,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -19809,7 +19798,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -19821,7 +19810,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -19833,7 +19822,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -19845,7 +19834,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -19856,7 +19845,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>199</v>
       </c>
@@ -19872,7 +19861,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -19886,7 +19875,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -19900,7 +19889,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -19914,7 +19903,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -19928,7 +19917,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -19955,15 +19944,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
         <v>164</v>
       </c>
@@ -19977,7 +19966,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
         <v>69</v>
       </c>
@@ -19989,7 +19978,7 @@
       </c>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
         <v>185</v>
       </c>
@@ -20018,17 +20007,17 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="52" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.44140625" style="35"/>
+    <col min="3" max="3" width="20.453125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.36328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>69</v>
       </c>
@@ -20046,7 +20035,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>29</v>
       </c>
@@ -20056,14 +20045,14 @@
       <c r="C2" s="81">
         <v>0.95</v>
       </c>
-      <c r="D2" s="138">
+      <c r="D2" s="137">
         <v>25</v>
       </c>
       <c r="E2" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>86</v>
       </c>
@@ -20073,14 +20062,14 @@
       <c r="C3" s="81">
         <v>0.95</v>
       </c>
-      <c r="D3" s="138">
+      <c r="D3" s="137">
         <v>1</v>
       </c>
       <c r="E3" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>61</v>
       </c>
@@ -20090,14 +20079,14 @@
       <c r="C4" s="81">
         <v>0.95</v>
       </c>
-      <c r="D4" s="138">
+      <c r="D4" s="137">
         <v>90</v>
       </c>
       <c r="E4" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>149</v>
       </c>
@@ -20107,14 +20096,14 @@
       <c r="C5" s="81">
         <v>0.95</v>
       </c>
-      <c r="D5" s="138">
+      <c r="D5" s="137">
         <v>1</v>
       </c>
       <c r="E5" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
         <v>197</v>
       </c>
@@ -20124,14 +20113,14 @@
       <c r="C6" s="81">
         <v>0.95</v>
       </c>
-      <c r="D6" s="138">
+      <c r="D6" s="137">
         <v>0.82</v>
       </c>
       <c r="E6" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
         <v>63</v>
       </c>
@@ -20141,14 +20130,14 @@
       <c r="C7" s="81">
         <v>0.95</v>
       </c>
-      <c r="D7" s="138">
+      <c r="D7" s="137">
         <v>0.25</v>
       </c>
       <c r="E7" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
         <v>64</v>
       </c>
@@ -20158,14 +20147,14 @@
       <c r="C8" s="81">
         <v>0.95</v>
       </c>
-      <c r="D8" s="138">
+      <c r="D8" s="137">
         <v>0.75</v>
       </c>
       <c r="E8" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>62</v>
       </c>
@@ -20175,14 +20164,14 @@
       <c r="C9" s="81">
         <v>0.95</v>
       </c>
-      <c r="D9" s="138">
+      <c r="D9" s="137">
         <v>0.19</v>
       </c>
       <c r="E9" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
         <v>188</v>
       </c>
@@ -20192,14 +20181,14 @@
       <c r="C10" s="81">
         <v>0.95</v>
       </c>
-      <c r="D10" s="138">
+      <c r="D10" s="137">
         <v>0.73</v>
       </c>
       <c r="E10" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
         <v>206</v>
       </c>
@@ -20209,14 +20198,14 @@
       <c r="C11" s="81">
         <v>0.95</v>
       </c>
-      <c r="D11" s="138">
+      <c r="D11" s="137">
         <v>1.78</v>
       </c>
       <c r="E11" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
         <v>189</v>
       </c>
@@ -20226,14 +20215,14 @@
       <c r="C12" s="81">
         <v>0.95</v>
       </c>
-      <c r="D12" s="138">
+      <c r="D12" s="137">
         <v>0.24</v>
       </c>
       <c r="E12" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
         <v>190</v>
       </c>
@@ -20243,14 +20232,14 @@
       <c r="C13" s="81">
         <v>0.95</v>
       </c>
-      <c r="D13" s="138">
+      <c r="D13" s="137">
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>187</v>
       </c>
@@ -20260,14 +20249,14 @@
       <c r="C14" s="81">
         <v>0.95</v>
       </c>
-      <c r="D14" s="138">
+      <c r="D14" s="137">
         <v>0.73</v>
       </c>
       <c r="E14" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>207</v>
       </c>
@@ -20277,14 +20266,14 @@
       <c r="C15" s="81">
         <v>0.95</v>
       </c>
-      <c r="D15" s="138">
+      <c r="D15" s="137">
         <v>1.78</v>
       </c>
       <c r="E15" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>57</v>
       </c>
@@ -20294,14 +20283,14 @@
       <c r="C16" s="81">
         <v>0.95</v>
       </c>
-      <c r="D16" s="138">
+      <c r="D16" s="137">
         <v>2.06</v>
       </c>
       <c r="E16" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>47</v>
       </c>
@@ -20311,14 +20300,14 @@
       <c r="C17" s="81">
         <v>0.95</v>
       </c>
-      <c r="D17" s="138">
+      <c r="D17" s="137">
         <v>0.05</v>
       </c>
       <c r="E17" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.9" customHeight="1">
+    <row r="18" spans="1:5" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>173</v>
       </c>
@@ -20328,14 +20317,14 @@
       <c r="C18" s="81">
         <v>0.95</v>
       </c>
-      <c r="D18" s="138">
+      <c r="D18" s="137">
         <v>5</v>
       </c>
       <c r="E18" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -20345,14 +20334,14 @@
       <c r="C19" s="81">
         <v>0.95</v>
       </c>
-      <c r="D19" s="138">
+      <c r="D19" s="137">
         <v>5</v>
       </c>
       <c r="E19" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
         <v>199</v>
       </c>
@@ -20362,14 +20351,14 @@
       <c r="C20" s="81">
         <v>0.95</v>
       </c>
-      <c r="D20" s="138">
+      <c r="D20" s="137">
         <v>5</v>
       </c>
       <c r="E20" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>195</v>
       </c>
@@ -20379,14 +20368,14 @@
       <c r="C21" s="81">
         <v>0.95</v>
       </c>
-      <c r="D21" s="138">
+      <c r="D21" s="137">
         <v>8.84</v>
       </c>
       <c r="E21" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
         <v>136</v>
       </c>
@@ -20396,14 +20385,14 @@
       <c r="C22" s="81">
         <v>0.95</v>
       </c>
-      <c r="D22" s="138">
+      <c r="D22" s="137">
         <v>50</v>
       </c>
       <c r="E22" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="52" t="s">
         <v>34</v>
       </c>
@@ -20413,14 +20402,14 @@
       <c r="C23" s="81">
         <v>0.95</v>
       </c>
-      <c r="D23" s="138">
+      <c r="D23" s="137">
         <v>2.61</v>
       </c>
       <c r="E23" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
         <v>88</v>
       </c>
@@ -20430,14 +20419,14 @@
       <c r="C24" s="81">
         <v>0.95</v>
       </c>
-      <c r="D24" s="138">
+      <c r="D24" s="137">
         <v>1</v>
       </c>
       <c r="E24" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>87</v>
       </c>
@@ -20447,14 +20436,14 @@
       <c r="C25" s="81">
         <v>0.95</v>
       </c>
-      <c r="D25" s="138">
+      <c r="D25" s="137">
         <v>1</v>
       </c>
       <c r="E25" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="52" t="s">
         <v>137</v>
       </c>
@@ -20464,14 +20453,14 @@
       <c r="C26" s="81">
         <v>0.95</v>
       </c>
-      <c r="D26" s="138">
+      <c r="D26" s="137">
         <v>4.6500000000000004</v>
       </c>
       <c r="E26" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
         <v>59</v>
       </c>
@@ -20481,14 +20470,14 @@
       <c r="C27" s="81">
         <v>0.95</v>
       </c>
-      <c r="D27" s="138">
+      <c r="D27" s="137">
         <v>3.78</v>
       </c>
       <c r="E27" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
         <v>84</v>
       </c>
@@ -20498,14 +20487,14 @@
       <c r="C28" s="81">
         <v>0.95</v>
       </c>
-      <c r="D28" s="138">
+      <c r="D28" s="137">
         <v>1</v>
       </c>
       <c r="E28" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="52" t="s">
         <v>58</v>
       </c>
@@ -20515,14 +20504,14 @@
       <c r="C29" s="81">
         <v>0.95</v>
       </c>
-      <c r="D29" s="138">
+      <c r="D29" s="137">
         <v>48</v>
       </c>
       <c r="E29" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>67</v>
       </c>
@@ -20532,14 +20521,14 @@
       <c r="C30" s="81">
         <v>0.95</v>
       </c>
-      <c r="D30" s="138">
+      <c r="D30" s="137">
         <v>5.3</v>
       </c>
       <c r="E30" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="52" t="s">
         <v>28</v>
       </c>
@@ -20549,14 +20538,14 @@
       <c r="C31" s="81">
         <v>0.95</v>
       </c>
-      <c r="D31" s="138">
+      <c r="D31" s="137">
         <v>0.41</v>
       </c>
       <c r="E31" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
@@ -20566,14 +20555,14 @@
       <c r="C32" s="81">
         <v>0.95</v>
       </c>
-      <c r="D32" s="138">
+      <c r="D32" s="137">
         <v>0.9</v>
       </c>
       <c r="E32" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="52" t="s">
         <v>82</v>
       </c>
@@ -20583,14 +20572,14 @@
       <c r="C33" s="81">
         <v>0.95</v>
       </c>
-      <c r="D33" s="138">
+      <c r="D33" s="137">
         <v>0.9</v>
       </c>
       <c r="E33" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
         <v>81</v>
       </c>
@@ -20600,14 +20589,14 @@
       <c r="C34" s="81">
         <v>0.95</v>
       </c>
-      <c r="D34" s="138">
+      <c r="D34" s="137">
         <v>79</v>
       </c>
       <c r="E34" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>79</v>
       </c>
@@ -20617,14 +20606,14 @@
       <c r="C35" s="81">
         <v>0.95</v>
       </c>
-      <c r="D35" s="138">
+      <c r="D35" s="137">
         <v>31</v>
       </c>
       <c r="E35" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1">
+    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
         <v>80</v>
       </c>
@@ -20634,7 +20623,7 @@
       <c r="C36" s="81">
         <v>0.95</v>
       </c>
-      <c r="D36" s="138">
+      <c r="D36" s="137">
         <v>102</v>
       </c>
       <c r="E36" s="82" t="s">
@@ -20642,7 +20631,7 @@
       </c>
       <c r="F36" s="35"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
         <v>85</v>
       </c>
@@ -20652,14 +20641,14 @@
       <c r="C37" s="81">
         <v>0.95</v>
       </c>
-      <c r="D37" s="138">
+      <c r="D37" s="137">
         <v>5.53</v>
       </c>
       <c r="E37" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>60</v>
       </c>
@@ -20669,14 +20658,14 @@
       <c r="C38" s="81">
         <v>0.95</v>
       </c>
-      <c r="D38" s="138">
+      <c r="D38" s="137">
         <v>1</v>
       </c>
       <c r="E38" s="82" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F39" s="36"/>
     </row>
   </sheetData>

--- a/inputs/template_input.xlsx
+++ b/inputs/template_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Optima\Optima Nutrition\Papers\WHA costings\Databooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCF6CCC-E90D-416B-BF10-95288FCCDB89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{694B01CF-977A-4B4A-AD35-1557CC948850}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="961" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="272">
   <si>
     <t>year</t>
   </si>
@@ -3308,11 +3308,11 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1450">
@@ -6210,7 +6210,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -7001,8 +7001,8 @@
   </sheetPr>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7536,23 +7536,23 @@
         <v>85</v>
       </c>
       <c r="C12" s="93">
-        <f>diarrhoea_1mo/26</f>
+        <f>diarrhoea_1mo</f>
         <v>0</v>
       </c>
       <c r="D12" s="93">
-        <f>diarrhoea_1_5mo/26</f>
+        <f>diarrhoea_1_5mo</f>
         <v>0</v>
       </c>
       <c r="E12" s="93">
-        <f>diarrhoea_6_11mo/26</f>
+        <f>diarrhoea_6_11mo</f>
         <v>0</v>
       </c>
       <c r="F12" s="93">
-        <f>diarrhoea_12_23mo/26</f>
+        <f>diarrhoea_12_23mo</f>
         <v>0</v>
       </c>
       <c r="G12" s="93">
-        <f>diarrhoea_24_59mo/26</f>
+        <f>diarrhoea_24_59mo</f>
         <v>0</v>
       </c>
       <c r="H12" s="94">
@@ -11760,7 +11760,7 @@
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="146" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="35" t="s">
@@ -11783,7 +11783,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="145"/>
+      <c r="B3" s="146"/>
       <c r="C3" s="35" t="s">
         <v>177</v>
       </c>
@@ -11805,7 +11805,7 @@
       <c r="J3" s="106"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="145"/>
+      <c r="B4" s="146"/>
       <c r="C4" s="35" t="s">
         <v>176</v>
       </c>
@@ -11827,7 +11827,7 @@
       <c r="J4" s="106"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="146" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="35" t="s">
@@ -11851,7 +11851,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="145"/>
+      <c r="B6" s="146"/>
       <c r="C6" s="35" t="s">
         <v>177</v>
       </c>
@@ -11872,7 +11872,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="145"/>
+      <c r="B7" s="146"/>
       <c r="C7" s="35" t="s">
         <v>176</v>
       </c>
@@ -11893,7 +11893,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="145" t="s">
+      <c r="B8" s="146" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="35" t="s">
@@ -11916,7 +11916,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="145"/>
+      <c r="B9" s="146"/>
       <c r="C9" s="35" t="s">
         <v>177</v>
       </c>
@@ -11937,7 +11937,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="145"/>
+      <c r="B10" s="146"/>
       <c r="C10" s="35" t="s">
         <v>176</v>
       </c>
@@ -11958,7 +11958,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="145" t="s">
+      <c r="B11" s="146" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="35" t="s">
@@ -11981,7 +11981,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="145"/>
+      <c r="B12" s="146"/>
       <c r="C12" s="35" t="s">
         <v>177</v>
       </c>
@@ -12002,7 +12002,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="145"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="35" t="s">
         <v>176</v>
       </c>
@@ -12023,7 +12023,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="145" t="s">
+      <c r="B14" s="146" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="35" t="s">
@@ -12046,7 +12046,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="145"/>
+      <c r="B15" s="146"/>
       <c r="C15" s="35" t="s">
         <v>177</v>
       </c>
@@ -12067,7 +12067,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="145"/>
+      <c r="B16" s="146"/>
       <c r="C16" s="35" t="s">
         <v>176</v>
       </c>
@@ -12121,7 +12121,7 @@
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="B19" s="145" t="s">
+      <c r="B19" s="146" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -12144,7 +12144,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="145"/>
+      <c r="B20" s="146"/>
       <c r="C20" s="35" t="s">
         <v>177</v>
       </c>
@@ -12165,7 +12165,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="145"/>
+      <c r="B21" s="146"/>
       <c r="C21" s="35" t="s">
         <v>176</v>
       </c>
@@ -12186,7 +12186,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="145" t="s">
+      <c r="B22" s="146" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="35" t="s">
@@ -12209,7 +12209,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="145"/>
+      <c r="B23" s="146"/>
       <c r="C23" s="35" t="s">
         <v>177</v>
       </c>
@@ -12230,7 +12230,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="145"/>
+      <c r="B24" s="146"/>
       <c r="C24" s="35" t="s">
         <v>176</v>
       </c>
@@ -12251,7 +12251,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="145" t="s">
+      <c r="B25" s="146" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="35" t="s">
@@ -12274,7 +12274,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="145"/>
+      <c r="B26" s="146"/>
       <c r="C26" s="35" t="s">
         <v>177</v>
       </c>
@@ -12295,7 +12295,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="145"/>
+      <c r="B27" s="146"/>
       <c r="C27" s="35" t="s">
         <v>176</v>
       </c>
@@ -12316,7 +12316,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="145" t="s">
+      <c r="B28" s="146" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="35" t="s">
@@ -12339,7 +12339,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="145"/>
+      <c r="B29" s="146"/>
       <c r="C29" s="35" t="s">
         <v>177</v>
       </c>
@@ -12360,7 +12360,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="145"/>
+      <c r="B30" s="146"/>
       <c r="C30" s="35" t="s">
         <v>176</v>
       </c>
@@ -12381,7 +12381,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="145" t="s">
+      <c r="B31" s="146" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="35" t="s">
@@ -12404,7 +12404,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="145"/>
+      <c r="B32" s="146"/>
       <c r="C32" s="35" t="s">
         <v>177</v>
       </c>
@@ -12425,7 +12425,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="145"/>
+      <c r="B33" s="146"/>
       <c r="C33" s="35" t="s">
         <v>176</v>
       </c>
@@ -12479,7 +12479,7 @@
       <c r="A36" s="109" t="s">
         <v>221</v>
       </c>
-      <c r="B36" s="145" t="s">
+      <c r="B36" s="146" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="35" t="s">
@@ -12502,7 +12502,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="145"/>
+      <c r="B37" s="146"/>
       <c r="C37" s="35" t="s">
         <v>177</v>
       </c>
@@ -12523,7 +12523,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="145"/>
+      <c r="B38" s="146"/>
       <c r="C38" s="35" t="s">
         <v>176</v>
       </c>
@@ -12544,7 +12544,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="145" t="s">
+      <c r="B39" s="146" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="35" t="s">
@@ -12567,7 +12567,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="145"/>
+      <c r="B40" s="146"/>
       <c r="C40" s="35" t="s">
         <v>177</v>
       </c>
@@ -12588,7 +12588,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="145"/>
+      <c r="B41" s="146"/>
       <c r="C41" s="35" t="s">
         <v>176</v>
       </c>
@@ -12609,7 +12609,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="145" t="s">
+      <c r="B42" s="146" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="35" t="s">
@@ -12632,7 +12632,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="145"/>
+      <c r="B43" s="146"/>
       <c r="C43" s="35" t="s">
         <v>177</v>
       </c>
@@ -12653,7 +12653,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="145"/>
+      <c r="B44" s="146"/>
       <c r="C44" s="35" t="s">
         <v>176</v>
       </c>
@@ -12674,7 +12674,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="145" t="s">
+      <c r="B45" s="146" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="35" t="s">
@@ -12697,7 +12697,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="145"/>
+      <c r="B46" s="146"/>
       <c r="C46" s="35" t="s">
         <v>177</v>
       </c>
@@ -12718,7 +12718,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="145"/>
+      <c r="B47" s="146"/>
       <c r="C47" s="35" t="s">
         <v>176</v>
       </c>
@@ -12739,7 +12739,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="145" t="s">
+      <c r="B48" s="146" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="35" t="s">
@@ -12762,7 +12762,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="145"/>
+      <c r="B49" s="146"/>
       <c r="C49" s="35" t="s">
         <v>177</v>
       </c>
@@ -12783,7 +12783,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="145"/>
+      <c r="B50" s="146"/>
       <c r="C50" s="35" t="s">
         <v>176</v>
       </c>
@@ -12829,12 +12829,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12844,6 +12838,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -20949,8 +20949,8 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21138,7 +21138,7 @@
       <c r="B13" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="146">
+      <c r="C13" s="145">
         <f>U5_mortality</f>
         <v>0</v>
       </c>
@@ -21155,7 +21155,7 @@
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="146">
+      <c r="C14" s="145">
         <f>maternal_mortality</f>
         <v>0</v>
       </c>
@@ -21182,7 +21182,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D10:D11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21297,9 +21297,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="81"/>
-      <c r="D9" s="81" t="s">
-        <v>216</v>
-      </c>
+      <c r="D9" s="81"/>
       <c r="E9" s="59"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">

--- a/inputs/template_input.xlsx
+++ b/inputs/template_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Github\Nutrition\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{694B01CF-977A-4B4A-AD35-1557CC948850}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD917C98-E169-4A7D-AE76-4A8A42E62485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="961" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1242,7 +1242,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6214,14 +6214,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
     <col min="3" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -6232,14 +6232,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>195</v>
@@ -6248,7 +6248,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>194</v>
@@ -6257,93 +6257,93 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1">
       <c r="B7" s="16" t="s">
         <v>208</v>
       </c>
       <c r="C7" s="71"/>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1">
       <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
       <c r="C8" s="66"/>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1">
       <c r="B9" s="9" t="s">
         <v>107</v>
       </c>
       <c r="C9" s="67"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1">
       <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C10" s="67"/>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C11" s="66"/>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1">
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C12" s="66"/>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
       <c r="C13" s="66"/>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1">
       <c r="B16" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C16" s="67"/>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="B17" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C17" s="67"/>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="B18" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C18" s="67"/>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C19" s="67"/>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1">
       <c r="B20" s="9" t="s">
         <v>98</v>
       </c>
@@ -6352,74 +6352,74 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1">
       <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
       <c r="C23" s="67"/>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1">
       <c r="B24" s="20" t="s">
         <v>102</v>
       </c>
       <c r="C24" s="67"/>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1">
       <c r="B25" s="20" t="s">
         <v>103</v>
       </c>
       <c r="C25" s="67"/>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1">
       <c r="B26" s="20" t="s">
         <v>104</v>
       </c>
       <c r="C26" s="67"/>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15" customHeight="1">
       <c r="A28" s="12" t="s">
         <v>199</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="69"/>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="69"/>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="69"/>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="B32" s="30" t="s">
         <v>78</v>
       </c>
       <c r="C32" s="69"/>
     </row>
-    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -6428,26 +6428,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" customHeight="1"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1">
       <c r="B37" s="42" t="s">
         <v>92</v>
       </c>
       <c r="C37" s="68"/>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1">
       <c r="B38" s="16" t="s">
         <v>91</v>
       </c>
@@ -6455,7 +6455,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1">
       <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
@@ -6463,48 +6463,48 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1">
       <c r="B40" s="16" t="s">
         <v>171</v>
       </c>
       <c r="C40" s="68"/>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1">
       <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
       <c r="C41" s="67"/>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15" customHeight="1">
       <c r="B42" s="42" t="s">
         <v>93</v>
       </c>
       <c r="C42" s="68"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="B45" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="67"/>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="B46" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="67"/>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="B47" s="16" t="s">
         <v>12</v>
       </c>
@@ -6512,7 +6512,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15" customHeight="1">
       <c r="B48" s="16" t="s">
         <v>26</v>
       </c>
@@ -6523,52 +6523,52 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
       <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="B51" s="16" t="s">
         <v>124</v>
       </c>
       <c r="C51" s="65"/>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" customHeight="1">
       <c r="B52" s="16" t="s">
         <v>125</v>
       </c>
       <c r="C52" s="65"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
       <c r="B53" s="16" t="s">
         <v>126</v>
       </c>
       <c r="C53" s="65"/>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
       <c r="B54" s="16" t="s">
         <v>127</v>
       </c>
       <c r="C54" s="65"/>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
       <c r="B55" s="16" t="s">
         <v>128</v>
       </c>
       <c r="C55" s="65"/>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1">
       <c r="A57" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
@@ -6576,25 +6576,25 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1">
       <c r="B59" s="16" t="s">
         <v>132</v>
       </c>
       <c r="C59" s="66"/>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1">
       <c r="B60" s="16" t="s">
         <v>270</v>
       </c>
       <c r="C60" s="66"/>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1">
       <c r="B61" s="16" t="s">
         <v>271</v>
       </c>
       <c r="C61" s="66"/>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -6618,7 +6618,7 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="53" style="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.77734375" style="35" customWidth="1"/>
@@ -6626,7 +6626,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="88" t="s">
         <v>189</v>
       </c>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="C2" s="81"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="88" t="s">
         <v>206</v>
       </c>
@@ -6655,7 +6655,7 @@
       </c>
       <c r="C3" s="81"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="89" t="s">
         <v>58</v>
       </c>
@@ -6664,7 +6664,7 @@
       </c>
       <c r="C4" s="81"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="89" t="s">
         <v>137</v>
       </c>
@@ -6673,104 +6673,104 @@
       </c>
       <c r="C5" s="81"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="89"/>
       <c r="B6" s="87"/>
       <c r="C6" s="87"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="89"/>
       <c r="B7" s="87"/>
       <c r="C7" s="87"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="89"/>
       <c r="B8" s="87"/>
       <c r="C8" s="87"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="89"/>
       <c r="B9" s="87"/>
       <c r="C9" s="87"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="89"/>
       <c r="B10" s="87"/>
       <c r="C10" s="87"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="90"/>
       <c r="B11" s="87"/>
       <c r="C11" s="87"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="90"/>
       <c r="B12" s="87"/>
       <c r="C12" s="87"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="90"/>
       <c r="B13" s="87"/>
       <c r="C13" s="87"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="90"/>
       <c r="B14" s="87"/>
       <c r="C14" s="87"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="90"/>
       <c r="B15" s="87"/>
       <c r="C15" s="87"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="90"/>
       <c r="B16" s="87"/>
       <c r="C16" s="87"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="90"/>
       <c r="B17" s="87"/>
       <c r="C17" s="87"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="90"/>
       <c r="B18" s="87"/>
       <c r="C18" s="87"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="89"/>
       <c r="B19" s="87"/>
       <c r="C19" s="87"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="89"/>
       <c r="B20" s="87"/>
       <c r="C20" s="87"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="89"/>
       <c r="B21" s="87"/>
       <c r="C21" s="87"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="89"/>
       <c r="B22" s="87"/>
       <c r="C22" s="87"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="B23" s="87"/>
       <c r="C23" s="87"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="B24" s="87"/>
       <c r="C24" s="87"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="B25" s="87"/>
       <c r="C25" s="87"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="B26" s="87"/>
       <c r="C26" s="87"/>
     </row>
@@ -6793,85 +6793,85 @@
       <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="30.109375" style="35" customWidth="1"/>
     <col min="2" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -6891,9 +6891,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -7002,10 +7002,10 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.77734375" customWidth="1"/>
@@ -7017,7 +7017,7 @@
     <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="7" t="s">
         <v>149</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="7" t="s">
         <v>196</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>136</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>137</v>
       </c>
@@ -7296,28 +7296,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="33" t="s">
         <v>84</v>
       </c>
       <c r="C7" s="93">
-        <f>diarrhoea_1mo/26</f>
+        <f>diarrhoea_1mo</f>
         <v>0</v>
       </c>
       <c r="D7" s="93">
-        <f>diarrhoea_1_5mo/26</f>
+        <f>diarrhoea_1_5mo</f>
         <v>0</v>
       </c>
       <c r="E7" s="93">
-        <f>diarrhoea_6_11mo/26</f>
+        <f>diarrhoea_6_11mo</f>
         <v>0</v>
       </c>
       <c r="F7" s="93">
-        <f>diarrhoea_12_23mo/26</f>
+        <f>diarrhoea_12_23mo</f>
         <v>0</v>
       </c>
       <c r="G7" s="93">
-        <f>diarrhoea_24_59mo/26</f>
+        <f>diarrhoea_24_59mo</f>
         <v>0</v>
       </c>
       <c r="H7" s="94">
@@ -7345,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>185</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>28</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="33" t="s">
         <v>85</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="B13" s="11" t="s">
         <v>60</v>
       </c>
@@ -7624,10 +7624,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>86</v>
@@ -7723,7 +7723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>189</v>
@@ -7772,7 +7772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="11" t="s">
         <v>206</v>
@@ -7821,7 +7821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15" customHeight="1">
       <c r="B19" s="33" t="s">
         <v>57</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1">
       <c r="B20" s="11" t="s">
         <v>88</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1">
       <c r="B21" s="11" t="s">
         <v>87</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1">
       <c r="B22" s="33" t="s">
         <v>59</v>
       </c>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1">
       <c r="A24" s="60" t="s">
         <v>37</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1">
       <c r="B25" s="61" t="s">
         <v>190</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1">
       <c r="B26" s="61" t="s">
         <v>207</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
       <c r="B27" s="61" t="s">
         <v>191</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1">
       <c r="B28" s="61" t="s">
         <v>192</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1">
       <c r="B29" s="11"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -8258,7 +8258,7 @@
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1">
       <c r="B31" s="11" t="s">
         <v>64</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1">
       <c r="B32" s="11" t="s">
         <v>62</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="B33" s="11" t="s">
         <v>47</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" s="11" t="s">
         <v>34</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="B35" s="33" t="s">
         <v>83</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
       <c r="A36" s="5"/>
       <c r="B36" s="33" t="s">
         <v>82</v>
@@ -8616,7 +8616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B37" s="33" t="s">
         <v>81</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B38" s="33" t="s">
         <v>79</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="B39" s="33" t="s">
         <v>80</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1">
       <c r="B40" s="33"/>
     </row>
   </sheetData>
@@ -8772,7 +8772,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.21875" style="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="56" bestFit="1" customWidth="1"/>
@@ -8785,7 +8785,7 @@
     <col min="16" max="16384" width="16.109375" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="57" t="s">
         <v>33</v>
       </c>
@@ -8832,7 +8832,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="57" t="s">
         <v>31</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="B3" s="53" t="s">
         <v>149</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="B4" s="53" t="s">
         <v>175</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="B5" s="53" t="s">
         <v>174</v>
       </c>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="53" t="s">
         <v>173</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="53" t="s">
         <v>196</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="B8" s="53" t="s">
         <v>136</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="53" t="s">
         <v>137</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="53" t="s">
         <v>84</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="53" t="s">
         <v>58</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="B12" s="53" t="s">
         <v>67</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="B13" s="53" t="s">
         <v>185</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="53" t="s">
         <v>28</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="B15" s="53" t="s">
         <v>85</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="B16" s="53" t="s">
         <v>60</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="B17" s="53"/>
       <c r="C17" s="97"/>
       <c r="D17" s="97"/>
@@ -9511,7 +9511,7 @@
       <c r="N17" s="97"/>
       <c r="O17" s="97"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1">
       <c r="A18" s="57" t="s">
         <v>32</v>
       </c>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1">
       <c r="A19" s="57"/>
       <c r="B19" s="53" t="s">
         <v>86</v>
@@ -9603,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1">
       <c r="B20" s="98" t="s">
         <v>189</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1">
       <c r="B21" s="98" t="s">
         <v>206</v>
       </c>
@@ -9691,7 +9691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1">
       <c r="B22" s="99" t="s">
         <v>57</v>
       </c>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1">
       <c r="B23" s="53" t="s">
         <v>88</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1">
       <c r="B24" s="53" t="s">
         <v>87</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1">
       <c r="B25" s="53" t="s">
         <v>59</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1">
       <c r="B26" s="53"/>
       <c r="C26" s="97"/>
       <c r="D26" s="97"/>
@@ -9883,7 +9883,7 @@
       <c r="N26" s="97"/>
       <c r="O26" s="97"/>
     </row>
-    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1">
       <c r="A27" s="57" t="s">
         <v>37</v>
       </c>
@@ -9931,7 +9931,7 @@
       </c>
       <c r="P27" s="100"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1">
       <c r="B28" s="61" t="s">
         <v>190</v>
       </c>
@@ -9975,7 +9975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="A29" s="57"/>
       <c r="B29" s="61" t="s">
         <v>207</v>
@@ -10020,7 +10020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1">
       <c r="B30" s="61" t="s">
         <v>191</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1">
       <c r="B31" s="61" t="s">
         <v>192</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1">
       <c r="B32" s="53"/>
       <c r="C32" s="101"/>
       <c r="D32" s="101"/>
@@ -10124,7 +10124,7 @@
       <c r="N32" s="97"/>
       <c r="O32" s="97"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
       <c r="A33" s="57" t="s">
         <v>35</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
       <c r="B34" s="53" t="s">
         <v>64</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
       <c r="B35" s="53" t="s">
         <v>62</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
       <c r="B36" s="53" t="s">
         <v>47</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1">
       <c r="B37" s="53" t="s">
         <v>34</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1">
       <c r="A38" s="103"/>
       <c r="B38" s="53" t="s">
         <v>83</v>
@@ -10392,7 +10392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
       <c r="B39" s="53" t="s">
         <v>82</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
       <c r="B40" s="53" t="s">
         <v>81</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" s="103" customFormat="1" ht="15.75" customHeight="1">
       <c r="B41" s="53" t="s">
         <v>79</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="15" customHeight="1">
       <c r="B42" s="53" t="s">
         <v>80</v>
       </c>
@@ -10585,7 +10585,7 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -10600,7 +10600,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -10652,7 +10652,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -10669,7 +10669,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -10686,7 +10686,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -10703,7 +10703,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -10722,7 +10722,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -10741,7 +10741,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -10760,7 +10760,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -10779,7 +10779,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -10796,7 +10796,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -10813,7 +10813,7 @@
       <c r="J11" s="96"/>
       <c r="K11" s="96"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -10830,7 +10830,7 @@
       <c r="J12" s="96"/>
       <c r="K12" s="96"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -10847,7 +10847,7 @@
       <c r="J13" s="96"/>
       <c r="K13" s="96"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="98" t="s">
         <v>189</v>
       </c>
@@ -10866,7 +10866,7 @@
       <c r="J14" s="96"/>
       <c r="K14" s="96"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="98" t="s">
         <v>206</v>
       </c>
@@ -10885,7 +10885,7 @@
       <c r="J15" s="96"/>
       <c r="K15" s="96"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -10906,7 +10906,7 @@
       <c r="J16" s="96"/>
       <c r="K16" s="96"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -10923,7 +10923,7 @@
       <c r="J17" s="96"/>
       <c r="K17" s="96"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -10942,7 +10942,7 @@
       <c r="J18" s="96"/>
       <c r="K18" s="96"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -10961,7 +10961,7 @@
       <c r="J19" s="96"/>
       <c r="K19" s="96"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -10980,7 +10980,7 @@
       <c r="J20" s="96"/>
       <c r="K20" s="96"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -10999,7 +10999,7 @@
       <c r="J21" s="96"/>
       <c r="K21" s="96"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -11020,7 +11020,7 @@
       <c r="J22" s="96"/>
       <c r="K22" s="96"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -11039,7 +11039,7 @@
       <c r="J23" s="96"/>
       <c r="K23" s="96"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -11056,7 +11056,7 @@
       <c r="J24" s="96"/>
       <c r="K24" s="96"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -11073,7 +11073,7 @@
       <c r="J25" s="96"/>
       <c r="K25" s="96"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -11090,7 +11090,7 @@
       <c r="J26" s="96"/>
       <c r="K26" s="96"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -11109,7 +11109,7 @@
       <c r="J27" s="96"/>
       <c r="K27" s="96"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -11126,7 +11126,7 @@
       <c r="J28" s="96"/>
       <c r="K28" s="96"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
@@ -11145,7 +11145,7 @@
       <c r="J29" s="96"/>
       <c r="K29" s="96"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
@@ -11162,7 +11162,7 @@
       <c r="J30" s="96"/>
       <c r="K30" s="96"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
@@ -11179,7 +11179,7 @@
       <c r="J31" s="96"/>
       <c r="K31" s="96"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
@@ -11198,7 +11198,7 @@
       <c r="J32" s="96"/>
       <c r="K32" s="96"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
@@ -11217,7 +11217,7 @@
       <c r="J33" s="96"/>
       <c r="K33" s="96"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
@@ -11236,7 +11236,7 @@
       <c r="J34" s="96"/>
       <c r="K34" s="96"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
@@ -11255,7 +11255,7 @@
       <c r="J35" s="96"/>
       <c r="K35" s="96"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
@@ -11274,7 +11274,7 @@
       <c r="J36" s="96"/>
       <c r="K36" s="96"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
@@ -11293,7 +11293,7 @@
       <c r="J37" s="96"/>
       <c r="K37" s="96"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
@@ -11310,7 +11310,7 @@
       <c r="J38" s="96"/>
       <c r="K38" s="96"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
@@ -11348,7 +11348,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="16.88671875" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
@@ -11363,7 +11363,7 @@
     <col min="11" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>217</v>
       </c>
@@ -11398,7 +11398,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
@@ -11427,7 +11427,7 @@
       <c r="J2" s="96"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
@@ -11456,7 +11456,7 @@
       <c r="J3" s="96"/>
       <c r="K3" s="96"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -11485,7 +11485,7 @@
       <c r="J4" s="96"/>
       <c r="K4" s="96"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
@@ -11514,7 +11514,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -11543,7 +11543,7 @@
       <c r="J6" s="96"/>
       <c r="K6" s="96"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
@@ -11564,7 +11564,7 @@
       <c r="J7" s="96"/>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
@@ -11585,7 +11585,7 @@
       <c r="J8" s="96"/>
       <c r="K8" s="96"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
@@ -11606,7 +11606,7 @@
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
@@ -11627,7 +11627,7 @@
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="35" t="s">
         <v>49</v>
       </c>
@@ -11648,7 +11648,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="35" t="s">
         <v>50</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="35" t="s">
         <v>51</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="35" t="s">
         <v>52</v>
       </c>
@@ -11722,7 +11722,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="48.109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="35" customWidth="1"/>
@@ -11730,7 +11730,7 @@
     <col min="4" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="40" t="s">
         <v>218</v>
       </c>
@@ -11756,7 +11756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="40" t="s">
         <v>219</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3" s="146"/>
       <c r="C3" s="35" t="s">
         <v>177</v>
@@ -11804,7 +11804,7 @@
       </c>
       <c r="J3" s="106"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" s="146"/>
       <c r="C4" s="35" t="s">
         <v>176</v>
@@ -11826,7 +11826,7 @@
       </c>
       <c r="J4" s="106"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" s="146" t="s">
         <v>1</v>
       </c>
@@ -11850,7 +11850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" s="146"/>
       <c r="C6" s="35" t="s">
         <v>177</v>
@@ -11871,7 +11871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" s="146"/>
       <c r="C7" s="35" t="s">
         <v>176</v>
@@ -11892,7 +11892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" s="146" t="s">
         <v>2</v>
       </c>
@@ -11915,7 +11915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" s="146"/>
       <c r="C9" s="35" t="s">
         <v>177</v>
@@ -11936,7 +11936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10" s="146"/>
       <c r="C10" s="35" t="s">
         <v>176</v>
@@ -11957,7 +11957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="B11" s="146" t="s">
         <v>3</v>
       </c>
@@ -11980,7 +11980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12" s="146"/>
       <c r="C12" s="35" t="s">
         <v>177</v>
@@ -12001,7 +12001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13" s="146"/>
       <c r="C13" s="35" t="s">
         <v>176</v>
@@ -12022,7 +12022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="B14" s="146" t="s">
         <v>4</v>
       </c>
@@ -12045,7 +12045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15" s="146"/>
       <c r="C15" s="35" t="s">
         <v>177</v>
@@ -12066,7 +12066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" s="146"/>
       <c r="C16" s="35" t="s">
         <v>176</v>
@@ -12087,7 +12087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="B17" s="107" t="s">
         <v>172</v>
       </c>
@@ -12110,14 +12110,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="D18" s="108"/>
       <c r="E18" s="108"/>
       <c r="F18" s="108"/>
       <c r="G18" s="108"/>
       <c r="H18" s="108"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="40" t="s">
         <v>220</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="B20" s="146"/>
       <c r="C20" s="35" t="s">
         <v>177</v>
@@ -12164,7 +12164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="B21" s="146"/>
       <c r="C21" s="35" t="s">
         <v>176</v>
@@ -12185,7 +12185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="B22" s="146" t="s">
         <v>1</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="B23" s="146"/>
       <c r="C23" s="35" t="s">
         <v>177</v>
@@ -12229,7 +12229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="B24" s="146"/>
       <c r="C24" s="35" t="s">
         <v>176</v>
@@ -12250,7 +12250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="B25" s="146" t="s">
         <v>2</v>
       </c>
@@ -12273,7 +12273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="B26" s="146"/>
       <c r="C26" s="35" t="s">
         <v>177</v>
@@ -12294,7 +12294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="B27" s="146"/>
       <c r="C27" s="35" t="s">
         <v>176</v>
@@ -12315,7 +12315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="B28" s="146" t="s">
         <v>3</v>
       </c>
@@ -12338,7 +12338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="B29" s="146"/>
       <c r="C29" s="35" t="s">
         <v>177</v>
@@ -12359,7 +12359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="B30" s="146"/>
       <c r="C30" s="35" t="s">
         <v>176</v>
@@ -12380,7 +12380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="B31" s="146" t="s">
         <v>4</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="B32" s="146"/>
       <c r="C32" s="35" t="s">
         <v>177</v>
@@ -12424,7 +12424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="B33" s="146"/>
       <c r="C33" s="35" t="s">
         <v>176</v>
@@ -12445,7 +12445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="B34" s="107" t="s">
         <v>172</v>
       </c>
@@ -12468,14 +12468,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="D35" s="108"/>
       <c r="E35" s="108"/>
       <c r="F35" s="108"/>
       <c r="G35" s="108"/>
       <c r="H35" s="108"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="109" t="s">
         <v>221</v>
       </c>
@@ -12501,7 +12501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="B37" s="146"/>
       <c r="C37" s="35" t="s">
         <v>177</v>
@@ -12522,7 +12522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="B38" s="146"/>
       <c r="C38" s="35" t="s">
         <v>176</v>
@@ -12543,7 +12543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="B39" s="146" t="s">
         <v>1</v>
       </c>
@@ -12566,7 +12566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="B40" s="146"/>
       <c r="C40" s="35" t="s">
         <v>177</v>
@@ -12587,7 +12587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="B41" s="146"/>
       <c r="C41" s="35" t="s">
         <v>176</v>
@@ -12608,7 +12608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="B42" s="146" t="s">
         <v>2</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="B43" s="146"/>
       <c r="C43" s="35" t="s">
         <v>177</v>
@@ -12652,7 +12652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="B44" s="146"/>
       <c r="C44" s="35" t="s">
         <v>176</v>
@@ -12673,7 +12673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="B45" s="146" t="s">
         <v>3</v>
       </c>
@@ -12696,7 +12696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="B46" s="146"/>
       <c r="C46" s="35" t="s">
         <v>177</v>
@@ -12717,7 +12717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="B47" s="146"/>
       <c r="C47" s="35" t="s">
         <v>176</v>
@@ -12738,7 +12738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="B48" s="146" t="s">
         <v>4</v>
       </c>
@@ -12761,7 +12761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8">
       <c r="B49" s="146"/>
       <c r="C49" s="35" t="s">
         <v>177</v>
@@ -12782,7 +12782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8">
       <c r="B50" s="146"/>
       <c r="C50" s="35" t="s">
         <v>176</v>
@@ -12803,7 +12803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8">
       <c r="B51" s="110" t="s">
         <v>172</v>
       </c>
@@ -12829,6 +12829,12 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BiU9BXNF+INgNxSFtHuqKvDgOHy4i8LHe4WBopPE5oAPe1uu8rzbQfKL4uxCQ4dbx+6qcxc95feCcYk3II7eJw==" saltValue="oFkUqZTkt+d2Svo646TgPw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -12838,12 +12844,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12861,7 +12861,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.88671875" style="35" customWidth="1"/>
     <col min="2" max="2" width="34.109375" style="35" customWidth="1"/>
@@ -12871,12 +12871,12 @@
     <col min="7" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="111" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="B2" s="113"/>
       <c r="C2" s="114" t="s">
         <v>26</v>
@@ -12891,7 +12891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>223</v>
       </c>
@@ -12901,7 +12901,7 @@
       <c r="E3" s="118"/>
       <c r="F3" s="118"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="119" t="s">
         <v>75</v>
       </c>
@@ -12918,7 +12918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="119" t="s">
         <v>76</v>
       </c>
@@ -12935,7 +12935,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="119" t="s">
         <v>77</v>
       </c>
@@ -12952,7 +12952,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="119" t="s">
         <v>78</v>
       </c>
@@ -12969,13 +12969,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="C8" s="122"/>
       <c r="D8" s="106"/>
       <c r="E8" s="106"/>
       <c r="F8" s="106"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="40" t="s">
         <v>224</v>
       </c>
@@ -12993,14 +12993,14 @@
       </c>
       <c r="G9" s="123"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="C10" s="122"/>
       <c r="D10" s="106"/>
       <c r="E10" s="106"/>
       <c r="F10" s="106"/>
       <c r="G10" s="123"/>
     </row>
-    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="112" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="111" t="s">
         <v>225</v>
       </c>
@@ -13010,7 +13010,7 @@
       <c r="F11" s="125"/>
       <c r="G11" s="126"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="40" t="s">
         <v>226</v>
       </c>
@@ -13020,7 +13020,7 @@
       <c r="F12" s="106"/>
       <c r="G12" s="123"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="127" t="s">
         <v>227</v>
       </c>
@@ -13038,7 +13038,7 @@
       </c>
       <c r="G13" s="123"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="127" t="s">
         <v>228</v>
       </c>
@@ -13056,7 +13056,7 @@
       </c>
       <c r="G14" s="123"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="127" t="s">
         <v>229</v>
       </c>
@@ -13074,7 +13074,7 @@
       </c>
       <c r="G15" s="123"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="40"/>
       <c r="B16" s="127"/>
       <c r="C16" s="128"/>
@@ -13083,7 +13083,7 @@
       <c r="F16" s="106"/>
       <c r="G16" s="123"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="40" t="s">
         <v>230</v>
       </c>
@@ -13094,7 +13094,7 @@
       <c r="F17" s="130"/>
       <c r="G17" s="123"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="B18" s="131" t="s">
         <v>73</v>
       </c>
@@ -13112,7 +13112,7 @@
       </c>
       <c r="G18" s="123"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="131" t="s">
         <v>7</v>
       </c>
@@ -13130,7 +13130,7 @@
       </c>
       <c r="G19" s="123"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="131" t="s">
         <v>8</v>
       </c>
@@ -13148,7 +13148,7 @@
       </c>
       <c r="G20" s="123"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="131" t="s">
         <v>10</v>
       </c>
@@ -13166,7 +13166,7 @@
       </c>
       <c r="G21" s="123"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="B22" s="131" t="s">
         <v>13</v>
       </c>
@@ -13183,7 +13183,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="131" t="s">
         <v>14</v>
       </c>
@@ -13200,7 +13200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="131" t="s">
         <v>27</v>
       </c>
@@ -13217,7 +13217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="131" t="s">
         <v>15</v>
       </c>
@@ -13234,10 +13234,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="B26" s="127"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="40"/>
     </row>
   </sheetData>
@@ -13258,7 +13258,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="27.21875" style="35" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" style="35" customWidth="1"/>
@@ -13269,12 +13269,12 @@
     <col min="17" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="112" customFormat="1">
       <c r="A1" s="111" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="132" t="s">
         <v>211</v>
       </c>
@@ -13308,7 +13308,7 @@
       <c r="O2" s="134"/>
       <c r="P2" s="134"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="40"/>
       <c r="B3" s="35" t="s">
         <v>71</v>
@@ -13340,7 +13340,7 @@
       <c r="O3" s="132"/>
       <c r="P3" s="132"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="C4" s="43" t="s">
         <v>235</v>
       </c>
@@ -13368,7 +13368,7 @@
       <c r="O4" s="132"/>
       <c r="P4" s="132"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="C5" s="43" t="s">
         <v>236</v>
       </c>
@@ -13396,7 +13396,7 @@
       <c r="O5" s="132"/>
       <c r="P5" s="132"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="C6" s="43" t="s">
         <v>237</v>
       </c>
@@ -13424,7 +13424,7 @@
       <c r="O6" s="132"/>
       <c r="P6" s="132"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
@@ -13455,7 +13455,7 @@
       <c r="O7" s="132"/>
       <c r="P7" s="132"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="C8" s="43" t="s">
         <v>235</v>
       </c>
@@ -13483,7 +13483,7 @@
       <c r="O8" s="132"/>
       <c r="P8" s="132"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="C9" s="43" t="s">
         <v>236</v>
       </c>
@@ -13511,7 +13511,7 @@
       <c r="O9" s="132"/>
       <c r="P9" s="132"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="C10" s="43" t="s">
         <v>237</v>
       </c>
@@ -13539,7 +13539,7 @@
       <c r="O10" s="132"/>
       <c r="P10" s="132"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="B11" s="35" t="s">
         <v>18</v>
       </c>
@@ -13570,7 +13570,7 @@
       <c r="O11" s="132"/>
       <c r="P11" s="132"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="C12" s="43" t="s">
         <v>235</v>
       </c>
@@ -13598,7 +13598,7 @@
       <c r="O12" s="132"/>
       <c r="P12" s="132"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="C13" s="43" t="s">
         <v>236</v>
       </c>
@@ -13626,7 +13626,7 @@
       <c r="O13" s="132"/>
       <c r="P13" s="132"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="C14" s="43" t="s">
         <v>237</v>
       </c>
@@ -13654,7 +13654,7 @@
       <c r="O14" s="132"/>
       <c r="P14" s="132"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="B15" s="35" t="s">
         <v>19</v>
       </c>
@@ -13685,7 +13685,7 @@
       <c r="O15" s="132"/>
       <c r="P15" s="132"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="C16" s="43" t="s">
         <v>235</v>
       </c>
@@ -13713,7 +13713,7 @@
       <c r="O16" s="132"/>
       <c r="P16" s="132"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="C17" s="43" t="s">
         <v>236</v>
       </c>
@@ -13741,7 +13741,7 @@
       <c r="O17" s="132"/>
       <c r="P17" s="132"/>
     </row>
-    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1">
       <c r="C18" s="43" t="s">
         <v>237</v>
       </c>
@@ -13769,7 +13769,7 @@
       <c r="O18" s="132"/>
       <c r="P18" s="132"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="B19" s="36" t="s">
         <v>17</v>
       </c>
@@ -13800,7 +13800,7 @@
       <c r="O19" s="132"/>
       <c r="P19" s="132"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="C20" s="43" t="s">
         <v>235</v>
       </c>
@@ -13828,7 +13828,7 @@
       <c r="O20" s="132"/>
       <c r="P20" s="132"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="C21" s="43" t="s">
         <v>236</v>
       </c>
@@ -13856,7 +13856,7 @@
       <c r="O21" s="132"/>
       <c r="P21" s="132"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="C22" s="43" t="s">
         <v>237</v>
       </c>
@@ -13884,7 +13884,7 @@
       <c r="O22" s="132"/>
       <c r="P22" s="132"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="B23" s="36" t="s">
         <v>23</v>
       </c>
@@ -13915,7 +13915,7 @@
       <c r="O23" s="132"/>
       <c r="P23" s="132"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="C24" s="43" t="s">
         <v>235</v>
       </c>
@@ -13943,7 +13943,7 @@
       <c r="O24" s="132"/>
       <c r="P24" s="132"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="C25" s="43" t="s">
         <v>236</v>
       </c>
@@ -13971,7 +13971,7 @@
       <c r="O25" s="132"/>
       <c r="P25" s="132"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="C26" s="43" t="s">
         <v>237</v>
       </c>
@@ -13999,12 +13999,12 @@
       <c r="O26" s="132"/>
       <c r="P26" s="132"/>
     </row>
-    <row r="28" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="112" customFormat="1">
       <c r="A28" s="111" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="36" customFormat="1">
       <c r="A29" s="135" t="s">
         <v>239</v>
       </c>
@@ -14038,7 +14038,7 @@
       <c r="O29" s="134"/>
       <c r="P29" s="134"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
         <v>71</v>
@@ -14070,7 +14070,7 @@
       <c r="O30" s="132"/>
       <c r="P30" s="132"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="C31" s="43" t="s">
         <v>235</v>
       </c>
@@ -14098,7 +14098,7 @@
       <c r="O31" s="132"/>
       <c r="P31" s="132"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="C32" s="43" t="s">
         <v>65</v>
       </c>
@@ -14126,7 +14126,7 @@
       <c r="O32" s="132"/>
       <c r="P32" s="132"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16">
       <c r="C33" s="43" t="s">
         <v>66</v>
       </c>
@@ -14154,7 +14154,7 @@
       <c r="O33" s="132"/>
       <c r="P33" s="132"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16">
       <c r="B34" s="35" t="s">
         <v>16</v>
       </c>
@@ -14185,7 +14185,7 @@
       <c r="O34" s="132"/>
       <c r="P34" s="132"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16">
       <c r="C35" s="43" t="s">
         <v>235</v>
       </c>
@@ -14213,7 +14213,7 @@
       <c r="O35" s="132"/>
       <c r="P35" s="132"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16">
       <c r="C36" s="43" t="s">
         <v>65</v>
       </c>
@@ -14241,7 +14241,7 @@
       <c r="O36" s="132"/>
       <c r="P36" s="132"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16">
       <c r="C37" s="43" t="s">
         <v>66</v>
       </c>
@@ -14269,7 +14269,7 @@
       <c r="O37" s="132"/>
       <c r="P37" s="132"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16">
       <c r="B38" s="35" t="s">
         <v>18</v>
       </c>
@@ -14300,7 +14300,7 @@
       <c r="O38" s="132"/>
       <c r="P38" s="132"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16">
       <c r="C39" s="43" t="s">
         <v>235</v>
       </c>
@@ -14328,7 +14328,7 @@
       <c r="O39" s="132"/>
       <c r="P39" s="132"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16">
       <c r="C40" s="43" t="s">
         <v>65</v>
       </c>
@@ -14356,7 +14356,7 @@
       <c r="O40" s="132"/>
       <c r="P40" s="132"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16">
       <c r="C41" s="43" t="s">
         <v>66</v>
       </c>
@@ -14384,7 +14384,7 @@
       <c r="O41" s="132"/>
       <c r="P41" s="132"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16">
       <c r="B42" s="35" t="s">
         <v>19</v>
       </c>
@@ -14415,7 +14415,7 @@
       <c r="O42" s="132"/>
       <c r="P42" s="132"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16">
       <c r="C43" s="43" t="s">
         <v>235</v>
       </c>
@@ -14443,7 +14443,7 @@
       <c r="O43" s="132"/>
       <c r="P43" s="132"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16">
       <c r="C44" s="43" t="s">
         <v>65</v>
       </c>
@@ -14471,7 +14471,7 @@
       <c r="O44" s="132"/>
       <c r="P44" s="132"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16">
       <c r="C45" s="43" t="s">
         <v>66</v>
       </c>
@@ -14499,7 +14499,7 @@
       <c r="O45" s="132"/>
       <c r="P45" s="132"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16">
       <c r="B46" s="35" t="s">
         <v>17</v>
       </c>
@@ -14530,7 +14530,7 @@
       <c r="O46" s="132"/>
       <c r="P46" s="132"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16">
       <c r="C47" s="43" t="s">
         <v>235</v>
       </c>
@@ -14558,7 +14558,7 @@
       <c r="O47" s="132"/>
       <c r="P47" s="132"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16">
       <c r="C48" s="43" t="s">
         <v>65</v>
       </c>
@@ -14586,7 +14586,7 @@
       <c r="O48" s="132"/>
       <c r="P48" s="132"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="C49" s="43" t="s">
         <v>66</v>
       </c>
@@ -14614,7 +14614,7 @@
       <c r="O49" s="132"/>
       <c r="P49" s="132"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="B50" s="35" t="s">
         <v>23</v>
       </c>
@@ -14645,7 +14645,7 @@
       <c r="O50" s="132"/>
       <c r="P50" s="132"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="C51" s="43" t="s">
         <v>235</v>
       </c>
@@ -14673,7 +14673,7 @@
       <c r="O51" s="132"/>
       <c r="P51" s="132"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="C52" s="43" t="s">
         <v>65</v>
       </c>
@@ -14701,7 +14701,7 @@
       <c r="O52" s="132"/>
       <c r="P52" s="132"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="C53" s="43" t="s">
         <v>66</v>
       </c>
@@ -14729,16 +14729,16 @@
       <c r="O53" s="132"/>
       <c r="P53" s="132"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
     </row>
-    <row r="55" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="112" customFormat="1">
       <c r="A55" s="111" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A56" s="135" t="s">
         <v>70</v>
       </c>
@@ -14766,7 +14766,7 @@
       <c r="O56" s="134"/>
       <c r="P56" s="134"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" s="40"/>
       <c r="B57" s="35" t="s">
         <v>38</v>
@@ -14792,7 +14792,7 @@
       <c r="O57" s="132"/>
       <c r="P57" s="132"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="C58" s="43" t="s">
         <v>244</v>
       </c>
@@ -14814,7 +14814,7 @@
       <c r="O58" s="132"/>
       <c r="P58" s="132"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="B59" s="35" t="s">
         <v>39</v>
       </c>
@@ -14839,7 +14839,7 @@
       <c r="O59" s="132"/>
       <c r="P59" s="132"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="C60" s="43" t="s">
         <v>244</v>
       </c>
@@ -14861,7 +14861,7 @@
       <c r="O60" s="132"/>
       <c r="P60" s="132"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="B61" s="35" t="s">
         <v>40</v>
       </c>
@@ -14886,7 +14886,7 @@
       <c r="O61" s="132"/>
       <c r="P61" s="132"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="C62" s="43" t="s">
         <v>244</v>
       </c>
@@ -14908,16 +14908,16 @@
       <c r="O62" s="132"/>
       <c r="P62" s="132"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
     </row>
-    <row r="64" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="112" customFormat="1">
       <c r="A64" s="111" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A65" s="135" t="s">
         <v>24</v>
       </c>
@@ -14951,7 +14951,7 @@
       <c r="O65" s="134"/>
       <c r="P65" s="134"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66" s="139"/>
       <c r="B66" s="35" t="s">
         <v>73</v>
@@ -14983,7 +14983,7 @@
       <c r="O66" s="132"/>
       <c r="P66" s="132"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="C67" s="43" t="s">
         <v>167</v>
       </c>
@@ -15011,7 +15011,7 @@
       <c r="O67" s="132"/>
       <c r="P67" s="132"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="C68" s="43" t="s">
         <v>168</v>
       </c>
@@ -15039,7 +15039,7 @@
       <c r="O68" s="132"/>
       <c r="P68" s="132"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="C69" s="43" t="s">
         <v>169</v>
       </c>
@@ -15067,7 +15067,7 @@
       <c r="O69" s="132"/>
       <c r="P69" s="132"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="B70" s="35" t="s">
         <v>7</v>
       </c>
@@ -15098,7 +15098,7 @@
       <c r="O70" s="132"/>
       <c r="P70" s="132"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="C71" s="43" t="s">
         <v>167</v>
       </c>
@@ -15126,7 +15126,7 @@
       <c r="O71" s="132"/>
       <c r="P71" s="132"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="C72" s="43" t="s">
         <v>168</v>
       </c>
@@ -15154,7 +15154,7 @@
       <c r="O72" s="132"/>
       <c r="P72" s="132"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="C73" s="43" t="s">
         <v>169</v>
       </c>
@@ -15182,7 +15182,7 @@
       <c r="O73" s="132"/>
       <c r="P73" s="132"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="B74" s="35" t="s">
         <v>8</v>
       </c>
@@ -15213,7 +15213,7 @@
       <c r="O74" s="132"/>
       <c r="P74" s="132"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16">
       <c r="C75" s="43" t="s">
         <v>167</v>
       </c>
@@ -15241,7 +15241,7 @@
       <c r="O75" s="132"/>
       <c r="P75" s="132"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16">
       <c r="C76" s="43" t="s">
         <v>168</v>
       </c>
@@ -15269,7 +15269,7 @@
       <c r="O76" s="132"/>
       <c r="P76" s="132"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16">
       <c r="C77" s="43" t="s">
         <v>169</v>
       </c>
@@ -15297,7 +15297,7 @@
       <c r="O77" s="132"/>
       <c r="P77" s="132"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16">
       <c r="B78" s="35" t="s">
         <v>13</v>
       </c>
@@ -15328,7 +15328,7 @@
       <c r="O78" s="132"/>
       <c r="P78" s="132"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16">
       <c r="C79" s="43" t="s">
         <v>167</v>
       </c>
@@ -15356,7 +15356,7 @@
       <c r="O79" s="132"/>
       <c r="P79" s="132"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16">
       <c r="C80" s="43" t="s">
         <v>168</v>
       </c>
@@ -15384,7 +15384,7 @@
       <c r="O80" s="132"/>
       <c r="P80" s="132"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16">
       <c r="C81" s="43" t="s">
         <v>169</v>
       </c>
@@ -15412,7 +15412,7 @@
       <c r="O81" s="132"/>
       <c r="P81" s="132"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16">
       <c r="B82" s="35" t="s">
         <v>71</v>
       </c>
@@ -15443,7 +15443,7 @@
       <c r="O82" s="132"/>
       <c r="P82" s="132"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16">
       <c r="C83" s="43" t="s">
         <v>167</v>
       </c>
@@ -15471,7 +15471,7 @@
       <c r="O83" s="132"/>
       <c r="P83" s="132"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16">
       <c r="C84" s="43" t="s">
         <v>168</v>
       </c>
@@ -15499,7 +15499,7 @@
       <c r="O84" s="132"/>
       <c r="P84" s="132"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16">
       <c r="C85" s="43" t="s">
         <v>169</v>
       </c>
@@ -15527,7 +15527,7 @@
       <c r="O85" s="132"/>
       <c r="P85" s="132"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16">
       <c r="B86" s="35" t="s">
         <v>16</v>
       </c>
@@ -15558,7 +15558,7 @@
       <c r="O86" s="132"/>
       <c r="P86" s="132"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16">
       <c r="C87" s="43" t="s">
         <v>167</v>
       </c>
@@ -15586,7 +15586,7 @@
       <c r="O87" s="132"/>
       <c r="P87" s="132"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16">
       <c r="C88" s="43" t="s">
         <v>168</v>
       </c>
@@ -15614,7 +15614,7 @@
       <c r="O88" s="132"/>
       <c r="P88" s="132"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16">
       <c r="C89" s="43" t="s">
         <v>169</v>
       </c>
@@ -15642,7 +15642,7 @@
       <c r="O89" s="132"/>
       <c r="P89" s="132"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16">
       <c r="B90" s="35" t="s">
         <v>18</v>
       </c>
@@ -15673,7 +15673,7 @@
       <c r="O90" s="132"/>
       <c r="P90" s="132"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16">
       <c r="C91" s="43" t="s">
         <v>167</v>
       </c>
@@ -15701,7 +15701,7 @@
       <c r="O91" s="132"/>
       <c r="P91" s="132"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16">
       <c r="C92" s="43" t="s">
         <v>168</v>
       </c>
@@ -15729,7 +15729,7 @@
       <c r="O92" s="132"/>
       <c r="P92" s="132"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16">
       <c r="C93" s="43" t="s">
         <v>169</v>
       </c>
@@ -15757,7 +15757,7 @@
       <c r="O93" s="132"/>
       <c r="P93" s="132"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16">
       <c r="B94" s="35" t="s">
         <v>17</v>
       </c>
@@ -15788,7 +15788,7 @@
       <c r="O94" s="132"/>
       <c r="P94" s="132"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16">
       <c r="C95" s="43" t="s">
         <v>167</v>
       </c>
@@ -15816,7 +15816,7 @@
       <c r="O95" s="132"/>
       <c r="P95" s="132"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16">
       <c r="C96" s="43" t="s">
         <v>168</v>
       </c>
@@ -15844,7 +15844,7 @@
       <c r="O96" s="132"/>
       <c r="P96" s="132"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16">
       <c r="C97" s="43" t="s">
         <v>169</v>
       </c>
@@ -15872,7 +15872,7 @@
       <c r="O97" s="132"/>
       <c r="P97" s="132"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16">
       <c r="B98" s="35" t="s">
         <v>20</v>
       </c>
@@ -15903,7 +15903,7 @@
       <c r="O98" s="132"/>
       <c r="P98" s="132"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16">
       <c r="C99" s="43" t="s">
         <v>167</v>
       </c>
@@ -15931,7 +15931,7 @@
       <c r="O99" s="132"/>
       <c r="P99" s="132"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16">
       <c r="C100" s="43" t="s">
         <v>168</v>
       </c>
@@ -15959,7 +15959,7 @@
       <c r="O100" s="132"/>
       <c r="P100" s="132"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16">
       <c r="C101" s="43" t="s">
         <v>169</v>
       </c>
@@ -15987,12 +15987,12 @@
       <c r="O101" s="132"/>
       <c r="P101" s="132"/>
     </row>
-    <row r="103" spans="1:16" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" s="112" customFormat="1">
       <c r="A103" s="111" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" s="36" customFormat="1" ht="26.4">
       <c r="A104" s="135" t="s">
         <v>71</v>
       </c>
@@ -16026,7 +16026,7 @@
       <c r="O104" s="134"/>
       <c r="P104" s="134"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16">
       <c r="A105" s="40"/>
       <c r="B105" s="36"/>
       <c r="C105" s="43" t="s">
@@ -16056,7 +16056,7 @@
       <c r="O105" s="132"/>
       <c r="P105" s="132"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16">
       <c r="C106" s="43" t="s">
         <v>167</v>
       </c>
@@ -16084,7 +16084,7 @@
       <c r="O106" s="132"/>
       <c r="P106" s="132"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16">
       <c r="C107" s="43" t="s">
         <v>168</v>
       </c>
@@ -16112,7 +16112,7 @@
       <c r="O107" s="132"/>
       <c r="P107" s="132"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16">
       <c r="C108" s="43" t="s">
         <v>169</v>
       </c>
@@ -16140,7 +16140,7 @@
       <c r="O108" s="132"/>
       <c r="P108" s="132"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16">
       <c r="A111" s="40"/>
     </row>
   </sheetData>
@@ -16161,14 +16161,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.44140625" style="12" customWidth="1"/>
     <col min="2" max="9" width="16.77734375" style="12" customWidth="1"/>
     <col min="10" max="16384" width="14.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -16197,7 +16197,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="92">
         <f>start_year</f>
         <v>2020</v>
@@ -16220,7 +16220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="92">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2021</v>
@@ -16243,7 +16243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="92">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -16266,7 +16266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="92">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -16289,7 +16289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="92">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -16312,7 +16312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="92">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -16335,7 +16335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="92">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -16358,7 +16358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="92">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -16381,7 +16381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="92">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -16404,7 +16404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="92">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -16427,7 +16427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="92">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -16450,7 +16450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16473,7 +16473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16496,7 +16496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16519,7 +16519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16542,7 +16542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16565,7 +16565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16588,7 +16588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16611,7 +16611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16634,7 +16634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16657,7 +16657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16680,7 +16680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16703,7 +16703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16726,7 +16726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16749,7 +16749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16772,7 +16772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16795,7 +16795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16818,7 +16818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16841,7 +16841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16864,7 +16864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16887,7 +16887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16910,7 +16910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16956,7 +16956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -16979,7 +16979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17002,7 +17002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17025,7 +17025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="A38" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17048,7 +17048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="A39" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17071,7 +17071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="92" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -17117,7 +17117,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="25.77734375" style="35" customWidth="1"/>
     <col min="2" max="2" width="44.44140625" style="35" customWidth="1"/>
@@ -17129,12 +17129,12 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A1" s="111" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1">
       <c r="A2" s="139" t="s">
         <v>25</v>
       </c>
@@ -17155,7 +17155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1">
       <c r="B3" s="127" t="s">
         <v>249</v>
       </c>
@@ -17175,7 +17175,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1">
       <c r="A4" s="40"/>
       <c r="B4" s="131" t="s">
         <v>251</v>
@@ -17196,12 +17196,12 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1">
       <c r="A5" s="116" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" customHeight="1">
       <c r="B6" s="131" t="s">
         <v>58</v>
       </c>
@@ -17221,7 +17221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" customHeight="1">
       <c r="B7" s="131" t="s">
         <v>136</v>
       </c>
@@ -17241,7 +17241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1">
       <c r="B8" s="131" t="s">
         <v>60</v>
       </c>
@@ -17261,7 +17261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" customHeight="1">
       <c r="B9" s="131"/>
       <c r="C9" s="131"/>
       <c r="D9" s="131"/>
@@ -17269,12 +17269,12 @@
       <c r="F9" s="131"/>
       <c r="G9" s="131"/>
     </row>
-    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A10" s="111" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="116"/>
       <c r="B11" s="127" t="s">
         <v>196</v>
@@ -17295,16 +17295,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1">
       <c r="A12" s="116"/>
       <c r="B12" s="127"/>
     </row>
-    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="111" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.25" customHeight="1">
       <c r="A14" s="139" t="s">
         <v>239</v>
       </c>
@@ -17327,7 +17327,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1">
       <c r="A15" s="40"/>
       <c r="B15" s="131" t="s">
         <v>256</v>
@@ -17348,7 +17348,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1">
       <c r="A16" s="139" t="s">
         <v>70</v>
       </c>
@@ -17371,13 +17371,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:6" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A18" s="111" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="116" customFormat="1" ht="14.25" customHeight="1">
       <c r="C19" s="57" t="s">
         <v>49</v>
       </c>
@@ -17391,7 +17391,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="B20" s="127" t="s">
         <v>197</v>
       </c>
@@ -17427,7 +17427,7 @@
       <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="52.21875" style="35" customWidth="1"/>
     <col min="2" max="6" width="16.109375" style="35"/>
@@ -17436,7 +17436,7 @@
     <col min="9" max="16384" width="16.109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -17454,7 +17454,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="98" t="s">
         <v>29</v>
       </c>
@@ -17474,7 +17474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="98"/>
       <c r="B3" s="98" t="s">
         <v>260</v>
@@ -17492,7 +17492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="98" t="s">
         <v>189</v>
       </c>
@@ -17512,7 +17512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="98"/>
       <c r="B5" s="98" t="s">
         <v>260</v>
@@ -17530,7 +17530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="98" t="s">
         <v>206</v>
       </c>
@@ -17550,7 +17550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="98"/>
       <c r="B7" s="98" t="s">
         <v>260</v>
@@ -17568,7 +17568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="98" t="s">
         <v>57</v>
       </c>
@@ -17588,7 +17588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="98"/>
       <c r="B9" s="98" t="s">
         <v>260</v>
@@ -17606,7 +17606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="98" t="s">
         <v>34</v>
       </c>
@@ -17626,7 +17626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="98"/>
       <c r="B11" s="98" t="s">
         <v>260</v>
@@ -17644,7 +17644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="98" t="s">
         <v>59</v>
       </c>
@@ -17664,7 +17664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="98"/>
       <c r="B13" s="98" t="s">
         <v>260</v>
@@ -17682,10 +17682,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
       <c r="A19" s="98"/>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
       <c r="A20" s="98"/>
     </row>
   </sheetData>
@@ -17706,7 +17706,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="22.5546875" style="35" customWidth="1"/>
     <col min="2" max="2" width="58.88671875" style="35" bestFit="1" customWidth="1"/>
@@ -17714,7 +17714,7 @@
     <col min="16" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="115" t="s">
@@ -17757,12 +17757,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="40" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="B3" s="61" t="s">
         <v>149</v>
       </c>
@@ -17806,7 +17806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="B4" s="61" t="s">
         <v>190</v>
       </c>
@@ -17850,7 +17850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="B5" s="61" t="s">
         <v>207</v>
       </c>
@@ -17894,7 +17894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="B6" s="61" t="s">
         <v>191</v>
       </c>
@@ -17938,7 +17938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="B7" s="61" t="s">
         <v>192</v>
       </c>
@@ -17982,7 +17982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="B8" s="98" t="s">
         <v>189</v>
       </c>
@@ -18026,7 +18026,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="B9" s="98" t="s">
         <v>206</v>
       </c>
@@ -18070,7 +18070,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="B10" s="61" t="s">
         <v>57</v>
       </c>
@@ -18114,7 +18114,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="B11" s="98" t="s">
         <v>136</v>
       </c>
@@ -18158,7 +18158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="B12" s="61" t="s">
         <v>34</v>
       </c>
@@ -18202,7 +18202,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1">
       <c r="B13" s="61" t="s">
         <v>137</v>
       </c>
@@ -18246,7 +18246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="B14" s="61" t="s">
         <v>59</v>
       </c>
@@ -18290,13 +18290,13 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="40" t="s">
         <v>262</v>
       </c>
       <c r="B16" s="61"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="98" t="s">
         <v>63</v>
       </c>
@@ -18340,7 +18340,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="98" t="s">
         <v>64</v>
       </c>
@@ -18384,7 +18384,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="98" t="s">
         <v>62</v>
       </c>
@@ -18428,7 +18428,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15">
       <c r="B20" s="98" t="s">
         <v>47</v>
       </c>
@@ -18472,16 +18472,16 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15">
       <c r="B25" s="43"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15">
       <c r="B26" s="43"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15">
       <c r="B27" s="43"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15">
       <c r="B28" s="43"/>
     </row>
   </sheetData>
@@ -18502,7 +18502,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.21875" style="35" customWidth="1"/>
@@ -18510,7 +18510,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="40"/>
       <c r="B1" s="133"/>
       <c r="C1" s="40" t="s">
@@ -18529,12 +18529,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="40" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="61" t="s">
         <v>67</v>
       </c>
@@ -18554,7 +18554,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="40" t="s">
         <v>264</v>
       </c>
@@ -18565,7 +18565,7 @@
       <c r="F4" s="143"/>
       <c r="G4" s="143"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="98" t="s">
         <v>185</v>
       </c>
@@ -18603,7 +18603,7 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="53" style="53" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" style="53" customWidth="1"/>
@@ -18616,7 +18616,7 @@
     <col min="9" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -18642,7 +18642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="53" t="s">
         <v>28</v>
       </c>
@@ -18668,7 +18668,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="C3" s="53" t="s">
         <v>268</v>
       </c>
@@ -18688,7 +18688,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="C4" s="53" t="s">
         <v>269</v>
       </c>
@@ -18708,7 +18708,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="53" t="s">
         <v>58</v>
       </c>
@@ -18734,7 +18734,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="C6" s="53" t="s">
         <v>269</v>
       </c>
@@ -18754,7 +18754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="53" t="s">
         <v>65</v>
       </c>
@@ -18777,7 +18777,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="C8" s="53" t="s">
         <v>269</v>
       </c>
@@ -18797,7 +18797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="53" t="s">
         <v>136</v>
       </c>
@@ -18823,7 +18823,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="C10" s="53" t="s">
         <v>269</v>
       </c>
@@ -18843,7 +18843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="B11" s="53" t="s">
         <v>65</v>
       </c>
@@ -18866,7 +18866,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="C12" s="53" t="s">
         <v>269</v>
       </c>
@@ -18886,7 +18886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="53" t="s">
         <v>61</v>
       </c>
@@ -18912,7 +18912,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="C14" s="53" t="s">
         <v>269</v>
       </c>
@@ -18933,7 +18933,7 @@
       </c>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="53" t="s">
         <v>65</v>
       </c>
@@ -18957,7 +18957,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="C16" s="53" t="s">
         <v>269</v>
       </c>
@@ -18978,7 +18978,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="53" t="s">
         <v>62</v>
       </c>
@@ -19005,7 +19005,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="C18" s="53" t="s">
         <v>268</v>
       </c>
@@ -19026,7 +19026,7 @@
       </c>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="53" t="s">
         <v>63</v>
       </c>
@@ -19052,7 +19052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="C20" s="53" t="s">
         <v>268</v>
       </c>
@@ -19072,7 +19072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="53" t="s">
         <v>64</v>
       </c>
@@ -19098,7 +19098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="C22" s="53" t="s">
         <v>268</v>
       </c>
@@ -19118,7 +19118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="53" t="s">
         <v>79</v>
       </c>
@@ -19144,7 +19144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="C24" s="53" t="s">
         <v>268</v>
       </c>
@@ -19164,7 +19164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="C25" s="53" t="s">
         <v>269</v>
       </c>
@@ -19184,7 +19184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="53" t="s">
         <v>80</v>
       </c>
@@ -19210,7 +19210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="C27" s="53" t="s">
         <v>268</v>
       </c>
@@ -19230,7 +19230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="C28" s="53" t="s">
         <v>269</v>
       </c>
@@ -19250,7 +19250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="53" t="s">
         <v>81</v>
       </c>
@@ -19276,7 +19276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="C30" s="53" t="s">
         <v>268</v>
       </c>
@@ -19296,7 +19296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="C31" s="53" t="s">
         <v>269</v>
       </c>
@@ -19316,7 +19316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="53" t="s">
         <v>82</v>
       </c>
@@ -19342,7 +19342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="C33" s="53" t="s">
         <v>268</v>
       </c>
@@ -19362,7 +19362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="C34" s="53" t="s">
         <v>269</v>
       </c>
@@ -19382,7 +19382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="53" t="s">
         <v>83</v>
       </c>
@@ -19408,7 +19408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="C36" s="53" t="s">
         <v>268</v>
       </c>
@@ -19428,7 +19428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="C37" s="53" t="s">
         <v>269</v>
       </c>
@@ -19448,7 +19448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="53" t="s">
         <v>60</v>
       </c>
@@ -19474,7 +19474,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="C39" s="53" t="s">
         <v>268</v>
       </c>
@@ -19494,7 +19494,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="C40" s="53" t="s">
         <v>269</v>
       </c>
@@ -19514,7 +19514,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="B41" s="53" t="s">
         <v>16</v>
       </c>
@@ -19537,7 +19537,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="C42" s="53" t="s">
         <v>268</v>
       </c>
@@ -19557,7 +19557,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="C43" s="53" t="s">
         <v>269</v>
       </c>
@@ -19577,7 +19577,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="53" t="s">
         <v>84</v>
       </c>
@@ -19603,7 +19603,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="C45" s="53" t="s">
         <v>268</v>
       </c>
@@ -19623,7 +19623,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="53" t="s">
         <v>85</v>
       </c>
@@ -19649,7 +19649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="C47" s="53" t="s">
         <v>268</v>
       </c>
@@ -19669,7 +19669,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="53" t="s">
         <v>196</v>
       </c>
@@ -19695,7 +19695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8">
       <c r="C49" s="53" t="s">
         <v>268</v>
       </c>
@@ -19733,7 +19733,7 @@
       <selection activeCell="D7" sqref="D7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="28" style="35" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" style="35" customWidth="1"/>
@@ -19742,7 +19742,7 @@
     <col min="8" max="16384" width="12.77734375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="133" t="s">
         <v>69</v>
       </c>
@@ -19764,7 +19764,7 @@
       </c>
       <c r="H1" s="104"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="43" t="s">
         <v>86</v>
       </c>
@@ -19788,7 +19788,7 @@
       </c>
       <c r="H2" s="98"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="C3" s="35" t="s">
         <v>268</v>
       </c>
@@ -19806,7 +19806,7 @@
       </c>
       <c r="H3" s="142"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="43" t="s">
         <v>87</v>
       </c>
@@ -19830,7 +19830,7 @@
       </c>
       <c r="H4" s="142"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="36"/>
       <c r="C5" s="35" t="s">
         <v>268</v>
@@ -19849,7 +19849,7 @@
       </c>
       <c r="H5" s="98"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
@@ -19873,7 +19873,7 @@
       </c>
       <c r="H6" s="98"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="36"/>
       <c r="C7" s="35" t="s">
         <v>268</v>
@@ -19907,24 +19907,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
         <v>204</v>
       </c>
@@ -19945,7 +19945,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" style="35" customWidth="1"/>
@@ -19954,7 +19954,7 @@
     <col min="6" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -19971,7 +19971,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.8">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -19989,7 +19989,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.8">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -20007,7 +20007,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.8">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -20025,7 +20025,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.8">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -20043,7 +20043,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.8">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -20061,7 +20061,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.8">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -20079,7 +20079,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.8">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -20097,7 +20097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.8">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -20115,7 +20115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.8">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -20133,7 +20133,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
@@ -20154,14 +20154,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2020) attributable to cause</v>
@@ -20172,7 +20172,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -20187,55 +20187,55 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="76"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="76"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="76"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="76"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="76"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="76"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="B9" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="76"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="B10" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="76"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="B11" s="32" t="s">
         <v>129</v>
       </c>
@@ -20246,7 +20246,7 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="B12" s="32"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
@@ -20255,7 +20255,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
@@ -20276,7 +20276,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="B14" s="24" t="s">
         <v>71</v>
       </c>
@@ -20285,7 +20285,7 @@
       <c r="E14" s="76"/>
       <c r="F14" s="76"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
@@ -20294,7 +20294,7 @@
       <c r="E15" s="76"/>
       <c r="F15" s="76"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
@@ -20303,7 +20303,7 @@
       <c r="E16" s="76"/>
       <c r="F16" s="76"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
@@ -20312,7 +20312,7 @@
       <c r="E17" s="76"/>
       <c r="F17" s="76"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
@@ -20321,7 +20321,7 @@
       <c r="E18" s="76"/>
       <c r="F18" s="76"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
@@ -20330,7 +20330,7 @@
       <c r="E19" s="76"/>
       <c r="F19" s="76"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
@@ -20339,7 +20339,7 @@
       <c r="E20" s="76"/>
       <c r="F20" s="76"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
@@ -20348,7 +20348,7 @@
       <c r="E21" s="76"/>
       <c r="F21" s="76"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
@@ -20357,7 +20357,7 @@
       <c r="E22" s="76"/>
       <c r="F22" s="76"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="B23" s="32" t="s">
         <v>129</v>
       </c>
@@ -20380,7 +20380,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="B24" s="32"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -20389,7 +20389,7 @@
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -20405,61 +20405,61 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="B26" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="76"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="76"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="B28" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="76"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="76"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="B30" s="24" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="76"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
       <c r="C31" s="76"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="B32" s="24" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="76"/>
     </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1">
       <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="76"/>
     </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1">
       <c r="B34" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="76"/>
     </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1">
       <c r="B35" s="32" t="s">
         <v>129</v>
       </c>
@@ -20487,13 +20487,13 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="36" customHeight="1">
       <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2020)</v>
@@ -20517,7 +20517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
@@ -20545,7 +20545,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>118</v>
@@ -20571,7 +20571,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="11" t="s">
         <v>116</v>
@@ -20582,7 +20582,7 @@
       <c r="F4" s="78"/>
       <c r="G4" s="78"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="11" t="s">
         <v>119</v>
@@ -20593,7 +20593,7 @@
       <c r="F5" s="78"/>
       <c r="G5" s="78"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1">
       <c r="B6" s="14"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -20601,7 +20601,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="B7" s="14"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -20609,7 +20609,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
@@ -20637,7 +20637,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
@@ -20662,7 +20662,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
@@ -20672,7 +20672,7 @@
       <c r="F10" s="78"/>
       <c r="G10" s="78"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
@@ -20682,7 +20682,7 @@
       <c r="F11" s="78"/>
       <c r="G11" s="78"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -20696,7 +20696,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>70</v>
       </c>
@@ -20740,7 +20740,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1">
       <c r="B14" s="16" t="s">
         <v>131</v>
       </c>
@@ -20758,7 +20758,7 @@
       <c r="N14" s="80"/>
       <c r="O14" s="80"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
@@ -20815,14 +20815,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -20848,13 +20848,13 @@
       <selection activeCell="C2" sqref="C2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="28.77734375" customWidth="1"/>
     <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1">
       <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2020)</v>
@@ -20878,7 +20878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -20891,7 +20891,7 @@
       <c r="F2" s="78"/>
       <c r="G2" s="78"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="43" t="s">
         <v>167</v>
       </c>
@@ -20901,7 +20901,7 @@
       <c r="F3" s="78"/>
       <c r="G3" s="78"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="B4" s="43" t="s">
         <v>168</v>
       </c>
@@ -20911,7 +20911,7 @@
       <c r="F4" s="78"/>
       <c r="G4" s="78"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="B5" s="43" t="s">
         <v>169</v>
       </c>
@@ -20953,13 +20953,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -20994,7 +20994,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -21014,10 +21014,10 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="B3" s="14"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -21037,10 +21037,10 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="B5" s="14"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -21060,7 +21060,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
@@ -21077,7 +21077,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
@@ -21094,7 +21094,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -21114,7 +21114,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
@@ -21131,7 +21131,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -21151,7 +21151,7 @@
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
@@ -21185,7 +21185,7 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="17" style="35" customWidth="1"/>
     <col min="2" max="2" width="19.109375" style="35" customWidth="1"/>
@@ -21193,7 +21193,7 @@
     <col min="4" max="16384" width="11.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="51" t="s">
         <v>180</v>
       </c>
@@ -21210,7 +21210,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="49" t="s">
         <v>175</v>
       </c>
@@ -21224,7 +21224,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="47"/>
       <c r="B3" s="46" t="s">
         <v>1</v>
@@ -21238,7 +21238,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="47"/>
       <c r="B4" s="46" t="s">
         <v>2</v>
@@ -21252,7 +21252,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="47"/>
       <c r="B5" s="46" t="s">
         <v>3</v>
@@ -21266,7 +21266,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="47"/>
       <c r="B6" s="46" t="s">
         <v>4</v>
@@ -21280,7 +21280,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="47"/>
       <c r="B7" s="46" t="s">
         <v>172</v>
@@ -21289,7 +21289,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="81"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="51" t="s">
         <v>174</v>
       </c>
@@ -21300,7 +21300,7 @@
       <c r="D9" s="81"/>
       <c r="E9" s="59"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="47"/>
       <c r="B10" s="46" t="s">
         <v>1</v>
@@ -21311,7 +21311,7 @@
       </c>
       <c r="E10" s="58"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="47"/>
       <c r="B11" s="46" t="s">
         <v>2</v>
@@ -21322,7 +21322,7 @@
       </c>
       <c r="E11" s="58"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="47"/>
       <c r="B12" s="46" t="s">
         <v>3</v>
@@ -21333,7 +21333,7 @@
       </c>
       <c r="E12" s="58"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="47"/>
       <c r="B13" s="46" t="s">
         <v>4</v>
@@ -21344,7 +21344,7 @@
       </c>
       <c r="E13" s="58"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="47"/>
       <c r="B14" s="46" t="s">
         <v>172</v>
@@ -21353,7 +21353,7 @@
       <c r="D14" s="44"/>
       <c r="E14" s="81"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="49" t="s">
         <v>173</v>
       </c>
@@ -21367,7 +21367,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="47"/>
       <c r="B17" s="46" t="s">
         <v>1</v>
@@ -21379,7 +21379,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="47"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
@@ -21391,7 +21391,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="47"/>
       <c r="B19" s="46" t="s">
         <v>3</v>
@@ -21403,7 +21403,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="47"/>
       <c r="B20" s="46" t="s">
         <v>4</v>
@@ -21415,7 +21415,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="47"/>
       <c r="B21" s="46" t="s">
         <v>172</v>
@@ -21444,7 +21444,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
@@ -21452,7 +21452,7 @@
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="62" t="s">
         <v>164</v>
       </c>
@@ -21466,7 +21466,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="63" t="s">
         <v>67</v>
       </c>
@@ -21480,7 +21480,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="63" t="s">
         <v>185</v>
       </c>
@@ -21511,7 +21511,7 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="56" style="53" customWidth="1"/>
     <col min="2" max="2" width="20" style="36" customWidth="1"/>
@@ -21521,7 +21521,7 @@
     <col min="6" max="16384" width="14.44140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="26.4">
       <c r="A1" s="55" t="s">
         <v>69</v>
       </c>
@@ -21539,7 +21539,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
@@ -21556,7 +21556,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
@@ -21573,7 +21573,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
@@ -21590,7 +21590,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
@@ -21607,7 +21607,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="53" t="s">
         <v>197</v>
       </c>
@@ -21624,7 +21624,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
@@ -21641,7 +21641,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
@@ -21658,7 +21658,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
@@ -21675,7 +21675,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="61" t="s">
         <v>190</v>
       </c>
@@ -21692,7 +21692,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="61" t="s">
         <v>207</v>
       </c>
@@ -21709,7 +21709,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="61" t="s">
         <v>191</v>
       </c>
@@ -21726,7 +21726,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="61" t="s">
         <v>192</v>
       </c>
@@ -21743,7 +21743,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>189</v>
       </c>
@@ -21760,7 +21760,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>206</v>
       </c>
@@ -21777,7 +21777,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
@@ -21794,7 +21794,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
@@ -21811,7 +21811,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
@@ -21828,7 +21828,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
@@ -21845,7 +21845,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
@@ -21862,7 +21862,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="53" t="s">
         <v>196</v>
       </c>
@@ -21879,7 +21879,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
@@ -21896,7 +21896,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
@@ -21913,7 +21913,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
@@ -21930,7 +21930,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
@@ -21947,7 +21947,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
@@ -21964,7 +21964,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
@@ -21981,7 +21981,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
@@ -21998,7 +21998,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
@@ -22015,7 +22015,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
@@ -22032,7 +22032,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="53" t="s">
         <v>185</v>
       </c>
@@ -22049,7 +22049,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="53" t="s">
         <v>28</v>
       </c>
@@ -22066,7 +22066,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="53" t="s">
         <v>83</v>
       </c>
@@ -22083,7 +22083,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="53" t="s">
         <v>82</v>
       </c>
@@ -22100,7 +22100,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="53" t="s">
         <v>81</v>
       </c>
@@ -22117,7 +22117,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="53" t="s">
         <v>79</v>
       </c>
@@ -22134,7 +22134,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1">
       <c r="A37" s="53" t="s">
         <v>80</v>
       </c>
@@ -22152,7 +22152,7 @@
       </c>
       <c r="F37" s="35"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="53" t="s">
         <v>85</v>
       </c>
@@ -22169,7 +22169,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="53" t="s">
         <v>60</v>
       </c>
@@ -22186,7 +22186,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="F40" s="36"/>
     </row>
   </sheetData>
